--- a/Resultados_Simulacro_ICFES.xlsx
+++ b/Resultados_Simulacro_ICFES.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Planeacion\Proyectos_Python\Streamlit\st_resultados_simulacros_icfes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60F6DCC-D2F2-4AA6-A7E2-A0CFBEBCC75D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997CF212-BB49-440A-816D-302BF72AEAC1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E084411A-0BE6-4F73-A93C-EC29D2242342}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$393</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="212">
   <si>
     <t>Grupo</t>
   </si>
@@ -51,9 +54,6 @@
     <t>Inglés</t>
   </si>
   <si>
-    <t>110100</t>
-  </si>
-  <si>
     <t>BAENA CHALARCA JERONIMO</t>
   </si>
   <si>
@@ -129,9 +129,6 @@
     <t>ZAMBRANO ALVARADO FRANCO MANUEL</t>
   </si>
   <si>
-    <t>110200</t>
-  </si>
-  <si>
     <t>ALZATE RESTREPO YESENIA</t>
   </si>
   <si>
@@ -252,9 +249,6 @@
     <t>UPEGUI RAMIREZ JUANITA</t>
   </si>
   <si>
-    <t>110300</t>
-  </si>
-  <si>
     <t>ACEVEDO LOPEZ ISABELLA</t>
   </si>
   <si>
@@ -372,9 +366,6 @@
     <t>ZAPATA MOLINA SARA ISABEL</t>
   </si>
   <si>
-    <t>110400</t>
-  </si>
-  <si>
     <t>ALVAREZ ARIAS JUAN ESTEBAN</t>
   </si>
   <si>
@@ -507,9 +498,6 @@
     <t>ZAPATA GIRALDO JUAN PABLO</t>
   </si>
   <si>
-    <t>110500</t>
-  </si>
-  <si>
     <t>ARAUJO CAMACARO JORGE ALEJANDRO</t>
   </si>
   <si>
@@ -577,9 +565,6 @@
   </si>
   <si>
     <t>YU LUO WENJIN</t>
-  </si>
-  <si>
-    <t>110600</t>
   </si>
   <si>
     <t>ALVAREZ QUINTERO MARIA ISABEL</t>
@@ -1067,14 +1052,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122C58AF-DAD1-4F23-B77B-FF91B1E85975}">
   <dimension ref="A1:J393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="E208" sqref="E208"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="B386" sqref="B386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="49.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.75" customWidth="1"/>
   </cols>
@@ -1105,18 +1090,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="5">
+        <v>1101</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>162</v>
@@ -1140,15 +1125,15 @@
         <v>2024</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
+      <c r="A3" s="5">
+        <v>1101</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>262</v>
@@ -1172,15 +1157,15 @@
         <v>2024</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
+      <c r="A4" s="5">
+        <v>1101</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>230</v>
@@ -1204,15 +1189,15 @@
         <v>2024</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
+      <c r="A5" s="5">
+        <v>1101</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>180</v>
@@ -1236,15 +1221,15 @@
         <v>2024</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
+      <c r="A6" s="5">
+        <v>1101</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
         <v>188</v>
@@ -1268,15 +1253,15 @@
         <v>2024</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
+      <c r="A7" s="5">
+        <v>1101</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1">
         <v>178</v>
@@ -1300,15 +1285,15 @@
         <v>2024</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
+      <c r="A8" s="5">
+        <v>1101</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
         <v>199</v>
@@ -1332,15 +1317,15 @@
         <v>2024</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
+      <c r="A9" s="5">
+        <v>1101</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C9" s="1">
         <v>228</v>
@@ -1364,15 +1349,15 @@
         <v>2024</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
+      <c r="A10" s="5">
+        <v>1101</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C10" s="1">
         <v>194</v>
@@ -1396,15 +1381,15 @@
         <v>2024</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="5" t="s">
-        <v>8</v>
+      <c r="A11" s="5">
+        <v>1101</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1">
         <v>215</v>
@@ -1428,15 +1413,15 @@
         <v>2024</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="5" t="s">
-        <v>8</v>
+      <c r="A12" s="5">
+        <v>1101</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1">
         <v>170</v>
@@ -1460,15 +1445,15 @@
         <v>2024</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="5" t="s">
-        <v>8</v>
+      <c r="A13" s="5">
+        <v>1101</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1">
         <v>342</v>
@@ -1492,15 +1477,15 @@
         <v>2024</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="5" t="s">
-        <v>8</v>
+      <c r="A14" s="5">
+        <v>1101</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1">
         <v>154</v>
@@ -1524,15 +1509,15 @@
         <v>2024</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
+      <c r="A15" s="5">
+        <v>1101</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1">
         <v>235</v>
@@ -1556,15 +1541,15 @@
         <v>2024</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="5" t="s">
-        <v>8</v>
+      <c r="A16" s="5">
+        <v>1101</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1">
         <v>211</v>
@@ -1588,15 +1573,15 @@
         <v>2024</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="5" t="s">
-        <v>8</v>
+      <c r="A17" s="5">
+        <v>1101</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1">
         <v>192</v>
@@ -1620,15 +1605,15 @@
         <v>2024</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="5" t="s">
-        <v>8</v>
+      <c r="A18" s="5">
+        <v>1101</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1">
         <v>162</v>
@@ -1652,15 +1637,15 @@
         <v>2024</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="5" t="s">
-        <v>8</v>
+      <c r="A19" s="5">
+        <v>1101</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1">
         <v>278</v>
@@ -1684,15 +1669,15 @@
         <v>2024</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="5" t="s">
-        <v>8</v>
+      <c r="A20" s="5">
+        <v>1101</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1">
         <v>197</v>
@@ -1716,15 +1701,15 @@
         <v>2024</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="5" t="s">
-        <v>8</v>
+      <c r="A21" s="5">
+        <v>1101</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="1">
         <v>290</v>
@@ -1748,15 +1733,15 @@
         <v>2024</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="5" t="s">
-        <v>8</v>
+      <c r="A22" s="5">
+        <v>1101</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1">
         <v>253</v>
@@ -1780,15 +1765,15 @@
         <v>2024</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="5" t="s">
-        <v>8</v>
+      <c r="A23" s="5">
+        <v>1101</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1">
         <v>168</v>
@@ -1812,15 +1797,15 @@
         <v>2024</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="5" t="s">
-        <v>8</v>
+      <c r="A24" s="5">
+        <v>1101</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1">
         <v>154</v>
@@ -1844,15 +1829,15 @@
         <v>2024</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="5" t="s">
-        <v>8</v>
+      <c r="A25" s="5">
+        <v>1101</v>
       </c>
       <c r="B25" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C25" s="1">
         <v>249</v>
@@ -1876,15 +1861,15 @@
         <v>2024</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="5" t="s">
-        <v>8</v>
+      <c r="A26" s="5">
+        <v>1101</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1">
         <v>183</v>
@@ -1908,15 +1893,15 @@
         <v>2024</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="5" t="s">
-        <v>8</v>
+      <c r="A27" s="5">
+        <v>1101</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1">
         <v>156</v>
@@ -1940,15 +1925,15 @@
         <v>2024</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="5" t="s">
-        <v>8</v>
+      <c r="A28" s="5">
+        <v>1101</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1">
         <v>187</v>
@@ -1972,15 +1957,15 @@
         <v>2024</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="5" t="s">
-        <v>8</v>
+      <c r="A29" s="5">
+        <v>1101</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1">
         <v>200</v>
@@ -2004,15 +1989,15 @@
         <v>2024</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="5" t="s">
-        <v>34</v>
+      <c r="A30" s="5">
+        <v>1102</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1">
         <v>187</v>
@@ -2036,15 +2021,15 @@
         <v>2024</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="5">
+        <v>1102</v>
+      </c>
+      <c r="B31" t="s">
         <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>36</v>
       </c>
       <c r="C31" s="1">
         <v>176</v>
@@ -2068,15 +2053,15 @@
         <v>2024</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="5" t="s">
-        <v>34</v>
+      <c r="A32" s="5">
+        <v>1102</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1">
         <v>215</v>
@@ -2100,15 +2085,15 @@
         <v>2024</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="5" t="s">
-        <v>34</v>
+      <c r="A33" s="5">
+        <v>1102</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33" s="1">
         <v>192</v>
@@ -2132,15 +2117,15 @@
         <v>2024</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="5" t="s">
-        <v>34</v>
+      <c r="A34" s="5">
+        <v>1102</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1">
         <v>152</v>
@@ -2164,15 +2149,15 @@
         <v>2024</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="5" t="s">
-        <v>34</v>
+      <c r="A35" s="5">
+        <v>1102</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1">
         <v>232</v>
@@ -2196,15 +2181,15 @@
         <v>2024</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="5" t="s">
-        <v>34</v>
+      <c r="A36" s="5">
+        <v>1102</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C36" s="1">
         <v>146</v>
@@ -2228,15 +2213,15 @@
         <v>2024</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="5" t="s">
-        <v>34</v>
+      <c r="A37" s="5">
+        <v>1102</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1">
         <v>377</v>
@@ -2260,15 +2245,15 @@
         <v>2024</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="5" t="s">
-        <v>34</v>
+      <c r="A38" s="5">
+        <v>1102</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1">
         <v>180</v>
@@ -2292,15 +2277,15 @@
         <v>2024</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="5" t="s">
-        <v>34</v>
+      <c r="A39" s="5">
+        <v>1102</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C39" s="1">
         <v>217</v>
@@ -2324,15 +2309,15 @@
         <v>2024</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="5" t="s">
-        <v>34</v>
+      <c r="A40" s="5">
+        <v>1102</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C40" s="1">
         <v>209</v>
@@ -2356,15 +2341,15 @@
         <v>2024</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="5" t="s">
-        <v>34</v>
+      <c r="A41" s="5">
+        <v>1102</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C41" s="1">
         <v>171</v>
@@ -2388,15 +2373,15 @@
         <v>2024</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="5" t="s">
-        <v>34</v>
+      <c r="A42" s="5">
+        <v>1102</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C42" s="1">
         <v>178</v>
@@ -2420,15 +2405,15 @@
         <v>2024</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="5" t="s">
-        <v>34</v>
+      <c r="A43" s="5">
+        <v>1102</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C43" s="1">
         <v>227</v>
@@ -2452,15 +2437,15 @@
         <v>2024</v>
       </c>
       <c r="J43" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="5" t="s">
-        <v>34</v>
+      <c r="A44" s="5">
+        <v>1102</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C44" s="1">
         <v>251</v>
@@ -2484,15 +2469,15 @@
         <v>2024</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="5" t="s">
-        <v>34</v>
+      <c r="A45" s="5">
+        <v>1102</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C45" s="1">
         <v>239</v>
@@ -2516,15 +2501,15 @@
         <v>2024</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="5" t="s">
-        <v>34</v>
+      <c r="A46" s="5">
+        <v>1102</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C46" s="1">
         <v>209</v>
@@ -2548,15 +2533,15 @@
         <v>2024</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="5" t="s">
-        <v>34</v>
+      <c r="A47" s="5">
+        <v>1102</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C47" s="1">
         <v>166</v>
@@ -2580,15 +2565,15 @@
         <v>2024</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="5" t="s">
-        <v>34</v>
+      <c r="A48" s="5">
+        <v>1102</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C48" s="1">
         <v>360</v>
@@ -2612,15 +2597,15 @@
         <v>2024</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="5" t="s">
-        <v>34</v>
+      <c r="A49" s="5">
+        <v>1102</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C49" s="1">
         <v>217</v>
@@ -2644,15 +2629,15 @@
         <v>2024</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="5" t="s">
-        <v>34</v>
+      <c r="A50" s="5">
+        <v>1102</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C50" s="1">
         <v>177</v>
@@ -2676,15 +2661,15 @@
         <v>2024</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="5" t="s">
-        <v>34</v>
+      <c r="A51" s="5">
+        <v>1102</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C51" s="1">
         <v>223</v>
@@ -2708,15 +2693,15 @@
         <v>2024</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="5" t="s">
-        <v>34</v>
+      <c r="A52" s="5">
+        <v>1102</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C52" s="1">
         <v>338</v>
@@ -2740,15 +2725,15 @@
         <v>2024</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="5" t="s">
-        <v>34</v>
+      <c r="A53" s="5">
+        <v>1102</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C53" s="1">
         <v>176</v>
@@ -2772,15 +2757,15 @@
         <v>2024</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="5" t="s">
-        <v>34</v>
+      <c r="A54" s="5">
+        <v>1102</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="1">
         <v>176</v>
@@ -2804,15 +2789,15 @@
         <v>2024</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="5" t="s">
-        <v>34</v>
+      <c r="A55" s="5">
+        <v>1102</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C55" s="1">
         <v>233</v>
@@ -2836,15 +2821,15 @@
         <v>2024</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="5" t="s">
-        <v>34</v>
+      <c r="A56" s="5">
+        <v>1102</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="1">
         <v>316</v>
@@ -2868,15 +2853,15 @@
         <v>2024</v>
       </c>
       <c r="J56" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="5" t="s">
-        <v>34</v>
+      <c r="A57" s="5">
+        <v>1102</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C57" s="1">
         <v>197</v>
@@ -2900,15 +2885,15 @@
         <v>2024</v>
       </c>
       <c r="J57" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="5" t="s">
-        <v>34</v>
+      <c r="A58" s="5">
+        <v>1102</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C58" s="1">
         <v>198</v>
@@ -2932,15 +2917,15 @@
         <v>2024</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="5" t="s">
-        <v>34</v>
+      <c r="A59" s="5">
+        <v>1102</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C59" s="1">
         <v>205</v>
@@ -2964,15 +2949,15 @@
         <v>2024</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="5" t="s">
-        <v>34</v>
+      <c r="A60" s="5">
+        <v>1102</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C60" s="1">
         <v>284</v>
@@ -2996,15 +2981,15 @@
         <v>2024</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="5" t="s">
-        <v>34</v>
+      <c r="A61" s="5">
+        <v>1102</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C61" s="1">
         <v>263</v>
@@ -3028,15 +3013,15 @@
         <v>2024</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="5" t="s">
-        <v>34</v>
+      <c r="A62" s="5">
+        <v>1102</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C62" s="1">
         <v>236</v>
@@ -3060,15 +3045,15 @@
         <v>2024</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="5" t="s">
-        <v>34</v>
+      <c r="A63" s="5">
+        <v>1102</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C63" s="1">
         <v>220</v>
@@ -3092,15 +3077,15 @@
         <v>2024</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="5" t="s">
-        <v>34</v>
+      <c r="A64" s="5">
+        <v>1102</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C64" s="1">
         <v>213</v>
@@ -3124,15 +3109,15 @@
         <v>2024</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="5" t="s">
-        <v>34</v>
+      <c r="A65" s="5">
+        <v>1102</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C65" s="1">
         <v>331</v>
@@ -3156,15 +3141,15 @@
         <v>2024</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="5" t="s">
-        <v>34</v>
+      <c r="A66" s="5">
+        <v>1102</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C66" s="1">
         <v>182</v>
@@ -3188,15 +3173,15 @@
         <v>2024</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="5" t="s">
-        <v>34</v>
+      <c r="A67" s="5">
+        <v>1102</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C67" s="1">
         <v>177</v>
@@ -3220,15 +3205,15 @@
         <v>2024</v>
       </c>
       <c r="J67" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="5" t="s">
-        <v>34</v>
+      <c r="A68" s="5">
+        <v>1102</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C68" s="1">
         <v>253</v>
@@ -3252,15 +3237,15 @@
         <v>2024</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="5" t="s">
-        <v>34</v>
+      <c r="A69" s="5">
+        <v>1102</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C69" s="1">
         <v>217</v>
@@ -3284,15 +3269,15 @@
         <v>2024</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="5" t="s">
-        <v>75</v>
+      <c r="A70" s="5">
+        <v>1103</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C70" s="1">
         <v>264</v>
@@ -3316,15 +3301,15 @@
         <v>2024</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="5" t="s">
-        <v>75</v>
+      <c r="A71" s="5">
+        <v>1103</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C71" s="1">
         <v>238</v>
@@ -3348,15 +3333,15 @@
         <v>2024</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="5" t="s">
-        <v>75</v>
+      <c r="A72" s="5">
+        <v>1103</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C72" s="1">
         <v>222</v>
@@ -3380,15 +3365,15 @@
         <v>2024</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73" spans="1:10">
-      <c r="A73" s="5" t="s">
-        <v>75</v>
+      <c r="A73" s="5">
+        <v>1103</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C73" s="1">
         <v>287</v>
@@ -3412,15 +3397,15 @@
         <v>2024</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:10">
-      <c r="A74" s="5" t="s">
-        <v>75</v>
+      <c r="A74" s="5">
+        <v>1103</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C74" s="1">
         <v>234</v>
@@ -3444,15 +3429,15 @@
         <v>2024</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" spans="1:10">
-      <c r="A75" s="5" t="s">
-        <v>75</v>
+      <c r="A75" s="5">
+        <v>1103</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C75" s="1">
         <v>296</v>
@@ -3476,15 +3461,15 @@
         <v>2024</v>
       </c>
       <c r="J75" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="1:10">
-      <c r="A76" s="5" t="s">
-        <v>75</v>
+      <c r="A76" s="5">
+        <v>1103</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C76" s="1">
         <v>217</v>
@@ -3508,15 +3493,15 @@
         <v>2024</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="77" spans="1:10">
-      <c r="A77" s="5" t="s">
-        <v>75</v>
+      <c r="A77" s="5">
+        <v>1103</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C77" s="1">
         <v>168</v>
@@ -3540,15 +3525,15 @@
         <v>2024</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="78" spans="1:10">
-      <c r="A78" s="5" t="s">
-        <v>75</v>
+      <c r="A78" s="5">
+        <v>1103</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C78" s="1">
         <v>286</v>
@@ -3572,15 +3557,15 @@
         <v>2024</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="79" spans="1:10">
-      <c r="A79" s="5" t="s">
-        <v>75</v>
+      <c r="A79" s="5">
+        <v>1103</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C79" s="1">
         <v>212</v>
@@ -3604,15 +3589,15 @@
         <v>2024</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" spans="1:10">
-      <c r="A80" s="5" t="s">
-        <v>75</v>
+      <c r="A80" s="5">
+        <v>1103</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C80" s="1">
         <v>232</v>
@@ -3636,15 +3621,15 @@
         <v>2024</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="5" t="s">
-        <v>75</v>
+      <c r="A81" s="5">
+        <v>1103</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C81" s="1">
         <v>218</v>
@@ -3668,15 +3653,15 @@
         <v>2024</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:10">
-      <c r="A82" s="5" t="s">
-        <v>75</v>
+      <c r="A82" s="5">
+        <v>1103</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C82" s="1">
         <v>253</v>
@@ -3700,15 +3685,15 @@
         <v>2024</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="5" t="s">
-        <v>75</v>
+      <c r="A83" s="5">
+        <v>1103</v>
       </c>
       <c r="B83" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C83" s="1">
         <v>220</v>
@@ -3732,15 +3717,15 @@
         <v>2024</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:10">
-      <c r="A84" s="5" t="s">
-        <v>75</v>
+      <c r="A84" s="5">
+        <v>1103</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C84" s="1">
         <v>228</v>
@@ -3764,15 +3749,15 @@
         <v>2024</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="5" t="s">
-        <v>75</v>
+      <c r="A85" s="5">
+        <v>1103</v>
       </c>
       <c r="B85" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C85" s="1">
         <v>251</v>
@@ -3796,15 +3781,15 @@
         <v>2024</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86" spans="1:10">
-      <c r="A86" s="5" t="s">
-        <v>75</v>
+      <c r="A86" s="5">
+        <v>1103</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C86" s="1">
         <v>166</v>
@@ -3828,15 +3813,15 @@
         <v>2024</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="5" t="s">
-        <v>75</v>
+      <c r="A87" s="5">
+        <v>1103</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C87" s="1">
         <v>206</v>
@@ -3860,15 +3845,15 @@
         <v>2024</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="5" t="s">
-        <v>75</v>
+      <c r="A88" s="5">
+        <v>1103</v>
       </c>
       <c r="B88" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1">
         <v>197</v>
@@ -3892,15 +3877,15 @@
         <v>2024</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:10">
-      <c r="A89" s="5" t="s">
-        <v>75</v>
+      <c r="A89" s="5">
+        <v>1103</v>
       </c>
       <c r="B89" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C89" s="1">
         <v>207</v>
@@ -3924,15 +3909,15 @@
         <v>2024</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:10">
-      <c r="A90" s="5" t="s">
-        <v>75</v>
+      <c r="A90" s="5">
+        <v>1103</v>
       </c>
       <c r="B90" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C90" s="1">
         <v>298</v>
@@ -3956,15 +3941,15 @@
         <v>2024</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="91" spans="1:10">
-      <c r="A91" s="5" t="s">
-        <v>75</v>
+      <c r="A91" s="5">
+        <v>1103</v>
       </c>
       <c r="B91" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C91" s="1">
         <v>214</v>
@@ -3988,15 +3973,15 @@
         <v>2024</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="5" t="s">
-        <v>75</v>
+      <c r="A92" s="5">
+        <v>1103</v>
       </c>
       <c r="B92" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C92" s="1">
         <v>242</v>
@@ -4020,15 +4005,15 @@
         <v>2024</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="93" spans="1:10">
-      <c r="A93" s="5" t="s">
-        <v>75</v>
+      <c r="A93" s="5">
+        <v>1103</v>
       </c>
       <c r="B93" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C93" s="1">
         <v>268</v>
@@ -4052,15 +4037,15 @@
         <v>2024</v>
       </c>
       <c r="J93" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:10">
-      <c r="A94" s="5" t="s">
-        <v>75</v>
+      <c r="A94" s="5">
+        <v>1103</v>
       </c>
       <c r="B94" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C94" s="1">
         <v>219</v>
@@ -4084,15 +4069,15 @@
         <v>2024</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="5" t="s">
-        <v>75</v>
+      <c r="A95" s="5">
+        <v>1103</v>
       </c>
       <c r="B95" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C95" s="1">
         <v>277</v>
@@ -4116,15 +4101,15 @@
         <v>2024</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="5" t="s">
-        <v>75</v>
+      <c r="A96" s="5">
+        <v>1103</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C96" s="1">
         <v>156</v>
@@ -4148,15 +4133,15 @@
         <v>2024</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97" spans="1:10">
-      <c r="A97" s="5" t="s">
-        <v>75</v>
+      <c r="A97" s="5">
+        <v>1103</v>
       </c>
       <c r="B97" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C97" s="1">
         <v>210</v>
@@ -4180,15 +4165,15 @@
         <v>2024</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="5" t="s">
-        <v>75</v>
+      <c r="A98" s="5">
+        <v>1103</v>
       </c>
       <c r="B98" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C98" s="1">
         <v>265</v>
@@ -4212,15 +4197,15 @@
         <v>2024</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="5" t="s">
-        <v>75</v>
+      <c r="A99" s="5">
+        <v>1103</v>
       </c>
       <c r="B99" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C99" s="1">
         <v>173</v>
@@ -4244,15 +4229,15 @@
         <v>2024</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="1:10">
-      <c r="A100" s="5" t="s">
-        <v>75</v>
+      <c r="A100" s="5">
+        <v>1103</v>
       </c>
       <c r="B100" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C100" s="1">
         <v>230</v>
@@ -4276,15 +4261,15 @@
         <v>2024</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="101" spans="1:10">
-      <c r="A101" s="5" t="s">
-        <v>75</v>
+      <c r="A101" s="5">
+        <v>1103</v>
       </c>
       <c r="B101" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C101" s="1">
         <v>306</v>
@@ -4308,15 +4293,15 @@
         <v>2024</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="102" spans="1:10">
-      <c r="A102" s="5" t="s">
-        <v>75</v>
+      <c r="A102" s="5">
+        <v>1103</v>
       </c>
       <c r="B102" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C102" s="1">
         <v>292</v>
@@ -4340,15 +4325,15 @@
         <v>2024</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103" spans="1:10">
-      <c r="A103" s="5" t="s">
-        <v>75</v>
+      <c r="A103" s="5">
+        <v>1103</v>
       </c>
       <c r="B103" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C103" s="1">
         <v>284</v>
@@ -4372,15 +4357,15 @@
         <v>2024</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="1:10">
-      <c r="A104" s="5" t="s">
-        <v>75</v>
+      <c r="A104" s="5">
+        <v>1103</v>
       </c>
       <c r="B104" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C104" s="1">
         <v>227</v>
@@ -4404,15 +4389,15 @@
         <v>2024</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="105" spans="1:10">
-      <c r="A105" s="5" t="s">
-        <v>75</v>
+      <c r="A105" s="5">
+        <v>1103</v>
       </c>
       <c r="B105" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C105" s="1">
         <v>231</v>
@@ -4436,15 +4421,15 @@
         <v>2024</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:10">
-      <c r="A106" s="5" t="s">
-        <v>75</v>
+      <c r="A106" s="5">
+        <v>1103</v>
       </c>
       <c r="B106" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C106" s="1">
         <v>290</v>
@@ -4468,15 +4453,15 @@
         <v>2024</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:10">
-      <c r="A107" s="5" t="s">
-        <v>75</v>
+      <c r="A107" s="5">
+        <v>1103</v>
       </c>
       <c r="B107" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C107" s="1">
         <v>228</v>
@@ -4500,15 +4485,15 @@
         <v>2024</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="108" spans="1:10">
-      <c r="A108" s="5" t="s">
-        <v>75</v>
+      <c r="A108" s="5">
+        <v>1103</v>
       </c>
       <c r="B108" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C108" s="1">
         <v>211</v>
@@ -4532,15 +4517,15 @@
         <v>2024</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="109" spans="1:10">
-      <c r="A109" s="5" t="s">
-        <v>115</v>
+      <c r="A109" s="5">
+        <v>1104</v>
       </c>
       <c r="B109" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C109" s="1">
         <v>234</v>
@@ -4564,15 +4549,15 @@
         <v>2024</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:10">
-      <c r="A110" s="5" t="s">
-        <v>115</v>
+      <c r="A110" s="5">
+        <v>1104</v>
       </c>
       <c r="B110" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C110" s="1">
         <v>137</v>
@@ -4596,15 +4581,15 @@
         <v>2024</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111" spans="1:10">
-      <c r="A111" s="5" t="s">
-        <v>115</v>
+      <c r="A111" s="5">
+        <v>1104</v>
       </c>
       <c r="B111" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C111" s="1">
         <v>163</v>
@@ -4628,15 +4613,15 @@
         <v>2024</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="112" spans="1:10">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="5">
+        <v>1104</v>
+      </c>
+      <c r="B112" t="s">
         <v>115</v>
-      </c>
-      <c r="B112" t="s">
-        <v>119</v>
       </c>
       <c r="C112" s="1">
         <v>225</v>
@@ -4660,15 +4645,15 @@
         <v>2024</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="113" spans="1:10">
-      <c r="A113" s="5" t="s">
-        <v>115</v>
+      <c r="A113" s="5">
+        <v>1104</v>
       </c>
       <c r="B113" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C113" s="1">
         <v>196</v>
@@ -4692,15 +4677,15 @@
         <v>2024</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="114" spans="1:10">
-      <c r="A114" s="5" t="s">
-        <v>115</v>
+      <c r="A114" s="5">
+        <v>1104</v>
       </c>
       <c r="B114" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C114" s="1">
         <v>164</v>
@@ -4724,15 +4709,15 @@
         <v>2024</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="115" spans="1:10">
-      <c r="A115" s="5" t="s">
-        <v>115</v>
+      <c r="A115" s="5">
+        <v>1104</v>
       </c>
       <c r="B115" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C115" s="1">
         <v>175</v>
@@ -4756,15 +4741,15 @@
         <v>2024</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="116" spans="1:10">
-      <c r="A116" s="5" t="s">
-        <v>115</v>
+      <c r="A116" s="5">
+        <v>1104</v>
       </c>
       <c r="B116" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C116" s="1">
         <v>342</v>
@@ -4788,15 +4773,15 @@
         <v>2024</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="117" spans="1:10">
-      <c r="A117" s="5" t="s">
-        <v>115</v>
+      <c r="A117" s="5">
+        <v>1104</v>
       </c>
       <c r="B117" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C117" s="1">
         <v>167</v>
@@ -4820,15 +4805,15 @@
         <v>2024</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="118" spans="1:10">
-      <c r="A118" s="5" t="s">
-        <v>115</v>
+      <c r="A118" s="5">
+        <v>1104</v>
       </c>
       <c r="B118" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C118" s="1">
         <v>262</v>
@@ -4852,15 +4837,15 @@
         <v>2024</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="119" spans="1:10">
-      <c r="A119" s="5" t="s">
-        <v>115</v>
+      <c r="A119" s="5">
+        <v>1104</v>
       </c>
       <c r="B119" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C119" s="1">
         <v>255</v>
@@ -4884,15 +4869,15 @@
         <v>2024</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="120" spans="1:10">
-      <c r="A120" s="5" t="s">
-        <v>115</v>
+      <c r="A120" s="5">
+        <v>1104</v>
       </c>
       <c r="B120" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C120" s="1">
         <v>215</v>
@@ -4916,15 +4901,15 @@
         <v>2024</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="121" spans="1:10">
-      <c r="A121" s="5" t="s">
-        <v>115</v>
+      <c r="A121" s="5">
+        <v>1104</v>
       </c>
       <c r="B121" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C121" s="1">
         <v>182</v>
@@ -4948,15 +4933,15 @@
         <v>2024</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" s="5" t="s">
-        <v>115</v>
+      <c r="A122" s="5">
+        <v>1104</v>
       </c>
       <c r="B122" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C122" s="1">
         <v>184</v>
@@ -4980,15 +4965,15 @@
         <v>2024</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="123" spans="1:10">
-      <c r="A123" s="5" t="s">
-        <v>115</v>
+      <c r="A123" s="5">
+        <v>1104</v>
       </c>
       <c r="B123" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C123" s="1">
         <v>231</v>
@@ -5012,15 +4997,15 @@
         <v>2024</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="124" spans="1:10">
-      <c r="A124" s="5" t="s">
-        <v>115</v>
+      <c r="A124" s="5">
+        <v>1104</v>
       </c>
       <c r="B124" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C124" s="1">
         <v>158</v>
@@ -5044,15 +5029,15 @@
         <v>2024</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="125" spans="1:10">
-      <c r="A125" s="5" t="s">
-        <v>115</v>
+      <c r="A125" s="5">
+        <v>1104</v>
       </c>
       <c r="B125" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C125" s="1">
         <v>222</v>
@@ -5076,15 +5061,15 @@
         <v>2024</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="126" spans="1:10">
-      <c r="A126" s="5" t="s">
-        <v>115</v>
+      <c r="A126" s="5">
+        <v>1104</v>
       </c>
       <c r="B126" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C126" s="1">
         <v>396</v>
@@ -5108,15 +5093,15 @@
         <v>2024</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="127" spans="1:10">
-      <c r="A127" s="5" t="s">
-        <v>115</v>
+      <c r="A127" s="5">
+        <v>1104</v>
       </c>
       <c r="B127" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C127" s="1">
         <v>193</v>
@@ -5140,15 +5125,15 @@
         <v>2024</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="128" spans="1:10">
-      <c r="A128" s="5" t="s">
-        <v>115</v>
+      <c r="A128" s="5">
+        <v>1104</v>
       </c>
       <c r="B128" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C128" s="1">
         <v>169</v>
@@ -5172,15 +5157,15 @@
         <v>2024</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="129" spans="1:10">
-      <c r="A129" s="5" t="s">
-        <v>115</v>
+      <c r="A129" s="5">
+        <v>1104</v>
       </c>
       <c r="B129" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C129" s="1">
         <v>182</v>
@@ -5204,15 +5189,15 @@
         <v>2024</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="130" spans="1:10">
-      <c r="A130" s="5" t="s">
-        <v>115</v>
+      <c r="A130" s="5">
+        <v>1104</v>
       </c>
       <c r="B130" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C130" s="1">
         <v>246</v>
@@ -5236,15 +5221,15 @@
         <v>2024</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="131" spans="1:10">
-      <c r="A131" s="5" t="s">
-        <v>115</v>
+      <c r="A131" s="5">
+        <v>1104</v>
       </c>
       <c r="B131" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C131" s="1">
         <v>300</v>
@@ -5268,15 +5253,15 @@
         <v>2024</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="132" spans="1:10">
-      <c r="A132" s="5" t="s">
-        <v>115</v>
+      <c r="A132" s="5">
+        <v>1104</v>
       </c>
       <c r="B132" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C132" s="1">
         <v>203</v>
@@ -5300,15 +5285,15 @@
         <v>2024</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="133" spans="1:10">
-      <c r="A133" s="5" t="s">
-        <v>115</v>
+      <c r="A133" s="5">
+        <v>1104</v>
       </c>
       <c r="B133" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C133" s="1">
         <v>228</v>
@@ -5332,15 +5317,15 @@
         <v>2024</v>
       </c>
       <c r="J133" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="134" spans="1:10">
-      <c r="A134" s="5" t="s">
-        <v>115</v>
+      <c r="A134" s="5">
+        <v>1104</v>
       </c>
       <c r="B134" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C134" s="1">
         <v>192</v>
@@ -5364,15 +5349,15 @@
         <v>2024</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="135" spans="1:10">
-      <c r="A135" s="5" t="s">
-        <v>115</v>
+      <c r="A135" s="5">
+        <v>1104</v>
       </c>
       <c r="B135" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C135" s="1">
         <v>285</v>
@@ -5396,15 +5381,15 @@
         <v>2024</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="136" spans="1:10">
-      <c r="A136" s="5" t="s">
-        <v>115</v>
+      <c r="A136" s="5">
+        <v>1104</v>
       </c>
       <c r="B136" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C136" s="1">
         <v>231</v>
@@ -5428,15 +5413,15 @@
         <v>2024</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="137" spans="1:10">
-      <c r="A137" s="5" t="s">
-        <v>115</v>
+      <c r="A137" s="5">
+        <v>1104</v>
       </c>
       <c r="B137" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C137" s="1">
         <v>177</v>
@@ -5460,15 +5445,15 @@
         <v>2024</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="138" spans="1:10">
-      <c r="A138" s="5" t="s">
-        <v>115</v>
+      <c r="A138" s="5">
+        <v>1104</v>
       </c>
       <c r="B138" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C138" s="1">
         <v>294</v>
@@ -5492,15 +5477,15 @@
         <v>2024</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="139" spans="1:10">
-      <c r="A139" s="5" t="s">
-        <v>115</v>
+      <c r="A139" s="5">
+        <v>1104</v>
       </c>
       <c r="B139" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C139" s="1">
         <v>315</v>
@@ -5524,15 +5509,15 @@
         <v>2024</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="140" spans="1:10">
-      <c r="A140" s="5" t="s">
-        <v>115</v>
+      <c r="A140" s="5">
+        <v>1104</v>
       </c>
       <c r="B140" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C140" s="1">
         <v>167</v>
@@ -5556,15 +5541,15 @@
         <v>2024</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="141" spans="1:10">
-      <c r="A141" s="5" t="s">
-        <v>115</v>
+      <c r="A141" s="5">
+        <v>1104</v>
       </c>
       <c r="B141" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C141" s="1">
         <v>243</v>
@@ -5588,15 +5573,15 @@
         <v>2024</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="142" spans="1:10">
-      <c r="A142" s="5" t="s">
-        <v>115</v>
+      <c r="A142" s="5">
+        <v>1104</v>
       </c>
       <c r="B142" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C142" s="1">
         <v>205</v>
@@ -5620,15 +5605,15 @@
         <v>2024</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="143" spans="1:10">
-      <c r="A143" s="5" t="s">
-        <v>115</v>
+      <c r="A143" s="5">
+        <v>1104</v>
       </c>
       <c r="B143" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C143" s="1">
         <v>166</v>
@@ -5652,15 +5637,15 @@
         <v>2024</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="144" spans="1:10">
-      <c r="A144" s="5" t="s">
-        <v>115</v>
+      <c r="A144" s="5">
+        <v>1104</v>
       </c>
       <c r="B144" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C144" s="1">
         <v>168</v>
@@ -5684,15 +5669,15 @@
         <v>2024</v>
       </c>
       <c r="J144" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="145" spans="1:10">
-      <c r="A145" s="5" t="s">
-        <v>115</v>
+      <c r="A145" s="5">
+        <v>1104</v>
       </c>
       <c r="B145" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C145" s="1">
         <v>233</v>
@@ -5716,15 +5701,15 @@
         <v>2024</v>
       </c>
       <c r="J145" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="146" spans="1:10">
-      <c r="A146" s="5" t="s">
-        <v>115</v>
+      <c r="A146" s="5">
+        <v>1104</v>
       </c>
       <c r="B146" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C146" s="1">
         <v>239</v>
@@ -5748,15 +5733,15 @@
         <v>2024</v>
       </c>
       <c r="J146" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="147" spans="1:10">
-      <c r="A147" s="5" t="s">
-        <v>115</v>
+      <c r="A147" s="5">
+        <v>1104</v>
       </c>
       <c r="B147" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C147" s="1">
         <v>255</v>
@@ -5780,15 +5765,15 @@
         <v>2024</v>
       </c>
       <c r="J147" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="148" spans="1:10">
-      <c r="A148" s="5" t="s">
-        <v>115</v>
+      <c r="A148" s="5">
+        <v>1104</v>
       </c>
       <c r="B148" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C148" s="1">
         <v>285</v>
@@ -5812,15 +5797,15 @@
         <v>2024</v>
       </c>
       <c r="J148" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="149" spans="1:10">
-      <c r="A149" s="5" t="s">
-        <v>115</v>
+      <c r="A149" s="5">
+        <v>1104</v>
       </c>
       <c r="B149" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C149" s="1">
         <v>190</v>
@@ -5844,15 +5829,15 @@
         <v>2024</v>
       </c>
       <c r="J149" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="150" spans="1:10">
-      <c r="A150" s="5" t="s">
-        <v>115</v>
+      <c r="A150" s="5">
+        <v>1104</v>
       </c>
       <c r="B150" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C150" s="1">
         <v>301</v>
@@ -5876,15 +5861,15 @@
         <v>2024</v>
       </c>
       <c r="J150" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="151" spans="1:10">
-      <c r="A151" s="5" t="s">
-        <v>115</v>
+      <c r="A151" s="5">
+        <v>1104</v>
       </c>
       <c r="B151" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C151" s="1">
         <v>372</v>
@@ -5908,15 +5893,15 @@
         <v>2024</v>
       </c>
       <c r="J151" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="152" spans="1:10">
-      <c r="A152" s="5" t="s">
-        <v>160</v>
+      <c r="A152" s="5">
+        <v>1105</v>
       </c>
       <c r="B152" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C152" s="1">
         <v>177</v>
@@ -5940,15 +5925,15 @@
         <v>2024</v>
       </c>
       <c r="J152" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="5">
-        <v>110500</v>
+        <v>1105</v>
       </c>
       <c r="B153" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C153" s="1">
         <v>182</v>
@@ -5972,15 +5957,15 @@
         <v>2024</v>
       </c>
       <c r="J153" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="154" spans="1:10">
-      <c r="A154" s="5" t="s">
-        <v>160</v>
+      <c r="A154" s="5">
+        <v>1105</v>
       </c>
       <c r="B154" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C154" s="1">
         <v>184</v>
@@ -6004,15 +5989,15 @@
         <v>2024</v>
       </c>
       <c r="J154" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="155" spans="1:10">
-      <c r="A155" s="5" t="s">
-        <v>160</v>
+      <c r="A155" s="5">
+        <v>1105</v>
       </c>
       <c r="B155" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C155" s="1">
         <v>247</v>
@@ -6036,15 +6021,15 @@
         <v>2024</v>
       </c>
       <c r="J155" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="156" spans="1:10">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="5">
+        <v>1105</v>
+      </c>
+      <c r="B156" t="s">
         <v>160</v>
-      </c>
-      <c r="B156" t="s">
-        <v>165</v>
       </c>
       <c r="C156" s="1">
         <v>197</v>
@@ -6068,15 +6053,15 @@
         <v>2024</v>
       </c>
       <c r="J156" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="157" spans="1:10">
-      <c r="A157" s="5" t="s">
-        <v>160</v>
+      <c r="A157" s="5">
+        <v>1105</v>
       </c>
       <c r="B157" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C157" s="1">
         <v>178</v>
@@ -6100,15 +6085,15 @@
         <v>2024</v>
       </c>
       <c r="J157" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="158" spans="1:10">
-      <c r="A158" s="5" t="s">
-        <v>160</v>
+      <c r="A158" s="5">
+        <v>1105</v>
       </c>
       <c r="B158" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C158" s="1">
         <v>176</v>
@@ -6132,15 +6117,15 @@
         <v>2024</v>
       </c>
       <c r="J158" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="159" spans="1:10">
-      <c r="A159" s="5" t="s">
-        <v>160</v>
+      <c r="A159" s="5">
+        <v>1105</v>
       </c>
       <c r="B159" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C159" s="1">
         <v>156</v>
@@ -6164,15 +6149,15 @@
         <v>2024</v>
       </c>
       <c r="J159" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="160" spans="1:10">
-      <c r="A160" s="5" t="s">
-        <v>160</v>
+      <c r="A160" s="5">
+        <v>1105</v>
       </c>
       <c r="B160" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C160" s="1">
         <v>173</v>
@@ -6196,15 +6181,15 @@
         <v>2024</v>
       </c>
       <c r="J160" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="161" spans="1:10">
-      <c r="A161" s="5" t="s">
-        <v>160</v>
+      <c r="A161" s="5">
+        <v>1105</v>
       </c>
       <c r="B161" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C161" s="1">
         <v>240</v>
@@ -6228,15 +6213,15 @@
         <v>2024</v>
       </c>
       <c r="J161" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="162" spans="1:10">
-      <c r="A162" s="5" t="s">
-        <v>160</v>
+      <c r="A162" s="5">
+        <v>1105</v>
       </c>
       <c r="B162" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C162" s="1">
         <v>158</v>
@@ -6260,15 +6245,15 @@
         <v>2024</v>
       </c>
       <c r="J162" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="163" spans="1:10">
-      <c r="A163" s="5" t="s">
-        <v>160</v>
+      <c r="A163" s="5">
+        <v>1105</v>
       </c>
       <c r="B163" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C163" s="1">
         <v>219</v>
@@ -6292,15 +6277,15 @@
         <v>2024</v>
       </c>
       <c r="J163" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="164" spans="1:10">
-      <c r="A164" s="5" t="s">
-        <v>160</v>
+      <c r="A164" s="5">
+        <v>1105</v>
       </c>
       <c r="B164" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C164" s="1">
         <v>219</v>
@@ -6324,15 +6309,15 @@
         <v>2024</v>
       </c>
       <c r="J164" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="165" spans="1:10">
-      <c r="A165" s="5" t="s">
-        <v>160</v>
+      <c r="A165" s="5">
+        <v>1105</v>
       </c>
       <c r="B165" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C165" s="1">
         <v>156</v>
@@ -6356,15 +6341,15 @@
         <v>2024</v>
       </c>
       <c r="J165" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="166" spans="1:10">
-      <c r="A166" s="5" t="s">
-        <v>160</v>
+      <c r="A166" s="5">
+        <v>1105</v>
       </c>
       <c r="B166" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C166" s="1">
         <v>275</v>
@@ -6388,15 +6373,15 @@
         <v>2024</v>
       </c>
       <c r="J166" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="167" spans="1:10">
-      <c r="A167" s="5" t="s">
-        <v>160</v>
+      <c r="A167" s="5">
+        <v>1105</v>
       </c>
       <c r="B167" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C167" s="1">
         <v>161</v>
@@ -6420,15 +6405,15 @@
         <v>2024</v>
       </c>
       <c r="J167" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="168" spans="1:10">
-      <c r="A168" s="5" t="s">
-        <v>160</v>
+      <c r="A168" s="5">
+        <v>1105</v>
       </c>
       <c r="B168" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C168" s="1">
         <v>202</v>
@@ -6452,15 +6437,15 @@
         <v>2024</v>
       </c>
       <c r="J168" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="169" spans="1:10">
-      <c r="A169" s="5" t="s">
-        <v>160</v>
+      <c r="A169" s="5">
+        <v>1105</v>
       </c>
       <c r="B169" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C169" s="1">
         <v>185</v>
@@ -6484,15 +6469,15 @@
         <v>2024</v>
       </c>
       <c r="J169" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="170" spans="1:10">
-      <c r="A170" s="5" t="s">
-        <v>160</v>
+      <c r="A170" s="5">
+        <v>1105</v>
       </c>
       <c r="B170" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C170" s="1">
         <v>229</v>
@@ -6516,15 +6501,15 @@
         <v>2024</v>
       </c>
       <c r="J170" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="171" spans="1:10">
-      <c r="A171" s="5" t="s">
-        <v>160</v>
+      <c r="A171" s="5">
+        <v>1105</v>
       </c>
       <c r="B171" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C171" s="1">
         <v>185</v>
@@ -6548,15 +6533,15 @@
         <v>2024</v>
       </c>
       <c r="J171" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="172" spans="1:10">
-      <c r="A172" s="5" t="s">
-        <v>160</v>
+      <c r="A172" s="5">
+        <v>1105</v>
       </c>
       <c r="B172" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C172" s="1">
         <v>152</v>
@@ -6580,15 +6565,15 @@
         <v>2024</v>
       </c>
       <c r="J172" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="173" spans="1:10">
-      <c r="A173" s="5" t="s">
-        <v>184</v>
+      <c r="A173" s="5">
+        <v>1106</v>
       </c>
       <c r="B173" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C173" s="1">
         <v>212</v>
@@ -6612,15 +6597,15 @@
         <v>2024</v>
       </c>
       <c r="J173" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="174" spans="1:10">
-      <c r="A174" s="5" t="s">
-        <v>184</v>
+      <c r="A174" s="5">
+        <v>1106</v>
       </c>
       <c r="B174" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C174" s="1">
         <v>179</v>
@@ -6644,15 +6629,15 @@
         <v>2024</v>
       </c>
       <c r="J174" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="175" spans="1:10">
-      <c r="A175" s="5" t="s">
-        <v>184</v>
+      <c r="A175" s="5">
+        <v>1106</v>
       </c>
       <c r="B175" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C175" s="1">
         <v>157</v>
@@ -6676,15 +6661,15 @@
         <v>2024</v>
       </c>
       <c r="J175" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="176" spans="1:10">
-      <c r="A176" s="5" t="s">
-        <v>184</v>
+      <c r="A176" s="5">
+        <v>1106</v>
       </c>
       <c r="B176" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C176" s="1">
         <v>183</v>
@@ -6708,15 +6693,15 @@
         <v>2024</v>
       </c>
       <c r="J176" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="177" spans="1:10">
-      <c r="A177" s="5" t="s">
-        <v>184</v>
+      <c r="A177" s="5">
+        <v>1106</v>
       </c>
       <c r="B177" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C177" s="1">
         <v>208</v>
@@ -6740,15 +6725,15 @@
         <v>2024</v>
       </c>
       <c r="J177" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="178" spans="1:10">
-      <c r="A178" s="5" t="s">
+      <c r="A178" s="5">
+        <v>1106</v>
+      </c>
+      <c r="B178" t="s">
         <v>184</v>
-      </c>
-      <c r="B178" t="s">
-        <v>190</v>
       </c>
       <c r="C178" s="1">
         <v>159</v>
@@ -6772,15 +6757,15 @@
         <v>2024</v>
       </c>
       <c r="J178" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="179" spans="1:10">
-      <c r="A179" s="5" t="s">
-        <v>184</v>
+      <c r="A179" s="5">
+        <v>1106</v>
       </c>
       <c r="B179" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C179" s="1">
         <v>146</v>
@@ -6804,15 +6789,15 @@
         <v>2024</v>
       </c>
       <c r="J179" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="180" spans="1:10">
-      <c r="A180" s="5" t="s">
-        <v>184</v>
+      <c r="A180" s="5">
+        <v>1106</v>
       </c>
       <c r="B180" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C180" s="1">
         <v>210</v>
@@ -6836,15 +6821,15 @@
         <v>2024</v>
       </c>
       <c r="J180" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="181" spans="1:10">
-      <c r="A181" s="5" t="s">
-        <v>184</v>
+      <c r="A181" s="5">
+        <v>1106</v>
       </c>
       <c r="B181" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C181" s="1">
         <v>201</v>
@@ -6868,15 +6853,15 @@
         <v>2024</v>
       </c>
       <c r="J181" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="182" spans="1:10">
-      <c r="A182" s="5" t="s">
-        <v>184</v>
+      <c r="A182" s="5">
+        <v>1106</v>
       </c>
       <c r="B182" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C182" s="1">
         <v>153</v>
@@ -6900,15 +6885,15 @@
         <v>2024</v>
       </c>
       <c r="J182" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="183" spans="1:10">
-      <c r="A183" s="5" t="s">
-        <v>184</v>
+      <c r="A183" s="5">
+        <v>1106</v>
       </c>
       <c r="B183" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C183" s="1">
         <v>332</v>
@@ -6932,15 +6917,15 @@
         <v>2024</v>
       </c>
       <c r="J183" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="184" spans="1:10">
-      <c r="A184" s="5" t="s">
-        <v>184</v>
+      <c r="A184" s="5">
+        <v>1106</v>
       </c>
       <c r="B184" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C184" s="1">
         <v>254</v>
@@ -6964,15 +6949,15 @@
         <v>2024</v>
       </c>
       <c r="J184" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="185" spans="1:10">
-      <c r="A185" s="5" t="s">
-        <v>184</v>
+      <c r="A185" s="5">
+        <v>1106</v>
       </c>
       <c r="B185" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C185" s="1">
         <v>160</v>
@@ -6996,15 +6981,15 @@
         <v>2024</v>
       </c>
       <c r="J185" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="186" spans="1:10">
-      <c r="A186" s="5" t="s">
-        <v>184</v>
+      <c r="A186" s="5">
+        <v>1106</v>
       </c>
       <c r="B186" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C186" s="1">
         <v>169</v>
@@ -7028,15 +7013,15 @@
         <v>2024</v>
       </c>
       <c r="J186" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="187" spans="1:10">
-      <c r="A187" s="5" t="s">
-        <v>184</v>
+      <c r="A187" s="5">
+        <v>1106</v>
       </c>
       <c r="B187" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C187" s="1">
         <v>217</v>
@@ -7060,15 +7045,15 @@
         <v>2024</v>
       </c>
       <c r="J187" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="188" spans="1:10">
-      <c r="A188" s="5" t="s">
-        <v>184</v>
+      <c r="A188" s="5">
+        <v>1106</v>
       </c>
       <c r="B188" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C188" s="1">
         <v>130</v>
@@ -7092,15 +7077,15 @@
         <v>2024</v>
       </c>
       <c r="J188" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="189" spans="1:10">
-      <c r="A189" s="5" t="s">
-        <v>184</v>
+      <c r="A189" s="5">
+        <v>1106</v>
       </c>
       <c r="B189" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C189" s="1">
         <v>177</v>
@@ -7124,15 +7109,15 @@
         <v>2024</v>
       </c>
       <c r="J189" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="190" spans="1:10">
-      <c r="A190" s="5" t="s">
-        <v>184</v>
+      <c r="A190" s="5">
+        <v>1106</v>
       </c>
       <c r="B190" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C190" s="1">
         <v>161</v>
@@ -7156,15 +7141,15 @@
         <v>2024</v>
       </c>
       <c r="J190" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="191" spans="1:10">
-      <c r="A191" s="5" t="s">
-        <v>184</v>
+      <c r="A191" s="5">
+        <v>1106</v>
       </c>
       <c r="B191" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C191" s="1">
         <v>167</v>
@@ -7188,15 +7173,15 @@
         <v>2024</v>
       </c>
       <c r="J191" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="192" spans="1:10">
-      <c r="A192" s="5" t="s">
-        <v>184</v>
+      <c r="A192" s="5">
+        <v>1106</v>
       </c>
       <c r="B192" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C192" s="1">
         <v>245</v>
@@ -7220,15 +7205,15 @@
         <v>2024</v>
       </c>
       <c r="J192" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="193" spans="1:10">
-      <c r="A193" s="5" t="s">
-        <v>184</v>
+      <c r="A193" s="5">
+        <v>1106</v>
       </c>
       <c r="B193" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C193" s="1">
         <v>343</v>
@@ -7252,15 +7237,15 @@
         <v>2024</v>
       </c>
       <c r="J193" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="194" spans="1:10">
-      <c r="A194" s="5" t="s">
-        <v>184</v>
+      <c r="A194" s="5">
+        <v>1106</v>
       </c>
       <c r="B194" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C194" s="1">
         <v>204</v>
@@ -7284,15 +7269,15 @@
         <v>2024</v>
       </c>
       <c r="J194" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="195" spans="1:10">
-      <c r="A195" s="5" t="s">
-        <v>184</v>
+      <c r="A195" s="5">
+        <v>1106</v>
       </c>
       <c r="B195" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C195" s="1">
         <v>201</v>
@@ -7316,15 +7301,15 @@
         <v>2024</v>
       </c>
       <c r="J195" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="196" spans="1:10">
-      <c r="A196" s="5" t="s">
-        <v>184</v>
+      <c r="A196" s="5">
+        <v>1106</v>
       </c>
       <c r="B196" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C196" s="1">
         <v>184</v>
@@ -7348,15 +7333,15 @@
         <v>2024</v>
       </c>
       <c r="J196" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="197" spans="1:10">
-      <c r="A197" s="5" t="s">
-        <v>184</v>
+      <c r="A197" s="5">
+        <v>1106</v>
       </c>
       <c r="B197" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C197" s="1">
         <v>143</v>
@@ -7380,15 +7365,15 @@
         <v>2024</v>
       </c>
       <c r="J197" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="198" spans="1:10">
-      <c r="A198" s="5" t="s">
+      <c r="A198" s="5">
+        <v>1101</v>
+      </c>
+      <c r="B198" t="s">
         <v>8</v>
-      </c>
-      <c r="B198" t="s">
-        <v>9</v>
       </c>
       <c r="C198" s="1">
         <v>225</v>
@@ -7412,15 +7397,15 @@
         <v>2024</v>
       </c>
       <c r="J198" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="199" spans="1:10">
-      <c r="A199" s="5" t="s">
-        <v>8</v>
+      <c r="A199" s="5">
+        <v>1101</v>
       </c>
       <c r="B199" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C199" s="1">
         <v>313</v>
@@ -7444,15 +7429,15 @@
         <v>2024</v>
       </c>
       <c r="J199" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="200" spans="1:10">
-      <c r="A200" s="5" t="s">
-        <v>8</v>
+      <c r="A200" s="5">
+        <v>1101</v>
       </c>
       <c r="B200" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C200" s="1">
         <v>247</v>
@@ -7476,15 +7461,15 @@
         <v>2024</v>
       </c>
       <c r="J200" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="201" spans="1:10">
-      <c r="A201" s="5" t="s">
-        <v>8</v>
+      <c r="A201" s="5">
+        <v>1101</v>
       </c>
       <c r="B201" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C201" s="1">
         <v>171</v>
@@ -7508,15 +7493,15 @@
         <v>2024</v>
       </c>
       <c r="J201" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="202" spans="1:10">
-      <c r="A202" s="5" t="s">
-        <v>8</v>
+      <c r="A202" s="5">
+        <v>1101</v>
       </c>
       <c r="B202" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C202" s="1">
         <v>259</v>
@@ -7540,15 +7525,15 @@
         <v>2024</v>
       </c>
       <c r="J202" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="203" spans="1:10">
-      <c r="A203" s="5" t="s">
-        <v>8</v>
+      <c r="A203" s="5">
+        <v>1101</v>
       </c>
       <c r="B203" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C203" s="1">
         <v>198</v>
@@ -7572,15 +7557,15 @@
         <v>2024</v>
       </c>
       <c r="J203" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="204" spans="1:10">
-      <c r="A204" s="5" t="s">
-        <v>8</v>
+      <c r="A204" s="5">
+        <v>1101</v>
       </c>
       <c r="B204" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C204" s="1">
         <v>203</v>
@@ -7604,15 +7589,15 @@
         <v>2024</v>
       </c>
       <c r="J204" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="205" spans="1:10">
-      <c r="A205" s="5" t="s">
-        <v>8</v>
+      <c r="A205" s="5">
+        <v>1101</v>
       </c>
       <c r="B205" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C205" s="1">
         <v>234</v>
@@ -7636,15 +7621,15 @@
         <v>2024</v>
       </c>
       <c r="J205" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="206" spans="1:10">
-      <c r="A206" s="5" t="s">
-        <v>8</v>
+      <c r="A206" s="5">
+        <v>1101</v>
       </c>
       <c r="B206" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C206" s="1">
         <v>229</v>
@@ -7668,15 +7653,15 @@
         <v>2024</v>
       </c>
       <c r="J206" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="207" spans="1:10">
-      <c r="A207" s="5" t="s">
-        <v>8</v>
+      <c r="A207" s="5">
+        <v>1101</v>
       </c>
       <c r="B207" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C207" s="1">
         <v>355</v>
@@ -7700,15 +7685,15 @@
         <v>2024</v>
       </c>
       <c r="J207" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:10">
-      <c r="A208" s="5" t="s">
-        <v>8</v>
+      <c r="A208" s="5">
+        <v>1101</v>
       </c>
       <c r="B208" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C208" s="1">
         <v>191</v>
@@ -7732,15 +7717,15 @@
         <v>2024</v>
       </c>
       <c r="J208" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="209" spans="1:10">
-      <c r="A209" s="5" t="s">
-        <v>8</v>
+      <c r="A209" s="5">
+        <v>1101</v>
       </c>
       <c r="B209" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C209" s="1">
         <v>275</v>
@@ -7764,15 +7749,15 @@
         <v>2024</v>
       </c>
       <c r="J209" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="210" spans="1:10">
-      <c r="A210" s="5" t="s">
-        <v>8</v>
+      <c r="A210" s="5">
+        <v>1101</v>
       </c>
       <c r="B210" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C210" s="1">
         <v>197</v>
@@ -7796,15 +7781,15 @@
         <v>2024</v>
       </c>
       <c r="J210" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="211" spans="1:10">
-      <c r="A211" s="5" t="s">
-        <v>8</v>
+      <c r="A211" s="5">
+        <v>1101</v>
       </c>
       <c r="B211" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C211" s="1">
         <v>216</v>
@@ -7828,15 +7813,15 @@
         <v>2024</v>
       </c>
       <c r="J211" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="212" spans="1:10">
-      <c r="A212" s="5" t="s">
-        <v>8</v>
+      <c r="A212" s="5">
+        <v>1101</v>
       </c>
       <c r="B212" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C212" s="1">
         <v>168</v>
@@ -7860,15 +7845,15 @@
         <v>2024</v>
       </c>
       <c r="J212" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="213" spans="1:10">
-      <c r="A213" s="5" t="s">
-        <v>8</v>
+      <c r="A213" s="5">
+        <v>1101</v>
       </c>
       <c r="B213" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C213" s="1">
         <v>319</v>
@@ -7892,15 +7877,15 @@
         <v>2024</v>
       </c>
       <c r="J213" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="214" spans="1:10">
-      <c r="A214" s="5" t="s">
-        <v>8</v>
+      <c r="A214" s="5">
+        <v>1101</v>
       </c>
       <c r="B214" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C214" s="1">
         <v>207</v>
@@ -7924,15 +7909,15 @@
         <v>2024</v>
       </c>
       <c r="J214" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="215" spans="1:10">
-      <c r="A215" s="5" t="s">
-        <v>8</v>
+      <c r="A215" s="5">
+        <v>1101</v>
       </c>
       <c r="B215" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C215" s="1">
         <v>298</v>
@@ -7956,15 +7941,15 @@
         <v>2024</v>
       </c>
       <c r="J215" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="216" spans="1:10">
-      <c r="A216" s="5" t="s">
-        <v>8</v>
+      <c r="A216" s="5">
+        <v>1101</v>
       </c>
       <c r="B216" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C216" s="1">
         <v>299</v>
@@ -7988,15 +7973,15 @@
         <v>2024</v>
       </c>
       <c r="J216" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="217" spans="1:10">
-      <c r="A217" s="5" t="s">
-        <v>8</v>
+      <c r="A217" s="5">
+        <v>1101</v>
       </c>
       <c r="B217" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C217" s="1">
         <v>175</v>
@@ -8020,15 +8005,15 @@
         <v>2024</v>
       </c>
       <c r="J217" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="218" spans="1:10">
-      <c r="A218" s="5" t="s">
-        <v>8</v>
+      <c r="A218" s="5">
+        <v>1101</v>
       </c>
       <c r="B218" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C218" s="1">
         <v>218</v>
@@ -8052,15 +8037,15 @@
         <v>2024</v>
       </c>
       <c r="J218" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="219" spans="1:10">
-      <c r="A219" s="5" t="s">
-        <v>8</v>
+      <c r="A219" s="5">
+        <v>1101</v>
       </c>
       <c r="B219" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C219" s="1">
         <v>234</v>
@@ -8084,15 +8069,15 @@
         <v>2024</v>
       </c>
       <c r="J219" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="220" spans="1:10">
-      <c r="A220" s="5" t="s">
-        <v>8</v>
+      <c r="A220" s="5">
+        <v>1101</v>
       </c>
       <c r="B220" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C220" s="1">
         <v>236</v>
@@ -8116,15 +8101,15 @@
         <v>2024</v>
       </c>
       <c r="J220" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="221" spans="1:10">
-      <c r="A221" s="5" t="s">
-        <v>8</v>
+      <c r="A221" s="5">
+        <v>1101</v>
       </c>
       <c r="B221" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C221" s="1">
         <v>201</v>
@@ -8148,15 +8133,15 @@
         <v>2024</v>
       </c>
       <c r="J221" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="222" spans="1:10">
-      <c r="A222" s="5" t="s">
-        <v>8</v>
+      <c r="A222" s="5">
+        <v>1101</v>
       </c>
       <c r="B222" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C222" s="1">
         <v>242</v>
@@ -8180,15 +8165,15 @@
         <v>2024</v>
       </c>
       <c r="J222" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="223" spans="1:10">
-      <c r="A223" s="5" t="s">
-        <v>34</v>
+      <c r="A223" s="5">
+        <v>1102</v>
       </c>
       <c r="B223" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C223" s="1">
         <v>238</v>
@@ -8212,15 +8197,15 @@
         <v>2024</v>
       </c>
       <c r="J223" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="224" spans="1:10">
-      <c r="A224" s="5" t="s">
+      <c r="A224" s="5">
+        <v>1102</v>
+      </c>
+      <c r="B224" t="s">
         <v>34</v>
-      </c>
-      <c r="B224" t="s">
-        <v>36</v>
       </c>
       <c r="C224" s="1">
         <v>168</v>
@@ -8244,15 +8229,15 @@
         <v>2024</v>
       </c>
       <c r="J224" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="225" spans="1:10">
-      <c r="A225" s="5" t="s">
-        <v>34</v>
+      <c r="A225" s="5">
+        <v>1102</v>
       </c>
       <c r="B225" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C225" s="1">
         <v>243</v>
@@ -8276,15 +8261,15 @@
         <v>2024</v>
       </c>
       <c r="J225" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="226" spans="1:10">
-      <c r="A226" s="5" t="s">
-        <v>34</v>
+      <c r="A226" s="5">
+        <v>1102</v>
       </c>
       <c r="B226" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C226" s="1">
         <v>287</v>
@@ -8308,15 +8293,15 @@
         <v>2024</v>
       </c>
       <c r="J226" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="227" spans="1:10">
-      <c r="A227" s="5" t="s">
-        <v>34</v>
+      <c r="A227" s="5">
+        <v>1102</v>
       </c>
       <c r="B227" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C227" s="1">
         <v>92</v>
@@ -8340,15 +8325,15 @@
         <v>2024</v>
       </c>
       <c r="J227" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="228" spans="1:10">
-      <c r="A228" s="5" t="s">
-        <v>34</v>
+      <c r="A228" s="5">
+        <v>1102</v>
       </c>
       <c r="B228" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C228" s="1">
         <v>223</v>
@@ -8372,15 +8357,15 @@
         <v>2024</v>
       </c>
       <c r="J228" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="229" spans="1:10">
-      <c r="A229" s="5" t="s">
-        <v>34</v>
+      <c r="A229" s="5">
+        <v>1102</v>
       </c>
       <c r="B229" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C229" s="1">
         <v>246</v>
@@ -8404,15 +8389,15 @@
         <v>2024</v>
       </c>
       <c r="J229" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="230" spans="1:10">
-      <c r="A230" s="5" t="s">
-        <v>34</v>
+      <c r="A230" s="5">
+        <v>1102</v>
       </c>
       <c r="B230" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C230" s="1">
         <v>408</v>
@@ -8436,15 +8421,15 @@
         <v>2024</v>
       </c>
       <c r="J230" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="231" spans="1:10">
-      <c r="A231" s="5" t="s">
-        <v>34</v>
+      <c r="A231" s="5">
+        <v>1102</v>
       </c>
       <c r="B231" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C231" s="1">
         <v>202</v>
@@ -8468,15 +8453,15 @@
         <v>2024</v>
       </c>
       <c r="J231" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="232" spans="1:10">
-      <c r="A232" s="5" t="s">
-        <v>34</v>
+      <c r="A232" s="5">
+        <v>1102</v>
       </c>
       <c r="B232" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C232" s="1">
         <v>254</v>
@@ -8500,15 +8485,15 @@
         <v>2024</v>
       </c>
       <c r="J232" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="233" spans="1:10">
-      <c r="A233" s="5" t="s">
-        <v>34</v>
+      <c r="A233" s="5">
+        <v>1102</v>
       </c>
       <c r="B233" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C233" s="1">
         <v>234</v>
@@ -8532,15 +8517,15 @@
         <v>2024</v>
       </c>
       <c r="J233" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="234" spans="1:10">
-      <c r="A234" s="5" t="s">
-        <v>34</v>
+      <c r="A234" s="5">
+        <v>1102</v>
       </c>
       <c r="B234" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C234" s="1">
         <v>255</v>
@@ -8564,15 +8549,15 @@
         <v>2024</v>
       </c>
       <c r="J234" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="235" spans="1:10">
-      <c r="A235" s="5" t="s">
-        <v>34</v>
+      <c r="A235" s="5">
+        <v>1102</v>
       </c>
       <c r="B235" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C235" s="1">
         <v>242</v>
@@ -8596,15 +8581,15 @@
         <v>2024</v>
       </c>
       <c r="J235" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="236" spans="1:10">
-      <c r="A236" s="5" t="s">
-        <v>34</v>
+      <c r="A236" s="5">
+        <v>1102</v>
       </c>
       <c r="B236" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C236" s="1">
         <v>292</v>
@@ -8628,15 +8613,15 @@
         <v>2024</v>
       </c>
       <c r="J236" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="237" spans="1:10">
-      <c r="A237" s="5" t="s">
-        <v>34</v>
+      <c r="A237" s="5">
+        <v>1102</v>
       </c>
       <c r="B237" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C237" s="1">
         <v>312</v>
@@ -8660,15 +8645,15 @@
         <v>2024</v>
       </c>
       <c r="J237" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="238" spans="1:10">
-      <c r="A238" s="5" t="s">
-        <v>34</v>
+      <c r="A238" s="5">
+        <v>1102</v>
       </c>
       <c r="B238" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C238" s="1">
         <v>225</v>
@@ -8692,15 +8677,15 @@
         <v>2024</v>
       </c>
       <c r="J238" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="239" spans="1:10">
-      <c r="A239" s="5" t="s">
-        <v>34</v>
+      <c r="A239" s="5">
+        <v>1102</v>
       </c>
       <c r="B239" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C239" s="1">
         <v>237</v>
@@ -8724,15 +8709,15 @@
         <v>2024</v>
       </c>
       <c r="J239" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="240" spans="1:10">
-      <c r="A240" s="5" t="s">
-        <v>34</v>
+      <c r="A240" s="5">
+        <v>1102</v>
       </c>
       <c r="B240" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C240" s="1">
         <v>187</v>
@@ -8756,15 +8741,15 @@
         <v>2024</v>
       </c>
       <c r="J240" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="241" spans="1:10">
-      <c r="A241" s="5" t="s">
-        <v>34</v>
+      <c r="A241" s="5">
+        <v>1102</v>
       </c>
       <c r="B241" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C241" s="1">
         <v>339</v>
@@ -8788,15 +8773,15 @@
         <v>2024</v>
       </c>
       <c r="J241" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="242" spans="1:10">
-      <c r="A242" s="5" t="s">
-        <v>34</v>
+      <c r="A242" s="5">
+        <v>1102</v>
       </c>
       <c r="B242" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C242" s="1">
         <v>212</v>
@@ -8820,15 +8805,15 @@
         <v>2024</v>
       </c>
       <c r="J242" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="243" spans="1:10">
-      <c r="A243" s="5" t="s">
-        <v>34</v>
+      <c r="A243" s="5">
+        <v>1102</v>
       </c>
       <c r="B243" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C243" s="1">
         <v>271</v>
@@ -8852,15 +8837,15 @@
         <v>2024</v>
       </c>
       <c r="J243" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="244" spans="1:10">
-      <c r="A244" s="5" t="s">
-        <v>34</v>
+      <c r="A244" s="5">
+        <v>1102</v>
       </c>
       <c r="B244" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C244" s="1">
         <v>309</v>
@@ -8884,15 +8869,15 @@
         <v>2024</v>
       </c>
       <c r="J244" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="245" spans="1:10">
-      <c r="A245" s="5" t="s">
-        <v>34</v>
+      <c r="A245" s="5">
+        <v>1102</v>
       </c>
       <c r="B245" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C245" s="1">
         <v>352</v>
@@ -8916,15 +8901,15 @@
         <v>2024</v>
       </c>
       <c r="J245" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="246" spans="1:10">
-      <c r="A246" s="5" t="s">
-        <v>34</v>
+      <c r="A246" s="5">
+        <v>1102</v>
       </c>
       <c r="B246" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C246" s="1">
         <v>251</v>
@@ -8948,15 +8933,15 @@
         <v>2024</v>
       </c>
       <c r="J246" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="247" spans="1:10">
-      <c r="A247" s="5" t="s">
-        <v>34</v>
+      <c r="A247" s="5">
+        <v>1102</v>
       </c>
       <c r="B247" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C247" s="1">
         <v>216</v>
@@ -8980,15 +8965,15 @@
         <v>2024</v>
       </c>
       <c r="J247" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="248" spans="1:10">
-      <c r="A248" s="5" t="s">
-        <v>34</v>
+      <c r="A248" s="5">
+        <v>1102</v>
       </c>
       <c r="B248" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C248" s="1">
         <v>265</v>
@@ -9012,15 +8997,15 @@
         <v>2024</v>
       </c>
       <c r="J248" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="249" spans="1:10">
-      <c r="A249" s="5" t="s">
-        <v>34</v>
+      <c r="A249" s="5">
+        <v>1102</v>
       </c>
       <c r="B249" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C249" s="1">
         <v>329</v>
@@ -9044,15 +9029,15 @@
         <v>2024</v>
       </c>
       <c r="J249" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="250" spans="1:10">
-      <c r="A250" s="5" t="s">
-        <v>34</v>
+      <c r="A250" s="5">
+        <v>1102</v>
       </c>
       <c r="B250" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C250" s="1">
         <v>245</v>
@@ -9076,15 +9061,15 @@
         <v>2024</v>
       </c>
       <c r="J250" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="251" spans="1:10">
-      <c r="A251" s="5" t="s">
-        <v>34</v>
+      <c r="A251" s="5">
+        <v>1102</v>
       </c>
       <c r="B251" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C251" s="1">
         <v>247</v>
@@ -9108,15 +9093,15 @@
         <v>2024</v>
       </c>
       <c r="J251" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="252" spans="1:10">
-      <c r="A252" s="5" t="s">
-        <v>34</v>
+      <c r="A252" s="5">
+        <v>1102</v>
       </c>
       <c r="B252" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C252" s="1">
         <v>256</v>
@@ -9140,15 +9125,15 @@
         <v>2024</v>
       </c>
       <c r="J252" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="253" spans="1:10">
-      <c r="A253" s="5" t="s">
-        <v>34</v>
+      <c r="A253" s="5">
+        <v>1102</v>
       </c>
       <c r="B253" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C253" s="1">
         <v>319</v>
@@ -9172,15 +9157,15 @@
         <v>2024</v>
       </c>
       <c r="J253" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="254" spans="1:10">
-      <c r="A254" s="5" t="s">
-        <v>34</v>
+      <c r="A254" s="5">
+        <v>1102</v>
       </c>
       <c r="B254" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C254" s="1">
         <v>264</v>
@@ -9204,15 +9189,15 @@
         <v>2024</v>
       </c>
       <c r="J254" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="255" spans="1:10">
-      <c r="A255" s="5" t="s">
-        <v>34</v>
+      <c r="A255" s="5">
+        <v>1102</v>
       </c>
       <c r="B255" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C255" s="1">
         <v>225</v>
@@ -9236,15 +9221,15 @@
         <v>2024</v>
       </c>
       <c r="J255" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="256" spans="1:10">
-      <c r="A256" s="5" t="s">
-        <v>34</v>
+      <c r="A256" s="5">
+        <v>1102</v>
       </c>
       <c r="B256" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C256" s="1">
         <v>226</v>
@@ -9268,15 +9253,15 @@
         <v>2024</v>
       </c>
       <c r="J256" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="257" spans="1:10">
-      <c r="A257" s="5" t="s">
-        <v>34</v>
+      <c r="A257" s="5">
+        <v>1102</v>
       </c>
       <c r="B257" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C257" s="1">
         <v>210</v>
@@ -9300,15 +9285,15 @@
         <v>2024</v>
       </c>
       <c r="J257" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="258" spans="1:10">
-      <c r="A258" s="5" t="s">
-        <v>34</v>
+      <c r="A258" s="5">
+        <v>1102</v>
       </c>
       <c r="B258" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C258" s="1">
         <v>352</v>
@@ -9332,15 +9317,15 @@
         <v>2024</v>
       </c>
       <c r="J258" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="259" spans="1:10">
-      <c r="A259" s="5" t="s">
-        <v>34</v>
+      <c r="A259" s="5">
+        <v>1102</v>
       </c>
       <c r="B259" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C259" s="1">
         <v>164</v>
@@ -9364,15 +9349,15 @@
         <v>2024</v>
       </c>
       <c r="J259" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="260" spans="1:10">
-      <c r="A260" s="5" t="s">
-        <v>34</v>
+      <c r="A260" s="5">
+        <v>1102</v>
       </c>
       <c r="B260" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C260" s="1">
         <v>196</v>
@@ -9396,15 +9381,15 @@
         <v>2024</v>
       </c>
       <c r="J260" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="261" spans="1:10">
-      <c r="A261" s="5" t="s">
-        <v>34</v>
+      <c r="A261" s="5">
+        <v>1102</v>
       </c>
       <c r="B261" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C261" s="1">
         <v>383</v>
@@ -9428,15 +9413,15 @@
         <v>2024</v>
       </c>
       <c r="J261" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="262" spans="1:10">
-      <c r="A262" s="5" t="s">
-        <v>34</v>
+      <c r="A262" s="5">
+        <v>1102</v>
       </c>
       <c r="B262" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C262" s="1">
         <v>229</v>
@@ -9460,15 +9445,15 @@
         <v>2024</v>
       </c>
       <c r="J262" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="263" spans="1:10">
-      <c r="A263" s="5" t="s">
-        <v>75</v>
+      <c r="A263" s="5">
+        <v>1103</v>
       </c>
       <c r="B263" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C263" s="1">
         <v>269</v>
@@ -9492,15 +9477,15 @@
         <v>2024</v>
       </c>
       <c r="J263" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="264" spans="1:10">
-      <c r="A264" s="5" t="s">
-        <v>75</v>
+      <c r="A264" s="5">
+        <v>1103</v>
       </c>
       <c r="B264" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C264" s="1">
         <v>255</v>
@@ -9524,15 +9509,15 @@
         <v>2024</v>
       </c>
       <c r="J264" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="265" spans="1:10">
-      <c r="A265" s="5" t="s">
+      <c r="A265" s="5">
+        <v>1103</v>
+      </c>
+      <c r="B265" t="s">
         <v>75</v>
-      </c>
-      <c r="B265" t="s">
-        <v>78</v>
       </c>
       <c r="C265" s="1">
         <v>259</v>
@@ -9556,15 +9541,15 @@
         <v>2024</v>
       </c>
       <c r="J265" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="266" spans="1:10">
-      <c r="A266" s="5" t="s">
-        <v>75</v>
+      <c r="A266" s="5">
+        <v>1103</v>
       </c>
       <c r="B266" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C266" s="1">
         <v>221</v>
@@ -9588,15 +9573,15 @@
         <v>2024</v>
       </c>
       <c r="J266" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="267" spans="1:10">
-      <c r="A267" s="5" t="s">
-        <v>75</v>
+      <c r="A267" s="5">
+        <v>1103</v>
       </c>
       <c r="B267" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C267" s="1">
         <v>279</v>
@@ -9620,15 +9605,15 @@
         <v>2024</v>
       </c>
       <c r="J267" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="268" spans="1:10">
-      <c r="A268" s="5" t="s">
-        <v>75</v>
+      <c r="A268" s="5">
+        <v>1103</v>
       </c>
       <c r="B268" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C268" s="1">
         <v>258</v>
@@ -9652,15 +9637,15 @@
         <v>2024</v>
       </c>
       <c r="J268" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="269" spans="1:10">
-      <c r="A269" s="5" t="s">
-        <v>75</v>
+      <c r="A269" s="5">
+        <v>1103</v>
       </c>
       <c r="B269" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C269" s="1">
         <v>322</v>
@@ -9684,15 +9669,15 @@
         <v>2024</v>
       </c>
       <c r="J269" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="270" spans="1:10">
-      <c r="A270" s="5" t="s">
-        <v>75</v>
+      <c r="A270" s="5">
+        <v>1103</v>
       </c>
       <c r="B270" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C270" s="1">
         <v>273</v>
@@ -9716,15 +9701,15 @@
         <v>2024</v>
       </c>
       <c r="J270" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="271" spans="1:10">
-      <c r="A271" s="5" t="s">
-        <v>75</v>
+      <c r="A271" s="5">
+        <v>1103</v>
       </c>
       <c r="B271" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C271" s="1">
         <v>213</v>
@@ -9748,15 +9733,15 @@
         <v>2024</v>
       </c>
       <c r="J271" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="272" spans="1:10">
-      <c r="A272" s="5" t="s">
-        <v>75</v>
+      <c r="A272" s="5">
+        <v>1103</v>
       </c>
       <c r="B272" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C272" s="1">
         <v>295</v>
@@ -9780,15 +9765,15 @@
         <v>2024</v>
       </c>
       <c r="J272" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="273" spans="1:10">
-      <c r="A273" s="5" t="s">
-        <v>75</v>
+      <c r="A273" s="5">
+        <v>1103</v>
       </c>
       <c r="B273" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C273" s="1">
         <v>206</v>
@@ -9812,15 +9797,15 @@
         <v>2024</v>
       </c>
       <c r="J273" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="274" spans="1:10">
-      <c r="A274" s="5" t="s">
-        <v>75</v>
+      <c r="A274" s="5">
+        <v>1103</v>
       </c>
       <c r="B274" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C274" s="1">
         <v>279</v>
@@ -9844,15 +9829,15 @@
         <v>2024</v>
       </c>
       <c r="J274" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="275" spans="1:10">
-      <c r="A275" s="5" t="s">
-        <v>75</v>
+      <c r="A275" s="5">
+        <v>1103</v>
       </c>
       <c r="B275" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C275" s="1">
         <v>301</v>
@@ -9876,15 +9861,15 @@
         <v>2024</v>
       </c>
       <c r="J275" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="276" spans="1:10">
-      <c r="A276" s="5" t="s">
-        <v>75</v>
+      <c r="A276" s="5">
+        <v>1103</v>
       </c>
       <c r="B276" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C276" s="1">
         <v>316</v>
@@ -9908,15 +9893,15 @@
         <v>2024</v>
       </c>
       <c r="J276" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="277" spans="1:10">
-      <c r="A277" s="5" t="s">
-        <v>75</v>
+      <c r="A277" s="5">
+        <v>1103</v>
       </c>
       <c r="B277" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C277" s="1">
         <v>247</v>
@@ -9940,15 +9925,15 @@
         <v>2024</v>
       </c>
       <c r="J277" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="278" spans="1:10">
-      <c r="A278" s="5" t="s">
-        <v>75</v>
+      <c r="A278" s="5">
+        <v>1103</v>
       </c>
       <c r="B278" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C278" s="1">
         <v>254</v>
@@ -9972,15 +9957,15 @@
         <v>2024</v>
       </c>
       <c r="J278" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="279" spans="1:10">
-      <c r="A279" s="5" t="s">
-        <v>75</v>
+      <c r="A279" s="5">
+        <v>1103</v>
       </c>
       <c r="B279" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C279" s="1">
         <v>248</v>
@@ -10004,15 +9989,15 @@
         <v>2024</v>
       </c>
       <c r="J279" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="280" spans="1:10">
-      <c r="A280" s="5" t="s">
-        <v>75</v>
+      <c r="A280" s="5">
+        <v>1103</v>
       </c>
       <c r="B280" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C280" s="1">
         <v>247</v>
@@ -10036,15 +10021,15 @@
         <v>2024</v>
       </c>
       <c r="J280" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="281" spans="1:10">
-      <c r="A281" s="5" t="s">
-        <v>75</v>
+      <c r="A281" s="5">
+        <v>1103</v>
       </c>
       <c r="B281" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C281" s="1">
         <v>219</v>
@@ -10068,15 +10053,15 @@
         <v>2024</v>
       </c>
       <c r="J281" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="282" spans="1:10">
-      <c r="A282" s="5" t="s">
-        <v>75</v>
+      <c r="A282" s="5">
+        <v>1103</v>
       </c>
       <c r="B282" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C282" s="1">
         <v>258</v>
@@ -10100,15 +10085,15 @@
         <v>2024</v>
       </c>
       <c r="J282" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="283" spans="1:10">
-      <c r="A283" s="5" t="s">
-        <v>75</v>
+      <c r="A283" s="5">
+        <v>1103</v>
       </c>
       <c r="B283" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C283" s="1">
         <v>335</v>
@@ -10132,15 +10117,15 @@
         <v>2024</v>
       </c>
       <c r="J283" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="284" spans="1:10">
-      <c r="A284" s="5" t="s">
-        <v>75</v>
+      <c r="A284" s="5">
+        <v>1103</v>
       </c>
       <c r="B284" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C284" s="1">
         <v>233</v>
@@ -10164,15 +10149,15 @@
         <v>2024</v>
       </c>
       <c r="J284" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="285" spans="1:10">
-      <c r="A285" s="5" t="s">
-        <v>75</v>
+      <c r="A285" s="5">
+        <v>1103</v>
       </c>
       <c r="B285" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C285" s="1">
         <v>238</v>
@@ -10196,15 +10181,15 @@
         <v>2024</v>
       </c>
       <c r="J285" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="286" spans="1:10">
-      <c r="A286" s="5" t="s">
-        <v>75</v>
+      <c r="A286" s="5">
+        <v>1103</v>
       </c>
       <c r="B286" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C286" s="1">
         <v>294</v>
@@ -10228,15 +10213,15 @@
         <v>2024</v>
       </c>
       <c r="J286" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="287" spans="1:10">
-      <c r="A287" s="5" t="s">
-        <v>75</v>
+      <c r="A287" s="5">
+        <v>1103</v>
       </c>
       <c r="B287" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C287" s="1">
         <v>261</v>
@@ -10260,15 +10245,15 @@
         <v>2024</v>
       </c>
       <c r="J287" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="288" spans="1:10">
-      <c r="A288" s="5" t="s">
-        <v>75</v>
+      <c r="A288" s="5">
+        <v>1103</v>
       </c>
       <c r="B288" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C288" s="1">
         <v>294</v>
@@ -10292,15 +10277,15 @@
         <v>2024</v>
       </c>
       <c r="J288" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="289" spans="1:10">
-      <c r="A289" s="5" t="s">
-        <v>75</v>
+      <c r="A289" s="5">
+        <v>1103</v>
       </c>
       <c r="B289" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C289" s="1">
         <v>248</v>
@@ -10324,15 +10309,15 @@
         <v>2024</v>
       </c>
       <c r="J289" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="290" spans="1:10">
-      <c r="A290" s="5" t="s">
-        <v>75</v>
+      <c r="A290" s="5">
+        <v>1103</v>
       </c>
       <c r="B290" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C290" s="1">
         <v>229</v>
@@ -10356,15 +10341,15 @@
         <v>2024</v>
       </c>
       <c r="J290" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="291" spans="1:10">
-      <c r="A291" s="5" t="s">
-        <v>75</v>
+      <c r="A291" s="5">
+        <v>1103</v>
       </c>
       <c r="B291" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C291" s="1">
         <v>330</v>
@@ -10388,15 +10373,15 @@
         <v>2024</v>
       </c>
       <c r="J291" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="292" spans="1:10">
-      <c r="A292" s="5" t="s">
-        <v>75</v>
+      <c r="A292" s="5">
+        <v>1103</v>
       </c>
       <c r="B292" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C292" s="1">
         <v>217</v>
@@ -10420,15 +10405,15 @@
         <v>2024</v>
       </c>
       <c r="J292" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="293" spans="1:10">
-      <c r="A293" s="5" t="s">
-        <v>75</v>
+      <c r="A293" s="5">
+        <v>1103</v>
       </c>
       <c r="B293" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C293" s="1">
         <v>288</v>
@@ -10452,15 +10437,15 @@
         <v>2024</v>
       </c>
       <c r="J293" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="294" spans="1:10">
-      <c r="A294" s="5" t="s">
-        <v>75</v>
+      <c r="A294" s="5">
+        <v>1103</v>
       </c>
       <c r="B294" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C294" s="1">
         <v>280</v>
@@ -10484,15 +10469,15 @@
         <v>2024</v>
       </c>
       <c r="J294" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="295" spans="1:10">
-      <c r="A295" s="5" t="s">
-        <v>75</v>
+      <c r="A295" s="5">
+        <v>1103</v>
       </c>
       <c r="B295" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C295" s="1">
         <v>289</v>
@@ -10516,15 +10501,15 @@
         <v>2024</v>
       </c>
       <c r="J295" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="296" spans="1:10">
-      <c r="A296" s="5" t="s">
-        <v>75</v>
+      <c r="A296" s="5">
+        <v>1103</v>
       </c>
       <c r="B296" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C296" s="1">
         <v>297</v>
@@ -10548,15 +10533,15 @@
         <v>2024</v>
       </c>
       <c r="J296" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="297" spans="1:10">
-      <c r="A297" s="5" t="s">
-        <v>75</v>
+      <c r="A297" s="5">
+        <v>1103</v>
       </c>
       <c r="B297" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C297" s="1">
         <v>233</v>
@@ -10580,15 +10565,15 @@
         <v>2024</v>
       </c>
       <c r="J297" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="298" spans="1:10">
-      <c r="A298" s="5" t="s">
-        <v>75</v>
+      <c r="A298" s="5">
+        <v>1103</v>
       </c>
       <c r="B298" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C298" s="1">
         <v>244</v>
@@ -10612,15 +10597,15 @@
         <v>2024</v>
       </c>
       <c r="J298" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="299" spans="1:10">
-      <c r="A299" s="5" t="s">
-        <v>75</v>
+      <c r="A299" s="5">
+        <v>1103</v>
       </c>
       <c r="B299" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C299" s="1">
         <v>319</v>
@@ -10644,15 +10629,15 @@
         <v>2024</v>
       </c>
       <c r="J299" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="300" spans="1:10">
-      <c r="A300" s="5" t="s">
-        <v>75</v>
+      <c r="A300" s="5">
+        <v>1103</v>
       </c>
       <c r="B300" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C300" s="1">
         <v>242</v>
@@ -10676,15 +10661,15 @@
         <v>2024</v>
       </c>
       <c r="J300" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="301" spans="1:10">
-      <c r="A301" s="5" t="s">
-        <v>75</v>
+      <c r="A301" s="5">
+        <v>1103</v>
       </c>
       <c r="B301" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C301" s="1">
         <v>262</v>
@@ -10708,15 +10693,15 @@
         <v>2024</v>
       </c>
       <c r="J301" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="302" spans="1:10">
-      <c r="A302" s="5" t="s">
-        <v>115</v>
+      <c r="A302" s="5">
+        <v>1104</v>
       </c>
       <c r="B302" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C302" s="1">
         <v>232</v>
@@ -10740,15 +10725,15 @@
         <v>2024</v>
       </c>
       <c r="J302" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="303" spans="1:10">
-      <c r="A303" s="5" t="s">
-        <v>115</v>
+      <c r="A303" s="5">
+        <v>1104</v>
       </c>
       <c r="B303" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C303" s="1">
         <v>185</v>
@@ -10772,15 +10757,15 @@
         <v>2024</v>
       </c>
       <c r="J303" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="304" spans="1:10">
-      <c r="A304" s="5" t="s">
-        <v>115</v>
+      <c r="A304" s="5">
+        <v>1104</v>
       </c>
       <c r="B304" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C304" s="1">
         <v>220</v>
@@ -10804,15 +10789,15 @@
         <v>2024</v>
       </c>
       <c r="J304" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="305" spans="1:10">
-      <c r="A305" s="5" t="s">
+      <c r="A305" s="5">
+        <v>1104</v>
+      </c>
+      <c r="B305" t="s">
         <v>115</v>
-      </c>
-      <c r="B305" t="s">
-        <v>119</v>
       </c>
       <c r="C305" s="1">
         <v>248</v>
@@ -10836,15 +10821,15 @@
         <v>2024</v>
       </c>
       <c r="J305" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="306" spans="1:10">
-      <c r="A306" s="5" t="s">
-        <v>115</v>
+      <c r="A306" s="5">
+        <v>1104</v>
       </c>
       <c r="B306" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C306" s="1">
         <v>226</v>
@@ -10868,15 +10853,15 @@
         <v>2024</v>
       </c>
       <c r="J306" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="307" spans="1:10">
-      <c r="A307" s="5" t="s">
-        <v>115</v>
+      <c r="A307" s="5">
+        <v>1104</v>
       </c>
       <c r="B307" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C307" s="1">
         <v>190</v>
@@ -10900,15 +10885,15 @@
         <v>2024</v>
       </c>
       <c r="J307" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="308" spans="1:10">
-      <c r="A308" s="5" t="s">
-        <v>115</v>
+      <c r="A308" s="5">
+        <v>1104</v>
       </c>
       <c r="B308" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C308" s="1">
         <v>228</v>
@@ -10932,15 +10917,15 @@
         <v>2024</v>
       </c>
       <c r="J308" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="309" spans="1:10">
-      <c r="A309" s="5" t="s">
-        <v>115</v>
+      <c r="A309" s="5">
+        <v>1104</v>
       </c>
       <c r="B309" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C309" s="1">
         <v>362</v>
@@ -10964,15 +10949,15 @@
         <v>2024</v>
       </c>
       <c r="J309" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="310" spans="1:10">
-      <c r="A310" s="5" t="s">
-        <v>115</v>
+      <c r="A310" s="5">
+        <v>1104</v>
       </c>
       <c r="B310" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C310" s="1">
         <v>233</v>
@@ -10996,15 +10981,15 @@
         <v>2024</v>
       </c>
       <c r="J310" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="311" spans="1:10">
-      <c r="A311" s="5" t="s">
-        <v>115</v>
+      <c r="A311" s="5">
+        <v>1104</v>
       </c>
       <c r="B311" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C311" s="1">
         <v>232</v>
@@ -11028,15 +11013,15 @@
         <v>2024</v>
       </c>
       <c r="J311" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="312" spans="1:10">
-      <c r="A312" s="5" t="s">
-        <v>115</v>
+      <c r="A312" s="5">
+        <v>1104</v>
       </c>
       <c r="B312" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C312" s="1">
         <v>255</v>
@@ -11060,15 +11045,15 @@
         <v>2024</v>
       </c>
       <c r="J312" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="313" spans="1:10">
-      <c r="A313" s="5" t="s">
-        <v>115</v>
+      <c r="A313" s="5">
+        <v>1104</v>
       </c>
       <c r="B313" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C313" s="1">
         <v>239</v>
@@ -11092,15 +11077,15 @@
         <v>2024</v>
       </c>
       <c r="J313" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="314" spans="1:10">
-      <c r="A314" s="5" t="s">
-        <v>115</v>
+      <c r="A314" s="5">
+        <v>1104</v>
       </c>
       <c r="B314" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C314" s="1">
         <v>219</v>
@@ -11124,15 +11109,15 @@
         <v>2024</v>
       </c>
       <c r="J314" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="315" spans="1:10">
-      <c r="A315" s="5" t="s">
-        <v>115</v>
+      <c r="A315" s="5">
+        <v>1104</v>
       </c>
       <c r="B315" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C315" s="1">
         <v>175</v>
@@ -11156,15 +11141,15 @@
         <v>2024</v>
       </c>
       <c r="J315" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="316" spans="1:10">
-      <c r="A316" s="5" t="s">
-        <v>115</v>
+      <c r="A316" s="5">
+        <v>1104</v>
       </c>
       <c r="B316" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C316" s="1">
         <v>291</v>
@@ -11188,15 +11173,15 @@
         <v>2024</v>
       </c>
       <c r="J316" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="317" spans="1:10">
-      <c r="A317" s="5" t="s">
-        <v>115</v>
+      <c r="A317" s="5">
+        <v>1104</v>
       </c>
       <c r="B317" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C317" s="1">
         <v>209</v>
@@ -11220,15 +11205,15 @@
         <v>2024</v>
       </c>
       <c r="J317" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="318" spans="1:10">
-      <c r="A318" s="5" t="s">
-        <v>115</v>
+      <c r="A318" s="5">
+        <v>1104</v>
       </c>
       <c r="B318" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C318" s="1">
         <v>265</v>
@@ -11252,15 +11237,15 @@
         <v>2024</v>
       </c>
       <c r="J318" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="319" spans="1:10">
-      <c r="A319" s="5" t="s">
-        <v>115</v>
+      <c r="A319" s="5">
+        <v>1104</v>
       </c>
       <c r="B319" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C319" s="1">
         <v>409</v>
@@ -11284,15 +11269,15 @@
         <v>2024</v>
       </c>
       <c r="J319" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="320" spans="1:10">
-      <c r="A320" s="5" t="s">
-        <v>115</v>
+      <c r="A320" s="5">
+        <v>1104</v>
       </c>
       <c r="B320" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C320" s="1">
         <v>238</v>
@@ -11316,15 +11301,15 @@
         <v>2024</v>
       </c>
       <c r="J320" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="321" spans="1:10">
-      <c r="A321" s="5" t="s">
-        <v>115</v>
+      <c r="A321" s="5">
+        <v>1104</v>
       </c>
       <c r="B321" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C321" s="1">
         <v>231</v>
@@ -11348,15 +11333,15 @@
         <v>2024</v>
       </c>
       <c r="J321" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="322" spans="1:10">
-      <c r="A322" s="5" t="s">
-        <v>115</v>
+      <c r="A322" s="5">
+        <v>1104</v>
       </c>
       <c r="B322" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C322" s="1">
         <v>205</v>
@@ -11380,15 +11365,15 @@
         <v>2024</v>
       </c>
       <c r="J322" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="323" spans="1:10">
-      <c r="A323" s="5" t="s">
-        <v>115</v>
+      <c r="A323" s="5">
+        <v>1104</v>
       </c>
       <c r="B323" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C323" s="1">
         <v>229</v>
@@ -11412,15 +11397,15 @@
         <v>2024</v>
       </c>
       <c r="J323" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="324" spans="1:10">
-      <c r="A324" s="5" t="s">
-        <v>115</v>
+      <c r="A324" s="5">
+        <v>1104</v>
       </c>
       <c r="B324" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C324" s="1">
         <v>295</v>
@@ -11444,15 +11429,15 @@
         <v>2024</v>
       </c>
       <c r="J324" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="325" spans="1:10">
-      <c r="A325" s="5" t="s">
-        <v>115</v>
+      <c r="A325" s="5">
+        <v>1104</v>
       </c>
       <c r="B325" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C325" s="1">
         <v>215</v>
@@ -11476,15 +11461,15 @@
         <v>2024</v>
       </c>
       <c r="J325" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="326" spans="1:10">
-      <c r="A326" s="5" t="s">
-        <v>115</v>
+      <c r="A326" s="5">
+        <v>1104</v>
       </c>
       <c r="B326" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C326" s="1">
         <v>248</v>
@@ -11508,15 +11493,15 @@
         <v>2024</v>
       </c>
       <c r="J326" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="327" spans="1:10">
-      <c r="A327" s="5" t="s">
-        <v>115</v>
+      <c r="A327" s="5">
+        <v>1104</v>
       </c>
       <c r="B327" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C327" s="1">
         <v>218</v>
@@ -11540,15 +11525,15 @@
         <v>2024</v>
       </c>
       <c r="J327" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="328" spans="1:10">
-      <c r="A328" s="5" t="s">
-        <v>115</v>
+      <c r="A328" s="5">
+        <v>1104</v>
       </c>
       <c r="B328" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C328" s="1">
         <v>299</v>
@@ -11572,15 +11557,15 @@
         <v>2024</v>
       </c>
       <c r="J328" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="329" spans="1:10">
-      <c r="A329" s="5" t="s">
-        <v>115</v>
+      <c r="A329" s="5">
+        <v>1104</v>
       </c>
       <c r="B329" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C329" s="1">
         <v>262</v>
@@ -11604,15 +11589,15 @@
         <v>2024</v>
       </c>
       <c r="J329" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="330" spans="1:10">
-      <c r="A330" s="5" t="s">
-        <v>115</v>
+      <c r="A330" s="5">
+        <v>1104</v>
       </c>
       <c r="B330" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C330" s="1">
         <v>165</v>
@@ -11636,15 +11621,15 @@
         <v>2024</v>
       </c>
       <c r="J330" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="331" spans="1:10">
-      <c r="A331" s="5" t="s">
-        <v>115</v>
+      <c r="A331" s="5">
+        <v>1104</v>
       </c>
       <c r="B331" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C331" s="1">
         <v>315</v>
@@ -11668,15 +11653,15 @@
         <v>2024</v>
       </c>
       <c r="J331" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="332" spans="1:10">
-      <c r="A332" s="5" t="s">
-        <v>115</v>
+      <c r="A332" s="5">
+        <v>1104</v>
       </c>
       <c r="B332" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C332" s="1">
         <v>307</v>
@@ -11700,15 +11685,15 @@
         <v>2024</v>
       </c>
       <c r="J332" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="333" spans="1:10">
-      <c r="A333" s="5" t="s">
-        <v>115</v>
+      <c r="A333" s="5">
+        <v>1104</v>
       </c>
       <c r="B333" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C333" s="1">
         <v>184</v>
@@ -11732,15 +11717,15 @@
         <v>2024</v>
       </c>
       <c r="J333" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="334" spans="1:10">
-      <c r="A334" s="5" t="s">
-        <v>115</v>
+      <c r="A334" s="5">
+        <v>1104</v>
       </c>
       <c r="B334" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C334" s="1">
         <v>267</v>
@@ -11764,15 +11749,15 @@
         <v>2024</v>
       </c>
       <c r="J334" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="335" spans="1:10">
-      <c r="A335" s="5" t="s">
-        <v>115</v>
+      <c r="A335" s="5">
+        <v>1104</v>
       </c>
       <c r="B335" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C335" s="1">
         <v>208</v>
@@ -11796,15 +11781,15 @@
         <v>2024</v>
       </c>
       <c r="J335" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="336" spans="1:10">
-      <c r="A336" s="5" t="s">
-        <v>115</v>
+      <c r="A336" s="5">
+        <v>1104</v>
       </c>
       <c r="B336" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C336" s="1">
         <v>155</v>
@@ -11828,15 +11813,15 @@
         <v>2024</v>
       </c>
       <c r="J336" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="337" spans="1:10">
-      <c r="A337" s="5" t="s">
-        <v>115</v>
+      <c r="A337" s="5">
+        <v>1104</v>
       </c>
       <c r="B337" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C337" s="1">
         <v>179</v>
@@ -11860,15 +11845,15 @@
         <v>2024</v>
       </c>
       <c r="J337" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="338" spans="1:10">
-      <c r="A338" s="5" t="s">
-        <v>115</v>
+      <c r="A338" s="5">
+        <v>1104</v>
       </c>
       <c r="B338" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C338" s="1">
         <v>269</v>
@@ -11892,15 +11877,15 @@
         <v>2024</v>
       </c>
       <c r="J338" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="339" spans="1:10">
-      <c r="A339" s="5" t="s">
-        <v>115</v>
+      <c r="A339" s="5">
+        <v>1104</v>
       </c>
       <c r="B339" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C339" s="1">
         <v>225</v>
@@ -11924,15 +11909,15 @@
         <v>2024</v>
       </c>
       <c r="J339" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="340" spans="1:10">
-      <c r="A340" s="5" t="s">
-        <v>115</v>
+      <c r="A340" s="5">
+        <v>1104</v>
       </c>
       <c r="B340" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C340" s="1">
         <v>216</v>
@@ -11956,15 +11941,15 @@
         <v>2024</v>
       </c>
       <c r="J340" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="341" spans="1:10">
-      <c r="A341" s="5" t="s">
-        <v>115</v>
+      <c r="A341" s="5">
+        <v>1104</v>
       </c>
       <c r="B341" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C341" s="1">
         <v>263</v>
@@ -11988,15 +11973,15 @@
         <v>2024</v>
       </c>
       <c r="J341" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="342" spans="1:10">
-      <c r="A342" s="5" t="s">
-        <v>115</v>
+      <c r="A342" s="5">
+        <v>1104</v>
       </c>
       <c r="B342" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C342" s="1">
         <v>302</v>
@@ -12020,15 +12005,15 @@
         <v>2024</v>
       </c>
       <c r="J342" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="343" spans="1:10">
-      <c r="A343" s="5" t="s">
-        <v>115</v>
+      <c r="A343" s="5">
+        <v>1104</v>
       </c>
       <c r="B343" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C343" s="1">
         <v>251</v>
@@ -12052,15 +12037,15 @@
         <v>2024</v>
       </c>
       <c r="J343" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="344" spans="1:10">
-      <c r="A344" s="5" t="s">
-        <v>115</v>
+      <c r="A344" s="5">
+        <v>1104</v>
       </c>
       <c r="B344" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C344" s="1">
         <v>286</v>
@@ -12084,15 +12069,15 @@
         <v>2024</v>
       </c>
       <c r="J344" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="345" spans="1:10">
-      <c r="A345" s="5" t="s">
-        <v>115</v>
+      <c r="A345" s="5">
+        <v>1104</v>
       </c>
       <c r="B345" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C345" s="1">
         <v>353</v>
@@ -12116,15 +12101,15 @@
         <v>2024</v>
       </c>
       <c r="J345" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="346" spans="1:10">
-      <c r="A346" s="5" t="s">
-        <v>160</v>
+      <c r="A346" s="5">
+        <v>1105</v>
       </c>
       <c r="B346" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C346" s="1">
         <v>204</v>
@@ -12148,15 +12133,15 @@
         <v>2024</v>
       </c>
       <c r="J346" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="347" spans="1:10">
-      <c r="A347" s="5" t="s">
-        <v>160</v>
+      <c r="A347" s="5">
+        <v>1105</v>
       </c>
       <c r="B347" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C347" s="1">
         <v>167</v>
@@ -12180,15 +12165,15 @@
         <v>2024</v>
       </c>
       <c r="J347" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="348" spans="1:10">
-      <c r="A348" s="5" t="s">
-        <v>160</v>
+      <c r="A348" s="5">
+        <v>1105</v>
       </c>
       <c r="B348" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C348" s="1">
         <v>222</v>
@@ -12212,15 +12197,15 @@
         <v>2024</v>
       </c>
       <c r="J348" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="349" spans="1:10">
-      <c r="A349" s="5" t="s">
-        <v>160</v>
+      <c r="A349" s="5">
+        <v>1105</v>
       </c>
       <c r="B349" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C349" s="1">
         <v>243</v>
@@ -12244,15 +12229,15 @@
         <v>2024</v>
       </c>
       <c r="J349" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="350" spans="1:10">
-      <c r="A350" s="5" t="s">
+      <c r="A350" s="5">
+        <v>1105</v>
+      </c>
+      <c r="B350" t="s">
         <v>160</v>
-      </c>
-      <c r="B350" t="s">
-        <v>165</v>
       </c>
       <c r="C350" s="1">
         <v>231</v>
@@ -12276,15 +12261,15 @@
         <v>2024</v>
       </c>
       <c r="J350" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="351" spans="1:10">
-      <c r="A351" s="5" t="s">
-        <v>160</v>
+      <c r="A351" s="5">
+        <v>1105</v>
       </c>
       <c r="B351" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C351" s="1">
         <v>186</v>
@@ -12308,15 +12293,15 @@
         <v>2024</v>
       </c>
       <c r="J351" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="352" spans="1:10">
-      <c r="A352" s="5" t="s">
-        <v>160</v>
+      <c r="A352" s="5">
+        <v>1105</v>
       </c>
       <c r="B352" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C352" s="1">
         <v>164</v>
@@ -12340,15 +12325,15 @@
         <v>2024</v>
       </c>
       <c r="J352" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="353" spans="1:10">
-      <c r="A353" s="5" t="s">
-        <v>160</v>
+      <c r="A353" s="5">
+        <v>1105</v>
       </c>
       <c r="B353" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C353" s="1">
         <v>198</v>
@@ -12372,15 +12357,15 @@
         <v>2024</v>
       </c>
       <c r="J353" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="354" spans="1:10">
-      <c r="A354" s="5" t="s">
-        <v>160</v>
+      <c r="A354" s="5">
+        <v>1105</v>
       </c>
       <c r="B354" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C354" s="1">
         <v>270</v>
@@ -12404,15 +12389,15 @@
         <v>2024</v>
       </c>
       <c r="J354" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="355" spans="1:10">
-      <c r="A355" s="5" t="s">
-        <v>160</v>
+      <c r="A355" s="5">
+        <v>1105</v>
       </c>
       <c r="B355" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C355" s="1">
         <v>172</v>
@@ -12436,15 +12421,15 @@
         <v>2024</v>
       </c>
       <c r="J355" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="356" spans="1:10">
-      <c r="A356" s="5" t="s">
-        <v>160</v>
+      <c r="A356" s="5">
+        <v>1105</v>
       </c>
       <c r="B356" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C356" s="1">
         <v>206</v>
@@ -12468,15 +12453,15 @@
         <v>2024</v>
       </c>
       <c r="J356" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="357" spans="1:10">
-      <c r="A357" s="5" t="s">
-        <v>160</v>
+      <c r="A357" s="5">
+        <v>1105</v>
       </c>
       <c r="B357" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C357" s="1">
         <v>177</v>
@@ -12500,15 +12485,15 @@
         <v>2024</v>
       </c>
       <c r="J357" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="358" spans="1:10">
-      <c r="A358" s="5" t="s">
-        <v>160</v>
+      <c r="A358" s="5">
+        <v>1105</v>
       </c>
       <c r="B358" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C358" s="1">
         <v>192</v>
@@ -12532,15 +12517,15 @@
         <v>2024</v>
       </c>
       <c r="J358" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="359" spans="1:10">
-      <c r="A359" s="5" t="s">
-        <v>160</v>
+      <c r="A359" s="5">
+        <v>1105</v>
       </c>
       <c r="B359" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C359" s="1">
         <v>205</v>
@@ -12564,15 +12549,15 @@
         <v>2024</v>
       </c>
       <c r="J359" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="360" spans="1:10">
-      <c r="A360" s="5" t="s">
-        <v>160</v>
+      <c r="A360" s="5">
+        <v>1105</v>
       </c>
       <c r="B360" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C360" s="1">
         <v>169</v>
@@ -12596,15 +12581,15 @@
         <v>2024</v>
       </c>
       <c r="J360" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="361" spans="1:10">
-      <c r="A361" s="5" t="s">
-        <v>160</v>
+      <c r="A361" s="5">
+        <v>1105</v>
       </c>
       <c r="B361" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C361" s="1">
         <v>190</v>
@@ -12628,15 +12613,15 @@
         <v>2024</v>
       </c>
       <c r="J361" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="362" spans="1:10">
-      <c r="A362" s="5" t="s">
-        <v>160</v>
+      <c r="A362" s="5">
+        <v>1105</v>
       </c>
       <c r="B362" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C362" s="1">
         <v>277</v>
@@ -12660,15 +12645,15 @@
         <v>2024</v>
       </c>
       <c r="J362" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="363" spans="1:10">
-      <c r="A363" s="5" t="s">
-        <v>160</v>
+      <c r="A363" s="5">
+        <v>1105</v>
       </c>
       <c r="B363" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C363" s="1">
         <v>185</v>
@@ -12692,15 +12677,15 @@
         <v>2024</v>
       </c>
       <c r="J363" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="364" spans="1:10">
-      <c r="A364" s="5" t="s">
-        <v>160</v>
+      <c r="A364" s="5">
+        <v>1105</v>
       </c>
       <c r="B364" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C364" s="1">
         <v>225</v>
@@ -12724,15 +12709,15 @@
         <v>2024</v>
       </c>
       <c r="J364" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="365" spans="1:10">
-      <c r="A365" s="5" t="s">
-        <v>160</v>
+      <c r="A365" s="5">
+        <v>1105</v>
       </c>
       <c r="B365" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C365" s="1">
         <v>240</v>
@@ -12756,15 +12741,15 @@
         <v>2024</v>
       </c>
       <c r="J365" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="366" spans="1:10">
-      <c r="A366" s="5" t="s">
-        <v>160</v>
+      <c r="A366" s="5">
+        <v>1105</v>
       </c>
       <c r="B366" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C366" s="1">
         <v>231</v>
@@ -12788,15 +12773,15 @@
         <v>2024</v>
       </c>
       <c r="J366" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="367" spans="1:10">
-      <c r="A367" s="5" t="s">
-        <v>160</v>
+      <c r="A367" s="5">
+        <v>1105</v>
       </c>
       <c r="B367" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C367" s="1">
         <v>320</v>
@@ -12820,15 +12805,15 @@
         <v>2024</v>
       </c>
       <c r="J367" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="368" spans="1:10">
-      <c r="A368" s="5" t="s">
-        <v>160</v>
+      <c r="A368" s="5">
+        <v>1105</v>
       </c>
       <c r="B368" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C368" s="1">
         <v>205</v>
@@ -12852,15 +12837,15 @@
         <v>2024</v>
       </c>
       <c r="J368" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="369" spans="1:10">
-      <c r="A369" s="5" t="s">
-        <v>184</v>
+      <c r="A369" s="5">
+        <v>1106</v>
       </c>
       <c r="B369" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C369" s="1">
         <v>213</v>
@@ -12884,15 +12869,15 @@
         <v>2024</v>
       </c>
       <c r="J369" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="370" spans="1:10">
-      <c r="A370" s="5" t="s">
-        <v>184</v>
+      <c r="A370" s="5">
+        <v>1106</v>
       </c>
       <c r="B370" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C370" s="1">
         <v>157</v>
@@ -12916,15 +12901,15 @@
         <v>2024</v>
       </c>
       <c r="J370" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="371" spans="1:10">
-      <c r="A371" s="5" t="s">
-        <v>184</v>
+      <c r="A371" s="5">
+        <v>1106</v>
       </c>
       <c r="B371" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C371" s="1">
         <v>146</v>
@@ -12948,15 +12933,15 @@
         <v>2024</v>
       </c>
       <c r="J371" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="372" spans="1:10">
-      <c r="A372" s="5" t="s">
-        <v>184</v>
+      <c r="A372" s="5">
+        <v>1106</v>
       </c>
       <c r="B372" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C372" s="1">
         <v>193</v>
@@ -12980,15 +12965,15 @@
         <v>2024</v>
       </c>
       <c r="J372" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="373" spans="1:10">
-      <c r="A373" s="5" t="s">
-        <v>184</v>
+      <c r="A373" s="5">
+        <v>1106</v>
       </c>
       <c r="B373" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C373" s="1">
         <v>218</v>
@@ -13012,15 +12997,15 @@
         <v>2024</v>
       </c>
       <c r="J373" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="374" spans="1:10">
-      <c r="A374" s="5" t="s">
+      <c r="A374" s="5">
+        <v>1106</v>
+      </c>
+      <c r="B374" t="s">
         <v>184</v>
-      </c>
-      <c r="B374" t="s">
-        <v>190</v>
       </c>
       <c r="C374" s="1">
         <v>168</v>
@@ -13044,15 +13029,15 @@
         <v>2024</v>
       </c>
       <c r="J374" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="375" spans="1:10">
-      <c r="A375" s="5" t="s">
-        <v>184</v>
+      <c r="A375" s="5">
+        <v>1106</v>
       </c>
       <c r="B375" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C375" s="1">
         <v>155</v>
@@ -13076,15 +13061,15 @@
         <v>2024</v>
       </c>
       <c r="J375" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="376" spans="1:10">
-      <c r="A376" s="5" t="s">
-        <v>184</v>
+      <c r="A376" s="5">
+        <v>1106</v>
       </c>
       <c r="B376" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C376" s="1">
         <v>239</v>
@@ -13108,15 +13093,15 @@
         <v>2024</v>
       </c>
       <c r="J376" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="377" spans="1:10">
-      <c r="A377" s="5" t="s">
-        <v>184</v>
+      <c r="A377" s="5">
+        <v>1106</v>
       </c>
       <c r="B377" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C377" s="1">
         <v>155</v>
@@ -13140,15 +13125,15 @@
         <v>2024</v>
       </c>
       <c r="J377" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="378" spans="1:10">
-      <c r="A378" s="5" t="s">
-        <v>184</v>
+      <c r="A378" s="5">
+        <v>1106</v>
       </c>
       <c r="B378" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C378" s="1">
         <v>155</v>
@@ -13172,15 +13157,15 @@
         <v>2024</v>
       </c>
       <c r="J378" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="379" spans="1:10">
-      <c r="A379" s="5" t="s">
-        <v>184</v>
+      <c r="A379" s="5">
+        <v>1106</v>
       </c>
       <c r="B379" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C379" s="1">
         <v>337</v>
@@ -13204,15 +13189,15 @@
         <v>2024</v>
       </c>
       <c r="J379" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="380" spans="1:10">
-      <c r="A380" s="5" t="s">
-        <v>184</v>
+      <c r="A380" s="5">
+        <v>1106</v>
       </c>
       <c r="B380" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C380" s="1">
         <v>248</v>
@@ -13236,15 +13221,15 @@
         <v>2024</v>
       </c>
       <c r="J380" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="381" spans="1:10">
-      <c r="A381" s="5" t="s">
-        <v>184</v>
+      <c r="A381" s="5">
+        <v>1106</v>
       </c>
       <c r="B381" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C381" s="1">
         <v>146</v>
@@ -13268,15 +13253,15 @@
         <v>2024</v>
       </c>
       <c r="J381" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="382" spans="1:10">
-      <c r="A382" s="5" t="s">
-        <v>184</v>
+      <c r="A382" s="5">
+        <v>1106</v>
       </c>
       <c r="B382" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C382" s="1">
         <v>187</v>
@@ -13300,15 +13285,15 @@
         <v>2024</v>
       </c>
       <c r="J382" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="383" spans="1:10">
-      <c r="A383" s="5" t="s">
-        <v>184</v>
+      <c r="A383" s="5">
+        <v>1106</v>
       </c>
       <c r="B383" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C383" s="1">
         <v>222</v>
@@ -13332,15 +13317,15 @@
         <v>2024</v>
       </c>
       <c r="J383" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="384" spans="1:10">
-      <c r="A384" s="5" t="s">
-        <v>184</v>
+      <c r="A384" s="5">
+        <v>1106</v>
       </c>
       <c r="B384" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C384" s="1">
         <v>149</v>
@@ -13364,15 +13349,15 @@
         <v>2024</v>
       </c>
       <c r="J384" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="385" spans="1:10">
-      <c r="A385" s="5" t="s">
-        <v>184</v>
+      <c r="A385" s="5">
+        <v>1106</v>
       </c>
       <c r="B385" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C385" s="1">
         <v>158</v>
@@ -13396,15 +13381,15 @@
         <v>2024</v>
       </c>
       <c r="J385" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="386" spans="1:10">
-      <c r="A386" s="5" t="s">
-        <v>184</v>
+      <c r="A386" s="5">
+        <v>1106</v>
       </c>
       <c r="B386" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C386" s="1">
         <v>188</v>
@@ -13428,15 +13413,15 @@
         <v>2024</v>
       </c>
       <c r="J386" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="387" spans="1:10">
-      <c r="A387" s="5" t="s">
-        <v>184</v>
+      <c r="A387" s="5">
+        <v>1106</v>
       </c>
       <c r="B387" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C387" s="1">
         <v>232</v>
@@ -13460,15 +13445,15 @@
         <v>2024</v>
       </c>
       <c r="J387" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="388" spans="1:10">
-      <c r="A388" s="5" t="s">
-        <v>184</v>
+      <c r="A388" s="5">
+        <v>1106</v>
       </c>
       <c r="B388" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C388" s="1">
         <v>261</v>
@@ -13492,15 +13477,15 @@
         <v>2024</v>
       </c>
       <c r="J388" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="389" spans="1:10">
-      <c r="A389" s="5" t="s">
-        <v>184</v>
+      <c r="A389" s="5">
+        <v>1106</v>
       </c>
       <c r="B389" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C389" s="1">
         <v>342</v>
@@ -13524,15 +13509,15 @@
         <v>2024</v>
       </c>
       <c r="J389" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="390" spans="1:10">
-      <c r="A390" s="5" t="s">
-        <v>184</v>
+      <c r="A390" s="5">
+        <v>1106</v>
       </c>
       <c r="B390" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C390" s="1">
         <v>222</v>
@@ -13556,15 +13541,15 @@
         <v>2024</v>
       </c>
       <c r="J390" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="391" spans="1:10">
-      <c r="A391" s="5" t="s">
-        <v>184</v>
+      <c r="A391" s="5">
+        <v>1106</v>
       </c>
       <c r="B391" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C391" s="1">
         <v>178</v>
@@ -13588,15 +13573,15 @@
         <v>2024</v>
       </c>
       <c r="J391" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="392" spans="1:10">
-      <c r="A392" s="5" t="s">
-        <v>184</v>
+      <c r="A392" s="5">
+        <v>1106</v>
       </c>
       <c r="B392" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C392" s="1">
         <v>184</v>
@@ -13620,15 +13605,15 @@
         <v>2024</v>
       </c>
       <c r="J392" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="393" spans="1:10">
-      <c r="A393" s="5" t="s">
-        <v>184</v>
+      <c r="A393" s="5">
+        <v>1106</v>
       </c>
       <c r="B393" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C393" s="1">
         <v>200</v>
@@ -13652,10 +13637,11 @@
         <v>2024</v>
       </c>
       <c r="J393" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J393" xr:uid="{F320DEFD-E675-4434-9FAA-F3C254001E23}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Resultados_Simulacro_ICFES.xlsx
+++ b/Resultados_Simulacro_ICFES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Project_Python\rs_icfes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A029607-58B6-499C-A91A-22D25C336601}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35520222-F85D-4A13-8B26-63ED72275789}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E084411A-0BE6-4F73-A93C-EC29D2242342}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="412">
   <si>
     <t>Grupo</t>
   </si>
@@ -1255,6 +1255,15 @@
   </si>
   <si>
     <t>1033180017</t>
+  </si>
+  <si>
+    <t>GARCIA TORRES SAMUEL</t>
+  </si>
+  <si>
+    <t>PLANCHEZ URDANETA GLEINNYS DE</t>
+  </si>
+  <si>
+    <t>PP_S1</t>
   </si>
 </sst>
 </file>
@@ -1650,10 +1659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122C58AF-DAD1-4F23-B77B-FF91B1E85975}">
-  <dimension ref="A1:K393"/>
+  <dimension ref="A1:K437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="K394" sqref="K394:K437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -15420,6 +15429,754 @@
         <v>205</v>
       </c>
     </row>
+    <row r="394" spans="1:11">
+      <c r="A394" s="5">
+        <v>1105</v>
+      </c>
+      <c r="B394" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C394" t="s">
+        <v>156</v>
+      </c>
+      <c r="E394" s="5">
+        <v>40</v>
+      </c>
+      <c r="K394" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11">
+      <c r="A395" s="5">
+        <v>1105</v>
+      </c>
+      <c r="B395" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C395" t="s">
+        <v>157</v>
+      </c>
+      <c r="E395" s="5">
+        <v>64</v>
+      </c>
+      <c r="K395" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11">
+      <c r="A396" s="5">
+        <v>1105</v>
+      </c>
+      <c r="B396" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C396" t="s">
+        <v>158</v>
+      </c>
+      <c r="E396" s="5">
+        <v>44</v>
+      </c>
+      <c r="K396" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11">
+      <c r="A397" s="5">
+        <v>1105</v>
+      </c>
+      <c r="B397" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C397" t="s">
+        <v>159</v>
+      </c>
+      <c r="E397" s="5">
+        <v>48</v>
+      </c>
+      <c r="K397" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11">
+      <c r="A398" s="5">
+        <v>1105</v>
+      </c>
+      <c r="B398" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C398" t="s">
+        <v>160</v>
+      </c>
+      <c r="E398" s="5">
+        <v>52</v>
+      </c>
+      <c r="K398" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11">
+      <c r="A399" s="5">
+        <v>1105</v>
+      </c>
+      <c r="B399" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C399" t="s">
+        <v>161</v>
+      </c>
+      <c r="E399" s="5">
+        <v>36</v>
+      </c>
+      <c r="K399" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11">
+      <c r="A400" s="5">
+        <v>1105</v>
+      </c>
+      <c r="B400" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C400" t="s">
+        <v>162</v>
+      </c>
+      <c r="E400" s="5">
+        <v>36</v>
+      </c>
+      <c r="K400" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11">
+      <c r="A401" s="5">
+        <v>1105</v>
+      </c>
+      <c r="B401" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C401" t="s">
+        <v>163</v>
+      </c>
+      <c r="E401" s="5">
+        <v>40</v>
+      </c>
+      <c r="K401" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11">
+      <c r="A402" s="5">
+        <v>1105</v>
+      </c>
+      <c r="B402" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="C402" t="s">
+        <v>165</v>
+      </c>
+      <c r="E402" s="5">
+        <v>60</v>
+      </c>
+      <c r="K402" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11">
+      <c r="A403" s="5">
+        <v>1105</v>
+      </c>
+      <c r="B403" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C403" t="s">
+        <v>166</v>
+      </c>
+      <c r="E403" s="5">
+        <v>60</v>
+      </c>
+      <c r="K403" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11">
+      <c r="A404" s="5">
+        <v>1105</v>
+      </c>
+      <c r="B404" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C404" t="s">
+        <v>409</v>
+      </c>
+      <c r="E404" s="5">
+        <v>0</v>
+      </c>
+      <c r="K404" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11">
+      <c r="A405" s="5">
+        <v>1105</v>
+      </c>
+      <c r="B405" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C405" t="s">
+        <v>167</v>
+      </c>
+      <c r="E405" s="5">
+        <v>36</v>
+      </c>
+      <c r="K405" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11">
+      <c r="A406" s="5">
+        <v>1105</v>
+      </c>
+      <c r="B406" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C406" t="s">
+        <v>168</v>
+      </c>
+      <c r="E406" s="5">
+        <v>0</v>
+      </c>
+      <c r="K406" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11">
+      <c r="A407" s="5">
+        <v>1105</v>
+      </c>
+      <c r="B407" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C407" t="s">
+        <v>169</v>
+      </c>
+      <c r="E407" s="5">
+        <v>44</v>
+      </c>
+      <c r="K407" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11">
+      <c r="A408" s="5">
+        <v>1105</v>
+      </c>
+      <c r="B408" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C408" t="s">
+        <v>170</v>
+      </c>
+      <c r="E408" s="5">
+        <v>36</v>
+      </c>
+      <c r="K408" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11">
+      <c r="A409" s="5">
+        <v>1105</v>
+      </c>
+      <c r="B409" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C409" t="s">
+        <v>172</v>
+      </c>
+      <c r="E409" s="5">
+        <v>48</v>
+      </c>
+      <c r="K409" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11">
+      <c r="A410" s="5">
+        <v>1105</v>
+      </c>
+      <c r="B410" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C410" t="s">
+        <v>173</v>
+      </c>
+      <c r="E410" s="5">
+        <v>48</v>
+      </c>
+      <c r="K410" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11">
+      <c r="A411" s="5">
+        <v>1105</v>
+      </c>
+      <c r="B411" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C411" t="s">
+        <v>174</v>
+      </c>
+      <c r="E411" s="5">
+        <v>44</v>
+      </c>
+      <c r="K411" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11">
+      <c r="A412" s="5">
+        <v>1105</v>
+      </c>
+      <c r="B412" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C412" t="s">
+        <v>410</v>
+      </c>
+      <c r="E412" s="5">
+        <v>48</v>
+      </c>
+      <c r="K412" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11">
+      <c r="A413" s="5">
+        <v>1105</v>
+      </c>
+      <c r="B413" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C413" t="s">
+        <v>175</v>
+      </c>
+      <c r="E413" s="5">
+        <v>60</v>
+      </c>
+      <c r="K413" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11">
+      <c r="A414" s="5">
+        <v>1105</v>
+      </c>
+      <c r="B414" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C414" t="s">
+        <v>176</v>
+      </c>
+      <c r="E414" s="5">
+        <v>80</v>
+      </c>
+      <c r="K414" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11">
+      <c r="A415" s="5">
+        <v>1105</v>
+      </c>
+      <c r="B415" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C415" t="s">
+        <v>177</v>
+      </c>
+      <c r="E415" s="5">
+        <v>32</v>
+      </c>
+      <c r="K415" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11">
+      <c r="A416" s="5">
+        <v>1105</v>
+      </c>
+      <c r="B416" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C416" t="s">
+        <v>209</v>
+      </c>
+      <c r="E416" s="5">
+        <v>44</v>
+      </c>
+      <c r="K416" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11">
+      <c r="A417" s="5">
+        <v>1106</v>
+      </c>
+      <c r="B417" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C417" t="s">
+        <v>178</v>
+      </c>
+      <c r="E417" s="5">
+        <v>52</v>
+      </c>
+      <c r="K417" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11">
+      <c r="A418" s="5">
+        <v>1106</v>
+      </c>
+      <c r="B418" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C418" t="s">
+        <v>179</v>
+      </c>
+      <c r="E418" s="5">
+        <v>48</v>
+      </c>
+      <c r="K418" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11">
+      <c r="A419" s="5">
+        <v>1106</v>
+      </c>
+      <c r="B419" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C419" t="s">
+        <v>180</v>
+      </c>
+      <c r="E419" s="5">
+        <v>36</v>
+      </c>
+      <c r="K419" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11">
+      <c r="A420" s="5">
+        <v>1106</v>
+      </c>
+      <c r="B420" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C420" t="s">
+        <v>181</v>
+      </c>
+      <c r="E420" s="5">
+        <v>36</v>
+      </c>
+      <c r="K420" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11">
+      <c r="A421" s="5">
+        <v>1106</v>
+      </c>
+      <c r="B421" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C421" t="s">
+        <v>182</v>
+      </c>
+      <c r="E421" s="5">
+        <v>48</v>
+      </c>
+      <c r="K421" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11">
+      <c r="A422" s="5">
+        <v>1106</v>
+      </c>
+      <c r="B422" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C422" t="s">
+        <v>183</v>
+      </c>
+      <c r="E422" s="5">
+        <v>40</v>
+      </c>
+      <c r="K422" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11">
+      <c r="A423" s="5">
+        <v>1106</v>
+      </c>
+      <c r="B423" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C423" t="s">
+        <v>184</v>
+      </c>
+      <c r="E423" s="5">
+        <v>36</v>
+      </c>
+      <c r="K423" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11">
+      <c r="A424" s="5">
+        <v>1106</v>
+      </c>
+      <c r="B424" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C424" t="s">
+        <v>185</v>
+      </c>
+      <c r="E424" s="5">
+        <v>68</v>
+      </c>
+      <c r="K424" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11">
+      <c r="A425" s="5">
+        <v>1106</v>
+      </c>
+      <c r="B425" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C425" t="s">
+        <v>187</v>
+      </c>
+      <c r="E425" s="5">
+        <v>0</v>
+      </c>
+      <c r="K425" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11">
+      <c r="A426" s="5">
+        <v>1106</v>
+      </c>
+      <c r="B426" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C426" t="s">
+        <v>189</v>
+      </c>
+      <c r="E426" s="5">
+        <v>56</v>
+      </c>
+      <c r="K426" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11">
+      <c r="A427" s="5">
+        <v>1106</v>
+      </c>
+      <c r="B427" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C427" t="s">
+        <v>190</v>
+      </c>
+      <c r="E427" s="5">
+        <v>32</v>
+      </c>
+      <c r="K427" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11">
+      <c r="A428" s="5">
+        <v>1106</v>
+      </c>
+      <c r="B428" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C428" t="s">
+        <v>191</v>
+      </c>
+      <c r="E428" s="5">
+        <v>44</v>
+      </c>
+      <c r="K428" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11">
+      <c r="A429" s="5">
+        <v>1106</v>
+      </c>
+      <c r="B429" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C429" t="s">
+        <v>192</v>
+      </c>
+      <c r="E429" s="5">
+        <v>52</v>
+      </c>
+      <c r="K429" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11">
+      <c r="A430" s="5">
+        <v>1106</v>
+      </c>
+      <c r="B430" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C430" t="s">
+        <v>193</v>
+      </c>
+      <c r="E430" s="5">
+        <v>28</v>
+      </c>
+      <c r="K430" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11">
+      <c r="A431" s="5">
+        <v>1106</v>
+      </c>
+      <c r="B431" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C431" t="s">
+        <v>194</v>
+      </c>
+      <c r="E431" s="5">
+        <v>48</v>
+      </c>
+      <c r="K431" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11">
+      <c r="A432" s="5">
+        <v>1106</v>
+      </c>
+      <c r="B432" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C432" t="s">
+        <v>195</v>
+      </c>
+      <c r="E432" s="5">
+        <v>40</v>
+      </c>
+      <c r="K432" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11">
+      <c r="A433" s="5">
+        <v>1106</v>
+      </c>
+      <c r="B433" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C433" t="s">
+        <v>196</v>
+      </c>
+      <c r="E433" s="5">
+        <v>44</v>
+      </c>
+      <c r="K433" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11">
+      <c r="A434" s="5">
+        <v>1106</v>
+      </c>
+      <c r="B434" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C434" t="s">
+        <v>197</v>
+      </c>
+      <c r="E434" s="5">
+        <v>32</v>
+      </c>
+      <c r="K434" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11">
+      <c r="A435" s="5">
+        <v>1106</v>
+      </c>
+      <c r="B435" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C435" t="s">
+        <v>199</v>
+      </c>
+      <c r="E435" s="5">
+        <v>32</v>
+      </c>
+      <c r="K435" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11">
+      <c r="A436" s="5">
+        <v>1106</v>
+      </c>
+      <c r="B436" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C436" t="s">
+        <v>200</v>
+      </c>
+      <c r="E436" s="5">
+        <v>32</v>
+      </c>
+      <c r="K436" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11">
+      <c r="A437" s="5">
+        <v>1106</v>
+      </c>
+      <c r="B437" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C437" t="s">
+        <v>202</v>
+      </c>
+      <c r="E437" s="5">
+        <v>40</v>
+      </c>
+      <c r="K437" s="5" t="s">
+        <v>411</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K393" xr:uid="{F320DEFD-E675-4434-9FAA-F3C254001E23}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resultados_Simulacro_ICFES.xlsx
+++ b/Resultados_Simulacro_ICFES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Project_Python\rs_icfes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35520222-F85D-4A13-8B26-63ED72275789}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372CEB20-35E2-43AE-B264-35C404CE9BDE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E084411A-0BE6-4F73-A93C-EC29D2242342}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$K$393</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$K$437</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="412">
   <si>
     <t>Grupo</t>
   </si>
@@ -1307,7 +1307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1325,6 +1325,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1661,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122C58AF-DAD1-4F23-B77B-FF91B1E85975}">
   <dimension ref="A1:K437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="K394" sqref="K394:K437"/>
+    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="F439" sqref="F439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1748,8 +1749,8 @@
       <c r="A3" s="5">
         <v>1101</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>259</v>
+      <c r="B3" s="5">
+        <v>1028900047</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -7033,8 +7034,8 @@
       <c r="A154" s="5">
         <v>1105</v>
       </c>
-      <c r="B154" s="5" t="s">
-        <v>216</v>
+      <c r="B154" s="5">
+        <v>1026138134</v>
       </c>
       <c r="C154" t="s">
         <v>158</v>
@@ -7068,8 +7069,8 @@
       <c r="A155" s="5">
         <v>1105</v>
       </c>
-      <c r="B155" s="5" t="s">
-        <v>217</v>
+      <c r="B155" s="5">
+        <v>1018344841</v>
       </c>
       <c r="C155" t="s">
         <v>159</v>
@@ -15433,14 +15434,14 @@
       <c r="A394" s="5">
         <v>1105</v>
       </c>
-      <c r="B394" s="5" t="s">
-        <v>214</v>
+      <c r="B394" s="5">
+        <v>5604052</v>
       </c>
       <c r="C394" t="s">
         <v>156</v>
       </c>
-      <c r="E394" s="5">
-        <v>40</v>
+      <c r="E394" s="7">
+        <v>35.416666666666664</v>
       </c>
       <c r="K394" s="5" t="s">
         <v>411</v>
@@ -15456,8 +15457,8 @@
       <c r="C395" t="s">
         <v>157</v>
       </c>
-      <c r="E395" s="5">
-        <v>64</v>
+      <c r="E395" s="7">
+        <v>56.25</v>
       </c>
       <c r="K395" s="5" t="s">
         <v>411</v>
@@ -15473,8 +15474,8 @@
       <c r="C396" t="s">
         <v>158</v>
       </c>
-      <c r="E396" s="5">
-        <v>44</v>
+      <c r="E396" s="7">
+        <v>45.833333333333336</v>
       </c>
       <c r="K396" s="5" t="s">
         <v>411</v>
@@ -15490,8 +15491,8 @@
       <c r="C397" t="s">
         <v>159</v>
       </c>
-      <c r="E397" s="5">
-        <v>48</v>
+      <c r="E397" s="7">
+        <v>56.25</v>
       </c>
       <c r="K397" s="5" t="s">
         <v>411</v>
@@ -15507,8 +15508,8 @@
       <c r="C398" t="s">
         <v>160</v>
       </c>
-      <c r="E398" s="5">
-        <v>52</v>
+      <c r="E398" s="7">
+        <v>58.333333333333336</v>
       </c>
       <c r="K398" s="5" t="s">
         <v>411</v>
@@ -15524,8 +15525,8 @@
       <c r="C399" t="s">
         <v>161</v>
       </c>
-      <c r="E399" s="5">
-        <v>36</v>
+      <c r="E399" s="7">
+        <v>35.416666666666664</v>
       </c>
       <c r="K399" s="5" t="s">
         <v>411</v>
@@ -15541,8 +15542,8 @@
       <c r="C400" t="s">
         <v>162</v>
       </c>
-      <c r="E400" s="5">
-        <v>36</v>
+      <c r="E400" s="7">
+        <v>27.083333333333332</v>
       </c>
       <c r="K400" s="5" t="s">
         <v>411</v>
@@ -15558,8 +15559,8 @@
       <c r="C401" t="s">
         <v>163</v>
       </c>
-      <c r="E401" s="5">
-        <v>40</v>
+      <c r="E401" s="7">
+        <v>29.166666666666668</v>
       </c>
       <c r="K401" s="5" t="s">
         <v>411</v>
@@ -15575,8 +15576,8 @@
       <c r="C402" t="s">
         <v>165</v>
       </c>
-      <c r="E402" s="5">
-        <v>60</v>
+      <c r="E402" s="7">
+        <v>45.833333333333336</v>
       </c>
       <c r="K402" s="5" t="s">
         <v>411</v>
@@ -15592,8 +15593,8 @@
       <c r="C403" t="s">
         <v>166</v>
       </c>
-      <c r="E403" s="5">
-        <v>60</v>
+      <c r="E403" s="7">
+        <v>43.75</v>
       </c>
       <c r="K403" s="5" t="s">
         <v>411</v>
@@ -15609,7 +15610,7 @@
       <c r="C404" t="s">
         <v>409</v>
       </c>
-      <c r="E404" s="5">
+      <c r="E404" s="7">
         <v>0</v>
       </c>
       <c r="K404" s="5" t="s">
@@ -15626,8 +15627,8 @@
       <c r="C405" t="s">
         <v>167</v>
       </c>
-      <c r="E405" s="5">
-        <v>36</v>
+      <c r="E405" s="7">
+        <v>35.416666666666664</v>
       </c>
       <c r="K405" s="5" t="s">
         <v>411</v>
@@ -15643,8 +15644,8 @@
       <c r="C406" t="s">
         <v>168</v>
       </c>
-      <c r="E406" s="5">
-        <v>0</v>
+      <c r="E406" s="7">
+        <v>10.416666666666666</v>
       </c>
       <c r="K406" s="5" t="s">
         <v>411</v>
@@ -15660,8 +15661,8 @@
       <c r="C407" t="s">
         <v>169</v>
       </c>
-      <c r="E407" s="5">
-        <v>44</v>
+      <c r="E407" s="7">
+        <v>50</v>
       </c>
       <c r="K407" s="5" t="s">
         <v>411</v>
@@ -15677,8 +15678,8 @@
       <c r="C408" t="s">
         <v>170</v>
       </c>
-      <c r="E408" s="5">
-        <v>36</v>
+      <c r="E408" s="7">
+        <v>37.5</v>
       </c>
       <c r="K408" s="5" t="s">
         <v>411</v>
@@ -15694,8 +15695,8 @@
       <c r="C409" t="s">
         <v>172</v>
       </c>
-      <c r="E409" s="5">
-        <v>48</v>
+      <c r="E409" s="7">
+        <v>47.916666666666664</v>
       </c>
       <c r="K409" s="5" t="s">
         <v>411</v>
@@ -15711,8 +15712,8 @@
       <c r="C410" t="s">
         <v>173</v>
       </c>
-      <c r="E410" s="5">
-        <v>48</v>
+      <c r="E410" s="7">
+        <v>43.75</v>
       </c>
       <c r="K410" s="5" t="s">
         <v>411</v>
@@ -15728,8 +15729,8 @@
       <c r="C411" t="s">
         <v>174</v>
       </c>
-      <c r="E411" s="5">
-        <v>44</v>
+      <c r="E411" s="7">
+        <v>35.416666666666664</v>
       </c>
       <c r="K411" s="5" t="s">
         <v>411</v>
@@ -15745,8 +15746,8 @@
       <c r="C412" t="s">
         <v>410</v>
       </c>
-      <c r="E412" s="5">
-        <v>48</v>
+      <c r="E412" s="7">
+        <v>50</v>
       </c>
       <c r="K412" s="5" t="s">
         <v>411</v>
@@ -15762,8 +15763,8 @@
       <c r="C413" t="s">
         <v>175</v>
       </c>
-      <c r="E413" s="5">
-        <v>60</v>
+      <c r="E413" s="7">
+        <v>47.916666666666664</v>
       </c>
       <c r="K413" s="5" t="s">
         <v>411</v>
@@ -15779,8 +15780,8 @@
       <c r="C414" t="s">
         <v>176</v>
       </c>
-      <c r="E414" s="5">
-        <v>80</v>
+      <c r="E414" s="7">
+        <v>75</v>
       </c>
       <c r="K414" s="5" t="s">
         <v>411</v>
@@ -15796,8 +15797,8 @@
       <c r="C415" t="s">
         <v>177</v>
       </c>
-      <c r="E415" s="5">
-        <v>32</v>
+      <c r="E415" s="7">
+        <v>33.333333333333336</v>
       </c>
       <c r="K415" s="5" t="s">
         <v>411</v>
@@ -15813,8 +15814,8 @@
       <c r="C416" t="s">
         <v>209</v>
       </c>
-      <c r="E416" s="5">
-        <v>44</v>
+      <c r="E416" s="7">
+        <v>22.916666666666668</v>
       </c>
       <c r="K416" s="5" t="s">
         <v>411</v>
@@ -15830,8 +15831,8 @@
       <c r="C417" t="s">
         <v>178</v>
       </c>
-      <c r="E417" s="5">
-        <v>52</v>
+      <c r="E417" s="7">
+        <v>50</v>
       </c>
       <c r="K417" s="5" t="s">
         <v>411</v>
@@ -15847,8 +15848,8 @@
       <c r="C418" t="s">
         <v>179</v>
       </c>
-      <c r="E418" s="5">
-        <v>48</v>
+      <c r="E418" s="7">
+        <v>45.833333333333336</v>
       </c>
       <c r="K418" s="5" t="s">
         <v>411</v>
@@ -15864,8 +15865,8 @@
       <c r="C419" t="s">
         <v>180</v>
       </c>
-      <c r="E419" s="5">
-        <v>36</v>
+      <c r="E419" s="7">
+        <v>27.083333333333332</v>
       </c>
       <c r="K419" s="5" t="s">
         <v>411</v>
@@ -15881,8 +15882,8 @@
       <c r="C420" t="s">
         <v>181</v>
       </c>
-      <c r="E420" s="5">
-        <v>36</v>
+      <c r="E420" s="7">
+        <v>33.333333333333336</v>
       </c>
       <c r="K420" s="5" t="s">
         <v>411</v>
@@ -15898,8 +15899,8 @@
       <c r="C421" t="s">
         <v>182</v>
       </c>
-      <c r="E421" s="5">
-        <v>48</v>
+      <c r="E421" s="7">
+        <v>39.583333333333336</v>
       </c>
       <c r="K421" s="5" t="s">
         <v>411</v>
@@ -15915,8 +15916,8 @@
       <c r="C422" t="s">
         <v>183</v>
       </c>
-      <c r="E422" s="5">
-        <v>40</v>
+      <c r="E422" s="7">
+        <v>37.5</v>
       </c>
       <c r="K422" s="5" t="s">
         <v>411</v>
@@ -15932,8 +15933,8 @@
       <c r="C423" t="s">
         <v>184</v>
       </c>
-      <c r="E423" s="5">
-        <v>36</v>
+      <c r="E423" s="7">
+        <v>25</v>
       </c>
       <c r="K423" s="5" t="s">
         <v>411</v>
@@ -15949,8 +15950,8 @@
       <c r="C424" t="s">
         <v>185</v>
       </c>
-      <c r="E424" s="5">
-        <v>68</v>
+      <c r="E424" s="7">
+        <v>60.416666666666664</v>
       </c>
       <c r="K424" s="5" t="s">
         <v>411</v>
@@ -15966,7 +15967,7 @@
       <c r="C425" t="s">
         <v>187</v>
       </c>
-      <c r="E425" s="5">
+      <c r="E425" s="7">
         <v>0</v>
       </c>
       <c r="K425" s="5" t="s">
@@ -15983,8 +15984,8 @@
       <c r="C426" t="s">
         <v>189</v>
       </c>
-      <c r="E426" s="5">
-        <v>56</v>
+      <c r="E426" s="7">
+        <v>56.25</v>
       </c>
       <c r="K426" s="5" t="s">
         <v>411</v>
@@ -16000,8 +16001,8 @@
       <c r="C427" t="s">
         <v>190</v>
       </c>
-      <c r="E427" s="5">
-        <v>32</v>
+      <c r="E427" s="7">
+        <v>29.166666666666668</v>
       </c>
       <c r="K427" s="5" t="s">
         <v>411</v>
@@ -16017,8 +16018,8 @@
       <c r="C428" t="s">
         <v>191</v>
       </c>
-      <c r="E428" s="5">
-        <v>44</v>
+      <c r="E428" s="7">
+        <v>47.916666666666664</v>
       </c>
       <c r="K428" s="5" t="s">
         <v>411</v>
@@ -16034,8 +16035,8 @@
       <c r="C429" t="s">
         <v>192</v>
       </c>
-      <c r="E429" s="5">
-        <v>52</v>
+      <c r="E429" s="7">
+        <v>50</v>
       </c>
       <c r="K429" s="5" t="s">
         <v>411</v>
@@ -16051,8 +16052,8 @@
       <c r="C430" t="s">
         <v>193</v>
       </c>
-      <c r="E430" s="5">
-        <v>28</v>
+      <c r="E430" s="7">
+        <v>31.25</v>
       </c>
       <c r="K430" s="5" t="s">
         <v>411</v>
@@ -16068,8 +16069,8 @@
       <c r="C431" t="s">
         <v>194</v>
       </c>
-      <c r="E431" s="5">
-        <v>48</v>
+      <c r="E431" s="7">
+        <v>39.583333333333336</v>
       </c>
       <c r="K431" s="5" t="s">
         <v>411</v>
@@ -16085,8 +16086,8 @@
       <c r="C432" t="s">
         <v>195</v>
       </c>
-      <c r="E432" s="5">
-        <v>40</v>
+      <c r="E432" s="7">
+        <v>37.5</v>
       </c>
       <c r="K432" s="5" t="s">
         <v>411</v>
@@ -16102,8 +16103,8 @@
       <c r="C433" t="s">
         <v>196</v>
       </c>
-      <c r="E433" s="5">
-        <v>44</v>
+      <c r="E433" s="7">
+        <v>29.166666666666668</v>
       </c>
       <c r="K433" s="5" t="s">
         <v>411</v>
@@ -16119,8 +16120,8 @@
       <c r="C434" t="s">
         <v>197</v>
       </c>
-      <c r="E434" s="5">
-        <v>32</v>
+      <c r="E434" s="7">
+        <v>29.166666666666668</v>
       </c>
       <c r="K434" s="5" t="s">
         <v>411</v>
@@ -16136,8 +16137,8 @@
       <c r="C435" t="s">
         <v>199</v>
       </c>
-      <c r="E435" s="5">
-        <v>32</v>
+      <c r="E435" s="7">
+        <v>33.333333333333336</v>
       </c>
       <c r="K435" s="5" t="s">
         <v>411</v>
@@ -16153,8 +16154,8 @@
       <c r="C436" t="s">
         <v>200</v>
       </c>
-      <c r="E436" s="5">
-        <v>32</v>
+      <c r="E436" s="7">
+        <v>31.25</v>
       </c>
       <c r="K436" s="5" t="s">
         <v>411</v>
@@ -16170,15 +16171,15 @@
       <c r="C437" t="s">
         <v>202</v>
       </c>
-      <c r="E437" s="5">
-        <v>40</v>
+      <c r="E437" s="7">
+        <v>31.25</v>
       </c>
       <c r="K437" s="5" t="s">
         <v>411</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K393" xr:uid="{F320DEFD-E675-4434-9FAA-F3C254001E23}"/>
+  <autoFilter ref="A1:K437" xr:uid="{F320DEFD-E675-4434-9FAA-F3C254001E23}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" copies="2" r:id="rId1"/>
 </worksheet>

--- a/Resultados_Simulacro_ICFES.xlsx
+++ b/Resultados_Simulacro_ICFES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Project_Python\rs_icfes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372CEB20-35E2-43AE-B264-35C404CE9BDE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12BE8C1-93C3-40A7-B55C-6FDCE8AEA4FF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E084411A-0BE6-4F73-A93C-EC29D2242342}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$K$437</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$K$581</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="416">
   <si>
     <t>Grupo</t>
   </si>
@@ -1257,13 +1257,25 @@
     <t>1033180017</t>
   </si>
   <si>
-    <t>GARCIA TORRES SAMUEL</t>
-  </si>
-  <si>
-    <t>PLANCHEZ URDANETA GLEINNYS DE</t>
-  </si>
-  <si>
-    <t>PP_S1</t>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>1102</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>1106</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1325,7 +1337,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1660,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122C58AF-DAD1-4F23-B77B-FF91B1E85975}">
-  <dimension ref="A1:K437"/>
+  <dimension ref="A1:K581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
-      <selection activeCell="F439" sqref="F439"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -1854,8 +1865,8 @@
       <c r="A6" s="5">
         <v>1101</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>262</v>
+      <c r="B6" s="5">
+        <v>1035975126</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -15431,755 +15442,6587 @@
       </c>
     </row>
     <row r="394" spans="1:11">
-      <c r="A394" s="5">
-        <v>1105</v>
-      </c>
-      <c r="B394" s="5">
-        <v>5604052</v>
+      <c r="A394" t="s">
+        <v>410</v>
+      </c>
+      <c r="B394" t="s">
+        <v>258</v>
       </c>
       <c r="C394" t="s">
+        <v>8</v>
+      </c>
+      <c r="D394">
+        <v>225</v>
+      </c>
+      <c r="E394">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F394">
+        <v>52.500000999999997</v>
+      </c>
+      <c r="G394">
+        <v>32.758620999999998</v>
+      </c>
+      <c r="H394">
+        <v>62.000000999999997</v>
+      </c>
+      <c r="I394">
+        <v>34.545454999999997</v>
+      </c>
+      <c r="J394">
+        <v>2024</v>
+      </c>
+      <c r="K394" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11">
+      <c r="A395" t="s">
+        <v>410</v>
+      </c>
+      <c r="B395" t="s">
+        <v>259</v>
+      </c>
+      <c r="C395" t="s">
+        <v>9</v>
+      </c>
+      <c r="D395">
+        <v>302</v>
+      </c>
+      <c r="E395">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="F395">
+        <v>75.000000999999997</v>
+      </c>
+      <c r="G395">
+        <v>55.172414000000003</v>
+      </c>
+      <c r="H395">
+        <v>72.000000999999997</v>
+      </c>
+      <c r="I395">
+        <v>38.181818999999997</v>
+      </c>
+      <c r="J395">
+        <v>2024</v>
+      </c>
+      <c r="K395" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11">
+      <c r="A396" t="s">
+        <v>410</v>
+      </c>
+      <c r="B396" t="s">
+        <v>260</v>
+      </c>
+      <c r="C396" t="s">
+        <v>10</v>
+      </c>
+      <c r="D396">
+        <v>259</v>
+      </c>
+      <c r="E396">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="F396">
+        <v>67.500000999999997</v>
+      </c>
+      <c r="G396">
+        <v>37.931035000000001</v>
+      </c>
+      <c r="H396">
+        <v>66.000000999999997</v>
+      </c>
+      <c r="I396">
+        <v>38.181818999999997</v>
+      </c>
+      <c r="J396">
+        <v>2024</v>
+      </c>
+      <c r="K396" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11">
+      <c r="A397" t="s">
+        <v>410</v>
+      </c>
+      <c r="B397" t="s">
+        <v>261</v>
+      </c>
+      <c r="C397" t="s">
+        <v>11</v>
+      </c>
+      <c r="D397">
+        <v>188</v>
+      </c>
+      <c r="E397">
+        <v>30.000001000000001</v>
+      </c>
+      <c r="F397">
+        <v>45.000000999999997</v>
+      </c>
+      <c r="G397">
+        <v>25.862069000000002</v>
+      </c>
+      <c r="H397">
+        <v>48.000000999999997</v>
+      </c>
+      <c r="I397">
+        <v>41.818182</v>
+      </c>
+      <c r="J397">
+        <v>2024</v>
+      </c>
+      <c r="K397" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11">
+      <c r="A398" t="s">
+        <v>410</v>
+      </c>
+      <c r="B398" t="s">
+        <v>262</v>
+      </c>
+      <c r="C398" t="s">
+        <v>12</v>
+      </c>
+      <c r="D398">
+        <v>281</v>
+      </c>
+      <c r="E398">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="F398">
+        <v>65.000000999999997</v>
+      </c>
+      <c r="G398">
+        <v>36.206896999999998</v>
+      </c>
+      <c r="H398">
+        <v>64.000000999999997</v>
+      </c>
+      <c r="I398">
+        <v>54.545454999999997</v>
+      </c>
+      <c r="J398">
+        <v>2024</v>
+      </c>
+      <c r="K398" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11">
+      <c r="A399" t="s">
+        <v>410</v>
+      </c>
+      <c r="B399" t="s">
+        <v>263</v>
+      </c>
+      <c r="C399" t="s">
+        <v>13</v>
+      </c>
+      <c r="D399">
+        <v>201</v>
+      </c>
+      <c r="E399">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="F399">
+        <v>42.500000999999997</v>
+      </c>
+      <c r="G399">
+        <v>32.758620999999998</v>
+      </c>
+      <c r="H399">
+        <v>54.000000999999997</v>
+      </c>
+      <c r="I399">
+        <v>38.181818999999997</v>
+      </c>
+      <c r="J399">
+        <v>2024</v>
+      </c>
+      <c r="K399" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11">
+      <c r="A400" t="s">
+        <v>410</v>
+      </c>
+      <c r="B400" t="s">
+        <v>264</v>
+      </c>
+      <c r="C400" t="s">
+        <v>14</v>
+      </c>
+      <c r="D400">
+        <v>178</v>
+      </c>
+      <c r="E400">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="F400">
+        <v>45.000000999999997</v>
+      </c>
+      <c r="G400">
+        <v>20.689655999999999</v>
+      </c>
+      <c r="H400">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="I400">
+        <v>49.090910000000001</v>
+      </c>
+      <c r="J400">
+        <v>2024</v>
+      </c>
+      <c r="K400" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11">
+      <c r="A401" t="s">
+        <v>410</v>
+      </c>
+      <c r="B401" t="s">
+        <v>265</v>
+      </c>
+      <c r="C401" t="s">
+        <v>207</v>
+      </c>
+      <c r="D401">
+        <v>185</v>
+      </c>
+      <c r="E401">
+        <v>26.000001000000001</v>
+      </c>
+      <c r="F401">
+        <v>37.500000999999997</v>
+      </c>
+      <c r="G401">
+        <v>36.206896999999998</v>
+      </c>
+      <c r="H401">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="I401">
+        <v>54.545454999999997</v>
+      </c>
+      <c r="J401">
+        <v>2024</v>
+      </c>
+      <c r="K401" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11">
+      <c r="A402" t="s">
+        <v>410</v>
+      </c>
+      <c r="B402" t="s">
+        <v>266</v>
+      </c>
+      <c r="C402" t="s">
+        <v>15</v>
+      </c>
+      <c r="D402">
+        <v>245</v>
+      </c>
+      <c r="E402">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F402">
+        <v>57.500000999999997</v>
+      </c>
+      <c r="G402">
+        <v>46.551724999999998</v>
+      </c>
+      <c r="H402">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="I402">
+        <v>34.545454999999997</v>
+      </c>
+      <c r="J402">
+        <v>2024</v>
+      </c>
+      <c r="K402" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11">
+      <c r="A403" t="s">
+        <v>410</v>
+      </c>
+      <c r="B403" t="s">
+        <v>267</v>
+      </c>
+      <c r="C403" t="s">
+        <v>16</v>
+      </c>
+      <c r="D403">
+        <v>213</v>
+      </c>
+      <c r="E403">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="F403">
+        <v>52.500000999999997</v>
+      </c>
+      <c r="G403">
+        <v>48.275863000000001</v>
+      </c>
+      <c r="H403">
+        <v>30.000001000000001</v>
+      </c>
+      <c r="I403">
+        <v>45.454546000000001</v>
+      </c>
+      <c r="J403">
+        <v>2024</v>
+      </c>
+      <c r="K403" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11">
+      <c r="A404" t="s">
+        <v>410</v>
+      </c>
+      <c r="B404" t="s">
+        <v>268</v>
+      </c>
+      <c r="C404" t="s">
+        <v>17</v>
+      </c>
+      <c r="D404">
+        <v>343</v>
+      </c>
+      <c r="E404">
+        <v>58.000000999999997</v>
+      </c>
+      <c r="F404">
+        <v>77.500000999999997</v>
+      </c>
+      <c r="G404">
+        <v>60.344828</v>
+      </c>
+      <c r="H404">
+        <v>70.000000999999997</v>
+      </c>
+      <c r="I404">
+        <v>92.727272999999997</v>
+      </c>
+      <c r="J404">
+        <v>2024</v>
+      </c>
+      <c r="K404" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11">
+      <c r="A405" t="s">
+        <v>410</v>
+      </c>
+      <c r="B405" t="s">
+        <v>269</v>
+      </c>
+      <c r="C405" t="s">
+        <v>18</v>
+      </c>
+      <c r="D405">
+        <v>204</v>
+      </c>
+      <c r="E405">
+        <v>28.000001000000001</v>
+      </c>
+      <c r="F405">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="G405">
+        <v>44.827587000000001</v>
+      </c>
+      <c r="H405">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="I405">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="J405">
+        <v>2024</v>
+      </c>
+      <c r="K405" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11">
+      <c r="A406" t="s">
+        <v>410</v>
+      </c>
+      <c r="B406" t="s">
+        <v>271</v>
+      </c>
+      <c r="C406" t="s">
+        <v>20</v>
+      </c>
+      <c r="D406">
+        <v>216</v>
+      </c>
+      <c r="E406">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F406">
+        <v>55.000000999999997</v>
+      </c>
+      <c r="G406">
+        <v>36.206896999999998</v>
+      </c>
+      <c r="H406">
+        <v>44.000000999999997</v>
+      </c>
+      <c r="I406">
+        <v>45.454546000000001</v>
+      </c>
+      <c r="J406">
+        <v>2024</v>
+      </c>
+      <c r="K406" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11">
+      <c r="A407" t="s">
+        <v>410</v>
+      </c>
+      <c r="B407" t="s">
+        <v>272</v>
+      </c>
+      <c r="C407" t="s">
+        <v>21</v>
+      </c>
+      <c r="D407">
+        <v>179</v>
+      </c>
+      <c r="E407">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="F407">
+        <v>42.500000999999997</v>
+      </c>
+      <c r="G407">
+        <v>25.862069000000002</v>
+      </c>
+      <c r="H407">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="I407">
+        <v>43.636364</v>
+      </c>
+      <c r="J407">
+        <v>2024</v>
+      </c>
+      <c r="K407" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11">
+      <c r="A408" t="s">
+        <v>410</v>
+      </c>
+      <c r="B408" t="s">
+        <v>273</v>
+      </c>
+      <c r="C408" t="s">
+        <v>22</v>
+      </c>
+      <c r="D408">
+        <v>207</v>
+      </c>
+      <c r="E408">
+        <v>54.000000999999997</v>
+      </c>
+      <c r="F408">
+        <v>52.500000999999997</v>
+      </c>
+      <c r="G408">
+        <v>27.586207000000002</v>
+      </c>
+      <c r="H408">
+        <v>28.000001000000001</v>
+      </c>
+      <c r="I408">
+        <v>50.909090999999997</v>
+      </c>
+      <c r="J408">
+        <v>2024</v>
+      </c>
+      <c r="K408" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11">
+      <c r="A409" t="s">
+        <v>410</v>
+      </c>
+      <c r="B409" t="s">
+        <v>274</v>
+      </c>
+      <c r="C409" t="s">
+        <v>23</v>
+      </c>
+      <c r="D409">
+        <v>286</v>
+      </c>
+      <c r="E409">
+        <v>56.000000999999997</v>
+      </c>
+      <c r="F409">
+        <v>70.000000999999997</v>
+      </c>
+      <c r="G409">
+        <v>48.275863000000001</v>
+      </c>
+      <c r="H409">
+        <v>54.000000999999997</v>
+      </c>
+      <c r="I409">
+        <v>58.181818999999997</v>
+      </c>
+      <c r="J409">
+        <v>2024</v>
+      </c>
+      <c r="K409" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11">
+      <c r="A410" t="s">
+        <v>410</v>
+      </c>
+      <c r="B410" t="s">
+        <v>275</v>
+      </c>
+      <c r="C410" t="s">
+        <v>24</v>
+      </c>
+      <c r="D410">
+        <v>238</v>
+      </c>
+      <c r="E410">
+        <v>52.000000999999997</v>
+      </c>
+      <c r="F410">
+        <v>57.500000999999997</v>
+      </c>
+      <c r="G410">
+        <v>36.206896999999998</v>
+      </c>
+      <c r="H410">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="I410">
+        <v>54.545454999999997</v>
+      </c>
+      <c r="J410">
+        <v>2024</v>
+      </c>
+      <c r="K410" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11">
+      <c r="A411" t="s">
+        <v>410</v>
+      </c>
+      <c r="B411" t="s">
+        <v>276</v>
+      </c>
+      <c r="C411" t="s">
+        <v>25</v>
+      </c>
+      <c r="D411">
+        <v>298</v>
+      </c>
+      <c r="E411">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="F411">
+        <v>70.000000999999997</v>
+      </c>
+      <c r="G411">
+        <v>51.724138000000004</v>
+      </c>
+      <c r="H411">
+        <v>70.000000999999997</v>
+      </c>
+      <c r="I411">
+        <v>72.727272999999997</v>
+      </c>
+      <c r="J411">
+        <v>2024</v>
+      </c>
+      <c r="K411" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11">
+      <c r="A412" t="s">
+        <v>410</v>
+      </c>
+      <c r="B412" t="s">
+        <v>277</v>
+      </c>
+      <c r="C412" t="s">
+        <v>26</v>
+      </c>
+      <c r="D412">
+        <v>252</v>
+      </c>
+      <c r="E412">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="F412">
+        <v>55.000000999999997</v>
+      </c>
+      <c r="G412">
+        <v>53.448276</v>
+      </c>
+      <c r="H412">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="I412">
+        <v>52.727272999999997</v>
+      </c>
+      <c r="J412">
+        <v>2024</v>
+      </c>
+      <c r="K412" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11">
+      <c r="A413" t="s">
+        <v>410</v>
+      </c>
+      <c r="B413" t="s">
+        <v>278</v>
+      </c>
+      <c r="C413" t="s">
+        <v>27</v>
+      </c>
+      <c r="D413">
+        <v>190</v>
+      </c>
+      <c r="E413">
+        <v>26.000001000000001</v>
+      </c>
+      <c r="F413">
+        <v>55.000000999999997</v>
+      </c>
+      <c r="G413">
+        <v>32.758620999999998</v>
+      </c>
+      <c r="H413">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="I413">
+        <v>30.909091</v>
+      </c>
+      <c r="J413">
+        <v>2024</v>
+      </c>
+      <c r="K413" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11">
+      <c r="A414" t="s">
+        <v>410</v>
+      </c>
+      <c r="B414" t="s">
+        <v>279</v>
+      </c>
+      <c r="C414" t="s">
+        <v>28</v>
+      </c>
+      <c r="D414">
+        <v>234</v>
+      </c>
+      <c r="E414">
+        <v>54.000000999999997</v>
+      </c>
+      <c r="F414">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="G414">
+        <v>27.586207000000002</v>
+      </c>
+      <c r="H414">
+        <v>48.000000999999997</v>
+      </c>
+      <c r="I414">
+        <v>38.181818999999997</v>
+      </c>
+      <c r="J414">
+        <v>2024</v>
+      </c>
+      <c r="K414" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11">
+      <c r="A415" t="s">
+        <v>410</v>
+      </c>
+      <c r="B415" t="s">
+        <v>280</v>
+      </c>
+      <c r="C415" t="s">
+        <v>208</v>
+      </c>
+      <c r="D415">
+        <v>257</v>
+      </c>
+      <c r="E415">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="F415">
+        <v>72.500000999999997</v>
+      </c>
+      <c r="G415">
+        <v>27.586207000000002</v>
+      </c>
+      <c r="H415">
+        <v>56.000000999999997</v>
+      </c>
+      <c r="I415">
+        <v>72.727272999999997</v>
+      </c>
+      <c r="J415">
+        <v>2024</v>
+      </c>
+      <c r="K415" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11">
+      <c r="A416" t="s">
+        <v>410</v>
+      </c>
+      <c r="B416" t="s">
+        <v>281</v>
+      </c>
+      <c r="C416" t="s">
+        <v>29</v>
+      </c>
+      <c r="D416">
+        <v>202</v>
+      </c>
+      <c r="E416">
+        <v>52.000000999999997</v>
+      </c>
+      <c r="F416">
+        <v>62.500000999999997</v>
+      </c>
+      <c r="G416">
+        <v>22.413793999999999</v>
+      </c>
+      <c r="H416">
+        <v>28.000001000000001</v>
+      </c>
+      <c r="I416">
+        <v>29.090910000000001</v>
+      </c>
+      <c r="J416">
+        <v>2024</v>
+      </c>
+      <c r="K416" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11">
+      <c r="A417" t="s">
+        <v>410</v>
+      </c>
+      <c r="B417" t="s">
+        <v>282</v>
+      </c>
+      <c r="C417" t="s">
+        <v>30</v>
+      </c>
+      <c r="D417">
+        <v>196</v>
+      </c>
+      <c r="E417">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="F417">
+        <v>52.500000999999997</v>
+      </c>
+      <c r="G417">
+        <v>24.137931999999999</v>
+      </c>
+      <c r="H417">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="I417">
+        <v>38.181818999999997</v>
+      </c>
+      <c r="J417">
+        <v>2024</v>
+      </c>
+      <c r="K417" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11">
+      <c r="A418" t="s">
+        <v>410</v>
+      </c>
+      <c r="B418" t="s">
+        <v>283</v>
+      </c>
+      <c r="C418" t="s">
+        <v>31</v>
+      </c>
+      <c r="D418">
+        <v>187</v>
+      </c>
+      <c r="E418">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="F418">
+        <v>35.000000999999997</v>
+      </c>
+      <c r="G418">
+        <v>36.206896999999998</v>
+      </c>
+      <c r="H418">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="I418">
+        <v>36.363636999999997</v>
+      </c>
+      <c r="J418">
+        <v>2024</v>
+      </c>
+      <c r="K418" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11">
+      <c r="A419" t="s">
+        <v>410</v>
+      </c>
+      <c r="B419" t="s">
+        <v>284</v>
+      </c>
+      <c r="C419" t="s">
+        <v>32</v>
+      </c>
+      <c r="D419">
+        <v>267</v>
+      </c>
+      <c r="E419">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="F419">
+        <v>70.000000999999997</v>
+      </c>
+      <c r="G419">
+        <v>44.827587000000001</v>
+      </c>
+      <c r="H419">
+        <v>62.000000999999997</v>
+      </c>
+      <c r="I419">
+        <v>41.818182</v>
+      </c>
+      <c r="J419">
+        <v>2024</v>
+      </c>
+      <c r="K419" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11">
+      <c r="A420" t="s">
+        <v>411</v>
+      </c>
+      <c r="B420" t="s">
+        <v>285</v>
+      </c>
+      <c r="C420" t="s">
+        <v>33</v>
+      </c>
+      <c r="D420">
+        <v>225</v>
+      </c>
+      <c r="E420">
+        <v>26.000001000000001</v>
+      </c>
+      <c r="F420">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="G420">
+        <v>37.931035000000001</v>
+      </c>
+      <c r="H420">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="I420">
+        <v>30.909091</v>
+      </c>
+      <c r="J420">
+        <v>2024</v>
+      </c>
+      <c r="K420" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11">
+      <c r="A421" t="s">
+        <v>411</v>
+      </c>
+      <c r="B421" t="s">
+        <v>286</v>
+      </c>
+      <c r="C421" t="s">
+        <v>34</v>
+      </c>
+      <c r="D421">
+        <v>184</v>
+      </c>
+      <c r="E421">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="F421">
+        <v>55.000000999999997</v>
+      </c>
+      <c r="G421">
+        <v>25.862069000000002</v>
+      </c>
+      <c r="H421">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="I421">
+        <v>7.2727279999999999</v>
+      </c>
+      <c r="J421">
+        <v>2024</v>
+      </c>
+      <c r="K421" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11">
+      <c r="A422" t="s">
+        <v>411</v>
+      </c>
+      <c r="B422" t="s">
+        <v>287</v>
+      </c>
+      <c r="C422" t="s">
+        <v>35</v>
+      </c>
+      <c r="D422">
+        <v>264</v>
+      </c>
+      <c r="E422">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="F422">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="G422">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="H422">
+        <v>66.000000999999997</v>
+      </c>
+      <c r="I422">
+        <v>43.636364</v>
+      </c>
+      <c r="J422">
+        <v>2024</v>
+      </c>
+      <c r="K422" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11">
+      <c r="A423" t="s">
+        <v>411</v>
+      </c>
+      <c r="B423" t="s">
+        <v>288</v>
+      </c>
+      <c r="C423" t="s">
+        <v>36</v>
+      </c>
+      <c r="D423">
+        <v>244</v>
+      </c>
+      <c r="E423">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="F423">
+        <v>52.500000999999997</v>
+      </c>
+      <c r="G423">
+        <v>55.172414000000003</v>
+      </c>
+      <c r="H423">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="I423">
+        <v>50.909090999999997</v>
+      </c>
+      <c r="J423">
+        <v>2024</v>
+      </c>
+      <c r="K423" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11">
+      <c r="A424" t="s">
+        <v>411</v>
+      </c>
+      <c r="B424" t="s">
+        <v>289</v>
+      </c>
+      <c r="C424" t="s">
+        <v>37</v>
+      </c>
+      <c r="D424">
+        <v>202</v>
+      </c>
+      <c r="E424">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F424">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="G424">
+        <v>36.206896999999998</v>
+      </c>
+      <c r="H424">
+        <v>44.000000999999997</v>
+      </c>
+      <c r="I424">
+        <v>25.454546000000001</v>
+      </c>
+      <c r="J424">
+        <v>2024</v>
+      </c>
+      <c r="K424" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11">
+      <c r="A425" t="s">
+        <v>411</v>
+      </c>
+      <c r="B425" t="s">
+        <v>290</v>
+      </c>
+      <c r="C425" t="s">
+        <v>38</v>
+      </c>
+      <c r="D425">
+        <v>261</v>
+      </c>
+      <c r="E425">
+        <v>52.000000999999997</v>
+      </c>
+      <c r="F425">
+        <v>62.500000999999997</v>
+      </c>
+      <c r="G425">
+        <v>46.551724999999998</v>
+      </c>
+      <c r="H425">
+        <v>48.000000999999997</v>
+      </c>
+      <c r="I425">
+        <v>49.090910000000001</v>
+      </c>
+      <c r="J425">
+        <v>2024</v>
+      </c>
+      <c r="K425" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11">
+      <c r="A426" t="s">
+        <v>411</v>
+      </c>
+      <c r="B426" t="s">
+        <v>291</v>
+      </c>
+      <c r="C426" t="s">
+        <v>39</v>
+      </c>
+      <c r="D426">
+        <v>183</v>
+      </c>
+      <c r="E426">
+        <v>28.000001000000001</v>
+      </c>
+      <c r="F426">
+        <v>52.500000999999997</v>
+      </c>
+      <c r="G426">
+        <v>15.517242</v>
+      </c>
+      <c r="H426">
+        <v>52.000000999999997</v>
+      </c>
+      <c r="I426">
+        <v>30.909091</v>
+      </c>
+      <c r="J426">
+        <v>2024</v>
+      </c>
+      <c r="K426" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11">
+      <c r="A427" t="s">
+        <v>411</v>
+      </c>
+      <c r="B427" t="s">
+        <v>292</v>
+      </c>
+      <c r="C427" t="s">
+        <v>40</v>
+      </c>
+      <c r="D427">
+        <v>365</v>
+      </c>
+      <c r="E427">
+        <v>78.000000999999997</v>
+      </c>
+      <c r="F427">
+        <v>75.000000999999997</v>
+      </c>
+      <c r="G427">
+        <v>87.931034999999994</v>
+      </c>
+      <c r="H427">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="I427">
+        <v>87.272728000000001</v>
+      </c>
+      <c r="J427">
+        <v>2024</v>
+      </c>
+      <c r="K427" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11">
+      <c r="A428" t="s">
+        <v>411</v>
+      </c>
+      <c r="B428" t="s">
+        <v>293</v>
+      </c>
+      <c r="C428" t="s">
+        <v>41</v>
+      </c>
+      <c r="D428">
+        <v>235</v>
+      </c>
+      <c r="E428">
+        <v>48.000000999999997</v>
+      </c>
+      <c r="F428">
+        <v>62.500000999999997</v>
+      </c>
+      <c r="G428">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="H428">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="I428">
+        <v>32.727272999999997</v>
+      </c>
+      <c r="J428">
+        <v>2024</v>
+      </c>
+      <c r="K428" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11">
+      <c r="A429" t="s">
+        <v>411</v>
+      </c>
+      <c r="B429" t="s">
+        <v>294</v>
+      </c>
+      <c r="C429" t="s">
+        <v>42</v>
+      </c>
+      <c r="D429">
+        <v>272</v>
+      </c>
+      <c r="E429">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="F429">
+        <v>55.000000999999997</v>
+      </c>
+      <c r="G429">
+        <v>51.724138000000004</v>
+      </c>
+      <c r="H429">
+        <v>62.000000999999997</v>
+      </c>
+      <c r="I429">
+        <v>49.090910000000001</v>
+      </c>
+      <c r="J429">
+        <v>2024</v>
+      </c>
+      <c r="K429" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11">
+      <c r="A430" t="s">
+        <v>411</v>
+      </c>
+      <c r="B430" t="s">
+        <v>295</v>
+      </c>
+      <c r="C430" t="s">
+        <v>43</v>
+      </c>
+      <c r="D430">
+        <v>271</v>
+      </c>
+      <c r="E430">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="F430">
+        <v>57.500000999999997</v>
+      </c>
+      <c r="G430">
+        <v>53.448276</v>
+      </c>
+      <c r="H430">
+        <v>62.000000999999997</v>
+      </c>
+      <c r="I430">
+        <v>45.454546000000001</v>
+      </c>
+      <c r="J430">
+        <v>2024</v>
+      </c>
+      <c r="K430" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11">
+      <c r="A431" t="s">
+        <v>411</v>
+      </c>
+      <c r="B431" t="s">
+        <v>296</v>
+      </c>
+      <c r="C431" t="s">
+        <v>44</v>
+      </c>
+      <c r="D431">
+        <v>244</v>
+      </c>
+      <c r="E431">
+        <v>44.000000999999997</v>
+      </c>
+      <c r="F431">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="G431">
+        <v>43.103448999999998</v>
+      </c>
+      <c r="H431">
+        <v>52.000000999999997</v>
+      </c>
+      <c r="I431">
+        <v>36.363636999999997</v>
+      </c>
+      <c r="J431">
+        <v>2024</v>
+      </c>
+      <c r="K431" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11">
+      <c r="A432" t="s">
+        <v>411</v>
+      </c>
+      <c r="B432" t="s">
+        <v>297</v>
+      </c>
+      <c r="C432" t="s">
+        <v>45</v>
+      </c>
+      <c r="D432">
+        <v>246</v>
+      </c>
+      <c r="E432">
+        <v>48.000000999999997</v>
+      </c>
+      <c r="F432">
+        <v>57.500000999999997</v>
+      </c>
+      <c r="G432">
+        <v>41.379311000000001</v>
+      </c>
+      <c r="H432">
+        <v>56.000000999999997</v>
+      </c>
+      <c r="I432">
+        <v>30.909091</v>
+      </c>
+      <c r="J432">
+        <v>2024</v>
+      </c>
+      <c r="K432" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11">
+      <c r="A433" t="s">
+        <v>411</v>
+      </c>
+      <c r="B433" t="s">
+        <v>298</v>
+      </c>
+      <c r="C433" t="s">
+        <v>46</v>
+      </c>
+      <c r="D433">
+        <v>302</v>
+      </c>
+      <c r="E433">
+        <v>44.000000999999997</v>
+      </c>
+      <c r="F433">
+        <v>77.500000999999997</v>
+      </c>
+      <c r="G433">
+        <v>46.551724999999998</v>
+      </c>
+      <c r="H433">
+        <v>80.000000999999997</v>
+      </c>
+      <c r="I433">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="J433">
+        <v>2024</v>
+      </c>
+      <c r="K433" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11">
+      <c r="A434" t="s">
+        <v>411</v>
+      </c>
+      <c r="B434" t="s">
+        <v>299</v>
+      </c>
+      <c r="C434" t="s">
+        <v>47</v>
+      </c>
+      <c r="D434">
+        <v>279</v>
+      </c>
+      <c r="E434">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="F434">
+        <v>62.500000999999997</v>
+      </c>
+      <c r="G434">
+        <v>46.551724999999998</v>
+      </c>
+      <c r="H434">
+        <v>70.000000999999997</v>
+      </c>
+      <c r="I434">
+        <v>49.090910000000001</v>
+      </c>
+      <c r="J434">
+        <v>2024</v>
+      </c>
+      <c r="K434" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11">
+      <c r="A435" t="s">
+        <v>411</v>
+      </c>
+      <c r="B435" t="s">
+        <v>300</v>
+      </c>
+      <c r="C435" t="s">
+        <v>48</v>
+      </c>
+      <c r="D435">
+        <v>275</v>
+      </c>
+      <c r="E435">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="F435">
+        <v>67.500000999999997</v>
+      </c>
+      <c r="G435">
+        <v>34.482759000000001</v>
+      </c>
+      <c r="H435">
+        <v>72.000000999999997</v>
+      </c>
+      <c r="I435">
+        <v>65.454545999999993</v>
+      </c>
+      <c r="J435">
+        <v>2024</v>
+      </c>
+      <c r="K435" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11">
+      <c r="A436" t="s">
+        <v>411</v>
+      </c>
+      <c r="B436" t="s">
+        <v>301</v>
+      </c>
+      <c r="C436" t="s">
+        <v>49</v>
+      </c>
+      <c r="D436">
+        <v>248</v>
+      </c>
+      <c r="E436">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F436">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="G436">
+        <v>51.724138000000004</v>
+      </c>
+      <c r="H436">
+        <v>54.000000999999997</v>
+      </c>
+      <c r="I436">
+        <v>38.181818999999997</v>
+      </c>
+      <c r="J436">
+        <v>2024</v>
+      </c>
+      <c r="K436" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11">
+      <c r="A437" t="s">
+        <v>411</v>
+      </c>
+      <c r="B437" t="s">
+        <v>302</v>
+      </c>
+      <c r="C437" t="s">
+        <v>50</v>
+      </c>
+      <c r="D437">
+        <v>126</v>
+      </c>
+      <c r="E437">
+        <v>28.000001000000001</v>
+      </c>
+      <c r="F437">
+        <v>22.500001000000001</v>
+      </c>
+      <c r="G437">
+        <v>20.689655999999999</v>
+      </c>
+      <c r="H437">
+        <v>24.000001000000001</v>
+      </c>
+      <c r="I437">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="J437">
+        <v>2024</v>
+      </c>
+      <c r="K437" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11">
+      <c r="A438" t="s">
+        <v>411</v>
+      </c>
+      <c r="B438" t="s">
+        <v>303</v>
+      </c>
+      <c r="C438" t="s">
+        <v>51</v>
+      </c>
+      <c r="D438">
+        <v>375</v>
+      </c>
+      <c r="E438">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="F438">
+        <v>87.500000999999997</v>
+      </c>
+      <c r="G438">
+        <v>65.517241999999996</v>
+      </c>
+      <c r="H438">
+        <v>80.000000999999997</v>
+      </c>
+      <c r="I438">
+        <v>94.545455000000004</v>
+      </c>
+      <c r="J438">
+        <v>2024</v>
+      </c>
+      <c r="K438" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11">
+      <c r="A439" t="s">
+        <v>411</v>
+      </c>
+      <c r="B439" t="s">
+        <v>304</v>
+      </c>
+      <c r="C439" t="s">
+        <v>52</v>
+      </c>
+      <c r="D439">
+        <v>284</v>
+      </c>
+      <c r="E439">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="F439">
+        <v>65.000000999999997</v>
+      </c>
+      <c r="G439">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="H439">
+        <v>74.000000999999997</v>
+      </c>
+      <c r="I439">
+        <v>49.090910000000001</v>
+      </c>
+      <c r="J439">
+        <v>2024</v>
+      </c>
+      <c r="K439" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11">
+      <c r="A440" t="s">
+        <v>411</v>
+      </c>
+      <c r="B440" t="s">
+        <v>305</v>
+      </c>
+      <c r="C440" t="s">
+        <v>53</v>
+      </c>
+      <c r="D440">
+        <v>155</v>
+      </c>
+      <c r="E440">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="F440">
+        <v>32.500000999999997</v>
+      </c>
+      <c r="G440">
+        <v>29.310345000000002</v>
+      </c>
+      <c r="H440">
+        <v>24.000001000000001</v>
+      </c>
+      <c r="I440">
+        <v>41.818182</v>
+      </c>
+      <c r="J440">
+        <v>2024</v>
+      </c>
+      <c r="K440" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11">
+      <c r="A441" t="s">
+        <v>411</v>
+      </c>
+      <c r="B441" t="s">
+        <v>306</v>
+      </c>
+      <c r="C441" t="s">
+        <v>54</v>
+      </c>
+      <c r="D441">
+        <v>210</v>
+      </c>
+      <c r="E441">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="F441">
+        <v>55.000000999999997</v>
+      </c>
+      <c r="G441">
+        <v>29.310345000000002</v>
+      </c>
+      <c r="H441">
+        <v>52.000000999999997</v>
+      </c>
+      <c r="I441">
+        <v>32.727272999999997</v>
+      </c>
+      <c r="J441">
+        <v>2024</v>
+      </c>
+      <c r="K441" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11">
+      <c r="A442" t="s">
+        <v>411</v>
+      </c>
+      <c r="B442" t="s">
+        <v>307</v>
+      </c>
+      <c r="C442" t="s">
+        <v>55</v>
+      </c>
+      <c r="D442">
+        <v>349</v>
+      </c>
+      <c r="E442">
+        <v>54.000000999999997</v>
+      </c>
+      <c r="F442">
+        <v>75.000000999999997</v>
+      </c>
+      <c r="G442">
+        <v>63.793104</v>
+      </c>
+      <c r="H442">
+        <v>86.000000999999997</v>
+      </c>
+      <c r="I442">
+        <v>69.090909999999994</v>
+      </c>
+      <c r="J442">
+        <v>2024</v>
+      </c>
+      <c r="K442" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11">
+      <c r="A443" t="s">
+        <v>411</v>
+      </c>
+      <c r="B443" t="s">
+        <v>308</v>
+      </c>
+      <c r="C443" t="s">
+        <v>56</v>
+      </c>
+      <c r="D443">
+        <v>253</v>
+      </c>
+      <c r="E443">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="F443">
+        <v>65.000000999999997</v>
+      </c>
+      <c r="G443">
+        <v>43.103448999999998</v>
+      </c>
+      <c r="H443">
+        <v>56.000000999999997</v>
+      </c>
+      <c r="I443">
+        <v>69.090909999999994</v>
+      </c>
+      <c r="J443">
+        <v>2024</v>
+      </c>
+      <c r="K443" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11">
+      <c r="A444" t="s">
+        <v>411</v>
+      </c>
+      <c r="B444" t="s">
+        <v>309</v>
+      </c>
+      <c r="C444" t="s">
+        <v>57</v>
+      </c>
+      <c r="D444">
+        <v>215</v>
+      </c>
+      <c r="E444">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F444">
+        <v>67.500000999999997</v>
+      </c>
+      <c r="G444">
+        <v>24.137931999999999</v>
+      </c>
+      <c r="H444">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="I444">
+        <v>49.090910000000001</v>
+      </c>
+      <c r="J444">
+        <v>2024</v>
+      </c>
+      <c r="K444" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11">
+      <c r="A445" t="s">
+        <v>411</v>
+      </c>
+      <c r="B445" t="s">
+        <v>310</v>
+      </c>
+      <c r="C445" t="s">
+        <v>58</v>
+      </c>
+      <c r="D445">
+        <v>282</v>
+      </c>
+      <c r="E445">
+        <v>44.000000999999997</v>
+      </c>
+      <c r="F445">
+        <v>67.500000999999997</v>
+      </c>
+      <c r="G445">
+        <v>51.724138000000004</v>
+      </c>
+      <c r="H445">
+        <v>64.000000999999997</v>
+      </c>
+      <c r="I445">
+        <v>49.090910000000001</v>
+      </c>
+      <c r="J445">
+        <v>2024</v>
+      </c>
+      <c r="K445" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11">
+      <c r="A446" t="s">
+        <v>411</v>
+      </c>
+      <c r="B446" t="s">
+        <v>311</v>
+      </c>
+      <c r="C446" t="s">
+        <v>59</v>
+      </c>
+      <c r="D446">
+        <v>348</v>
+      </c>
+      <c r="E446">
+        <v>62.000000999999997</v>
+      </c>
+      <c r="F446">
+        <v>85.000000999999997</v>
+      </c>
+      <c r="G446">
+        <v>58.620690000000003</v>
+      </c>
+      <c r="H446">
+        <v>80.000000999999997</v>
+      </c>
+      <c r="I446">
+        <v>45.454546000000001</v>
+      </c>
+      <c r="J446">
+        <v>2024</v>
+      </c>
+      <c r="K446" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11">
+      <c r="A447" t="s">
+        <v>411</v>
+      </c>
+      <c r="B447" t="s">
+        <v>312</v>
+      </c>
+      <c r="C447" t="s">
+        <v>60</v>
+      </c>
+      <c r="D447">
+        <v>282</v>
+      </c>
+      <c r="E447">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="F447">
+        <v>62.500000999999997</v>
+      </c>
+      <c r="G447">
+        <v>60.344828</v>
+      </c>
+      <c r="H447">
+        <v>62.000000999999997</v>
+      </c>
+      <c r="I447">
+        <v>76.363636999999997</v>
+      </c>
+      <c r="J447">
+        <v>2024</v>
+      </c>
+      <c r="K447" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11">
+      <c r="A448" t="s">
+        <v>411</v>
+      </c>
+      <c r="B448" t="s">
+        <v>313</v>
+      </c>
+      <c r="C448" t="s">
+        <v>61</v>
+      </c>
+      <c r="D448">
+        <v>248</v>
+      </c>
+      <c r="E448">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="F448">
+        <v>62.500000999999997</v>
+      </c>
+      <c r="G448">
+        <v>44.827587000000001</v>
+      </c>
+      <c r="H448">
+        <v>56.000000999999997</v>
+      </c>
+      <c r="I448">
+        <v>32.727272999999997</v>
+      </c>
+      <c r="J448">
+        <v>2024</v>
+      </c>
+      <c r="K448" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11">
+      <c r="A449" t="s">
+        <v>411</v>
+      </c>
+      <c r="B449" t="s">
+        <v>314</v>
+      </c>
+      <c r="C449" t="s">
+        <v>62</v>
+      </c>
+      <c r="D449">
+        <v>209</v>
+      </c>
+      <c r="E449">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="F449">
+        <v>47.500000999999997</v>
+      </c>
+      <c r="G449">
+        <v>32.758620999999998</v>
+      </c>
+      <c r="H449">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="I449">
+        <v>38.181818999999997</v>
+      </c>
+      <c r="J449">
+        <v>2024</v>
+      </c>
+      <c r="K449" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11">
+      <c r="A450" t="s">
+        <v>411</v>
+      </c>
+      <c r="B450" t="s">
+        <v>315</v>
+      </c>
+      <c r="C450" t="s">
+        <v>63</v>
+      </c>
+      <c r="D450">
+        <v>325</v>
+      </c>
+      <c r="E450">
+        <v>58.000000999999997</v>
+      </c>
+      <c r="F450">
+        <v>72.500000999999997</v>
+      </c>
+      <c r="G450">
+        <v>51.724138000000004</v>
+      </c>
+      <c r="H450">
+        <v>72.000000999999997</v>
+      </c>
+      <c r="I450">
+        <v>80.000000999999997</v>
+      </c>
+      <c r="J450">
+        <v>2024</v>
+      </c>
+      <c r="K450" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11">
+      <c r="A451" t="s">
+        <v>411</v>
+      </c>
+      <c r="B451" t="s">
+        <v>316</v>
+      </c>
+      <c r="C451" t="s">
+        <v>64</v>
+      </c>
+      <c r="D451">
+        <v>303</v>
+      </c>
+      <c r="E451">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="F451">
+        <v>67.500000999999997</v>
+      </c>
+      <c r="G451">
+        <v>55.172414000000003</v>
+      </c>
+      <c r="H451">
+        <v>80.000000999999997</v>
+      </c>
+      <c r="I451">
+        <v>52.727272999999997</v>
+      </c>
+      <c r="J451">
+        <v>2024</v>
+      </c>
+      <c r="K451" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11">
+      <c r="A452" t="s">
+        <v>411</v>
+      </c>
+      <c r="B452" t="s">
+        <v>317</v>
+      </c>
+      <c r="C452" t="s">
+        <v>65</v>
+      </c>
+      <c r="D452">
+        <v>262</v>
+      </c>
+      <c r="E452">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="F452">
+        <v>72.500000999999997</v>
+      </c>
+      <c r="G452">
+        <v>39.655172999999998</v>
+      </c>
+      <c r="H452">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="I452">
+        <v>72.727272999999997</v>
+      </c>
+      <c r="J452">
+        <v>2024</v>
+      </c>
+      <c r="K452" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11">
+      <c r="A453" t="s">
+        <v>411</v>
+      </c>
+      <c r="B453" t="s">
+        <v>318</v>
+      </c>
+      <c r="C453" t="s">
+        <v>66</v>
+      </c>
+      <c r="D453">
+        <v>243</v>
+      </c>
+      <c r="E453">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="F453">
+        <v>62.500000999999997</v>
+      </c>
+      <c r="G453">
+        <v>48.275863000000001</v>
+      </c>
+      <c r="H453">
+        <v>44.000000999999997</v>
+      </c>
+      <c r="I453">
+        <v>65.454545999999993</v>
+      </c>
+      <c r="J453">
+        <v>2024</v>
+      </c>
+      <c r="K453" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11">
+      <c r="A454" t="s">
+        <v>411</v>
+      </c>
+      <c r="B454" t="s">
+        <v>319</v>
+      </c>
+      <c r="C454" t="s">
+        <v>67</v>
+      </c>
+      <c r="D454">
+        <v>238</v>
+      </c>
+      <c r="E454">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="F454">
+        <v>47.500000999999997</v>
+      </c>
+      <c r="G454">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="H454">
+        <v>54.000000999999997</v>
+      </c>
+      <c r="I454">
+        <v>61.818182</v>
+      </c>
+      <c r="J454">
+        <v>2024</v>
+      </c>
+      <c r="K454" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11">
+      <c r="A455" t="s">
+        <v>411</v>
+      </c>
+      <c r="B455" t="s">
+        <v>320</v>
+      </c>
+      <c r="C455" t="s">
+        <v>68</v>
+      </c>
+      <c r="D455">
+        <v>353</v>
+      </c>
+      <c r="E455">
+        <v>62.000000999999997</v>
+      </c>
+      <c r="F455">
+        <v>75.000000999999997</v>
+      </c>
+      <c r="G455">
+        <v>65.517241999999996</v>
+      </c>
+      <c r="H455">
+        <v>82.000000999999997</v>
+      </c>
+      <c r="I455">
+        <v>61.818182</v>
+      </c>
+      <c r="J455">
+        <v>2024</v>
+      </c>
+      <c r="K455" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11">
+      <c r="A456" t="s">
+        <v>411</v>
+      </c>
+      <c r="B456" t="s">
+        <v>321</v>
+      </c>
+      <c r="C456" t="s">
+        <v>69</v>
+      </c>
+      <c r="D456">
+        <v>195</v>
+      </c>
+      <c r="E456">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="F456">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="G456">
+        <v>22.413793999999999</v>
+      </c>
+      <c r="H456">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="I456">
+        <v>47.272728000000001</v>
+      </c>
+      <c r="J456">
+        <v>2024</v>
+      </c>
+      <c r="K456" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11">
+      <c r="A457" t="s">
+        <v>411</v>
+      </c>
+      <c r="B457" t="s">
+        <v>322</v>
+      </c>
+      <c r="C457" t="s">
+        <v>70</v>
+      </c>
+      <c r="D457">
+        <v>222</v>
+      </c>
+      <c r="E457">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="F457">
+        <v>47.500000999999997</v>
+      </c>
+      <c r="G457">
+        <v>39.655172999999998</v>
+      </c>
+      <c r="H457">
+        <v>48.000000999999997</v>
+      </c>
+      <c r="I457">
+        <v>67.272728000000001</v>
+      </c>
+      <c r="J457">
+        <v>2024</v>
+      </c>
+      <c r="K457" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11">
+      <c r="A458" t="s">
+        <v>411</v>
+      </c>
+      <c r="B458" t="s">
+        <v>323</v>
+      </c>
+      <c r="C458" t="s">
+        <v>71</v>
+      </c>
+      <c r="D458">
+        <v>379</v>
+      </c>
+      <c r="E458">
+        <v>78.000000999999997</v>
+      </c>
+      <c r="F458">
+        <v>77.500000999999997</v>
+      </c>
+      <c r="G458">
+        <v>68.965518000000003</v>
+      </c>
+      <c r="H458">
+        <v>78.000000999999997</v>
+      </c>
+      <c r="I458">
+        <v>76.363636999999997</v>
+      </c>
+      <c r="J458">
+        <v>2024</v>
+      </c>
+      <c r="K458" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11">
+      <c r="A459" t="s">
+        <v>411</v>
+      </c>
+      <c r="B459" t="s">
+        <v>324</v>
+      </c>
+      <c r="C459" t="s">
+        <v>72</v>
+      </c>
+      <c r="D459">
+        <v>253</v>
+      </c>
+      <c r="E459">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="F459">
+        <v>65.000000999999997</v>
+      </c>
+      <c r="G459">
+        <v>41.379311000000001</v>
+      </c>
+      <c r="H459">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="I459">
+        <v>56.363636999999997</v>
+      </c>
+      <c r="J459">
+        <v>2024</v>
+      </c>
+      <c r="K459" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11">
+      <c r="A460" t="s">
+        <v>412</v>
+      </c>
+      <c r="B460" t="s">
+        <v>325</v>
+      </c>
+      <c r="C460" t="s">
+        <v>73</v>
+      </c>
+      <c r="D460">
+        <v>272</v>
+      </c>
+      <c r="E460">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="F460">
+        <v>77.500000999999997</v>
+      </c>
+      <c r="G460">
+        <v>44.827587000000001</v>
+      </c>
+      <c r="H460">
+        <v>56.000000999999997</v>
+      </c>
+      <c r="I460">
+        <v>69.090909999999994</v>
+      </c>
+      <c r="J460">
+        <v>2024</v>
+      </c>
+      <c r="K460" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11">
+      <c r="A461" t="s">
+        <v>412</v>
+      </c>
+      <c r="B461" t="s">
+        <v>326</v>
+      </c>
+      <c r="C461" t="s">
+        <v>74</v>
+      </c>
+      <c r="D461">
+        <v>95</v>
+      </c>
+      <c r="E461">
+        <v>8.0000009999999993</v>
+      </c>
+      <c r="F461">
+        <v>45.000000999999997</v>
+      </c>
+      <c r="G461">
+        <v>18.965517999999999</v>
+      </c>
+      <c r="H461">
+        <v>10.000000999999999</v>
+      </c>
+      <c r="I461">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J461">
+        <v>2024</v>
+      </c>
+      <c r="K461" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11">
+      <c r="A462" t="s">
+        <v>412</v>
+      </c>
+      <c r="B462" t="s">
+        <v>327</v>
+      </c>
+      <c r="C462" t="s">
+        <v>76</v>
+      </c>
+      <c r="D462">
+        <v>216</v>
+      </c>
+      <c r="E462">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F462">
+        <v>57.500000999999997</v>
+      </c>
+      <c r="G462">
+        <v>41.379311000000001</v>
+      </c>
+      <c r="H462">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="I462">
+        <v>34.545454999999997</v>
+      </c>
+      <c r="J462">
+        <v>2024</v>
+      </c>
+      <c r="K462" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11">
+      <c r="A463" t="s">
+        <v>412</v>
+      </c>
+      <c r="B463" t="s">
+        <v>329</v>
+      </c>
+      <c r="C463" t="s">
+        <v>78</v>
+      </c>
+      <c r="D463">
+        <v>257</v>
+      </c>
+      <c r="E463">
+        <v>26.000001000000001</v>
+      </c>
+      <c r="F463">
+        <v>70.000000999999997</v>
+      </c>
+      <c r="G463">
+        <v>37.931035000000001</v>
+      </c>
+      <c r="H463">
+        <v>70.000000999999997</v>
+      </c>
+      <c r="I463">
+        <v>56.363636999999997</v>
+      </c>
+      <c r="J463">
+        <v>2024</v>
+      </c>
+      <c r="K463" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11">
+      <c r="A464" t="s">
+        <v>412</v>
+      </c>
+      <c r="B464" t="s">
+        <v>330</v>
+      </c>
+      <c r="C464" t="s">
+        <v>79</v>
+      </c>
+      <c r="D464">
+        <v>317</v>
+      </c>
+      <c r="E464">
+        <v>54.000000999999997</v>
+      </c>
+      <c r="F464">
+        <v>67.500000999999997</v>
+      </c>
+      <c r="G464">
+        <v>63.793104</v>
+      </c>
+      <c r="H464">
+        <v>68.000000999999997</v>
+      </c>
+      <c r="I464">
+        <v>61.818182</v>
+      </c>
+      <c r="J464">
+        <v>2024</v>
+      </c>
+      <c r="K464" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11">
+      <c r="A465" t="s">
+        <v>412</v>
+      </c>
+      <c r="B465" t="s">
+        <v>331</v>
+      </c>
+      <c r="C465" t="s">
+        <v>80</v>
+      </c>
+      <c r="D465">
+        <v>238</v>
+      </c>
+      <c r="E465">
+        <v>30.000001000000001</v>
+      </c>
+      <c r="F465">
+        <v>62.500000999999997</v>
+      </c>
+      <c r="G465">
+        <v>34.482759000000001</v>
+      </c>
+      <c r="H465">
+        <v>68.000000999999997</v>
+      </c>
+      <c r="I465">
+        <v>32.727272999999997</v>
+      </c>
+      <c r="J465">
+        <v>2024</v>
+      </c>
+      <c r="K465" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11">
+      <c r="A466" t="s">
+        <v>412</v>
+      </c>
+      <c r="B466" t="s">
+        <v>332</v>
+      </c>
+      <c r="C466" t="s">
+        <v>81</v>
+      </c>
+      <c r="D466">
+        <v>212</v>
+      </c>
+      <c r="E466">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F466">
+        <v>62.500000999999997</v>
+      </c>
+      <c r="G466">
+        <v>22.413793999999999</v>
+      </c>
+      <c r="H466">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="I466">
+        <v>49.090910000000001</v>
+      </c>
+      <c r="J466">
+        <v>2024</v>
+      </c>
+      <c r="K466" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11">
+      <c r="A467" t="s">
+        <v>412</v>
+      </c>
+      <c r="B467" t="s">
+        <v>333</v>
+      </c>
+      <c r="C467" t="s">
+        <v>82</v>
+      </c>
+      <c r="D467">
+        <v>334</v>
+      </c>
+      <c r="E467">
+        <v>48.000000999999997</v>
+      </c>
+      <c r="F467">
+        <v>80.000000999999997</v>
+      </c>
+      <c r="G467">
+        <v>62.068966000000003</v>
+      </c>
+      <c r="H467">
+        <v>72.000000999999997</v>
+      </c>
+      <c r="I467">
+        <v>80.000000999999997</v>
+      </c>
+      <c r="J467">
+        <v>2024</v>
+      </c>
+      <c r="K467" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11">
+      <c r="A468" t="s">
+        <v>412</v>
+      </c>
+      <c r="B468" t="s">
+        <v>334</v>
+      </c>
+      <c r="C468" t="s">
+        <v>83</v>
+      </c>
+      <c r="D468">
+        <v>204</v>
+      </c>
+      <c r="E468">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="F468">
+        <v>57.500000999999997</v>
+      </c>
+      <c r="G468">
+        <v>17.241379999999999</v>
+      </c>
+      <c r="H468">
+        <v>56.000000999999997</v>
+      </c>
+      <c r="I468">
+        <v>41.818182</v>
+      </c>
+      <c r="J468">
+        <v>2024</v>
+      </c>
+      <c r="K468" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11">
+      <c r="A469" t="s">
+        <v>412</v>
+      </c>
+      <c r="B469" t="s">
+        <v>335</v>
+      </c>
+      <c r="C469" t="s">
+        <v>84</v>
+      </c>
+      <c r="D469">
+        <v>296</v>
+      </c>
+      <c r="E469">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="F469">
+        <v>70.000000999999997</v>
+      </c>
+      <c r="G469">
+        <v>46.551724999999998</v>
+      </c>
+      <c r="H469">
+        <v>76.000000999999997</v>
+      </c>
+      <c r="I469">
+        <v>65.454545999999993</v>
+      </c>
+      <c r="J469">
+        <v>2024</v>
+      </c>
+      <c r="K469" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11">
+      <c r="A470" t="s">
+        <v>412</v>
+      </c>
+      <c r="B470" t="s">
+        <v>336</v>
+      </c>
+      <c r="C470" t="s">
+        <v>85</v>
+      </c>
+      <c r="D470">
+        <v>228</v>
+      </c>
+      <c r="E470">
+        <v>30.000001000000001</v>
+      </c>
+      <c r="F470">
+        <v>52.500000999999997</v>
+      </c>
+      <c r="G470">
+        <v>37.931035000000001</v>
+      </c>
+      <c r="H470">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="I470">
+        <v>50.909090999999997</v>
+      </c>
+      <c r="J470">
+        <v>2024</v>
+      </c>
+      <c r="K470" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11">
+      <c r="A471" t="s">
+        <v>412</v>
+      </c>
+      <c r="B471" t="s">
+        <v>337</v>
+      </c>
+      <c r="C471" t="s">
+        <v>86</v>
+      </c>
+      <c r="D471">
+        <v>282</v>
+      </c>
+      <c r="E471">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="F471">
+        <v>65.000000999999997</v>
+      </c>
+      <c r="G471">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="H471">
+        <v>64.000000999999997</v>
+      </c>
+      <c r="I471">
+        <v>80.000000999999997</v>
+      </c>
+      <c r="J471">
+        <v>2024</v>
+      </c>
+      <c r="K471" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11">
+      <c r="A472" t="s">
+        <v>412</v>
+      </c>
+      <c r="B472" t="s">
+        <v>339</v>
+      </c>
+      <c r="C472" t="s">
+        <v>87</v>
+      </c>
+      <c r="D472">
+        <v>230</v>
+      </c>
+      <c r="E472">
+        <v>24.000001000000001</v>
+      </c>
+      <c r="F472">
+        <v>70.000000999999997</v>
+      </c>
+      <c r="G472">
+        <v>39.655172999999998</v>
+      </c>
+      <c r="H472">
+        <v>54.000000999999997</v>
+      </c>
+      <c r="I472">
+        <v>34.545454999999997</v>
+      </c>
+      <c r="J472">
+        <v>2024</v>
+      </c>
+      <c r="K472" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11">
+      <c r="A473" t="s">
+        <v>412</v>
+      </c>
+      <c r="B473" t="s">
+        <v>340</v>
+      </c>
+      <c r="C473" t="s">
+        <v>88</v>
+      </c>
+      <c r="D473">
+        <v>252</v>
+      </c>
+      <c r="E473">
+        <v>30.000001000000001</v>
+      </c>
+      <c r="F473">
+        <v>55.000000999999997</v>
+      </c>
+      <c r="G473">
+        <v>43.103448999999998</v>
+      </c>
+      <c r="H473">
+        <v>62.000000999999997</v>
+      </c>
+      <c r="I473">
+        <v>83.636364</v>
+      </c>
+      <c r="J473">
+        <v>2024</v>
+      </c>
+      <c r="K473" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11">
+      <c r="A474" t="s">
+        <v>412</v>
+      </c>
+      <c r="B474" t="s">
+        <v>341</v>
+      </c>
+      <c r="C474" t="s">
+        <v>89</v>
+      </c>
+      <c r="D474">
+        <v>248</v>
+      </c>
+      <c r="E474">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="F474">
+        <v>65.000000999999997</v>
+      </c>
+      <c r="G474">
+        <v>41.379311000000001</v>
+      </c>
+      <c r="H474">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="I474">
+        <v>54.545454999999997</v>
+      </c>
+      <c r="J474">
+        <v>2024</v>
+      </c>
+      <c r="K474" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11">
+      <c r="A475" t="s">
+        <v>412</v>
+      </c>
+      <c r="B475" t="s">
+        <v>343</v>
+      </c>
+      <c r="C475" t="s">
+        <v>91</v>
+      </c>
+      <c r="D475">
+        <v>236</v>
+      </c>
+      <c r="E475">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F475">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="G475">
+        <v>44.827587000000001</v>
+      </c>
+      <c r="H475">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="I475">
+        <v>69.090909999999994</v>
+      </c>
+      <c r="J475">
+        <v>2024</v>
+      </c>
+      <c r="K475" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11">
+      <c r="A476" t="s">
+        <v>412</v>
+      </c>
+      <c r="B476" t="s">
+        <v>344</v>
+      </c>
+      <c r="C476" t="s">
+        <v>92</v>
+      </c>
+      <c r="D476">
+        <v>248</v>
+      </c>
+      <c r="E476">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F476">
+        <v>57.500000999999997</v>
+      </c>
+      <c r="G476">
+        <v>53.448276</v>
+      </c>
+      <c r="H476">
+        <v>58.000000999999997</v>
+      </c>
+      <c r="I476">
+        <v>29.090910000000001</v>
+      </c>
+      <c r="J476">
+        <v>2024</v>
+      </c>
+      <c r="K476" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11">
+      <c r="A477" t="s">
+        <v>412</v>
+      </c>
+      <c r="B477" t="s">
+        <v>345</v>
+      </c>
+      <c r="C477" t="s">
+        <v>93</v>
+      </c>
+      <c r="D477">
+        <v>334</v>
+      </c>
+      <c r="E477">
+        <v>64.000000999999997</v>
+      </c>
+      <c r="F477">
+        <v>65.000000999999997</v>
+      </c>
+      <c r="G477">
+        <v>60.344828</v>
+      </c>
+      <c r="H477">
+        <v>76.000000999999997</v>
+      </c>
+      <c r="I477">
+        <v>70.909091000000004</v>
+      </c>
+      <c r="J477">
+        <v>2024</v>
+      </c>
+      <c r="K477" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11">
+      <c r="A478" t="s">
+        <v>412</v>
+      </c>
+      <c r="B478" t="s">
+        <v>346</v>
+      </c>
+      <c r="C478" t="s">
+        <v>94</v>
+      </c>
+      <c r="D478">
+        <v>213</v>
+      </c>
+      <c r="E478">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F478">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="G478">
+        <v>34.482759000000001</v>
+      </c>
+      <c r="H478">
+        <v>48.000000999999997</v>
+      </c>
+      <c r="I478">
+        <v>47.272728000000001</v>
+      </c>
+      <c r="J478">
+        <v>2024</v>
+      </c>
+      <c r="K478" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11">
+      <c r="A479" t="s">
+        <v>412</v>
+      </c>
+      <c r="B479" t="s">
+        <v>347</v>
+      </c>
+      <c r="C479" t="s">
+        <v>95</v>
+      </c>
+      <c r="D479">
+        <v>291</v>
+      </c>
+      <c r="E479">
+        <v>62.000000999999997</v>
+      </c>
+      <c r="F479">
+        <v>72.500000999999997</v>
+      </c>
+      <c r="G479">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="H479">
+        <v>52.000000999999997</v>
+      </c>
+      <c r="I479">
+        <v>45.454546000000001</v>
+      </c>
+      <c r="J479">
+        <v>2024</v>
+      </c>
+      <c r="K479" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11">
+      <c r="A480" t="s">
+        <v>412</v>
+      </c>
+      <c r="B480" t="s">
+        <v>348</v>
+      </c>
+      <c r="C480" t="s">
+        <v>96</v>
+      </c>
+      <c r="D480">
+        <v>317</v>
+      </c>
+      <c r="E480">
+        <v>62.000000999999997</v>
+      </c>
+      <c r="F480">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="G480">
+        <v>58.620690000000003</v>
+      </c>
+      <c r="H480">
+        <v>66.000000999999997</v>
+      </c>
+      <c r="I480">
+        <v>83.636364</v>
+      </c>
+      <c r="J480">
+        <v>2024</v>
+      </c>
+      <c r="K480" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11">
+      <c r="A481" t="s">
+        <v>412</v>
+      </c>
+      <c r="B481" t="s">
+        <v>349</v>
+      </c>
+      <c r="C481" t="s">
+        <v>97</v>
+      </c>
+      <c r="D481">
+        <v>123</v>
+      </c>
+      <c r="E481">
+        <v>16.000001000000001</v>
+      </c>
+      <c r="F481">
+        <v>47.500000999999997</v>
+      </c>
+      <c r="G481">
+        <v>22.413793999999999</v>
+      </c>
+      <c r="H481">
+        <v>20.000001000000001</v>
+      </c>
+      <c r="I481">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J481">
+        <v>2024</v>
+      </c>
+      <c r="K481" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11">
+      <c r="A482" t="s">
+        <v>412</v>
+      </c>
+      <c r="B482" t="s">
+        <v>350</v>
+      </c>
+      <c r="C482" t="s">
+        <v>98</v>
+      </c>
+      <c r="D482">
+        <v>312</v>
+      </c>
+      <c r="E482">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="F482">
+        <v>80.000000999999997</v>
+      </c>
+      <c r="G482">
+        <v>62.068966000000003</v>
+      </c>
+      <c r="H482">
+        <v>72.000000999999997</v>
+      </c>
+      <c r="I482">
+        <v>47.272728000000001</v>
+      </c>
+      <c r="J482">
+        <v>2024</v>
+      </c>
+      <c r="K482" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11">
+      <c r="A483" t="s">
+        <v>412</v>
+      </c>
+      <c r="B483" t="s">
+        <v>351</v>
+      </c>
+      <c r="C483" t="s">
+        <v>99</v>
+      </c>
+      <c r="D483">
+        <v>256</v>
+      </c>
+      <c r="E483">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F483">
+        <v>65.000000999999997</v>
+      </c>
+      <c r="G483">
+        <v>44.827587000000001</v>
+      </c>
+      <c r="H483">
+        <v>48.000000999999997</v>
+      </c>
+      <c r="I483">
+        <v>81.818181999999993</v>
+      </c>
+      <c r="J483">
+        <v>2024</v>
+      </c>
+      <c r="K483" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11">
+      <c r="A484" t="s">
+        <v>412</v>
+      </c>
+      <c r="B484" t="s">
+        <v>353</v>
+      </c>
+      <c r="C484" t="s">
+        <v>101</v>
+      </c>
+      <c r="D484">
+        <v>278</v>
+      </c>
+      <c r="E484">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="F484">
+        <v>65.000000999999997</v>
+      </c>
+      <c r="G484">
+        <v>39.655172999999998</v>
+      </c>
+      <c r="H484">
+        <v>62.000000999999997</v>
+      </c>
+      <c r="I484">
+        <v>83.636364</v>
+      </c>
+      <c r="J484">
+        <v>2024</v>
+      </c>
+      <c r="K484" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11">
+      <c r="A485" t="s">
+        <v>412</v>
+      </c>
+      <c r="B485" t="s">
+        <v>354</v>
+      </c>
+      <c r="C485" t="s">
+        <v>102</v>
+      </c>
+      <c r="D485">
+        <v>209</v>
+      </c>
+      <c r="E485">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F485">
+        <v>57.500000999999997</v>
+      </c>
+      <c r="G485">
+        <v>31.034483000000002</v>
+      </c>
+      <c r="H485">
+        <v>44.000000999999997</v>
+      </c>
+      <c r="I485">
+        <v>36.363636999999997</v>
+      </c>
+      <c r="J485">
+        <v>2024</v>
+      </c>
+      <c r="K485" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11">
+      <c r="A486" t="s">
+        <v>412</v>
+      </c>
+      <c r="B486" t="s">
+        <v>355</v>
+      </c>
+      <c r="C486" t="s">
+        <v>103</v>
+      </c>
+      <c r="D486">
+        <v>217</v>
+      </c>
+      <c r="E486">
+        <v>26.000001000000001</v>
+      </c>
+      <c r="F486">
+        <v>45.000000999999997</v>
+      </c>
+      <c r="G486">
+        <v>32.758620999999998</v>
+      </c>
+      <c r="H486">
+        <v>66.000000999999997</v>
+      </c>
+      <c r="I486">
+        <v>54.545454999999997</v>
+      </c>
+      <c r="J486">
+        <v>2024</v>
+      </c>
+      <c r="K486" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11">
+      <c r="A487" t="s">
+        <v>412</v>
+      </c>
+      <c r="B487" t="s">
+        <v>356</v>
+      </c>
+      <c r="C487" t="s">
+        <v>104</v>
+      </c>
+      <c r="D487">
+        <v>311</v>
+      </c>
+      <c r="E487">
+        <v>54.000000999999997</v>
+      </c>
+      <c r="F487">
+        <v>75.000000999999997</v>
+      </c>
+      <c r="G487">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="H487">
+        <v>68.000000999999997</v>
+      </c>
+      <c r="I487">
+        <v>67.272728000000001</v>
+      </c>
+      <c r="J487">
+        <v>2024</v>
+      </c>
+      <c r="K487" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11">
+      <c r="A488" t="s">
+        <v>412</v>
+      </c>
+      <c r="B488" t="s">
+        <v>357</v>
+      </c>
+      <c r="C488" t="s">
+        <v>105</v>
+      </c>
+      <c r="D488">
+        <v>301</v>
+      </c>
+      <c r="E488">
+        <v>44.000000999999997</v>
+      </c>
+      <c r="F488">
+        <v>67.500000999999997</v>
+      </c>
+      <c r="G488">
+        <v>55.172414000000003</v>
+      </c>
+      <c r="H488">
+        <v>78.000000999999997</v>
+      </c>
+      <c r="I488">
+        <v>47.272728000000001</v>
+      </c>
+      <c r="J488">
+        <v>2024</v>
+      </c>
+      <c r="K488" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11">
+      <c r="A489" t="s">
+        <v>412</v>
+      </c>
+      <c r="B489" t="s">
+        <v>358</v>
+      </c>
+      <c r="C489" t="s">
+        <v>106</v>
+      </c>
+      <c r="D489">
+        <v>319</v>
+      </c>
+      <c r="E489">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="F489">
+        <v>72.500000999999997</v>
+      </c>
+      <c r="G489">
+        <v>62.068966000000003</v>
+      </c>
+      <c r="H489">
+        <v>70.000000999999997</v>
+      </c>
+      <c r="I489">
+        <v>87.272728000000001</v>
+      </c>
+      <c r="J489">
+        <v>2024</v>
+      </c>
+      <c r="K489" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11">
+      <c r="A490" t="s">
+        <v>412</v>
+      </c>
+      <c r="B490" t="s">
+        <v>359</v>
+      </c>
+      <c r="C490" t="s">
+        <v>107</v>
+      </c>
+      <c r="D490">
+        <v>224</v>
+      </c>
+      <c r="E490">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="F490">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="G490">
+        <v>41.379311000000001</v>
+      </c>
+      <c r="H490">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="I490">
+        <v>54.545454999999997</v>
+      </c>
+      <c r="J490">
+        <v>2024</v>
+      </c>
+      <c r="K490" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11">
+      <c r="A491" t="s">
+        <v>412</v>
+      </c>
+      <c r="B491" t="s">
+        <v>360</v>
+      </c>
+      <c r="C491" t="s">
+        <v>108</v>
+      </c>
+      <c r="D491">
+        <v>282</v>
+      </c>
+      <c r="E491">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="F491">
+        <v>65.000000999999997</v>
+      </c>
+      <c r="G491">
+        <v>48.275863000000001</v>
+      </c>
+      <c r="H491">
+        <v>72.000000999999997</v>
+      </c>
+      <c r="I491">
+        <v>49.090910000000001</v>
+      </c>
+      <c r="J491">
+        <v>2024</v>
+      </c>
+      <c r="K491" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11">
+      <c r="A492" t="s">
+        <v>412</v>
+      </c>
+      <c r="B492" t="s">
+        <v>361</v>
+      </c>
+      <c r="C492" t="s">
+        <v>109</v>
+      </c>
+      <c r="D492">
+        <v>281</v>
+      </c>
+      <c r="E492">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="F492">
+        <v>67.500000999999997</v>
+      </c>
+      <c r="G492">
+        <v>48.275863000000001</v>
+      </c>
+      <c r="H492">
+        <v>66.000000999999997</v>
+      </c>
+      <c r="I492">
+        <v>45.454546000000001</v>
+      </c>
+      <c r="J492">
+        <v>2024</v>
+      </c>
+      <c r="K492" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11">
+      <c r="A493" t="s">
+        <v>412</v>
+      </c>
+      <c r="B493" t="s">
+        <v>362</v>
+      </c>
+      <c r="C493" t="s">
+        <v>110</v>
+      </c>
+      <c r="D493">
+        <v>269</v>
+      </c>
+      <c r="E493">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F493">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="G493">
+        <v>55.172414000000003</v>
+      </c>
+      <c r="H493">
+        <v>68.000000999999997</v>
+      </c>
+      <c r="I493">
+        <v>41.818182</v>
+      </c>
+      <c r="J493">
+        <v>2024</v>
+      </c>
+      <c r="K493" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11">
+      <c r="A494" t="s">
+        <v>412</v>
+      </c>
+      <c r="B494" t="s">
+        <v>363</v>
+      </c>
+      <c r="C494" t="s">
+        <v>111</v>
+      </c>
+      <c r="D494">
+        <v>223</v>
+      </c>
+      <c r="E494">
+        <v>26.000001000000001</v>
+      </c>
+      <c r="F494">
+        <v>72.500000999999997</v>
+      </c>
+      <c r="G494">
+        <v>29.310345000000002</v>
+      </c>
+      <c r="H494">
+        <v>56.000000999999997</v>
+      </c>
+      <c r="I494">
+        <v>27.272728000000001</v>
+      </c>
+      <c r="J494">
+        <v>2024</v>
+      </c>
+      <c r="K494" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11">
+      <c r="A495" t="s">
+        <v>413</v>
+      </c>
+      <c r="B495" t="s">
+        <v>364</v>
+      </c>
+      <c r="C495" t="s">
+        <v>112</v>
+      </c>
+      <c r="D495">
+        <v>251</v>
+      </c>
+      <c r="E495">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="F495">
+        <v>62.500000999999997</v>
+      </c>
+      <c r="G495">
+        <v>32.758620999999998</v>
+      </c>
+      <c r="H495">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="I495">
+        <v>34.545454999999997</v>
+      </c>
+      <c r="J495">
+        <v>2024</v>
+      </c>
+      <c r="K495" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11">
+      <c r="A496" t="s">
+        <v>413</v>
+      </c>
+      <c r="B496" t="s">
+        <v>365</v>
+      </c>
+      <c r="C496" t="s">
+        <v>113</v>
+      </c>
+      <c r="D496">
+        <v>239</v>
+      </c>
+      <c r="E496">
+        <v>48.000000999999997</v>
+      </c>
+      <c r="F496">
+        <v>62.500000999999997</v>
+      </c>
+      <c r="G496">
+        <v>51.724138000000004</v>
+      </c>
+      <c r="H496">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="I496">
+        <v>14.545455</v>
+      </c>
+      <c r="J496">
+        <v>2024</v>
+      </c>
+      <c r="K496" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="497" spans="1:11">
+      <c r="A497" t="s">
+        <v>413</v>
+      </c>
+      <c r="B497" t="s">
+        <v>366</v>
+      </c>
+      <c r="C497" t="s">
+        <v>114</v>
+      </c>
+      <c r="D497">
+        <v>204</v>
+      </c>
+      <c r="E497">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="F497">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="G497">
+        <v>41.379311000000001</v>
+      </c>
+      <c r="H497">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="I497">
+        <v>32.727272999999997</v>
+      </c>
+      <c r="J497">
+        <v>2024</v>
+      </c>
+      <c r="K497" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="498" spans="1:11">
+      <c r="A498" t="s">
+        <v>413</v>
+      </c>
+      <c r="B498" t="s">
+        <v>367</v>
+      </c>
+      <c r="C498" t="s">
+        <v>115</v>
+      </c>
+      <c r="D498">
+        <v>258</v>
+      </c>
+      <c r="E498">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="F498">
+        <v>65.000000999999997</v>
+      </c>
+      <c r="G498">
+        <v>34.482759000000001</v>
+      </c>
+      <c r="H498">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="I498">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="J498">
+        <v>2024</v>
+      </c>
+      <c r="K498" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="499" spans="1:11">
+      <c r="A499" t="s">
+        <v>413</v>
+      </c>
+      <c r="B499" t="s">
+        <v>368</v>
+      </c>
+      <c r="C499" t="s">
+        <v>116</v>
+      </c>
+      <c r="D499">
+        <v>218</v>
+      </c>
+      <c r="E499">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F499">
+        <v>52.500000999999997</v>
+      </c>
+      <c r="G499">
+        <v>29.310345000000002</v>
+      </c>
+      <c r="H499">
+        <v>52.000000999999997</v>
+      </c>
+      <c r="I499">
+        <v>56.363636999999997</v>
+      </c>
+      <c r="J499">
+        <v>2024</v>
+      </c>
+      <c r="K499" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11">
+      <c r="A500" t="s">
+        <v>413</v>
+      </c>
+      <c r="B500" t="s">
+        <v>369</v>
+      </c>
+      <c r="C500" t="s">
+        <v>117</v>
+      </c>
+      <c r="D500">
+        <v>240</v>
+      </c>
+      <c r="E500">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="F500">
+        <v>65.000000999999997</v>
+      </c>
+      <c r="G500">
+        <v>36.206896999999998</v>
+      </c>
+      <c r="H500">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="I500">
+        <v>56.363636999999997</v>
+      </c>
+      <c r="J500">
+        <v>2024</v>
+      </c>
+      <c r="K500" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="501" spans="1:11">
+      <c r="A501" t="s">
+        <v>413</v>
+      </c>
+      <c r="B501" t="s">
+        <v>370</v>
+      </c>
+      <c r="C501" t="s">
+        <v>118</v>
+      </c>
+      <c r="D501">
+        <v>201</v>
+      </c>
+      <c r="E501">
+        <v>24.000001000000001</v>
+      </c>
+      <c r="F501">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="G501">
+        <v>36.206896999999998</v>
+      </c>
+      <c r="H501">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="I501">
+        <v>34.545454999999997</v>
+      </c>
+      <c r="J501">
+        <v>2024</v>
+      </c>
+      <c r="K501" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11">
+      <c r="A502" t="s">
+        <v>413</v>
+      </c>
+      <c r="B502" t="s">
+        <v>371</v>
+      </c>
+      <c r="C502" t="s">
+        <v>119</v>
+      </c>
+      <c r="D502">
+        <v>286</v>
+      </c>
+      <c r="E502">
+        <v>48.000000999999997</v>
+      </c>
+      <c r="F502">
+        <v>57.500000999999997</v>
+      </c>
+      <c r="G502">
+        <v>58.620690000000003</v>
+      </c>
+      <c r="H502">
+        <v>62.000000999999997</v>
+      </c>
+      <c r="I502">
+        <v>63.636364</v>
+      </c>
+      <c r="J502">
+        <v>2024</v>
+      </c>
+      <c r="K502" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11">
+      <c r="A503" t="s">
+        <v>413</v>
+      </c>
+      <c r="B503" t="s">
+        <v>372</v>
+      </c>
+      <c r="C503" t="s">
+        <v>120</v>
+      </c>
+      <c r="D503">
+        <v>214</v>
+      </c>
+      <c r="E503">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="F503">
+        <v>55.000000999999997</v>
+      </c>
+      <c r="G503">
+        <v>32.758620999999998</v>
+      </c>
+      <c r="H503">
+        <v>52.000000999999997</v>
+      </c>
+      <c r="I503">
+        <v>32.727272999999997</v>
+      </c>
+      <c r="J503">
+        <v>2024</v>
+      </c>
+      <c r="K503" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11">
+      <c r="A504" t="s">
+        <v>413</v>
+      </c>
+      <c r="B504" t="s">
+        <v>373</v>
+      </c>
+      <c r="C504" t="s">
+        <v>121</v>
+      </c>
+      <c r="D504">
+        <v>204</v>
+      </c>
+      <c r="E504">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="F504">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="G504">
+        <v>39.655172999999998</v>
+      </c>
+      <c r="H504">
+        <v>44.000000999999997</v>
+      </c>
+      <c r="I504">
+        <v>43.636364</v>
+      </c>
+      <c r="J504">
+        <v>2024</v>
+      </c>
+      <c r="K504" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11">
+      <c r="A505" t="s">
+        <v>413</v>
+      </c>
+      <c r="B505" t="s">
+        <v>374</v>
+      </c>
+      <c r="C505" t="s">
+        <v>122</v>
+      </c>
+      <c r="D505">
+        <v>231</v>
+      </c>
+      <c r="E505">
+        <v>44.000000999999997</v>
+      </c>
+      <c r="F505">
+        <v>52.500000999999997</v>
+      </c>
+      <c r="G505">
+        <v>32.758620999999998</v>
+      </c>
+      <c r="H505">
+        <v>58.000000999999997</v>
+      </c>
+      <c r="I505">
+        <v>38.181818999999997</v>
+      </c>
+      <c r="J505">
+        <v>2024</v>
+      </c>
+      <c r="K505" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11">
+      <c r="A506" t="s">
+        <v>413</v>
+      </c>
+      <c r="B506" t="s">
+        <v>375</v>
+      </c>
+      <c r="C506" t="s">
+        <v>123</v>
+      </c>
+      <c r="D506">
+        <v>210</v>
+      </c>
+      <c r="E506">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="F506">
+        <v>57.500000999999997</v>
+      </c>
+      <c r="G506">
+        <v>34.482759000000001</v>
+      </c>
+      <c r="H506">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="I506">
+        <v>29.090910000000001</v>
+      </c>
+      <c r="J506">
+        <v>2024</v>
+      </c>
+      <c r="K506" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="507" spans="1:11">
+      <c r="A507" t="s">
+        <v>413</v>
+      </c>
+      <c r="B507" t="s">
+        <v>376</v>
+      </c>
+      <c r="C507" t="s">
+        <v>124</v>
+      </c>
+      <c r="D507">
+        <v>225</v>
+      </c>
+      <c r="E507">
+        <v>52.000000999999997</v>
+      </c>
+      <c r="F507">
+        <v>55.000000999999997</v>
+      </c>
+      <c r="G507">
+        <v>22.413793999999999</v>
+      </c>
+      <c r="H507">
+        <v>54.000000999999997</v>
+      </c>
+      <c r="I507">
+        <v>34.545454999999997</v>
+      </c>
+      <c r="J507">
+        <v>2024</v>
+      </c>
+      <c r="K507" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11">
+      <c r="A508" t="s">
+        <v>413</v>
+      </c>
+      <c r="B508" t="s">
+        <v>377</v>
+      </c>
+      <c r="C508" t="s">
+        <v>125</v>
+      </c>
+      <c r="D508">
+        <v>270</v>
+      </c>
+      <c r="E508">
+        <v>48.000000999999997</v>
+      </c>
+      <c r="F508">
+        <v>72.500000999999997</v>
+      </c>
+      <c r="G508">
+        <v>37.931035000000001</v>
+      </c>
+      <c r="H508">
+        <v>56.000000999999997</v>
+      </c>
+      <c r="I508">
+        <v>58.181818999999997</v>
+      </c>
+      <c r="J508">
+        <v>2024</v>
+      </c>
+      <c r="K508" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11">
+      <c r="A509" t="s">
+        <v>413</v>
+      </c>
+      <c r="B509" t="s">
+        <v>378</v>
+      </c>
+      <c r="C509" t="s">
+        <v>126</v>
+      </c>
+      <c r="D509">
+        <v>198</v>
+      </c>
+      <c r="E509">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="F509">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="G509">
+        <v>34.482759000000001</v>
+      </c>
+      <c r="H509">
+        <v>24.000001000000001</v>
+      </c>
+      <c r="I509">
+        <v>50.909090999999997</v>
+      </c>
+      <c r="J509">
+        <v>2024</v>
+      </c>
+      <c r="K509" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11">
+      <c r="A510" t="s">
+        <v>413</v>
+      </c>
+      <c r="B510" t="s">
+        <v>379</v>
+      </c>
+      <c r="C510" t="s">
+        <v>127</v>
+      </c>
+      <c r="D510">
+        <v>170</v>
+      </c>
+      <c r="E510">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="F510">
+        <v>30.000001000000001</v>
+      </c>
+      <c r="G510">
+        <v>31.034483000000002</v>
+      </c>
+      <c r="H510">
+        <v>26.000001000000001</v>
+      </c>
+      <c r="I510">
+        <v>41.818182</v>
+      </c>
+      <c r="J510">
+        <v>2024</v>
+      </c>
+      <c r="K510" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="511" spans="1:11">
+      <c r="A511" t="s">
+        <v>413</v>
+      </c>
+      <c r="B511" t="s">
+        <v>380</v>
+      </c>
+      <c r="C511" t="s">
+        <v>128</v>
+      </c>
+      <c r="D511">
+        <v>268</v>
+      </c>
+      <c r="E511">
+        <v>48.000000999999997</v>
+      </c>
+      <c r="F511">
+        <v>70.000000999999997</v>
+      </c>
+      <c r="G511">
+        <v>37.931035000000001</v>
+      </c>
+      <c r="H511">
+        <v>64.000000999999997</v>
+      </c>
+      <c r="I511">
+        <v>34.545454999999997</v>
+      </c>
+      <c r="J511">
+        <v>2024</v>
+      </c>
+      <c r="K511" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11">
+      <c r="A512" t="s">
+        <v>413</v>
+      </c>
+      <c r="B512" t="s">
+        <v>381</v>
+      </c>
+      <c r="C512" t="s">
+        <v>129</v>
+      </c>
+      <c r="D512">
+        <v>373</v>
+      </c>
+      <c r="E512">
+        <v>74.000000999999997</v>
+      </c>
+      <c r="F512">
+        <v>77.500000999999997</v>
+      </c>
+      <c r="G512">
+        <v>65.517241999999996</v>
+      </c>
+      <c r="H512">
+        <v>76.000000999999997</v>
+      </c>
+      <c r="I512">
+        <v>89.090909999999994</v>
+      </c>
+      <c r="J512">
+        <v>2024</v>
+      </c>
+      <c r="K512" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11">
+      <c r="A513" t="s">
+        <v>413</v>
+      </c>
+      <c r="B513" t="s">
+        <v>382</v>
+      </c>
+      <c r="C513" t="s">
+        <v>130</v>
+      </c>
+      <c r="D513">
+        <v>202</v>
+      </c>
+      <c r="E513">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="F513">
+        <v>52.500000999999997</v>
+      </c>
+      <c r="G513">
+        <v>20.689655999999999</v>
+      </c>
+      <c r="H513">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="I513">
+        <v>27.272728000000001</v>
+      </c>
+      <c r="J513">
+        <v>2024</v>
+      </c>
+      <c r="K513" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="514" spans="1:11">
+      <c r="A514" t="s">
+        <v>413</v>
+      </c>
+      <c r="B514" t="s">
+        <v>383</v>
+      </c>
+      <c r="C514" t="s">
+        <v>131</v>
+      </c>
+      <c r="D514">
+        <v>186</v>
+      </c>
+      <c r="E514">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="F514">
+        <v>37.500000999999997</v>
+      </c>
+      <c r="G514">
+        <v>31.034483000000002</v>
+      </c>
+      <c r="H514">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="I514">
+        <v>43.636364</v>
+      </c>
+      <c r="J514">
+        <v>2024</v>
+      </c>
+      <c r="K514" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="515" spans="1:11">
+      <c r="A515" t="s">
+        <v>413</v>
+      </c>
+      <c r="B515" t="s">
+        <v>384</v>
+      </c>
+      <c r="C515" t="s">
+        <v>132</v>
+      </c>
+      <c r="D515">
+        <v>219</v>
+      </c>
+      <c r="E515">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="F515">
+        <v>45.000000999999997</v>
+      </c>
+      <c r="G515">
+        <v>34.482759000000001</v>
+      </c>
+      <c r="H515">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="I515">
+        <v>30.909091</v>
+      </c>
+      <c r="J515">
+        <v>2024</v>
+      </c>
+      <c r="K515" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="516" spans="1:11">
+      <c r="A516" t="s">
+        <v>413</v>
+      </c>
+      <c r="B516" t="s">
+        <v>385</v>
+      </c>
+      <c r="C516" t="s">
+        <v>133</v>
+      </c>
+      <c r="D516">
+        <v>259</v>
+      </c>
+      <c r="E516">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="F516">
+        <v>65.000000999999997</v>
+      </c>
+      <c r="G516">
+        <v>37.931035000000001</v>
+      </c>
+      <c r="H516">
+        <v>64.000000999999997</v>
+      </c>
+      <c r="I516">
+        <v>34.545454999999997</v>
+      </c>
+      <c r="J516">
+        <v>2024</v>
+      </c>
+      <c r="K516" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="517" spans="1:11">
+      <c r="A517" t="s">
+        <v>413</v>
+      </c>
+      <c r="B517" t="s">
+        <v>386</v>
+      </c>
+      <c r="C517" t="s">
+        <v>134</v>
+      </c>
+      <c r="D517">
+        <v>299</v>
+      </c>
+      <c r="E517">
+        <v>62.000000999999997</v>
+      </c>
+      <c r="F517">
+        <v>65.000000999999997</v>
+      </c>
+      <c r="G517">
+        <v>58.620690000000003</v>
+      </c>
+      <c r="H517">
+        <v>56.000000999999997</v>
+      </c>
+      <c r="I517">
+        <v>50.909090999999997</v>
+      </c>
+      <c r="J517">
+        <v>2024</v>
+      </c>
+      <c r="K517" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="518" spans="1:11">
+      <c r="A518" t="s">
+        <v>413</v>
+      </c>
+      <c r="B518" t="s">
+        <v>387</v>
+      </c>
+      <c r="C518" t="s">
+        <v>135</v>
+      </c>
+      <c r="D518">
+        <v>274</v>
+      </c>
+      <c r="E518">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="F518">
+        <v>55.000000999999997</v>
+      </c>
+      <c r="G518">
+        <v>44.827587000000001</v>
+      </c>
+      <c r="H518">
+        <v>74.000000999999997</v>
+      </c>
+      <c r="I518">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="J518">
+        <v>2024</v>
+      </c>
+      <c r="K518" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="519" spans="1:11">
+      <c r="A519" t="s">
+        <v>413</v>
+      </c>
+      <c r="B519" t="s">
+        <v>388</v>
+      </c>
+      <c r="C519" t="s">
+        <v>136</v>
+      </c>
+      <c r="D519">
+        <v>253</v>
+      </c>
+      <c r="E519">
+        <v>54.000000999999997</v>
+      </c>
+      <c r="F519">
+        <v>55.000000999999997</v>
+      </c>
+      <c r="G519">
+        <v>39.655172999999998</v>
+      </c>
+      <c r="H519">
+        <v>54.000000999999997</v>
+      </c>
+      <c r="I519">
+        <v>47.272728000000001</v>
+      </c>
+      <c r="J519">
+        <v>2024</v>
+      </c>
+      <c r="K519" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="520" spans="1:11">
+      <c r="A520" t="s">
+        <v>413</v>
+      </c>
+      <c r="B520" t="s">
+        <v>389</v>
+      </c>
+      <c r="C520" t="s">
+        <v>138</v>
+      </c>
+      <c r="D520">
+        <v>306</v>
+      </c>
+      <c r="E520">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="F520">
+        <v>62.500000999999997</v>
+      </c>
+      <c r="G520">
+        <v>60.344828</v>
+      </c>
+      <c r="H520">
+        <v>70.000000999999997</v>
+      </c>
+      <c r="I520">
+        <v>34.545454999999997</v>
+      </c>
+      <c r="J520">
+        <v>2024</v>
+      </c>
+      <c r="K520" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="521" spans="1:11">
+      <c r="A521" t="s">
+        <v>413</v>
+      </c>
+      <c r="B521" t="s">
+        <v>390</v>
+      </c>
+      <c r="C521" t="s">
+        <v>139</v>
+      </c>
+      <c r="D521">
+        <v>271</v>
+      </c>
+      <c r="E521">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="F521">
+        <v>70.000000999999997</v>
+      </c>
+      <c r="G521">
+        <v>48.275863000000001</v>
+      </c>
+      <c r="H521">
+        <v>66.000000999999997</v>
+      </c>
+      <c r="I521">
+        <v>30.909091</v>
+      </c>
+      <c r="J521">
+        <v>2024</v>
+      </c>
+      <c r="K521" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="522" spans="1:11">
+      <c r="A522" t="s">
+        <v>413</v>
+      </c>
+      <c r="B522" t="s">
+        <v>391</v>
+      </c>
+      <c r="C522" t="s">
+        <v>140</v>
+      </c>
+      <c r="D522">
+        <v>205</v>
+      </c>
+      <c r="E522">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="F522">
+        <v>55.000000999999997</v>
+      </c>
+      <c r="G522">
+        <v>24.137931999999999</v>
+      </c>
+      <c r="H522">
+        <v>52.000000999999997</v>
+      </c>
+      <c r="I522">
+        <v>23.636364</v>
+      </c>
+      <c r="J522">
+        <v>2024</v>
+      </c>
+      <c r="K522" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="523" spans="1:11">
+      <c r="A523" t="s">
+        <v>413</v>
+      </c>
+      <c r="B523" t="s">
+        <v>392</v>
+      </c>
+      <c r="C523" t="s">
+        <v>141</v>
+      </c>
+      <c r="D523">
+        <v>298</v>
+      </c>
+      <c r="E523">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="F523">
+        <v>77.500000999999997</v>
+      </c>
+      <c r="G523">
+        <v>48.275863000000001</v>
+      </c>
+      <c r="H523">
+        <v>62.000000999999997</v>
+      </c>
+      <c r="I523">
+        <v>70.909091000000004</v>
+      </c>
+      <c r="J523">
+        <v>2024</v>
+      </c>
+      <c r="K523" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="524" spans="1:11">
+      <c r="A524" t="s">
+        <v>413</v>
+      </c>
+      <c r="B524" t="s">
+        <v>393</v>
+      </c>
+      <c r="C524" t="s">
+        <v>142</v>
+      </c>
+      <c r="D524">
+        <v>236</v>
+      </c>
+      <c r="E524">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="F524">
+        <v>42.500000999999997</v>
+      </c>
+      <c r="G524">
+        <v>44.827587000000001</v>
+      </c>
+      <c r="H524">
+        <v>58.000000999999997</v>
+      </c>
+      <c r="I524">
+        <v>50.909090999999997</v>
+      </c>
+      <c r="J524">
+        <v>2024</v>
+      </c>
+      <c r="K524" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="525" spans="1:11">
+      <c r="A525" t="s">
+        <v>413</v>
+      </c>
+      <c r="B525" t="s">
+        <v>394</v>
+      </c>
+      <c r="C525" t="s">
+        <v>143</v>
+      </c>
+      <c r="D525">
+        <v>187</v>
+      </c>
+      <c r="E525">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="F525">
+        <v>42.500000999999997</v>
+      </c>
+      <c r="G525">
+        <v>31.034483000000002</v>
+      </c>
+      <c r="H525">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="I525">
+        <v>29.090910000000001</v>
+      </c>
+      <c r="J525">
+        <v>2024</v>
+      </c>
+      <c r="K525" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="526" spans="1:11">
+      <c r="A526" t="s">
+        <v>413</v>
+      </c>
+      <c r="B526" t="s">
+        <v>395</v>
+      </c>
+      <c r="C526" t="s">
+        <v>144</v>
+      </c>
+      <c r="D526">
+        <v>256</v>
+      </c>
+      <c r="E526">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="F526">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="G526">
+        <v>39.655172999999998</v>
+      </c>
+      <c r="H526">
+        <v>66.000000999999997</v>
+      </c>
+      <c r="I526">
+        <v>47.272728000000001</v>
+      </c>
+      <c r="J526">
+        <v>2024</v>
+      </c>
+      <c r="K526" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="527" spans="1:11">
+      <c r="A527" t="s">
+        <v>413</v>
+      </c>
+      <c r="B527" t="s">
+        <v>397</v>
+      </c>
+      <c r="C527" t="s">
+        <v>147</v>
+      </c>
+      <c r="D527">
+        <v>165</v>
+      </c>
+      <c r="E527">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="F527">
+        <v>32.500000999999997</v>
+      </c>
+      <c r="G527">
+        <v>34.482759000000001</v>
+      </c>
+      <c r="H527">
+        <v>24.000001000000001</v>
+      </c>
+      <c r="I527">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="J527">
+        <v>2024</v>
+      </c>
+      <c r="K527" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="528" spans="1:11">
+      <c r="A528" t="s">
+        <v>413</v>
+      </c>
+      <c r="B528" t="s">
+        <v>398</v>
+      </c>
+      <c r="C528" t="s">
+        <v>148</v>
+      </c>
+      <c r="D528">
+        <v>249</v>
+      </c>
+      <c r="E528">
+        <v>44.000000999999997</v>
+      </c>
+      <c r="F528">
+        <v>55.000000999999997</v>
+      </c>
+      <c r="G528">
+        <v>41.379311000000001</v>
+      </c>
+      <c r="H528">
+        <v>62.000000999999997</v>
+      </c>
+      <c r="I528">
+        <v>38.181818999999997</v>
+      </c>
+      <c r="J528">
+        <v>2024</v>
+      </c>
+      <c r="K528" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="529" spans="1:11">
+      <c r="A529" t="s">
+        <v>413</v>
+      </c>
+      <c r="B529" t="s">
+        <v>399</v>
+      </c>
+      <c r="C529" t="s">
+        <v>149</v>
+      </c>
+      <c r="D529">
+        <v>248</v>
+      </c>
+      <c r="E529">
+        <v>54.000000999999997</v>
+      </c>
+      <c r="F529">
+        <v>45.000000999999997</v>
+      </c>
+      <c r="G529">
+        <v>44.827587000000001</v>
+      </c>
+      <c r="H529">
+        <v>56.000000999999997</v>
+      </c>
+      <c r="I529">
+        <v>43.636364</v>
+      </c>
+      <c r="J529">
+        <v>2024</v>
+      </c>
+      <c r="K529" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="530" spans="1:11">
+      <c r="A530" t="s">
+        <v>413</v>
+      </c>
+      <c r="B530" t="s">
+        <v>400</v>
+      </c>
+      <c r="C530" t="s">
+        <v>150</v>
+      </c>
+      <c r="D530">
+        <v>218</v>
+      </c>
+      <c r="E530">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="F530">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="G530">
+        <v>34.482759000000001</v>
+      </c>
+      <c r="H530">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="I530">
+        <v>36.363636999999997</v>
+      </c>
+      <c r="J530">
+        <v>2024</v>
+      </c>
+      <c r="K530" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="531" spans="1:11">
+      <c r="A531" t="s">
+        <v>413</v>
+      </c>
+      <c r="B531" t="s">
+        <v>407</v>
+      </c>
+      <c r="C531" t="s">
+        <v>151</v>
+      </c>
+      <c r="D531">
+        <v>251</v>
+      </c>
+      <c r="E531">
+        <v>44.000000999999997</v>
+      </c>
+      <c r="F531">
+        <v>55.000000999999997</v>
+      </c>
+      <c r="G531">
+        <v>39.655172999999998</v>
+      </c>
+      <c r="H531">
+        <v>64.000000999999997</v>
+      </c>
+      <c r="I531">
+        <v>43.636364</v>
+      </c>
+      <c r="J531">
+        <v>2024</v>
+      </c>
+      <c r="K531" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="532" spans="1:11">
+      <c r="A532" t="s">
+        <v>413</v>
+      </c>
+      <c r="B532" t="s">
+        <v>401</v>
+      </c>
+      <c r="C532" t="s">
+        <v>152</v>
+      </c>
+      <c r="D532">
+        <v>324</v>
+      </c>
+      <c r="E532">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="F532">
+        <v>70.000000999999997</v>
+      </c>
+      <c r="G532">
+        <v>56.896552</v>
+      </c>
+      <c r="H532">
+        <v>82.000000999999997</v>
+      </c>
+      <c r="I532">
+        <v>34.545454999999997</v>
+      </c>
+      <c r="J532">
+        <v>2024</v>
+      </c>
+      <c r="K532" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="533" spans="1:11">
+      <c r="A533" t="s">
+        <v>413</v>
+      </c>
+      <c r="B533" t="s">
+        <v>402</v>
+      </c>
+      <c r="C533" t="s">
+        <v>153</v>
+      </c>
+      <c r="D533">
+        <v>226</v>
+      </c>
+      <c r="E533">
+        <v>30.000001000000001</v>
+      </c>
+      <c r="F533">
+        <v>45.000000999999997</v>
+      </c>
+      <c r="G533">
+        <v>44.827587000000001</v>
+      </c>
+      <c r="H533">
+        <v>62.000000999999997</v>
+      </c>
+      <c r="I533">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="J533">
+        <v>2024</v>
+      </c>
+      <c r="K533" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="534" spans="1:11">
+      <c r="A534" t="s">
+        <v>413</v>
+      </c>
+      <c r="B534" t="s">
+        <v>403</v>
+      </c>
+      <c r="C534" t="s">
+        <v>154</v>
+      </c>
+      <c r="D534">
+        <v>293</v>
+      </c>
+      <c r="E534">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="F534">
+        <v>87.500000999999997</v>
+      </c>
+      <c r="G534">
+        <v>22.413793999999999</v>
+      </c>
+      <c r="H534">
+        <v>84.000000999999997</v>
+      </c>
+      <c r="I534">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="J534">
+        <v>2024</v>
+      </c>
+      <c r="K534" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="535" spans="1:11">
+      <c r="A535" t="s">
+        <v>413</v>
+      </c>
+      <c r="B535" t="s">
+        <v>404</v>
+      </c>
+      <c r="C535" t="s">
+        <v>155</v>
+      </c>
+      <c r="D535">
+        <v>350</v>
+      </c>
+      <c r="E535">
+        <v>56.000000999999997</v>
+      </c>
+      <c r="F535">
+        <v>72.500000999999997</v>
+      </c>
+      <c r="G535">
+        <v>70.689655999999999</v>
+      </c>
+      <c r="H535">
+        <v>78.000000999999997</v>
+      </c>
+      <c r="I535">
+        <v>76.363636999999997</v>
+      </c>
+      <c r="J535">
+        <v>2024</v>
+      </c>
+      <c r="K535" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="536" spans="1:11">
+      <c r="A536" t="s">
+        <v>414</v>
+      </c>
+      <c r="B536" t="s">
+        <v>214</v>
+      </c>
+      <c r="C536" t="s">
         <v>156</v>
       </c>
-      <c r="E394" s="7">
-        <v>35.416666666666664</v>
-      </c>
-      <c r="K394" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="395" spans="1:11">
-      <c r="A395" s="5">
-        <v>1105</v>
-      </c>
-      <c r="B395" s="5" t="s">
+      <c r="D536">
+        <v>142</v>
+      </c>
+      <c r="E536">
+        <v>16.000001000000001</v>
+      </c>
+      <c r="F536">
+        <v>42.500000999999997</v>
+      </c>
+      <c r="G536">
+        <v>17.241379999999999</v>
+      </c>
+      <c r="H536">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="I536">
+        <v>27.272728000000001</v>
+      </c>
+      <c r="J536">
+        <v>2024</v>
+      </c>
+      <c r="K536" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="537" spans="1:11">
+      <c r="A537" t="s">
+        <v>414</v>
+      </c>
+      <c r="B537" t="s">
         <v>215</v>
       </c>
-      <c r="C395" t="s">
+      <c r="C537" t="s">
         <v>157</v>
       </c>
-      <c r="E395" s="7">
-        <v>56.25</v>
-      </c>
-      <c r="K395" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="396" spans="1:11">
-      <c r="A396" s="5">
-        <v>1105</v>
-      </c>
-      <c r="B396" s="5" t="s">
+      <c r="D537">
+        <v>171</v>
+      </c>
+      <c r="E537">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="F537">
+        <v>42.500000999999997</v>
+      </c>
+      <c r="G537">
+        <v>22.413793999999999</v>
+      </c>
+      <c r="H537">
+        <v>30.000001000000001</v>
+      </c>
+      <c r="I537">
+        <v>32.727272999999997</v>
+      </c>
+      <c r="J537">
+        <v>2024</v>
+      </c>
+      <c r="K537" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="538" spans="1:11">
+      <c r="A538" t="s">
+        <v>414</v>
+      </c>
+      <c r="B538" t="s">
         <v>216</v>
       </c>
-      <c r="C396" t="s">
+      <c r="C538" t="s">
         <v>158</v>
       </c>
-      <c r="E396" s="7">
-        <v>45.833333333333336</v>
-      </c>
-      <c r="K396" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="397" spans="1:11">
-      <c r="A397" s="5">
-        <v>1105</v>
-      </c>
-      <c r="B397" s="5" t="s">
+      <c r="D538">
+        <v>236</v>
+      </c>
+      <c r="E538">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F538">
+        <v>57.500000999999997</v>
+      </c>
+      <c r="G538">
+        <v>36.206896999999998</v>
+      </c>
+      <c r="H538">
+        <v>62.000000999999997</v>
+      </c>
+      <c r="I538">
+        <v>38.181818999999997</v>
+      </c>
+      <c r="J538">
+        <v>2024</v>
+      </c>
+      <c r="K538" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="539" spans="1:11">
+      <c r="A539" t="s">
+        <v>414</v>
+      </c>
+      <c r="B539" t="s">
         <v>217</v>
       </c>
-      <c r="C397" t="s">
+      <c r="C539" t="s">
         <v>159</v>
       </c>
-      <c r="E397" s="7">
-        <v>56.25</v>
-      </c>
-      <c r="K397" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="398" spans="1:11">
-      <c r="A398" s="5">
-        <v>1105</v>
-      </c>
-      <c r="B398" s="5" t="s">
+      <c r="D539">
+        <v>228</v>
+      </c>
+      <c r="E539">
+        <v>28.000001000000001</v>
+      </c>
+      <c r="F539">
+        <v>57.500000999999997</v>
+      </c>
+      <c r="G539">
+        <v>46.551724999999998</v>
+      </c>
+      <c r="H539">
+        <v>52.000000999999997</v>
+      </c>
+      <c r="I539">
+        <v>38.181818999999997</v>
+      </c>
+      <c r="J539">
+        <v>2024</v>
+      </c>
+      <c r="K539" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="540" spans="1:11">
+      <c r="A540" t="s">
+        <v>414</v>
+      </c>
+      <c r="B540" t="s">
         <v>218</v>
       </c>
-      <c r="C398" t="s">
+      <c r="C540" t="s">
         <v>160</v>
       </c>
-      <c r="E398" s="7">
-        <v>58.333333333333336</v>
-      </c>
-      <c r="K398" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="399" spans="1:11">
-      <c r="A399" s="5">
-        <v>1105</v>
-      </c>
-      <c r="B399" s="5" t="s">
+      <c r="D540">
+        <v>192</v>
+      </c>
+      <c r="E540">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="F540">
+        <v>37.500000999999997</v>
+      </c>
+      <c r="G540">
+        <v>46.551724999999998</v>
+      </c>
+      <c r="H540">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="I540">
+        <v>47.272728000000001</v>
+      </c>
+      <c r="J540">
+        <v>2024</v>
+      </c>
+      <c r="K540" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="541" spans="1:11">
+      <c r="A541" t="s">
+        <v>414</v>
+      </c>
+      <c r="B541" t="s">
         <v>219</v>
       </c>
-      <c r="C399" t="s">
+      <c r="C541" t="s">
         <v>161</v>
       </c>
-      <c r="E399" s="7">
-        <v>35.416666666666664</v>
-      </c>
-      <c r="K399" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="400" spans="1:11">
-      <c r="A400" s="5">
-        <v>1105</v>
-      </c>
-      <c r="B400" s="5" t="s">
+      <c r="D541">
+        <v>176</v>
+      </c>
+      <c r="E541">
+        <v>24.000001000000001</v>
+      </c>
+      <c r="F541">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="G541">
+        <v>43.103448999999998</v>
+      </c>
+      <c r="H541">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="I541">
+        <v>20.000001000000001</v>
+      </c>
+      <c r="J541">
+        <v>2024</v>
+      </c>
+      <c r="K541" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="542" spans="1:11">
+      <c r="A542" t="s">
+        <v>414</v>
+      </c>
+      <c r="B542" t="s">
         <v>220</v>
       </c>
-      <c r="C400" t="s">
+      <c r="C542" t="s">
         <v>162</v>
       </c>
-      <c r="E400" s="7">
-        <v>27.083333333333332</v>
-      </c>
-      <c r="K400" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="401" spans="1:11">
-      <c r="A401" s="5">
-        <v>1105</v>
-      </c>
-      <c r="B401" s="5" t="s">
+      <c r="D542">
+        <v>179</v>
+      </c>
+      <c r="E542">
+        <v>28.000001000000001</v>
+      </c>
+      <c r="F542">
+        <v>37.500000999999997</v>
+      </c>
+      <c r="G542">
+        <v>32.758620999999998</v>
+      </c>
+      <c r="H542">
+        <v>44.000000999999997</v>
+      </c>
+      <c r="I542">
+        <v>36.363636999999997</v>
+      </c>
+      <c r="J542">
+        <v>2024</v>
+      </c>
+      <c r="K542" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="543" spans="1:11">
+      <c r="A543" t="s">
+        <v>414</v>
+      </c>
+      <c r="B543" t="s">
         <v>221</v>
       </c>
-      <c r="C401" t="s">
+      <c r="C543" t="s">
         <v>163</v>
       </c>
-      <c r="E401" s="7">
-        <v>29.166666666666668</v>
-      </c>
-      <c r="K401" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="402" spans="1:11">
-      <c r="A402" s="5">
-        <v>1105</v>
-      </c>
-      <c r="B402" s="5" t="s">
+      <c r="D543">
+        <v>157</v>
+      </c>
+      <c r="E543">
+        <v>26.000001000000001</v>
+      </c>
+      <c r="F543">
+        <v>45.000000999999997</v>
+      </c>
+      <c r="G543">
+        <v>25.862069000000002</v>
+      </c>
+      <c r="H543">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="I543">
+        <v>20.000001000000001</v>
+      </c>
+      <c r="J543">
+        <v>2024</v>
+      </c>
+      <c r="K543" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="544" spans="1:11">
+      <c r="A544" t="s">
+        <v>414</v>
+      </c>
+      <c r="B544" t="s">
         <v>408</v>
       </c>
-      <c r="C402" t="s">
+      <c r="C544" t="s">
+        <v>164</v>
+      </c>
+      <c r="D544">
+        <v>274</v>
+      </c>
+      <c r="E544">
+        <v>22.000001000000001</v>
+      </c>
+      <c r="F544">
+        <v>55.000000999999997</v>
+      </c>
+      <c r="G544">
+        <v>67.241380000000007</v>
+      </c>
+      <c r="H544">
+        <v>74.000000999999997</v>
+      </c>
+      <c r="I544">
+        <v>56.363636999999997</v>
+      </c>
+      <c r="J544">
+        <v>2024</v>
+      </c>
+      <c r="K544" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="545" spans="1:11">
+      <c r="A545" t="s">
+        <v>414</v>
+      </c>
+      <c r="B545" t="s">
+        <v>222</v>
+      </c>
+      <c r="C545" t="s">
         <v>165</v>
       </c>
-      <c r="E402" s="7">
-        <v>45.833333333333336</v>
-      </c>
-      <c r="K402" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="403" spans="1:11">
-      <c r="A403" s="5">
-        <v>1105</v>
-      </c>
-      <c r="B403" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C403" t="s">
+      <c r="D545">
+        <v>219</v>
+      </c>
+      <c r="E545">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="F545">
+        <v>55.000000999999997</v>
+      </c>
+      <c r="G545">
+        <v>31.034483000000002</v>
+      </c>
+      <c r="H545">
+        <v>48.000000999999997</v>
+      </c>
+      <c r="I545">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="J545">
+        <v>2024</v>
+      </c>
+      <c r="K545" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="546" spans="1:11">
+      <c r="A546" t="s">
+        <v>414</v>
+      </c>
+      <c r="B546" t="s">
+        <v>223</v>
+      </c>
+      <c r="C546" t="s">
         <v>166</v>
       </c>
-      <c r="E403" s="7">
-        <v>43.75</v>
-      </c>
-      <c r="K403" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="404" spans="1:11">
-      <c r="A404" s="5">
-        <v>1105</v>
-      </c>
-      <c r="B404" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C404" t="s">
+      <c r="D546">
+        <v>248</v>
+      </c>
+      <c r="E546">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F546">
+        <v>65.000000999999997</v>
+      </c>
+      <c r="G546">
+        <v>43.103448999999998</v>
+      </c>
+      <c r="H546">
+        <v>58.000000999999997</v>
+      </c>
+      <c r="I546">
+        <v>36.363636999999997</v>
+      </c>
+      <c r="J546">
+        <v>2024</v>
+      </c>
+      <c r="K546" t="s">
         <v>409</v>
       </c>
-      <c r="E404" s="7">
-        <v>0</v>
-      </c>
-      <c r="K404" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="405" spans="1:11">
-      <c r="A405" s="5">
-        <v>1105</v>
-      </c>
-      <c r="B405" s="5" t="s">
+    </row>
+    <row r="547" spans="1:11">
+      <c r="A547" t="s">
+        <v>414</v>
+      </c>
+      <c r="B547" t="s">
         <v>224</v>
       </c>
-      <c r="C405" t="s">
+      <c r="C547" t="s">
         <v>167</v>
       </c>
-      <c r="E405" s="7">
-        <v>35.416666666666664</v>
-      </c>
-      <c r="K405" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="406" spans="1:11">
-      <c r="A406" s="5">
-        <v>1105</v>
-      </c>
-      <c r="B406" s="5" t="s">
+      <c r="D547">
+        <v>192</v>
+      </c>
+      <c r="E547">
+        <v>24.000001000000001</v>
+      </c>
+      <c r="F547">
+        <v>35.000000999999997</v>
+      </c>
+      <c r="G547">
+        <v>43.103448999999998</v>
+      </c>
+      <c r="H547">
+        <v>52.000000999999997</v>
+      </c>
+      <c r="I547">
+        <v>36.363636999999997</v>
+      </c>
+      <c r="J547">
+        <v>2024</v>
+      </c>
+      <c r="K547" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="548" spans="1:11">
+      <c r="A548" t="s">
+        <v>414</v>
+      </c>
+      <c r="B548" t="s">
         <v>225</v>
       </c>
-      <c r="C406" t="s">
+      <c r="C548" t="s">
         <v>168</v>
       </c>
-      <c r="E406" s="7">
-        <v>10.416666666666666</v>
-      </c>
-      <c r="K406" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="407" spans="1:11">
-      <c r="A407" s="5">
-        <v>1105</v>
-      </c>
-      <c r="B407" s="5" t="s">
+      <c r="D548">
+        <v>213</v>
+      </c>
+      <c r="E548">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F548">
+        <v>55.000000999999997</v>
+      </c>
+      <c r="G548">
+        <v>32.758620999999998</v>
+      </c>
+      <c r="H548">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="I548">
+        <v>30.909091</v>
+      </c>
+      <c r="J548">
+        <v>2024</v>
+      </c>
+      <c r="K548" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="549" spans="1:11">
+      <c r="A549" t="s">
+        <v>414</v>
+      </c>
+      <c r="B549" t="s">
         <v>226</v>
       </c>
-      <c r="C407" t="s">
+      <c r="C549" t="s">
         <v>169</v>
       </c>
-      <c r="E407" s="7">
-        <v>50</v>
-      </c>
-      <c r="K407" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="408" spans="1:11">
-      <c r="A408" s="5">
-        <v>1105</v>
-      </c>
-      <c r="B408" s="5" t="s">
+      <c r="D549">
+        <v>229</v>
+      </c>
+      <c r="E549">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="F549">
+        <v>45.000000999999997</v>
+      </c>
+      <c r="G549">
+        <v>48.275863000000001</v>
+      </c>
+      <c r="H549">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="I549">
+        <v>38.181818999999997</v>
+      </c>
+      <c r="J549">
+        <v>2024</v>
+      </c>
+      <c r="K549" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="550" spans="1:11">
+      <c r="A550" t="s">
+        <v>414</v>
+      </c>
+      <c r="B550" t="s">
         <v>227</v>
       </c>
-      <c r="C408" t="s">
+      <c r="C550" t="s">
         <v>170</v>
       </c>
-      <c r="E408" s="7">
-        <v>37.5</v>
-      </c>
-      <c r="K408" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="409" spans="1:11">
-      <c r="A409" s="5">
-        <v>1105</v>
-      </c>
-      <c r="B409" s="5" t="s">
+      <c r="D550">
+        <v>194</v>
+      </c>
+      <c r="E550">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="F550">
+        <v>45.000000999999997</v>
+      </c>
+      <c r="G550">
+        <v>31.034483000000002</v>
+      </c>
+      <c r="H550">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="I550">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="J550">
+        <v>2024</v>
+      </c>
+      <c r="K550" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="551" spans="1:11">
+      <c r="A551" t="s">
+        <v>414</v>
+      </c>
+      <c r="B551" t="s">
         <v>338</v>
       </c>
-      <c r="C409" t="s">
+      <c r="C551" t="s">
+        <v>171</v>
+      </c>
+      <c r="D551">
+        <v>214</v>
+      </c>
+      <c r="E551">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="F551">
+        <v>62.500000999999997</v>
+      </c>
+      <c r="G551">
+        <v>43.103448999999998</v>
+      </c>
+      <c r="H551">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="I551">
+        <v>29.090910000000001</v>
+      </c>
+      <c r="J551">
+        <v>2024</v>
+      </c>
+      <c r="K551" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="552" spans="1:11">
+      <c r="A552" t="s">
+        <v>414</v>
+      </c>
+      <c r="B552" t="s">
+        <v>228</v>
+      </c>
+      <c r="C552" t="s">
         <v>172</v>
       </c>
-      <c r="E409" s="7">
-        <v>47.916666666666664</v>
-      </c>
-      <c r="K409" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="410" spans="1:11">
-      <c r="A410" s="5">
-        <v>1105</v>
-      </c>
-      <c r="B410" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C410" t="s">
+      <c r="D552">
+        <v>279</v>
+      </c>
+      <c r="E552">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="F552">
+        <v>65.000000999999997</v>
+      </c>
+      <c r="G552">
+        <v>48.275863000000001</v>
+      </c>
+      <c r="H552">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="I552">
+        <v>83.636364</v>
+      </c>
+      <c r="J552">
+        <v>2024</v>
+      </c>
+      <c r="K552" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="553" spans="1:11">
+      <c r="A553" t="s">
+        <v>414</v>
+      </c>
+      <c r="B553" t="s">
+        <v>229</v>
+      </c>
+      <c r="C553" t="s">
         <v>173</v>
       </c>
-      <c r="E410" s="7">
-        <v>43.75</v>
-      </c>
-      <c r="K410" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="411" spans="1:11">
-      <c r="A411" s="5">
-        <v>1105</v>
-      </c>
-      <c r="B411" s="5" t="s">
+      <c r="D553">
+        <v>174</v>
+      </c>
+      <c r="E553">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F553">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="G553">
+        <v>15.517242</v>
+      </c>
+      <c r="H553">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="I553">
+        <v>20.000001000000001</v>
+      </c>
+      <c r="J553">
+        <v>2024</v>
+      </c>
+      <c r="K553" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="554" spans="1:11">
+      <c r="A554" t="s">
+        <v>414</v>
+      </c>
+      <c r="B554" t="s">
+        <v>230</v>
+      </c>
+      <c r="C554" t="s">
+        <v>174</v>
+      </c>
+      <c r="D554">
+        <v>219</v>
+      </c>
+      <c r="E554">
+        <v>30.000001000000001</v>
+      </c>
+      <c r="F554">
+        <v>55.000000999999997</v>
+      </c>
+      <c r="G554">
+        <v>41.379311000000001</v>
+      </c>
+      <c r="H554">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="I554">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="J554">
+        <v>2024</v>
+      </c>
+      <c r="K554" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="555" spans="1:11">
+      <c r="A555" t="s">
+        <v>414</v>
+      </c>
+      <c r="B555" t="s">
+        <v>256</v>
+      </c>
+      <c r="C555" t="s">
+        <v>212</v>
+      </c>
+      <c r="D555">
+        <v>231</v>
+      </c>
+      <c r="E555">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="F555">
+        <v>55.000000999999997</v>
+      </c>
+      <c r="G555">
+        <v>46.551724999999998</v>
+      </c>
+      <c r="H555">
+        <v>52.000000999999997</v>
+      </c>
+      <c r="I555">
+        <v>43.636364</v>
+      </c>
+      <c r="J555">
+        <v>2024</v>
+      </c>
+      <c r="K555" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="556" spans="1:11">
+      <c r="A556" t="s">
+        <v>414</v>
+      </c>
+      <c r="B556" t="s">
+        <v>231</v>
+      </c>
+      <c r="C556" t="s">
+        <v>175</v>
+      </c>
+      <c r="D556">
         <v>229</v>
       </c>
-      <c r="C411" t="s">
-        <v>174</v>
-      </c>
-      <c r="E411" s="7">
-        <v>35.416666666666664</v>
-      </c>
-      <c r="K411" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="412" spans="1:11">
-      <c r="A412" s="5">
-        <v>1105</v>
-      </c>
-      <c r="B412" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C412" t="s">
-        <v>410</v>
-      </c>
-      <c r="E412" s="7">
-        <v>50</v>
-      </c>
-      <c r="K412" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="413" spans="1:11">
-      <c r="A413" s="5">
-        <v>1105</v>
-      </c>
-      <c r="B413" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C413" t="s">
+      <c r="E556">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="F556">
+        <v>57.500000999999997</v>
+      </c>
+      <c r="G556">
+        <v>31.034483000000002</v>
+      </c>
+      <c r="H556">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="I556">
+        <v>52.727272999999997</v>
+      </c>
+      <c r="J556">
+        <v>2024</v>
+      </c>
+      <c r="K556" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="557" spans="1:11">
+      <c r="A557" t="s">
+        <v>414</v>
+      </c>
+      <c r="B557" t="s">
+        <v>257</v>
+      </c>
+      <c r="C557" t="s">
+        <v>176</v>
+      </c>
+      <c r="D557">
+        <v>296</v>
+      </c>
+      <c r="E557">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="F557">
+        <v>67.500000999999997</v>
+      </c>
+      <c r="G557">
+        <v>46.551724999999998</v>
+      </c>
+      <c r="H557">
+        <v>70.000000999999997</v>
+      </c>
+      <c r="I557">
+        <v>90.909091000000004</v>
+      </c>
+      <c r="J557">
+        <v>2024</v>
+      </c>
+      <c r="K557" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="558" spans="1:11">
+      <c r="A558" t="s">
+        <v>414</v>
+      </c>
+      <c r="B558" t="s">
+        <v>232</v>
+      </c>
+      <c r="C558" t="s">
+        <v>177</v>
+      </c>
+      <c r="D558">
+        <v>182</v>
+      </c>
+      <c r="E558">
+        <v>26.000001000000001</v>
+      </c>
+      <c r="F558">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="G558">
+        <v>36.206896999999998</v>
+      </c>
+      <c r="H558">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="I558">
+        <v>32.727272999999997</v>
+      </c>
+      <c r="J558">
+        <v>2024</v>
+      </c>
+      <c r="K558" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="559" spans="1:11">
+      <c r="A559" t="s">
+        <v>414</v>
+      </c>
+      <c r="B559" t="s">
+        <v>405</v>
+      </c>
+      <c r="C559" t="s">
+        <v>209</v>
+      </c>
+      <c r="D559">
+        <v>158</v>
+      </c>
+      <c r="E559">
+        <v>24.000001000000001</v>
+      </c>
+      <c r="F559">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="G559">
+        <v>22.413793999999999</v>
+      </c>
+      <c r="H559">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="I559">
+        <v>23.636364</v>
+      </c>
+      <c r="J559">
+        <v>2024</v>
+      </c>
+      <c r="K559" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="560" spans="1:11">
+      <c r="A560" t="s">
+        <v>415</v>
+      </c>
+      <c r="B560" t="s">
+        <v>233</v>
+      </c>
+      <c r="C560" t="s">
+        <v>178</v>
+      </c>
+      <c r="D560">
+        <v>236</v>
+      </c>
+      <c r="E560">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F560">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="G560">
+        <v>36.206896999999998</v>
+      </c>
+      <c r="H560">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="I560">
+        <v>36.363636999999997</v>
+      </c>
+      <c r="J560">
+        <v>2024</v>
+      </c>
+      <c r="K560" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="561" spans="1:11">
+      <c r="A561" t="s">
+        <v>415</v>
+      </c>
+      <c r="B561" t="s">
+        <v>234</v>
+      </c>
+      <c r="C561" t="s">
+        <v>179</v>
+      </c>
+      <c r="D561">
+        <v>150</v>
+      </c>
+      <c r="E561">
+        <v>22.000001000000001</v>
+      </c>
+      <c r="F561">
+        <v>42.500000999999997</v>
+      </c>
+      <c r="G561">
+        <v>22.413793999999999</v>
+      </c>
+      <c r="H561">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="I561">
+        <v>30.909091</v>
+      </c>
+      <c r="J561">
+        <v>2024</v>
+      </c>
+      <c r="K561" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="562" spans="1:11">
+      <c r="A562" t="s">
+        <v>415</v>
+      </c>
+      <c r="B562" t="s">
+        <v>235</v>
+      </c>
+      <c r="C562" t="s">
+        <v>180</v>
+      </c>
+      <c r="D562">
+        <v>130</v>
+      </c>
+      <c r="E562">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="F562">
+        <v>30.000001000000001</v>
+      </c>
+      <c r="G562">
+        <v>20.689655999999999</v>
+      </c>
+      <c r="H562">
+        <v>20.000001000000001</v>
+      </c>
+      <c r="I562">
+        <v>29.090910000000001</v>
+      </c>
+      <c r="J562">
+        <v>2024</v>
+      </c>
+      <c r="K562" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="563" spans="1:11">
+      <c r="A563" t="s">
+        <v>415</v>
+      </c>
+      <c r="B563" t="s">
+        <v>237</v>
+      </c>
+      <c r="C563" t="s">
+        <v>182</v>
+      </c>
+      <c r="D563">
+        <v>226</v>
+      </c>
+      <c r="E563">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F563">
+        <v>57.500000999999997</v>
+      </c>
+      <c r="G563">
+        <v>41.379311000000001</v>
+      </c>
+      <c r="H563">
+        <v>44.000000999999997</v>
+      </c>
+      <c r="I563">
+        <v>50.909090999999997</v>
+      </c>
+      <c r="J563">
+        <v>2024</v>
+      </c>
+      <c r="K563" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="564" spans="1:11">
+      <c r="A564" t="s">
+        <v>415</v>
+      </c>
+      <c r="B564" t="s">
+        <v>238</v>
+      </c>
+      <c r="C564" t="s">
+        <v>183</v>
+      </c>
+      <c r="D564">
+        <v>177</v>
+      </c>
+      <c r="E564">
+        <v>20.000001000000001</v>
+      </c>
+      <c r="F564">
+        <v>45.000000999999997</v>
+      </c>
+      <c r="G564">
+        <v>31.034483000000002</v>
+      </c>
+      <c r="H564">
+        <v>44.000000999999997</v>
+      </c>
+      <c r="I564">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="J564">
+        <v>2024</v>
+      </c>
+      <c r="K564" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="565" spans="1:11">
+      <c r="A565" t="s">
+        <v>415</v>
+      </c>
+      <c r="B565" t="s">
+        <v>239</v>
+      </c>
+      <c r="C565" t="s">
+        <v>184</v>
+      </c>
+      <c r="D565">
+        <v>169</v>
+      </c>
+      <c r="E565">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F565">
+        <v>35.000000999999997</v>
+      </c>
+      <c r="G565">
+        <v>29.310345000000002</v>
+      </c>
+      <c r="H565">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="I565">
+        <v>16.363637000000001</v>
+      </c>
+      <c r="J565">
+        <v>2024</v>
+      </c>
+      <c r="K565" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="566" spans="1:11">
+      <c r="A566" t="s">
+        <v>415</v>
+      </c>
+      <c r="B566" t="s">
+        <v>241</v>
+      </c>
+      <c r="C566" t="s">
+        <v>187</v>
+      </c>
+      <c r="D566">
+        <v>132</v>
+      </c>
+      <c r="E566">
+        <v>22.000001000000001</v>
+      </c>
+      <c r="F566">
+        <v>30.000001000000001</v>
+      </c>
+      <c r="G566">
+        <v>20.689655999999999</v>
+      </c>
+      <c r="H566">
+        <v>30.000001000000001</v>
+      </c>
+      <c r="I566">
+        <v>34.545454999999997</v>
+      </c>
+      <c r="J566">
+        <v>2024</v>
+      </c>
+      <c r="K566" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="567" spans="1:11">
+      <c r="A567" t="s">
+        <v>415</v>
+      </c>
+      <c r="B567" t="s">
+        <v>242</v>
+      </c>
+      <c r="C567" t="s">
+        <v>188</v>
+      </c>
+      <c r="D567">
+        <v>353</v>
+      </c>
+      <c r="E567">
+        <v>70.000000999999997</v>
+      </c>
+      <c r="F567">
+        <v>72.500000999999997</v>
+      </c>
+      <c r="G567">
+        <v>67.241380000000007</v>
+      </c>
+      <c r="H567">
+        <v>66.000000999999997</v>
+      </c>
+      <c r="I567">
+        <v>89.090909999999994</v>
+      </c>
+      <c r="J567">
+        <v>2024</v>
+      </c>
+      <c r="K567" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="568" spans="1:11">
+      <c r="A568" t="s">
+        <v>415</v>
+      </c>
+      <c r="B568" t="s">
+        <v>244</v>
+      </c>
+      <c r="C568" t="s">
+        <v>190</v>
+      </c>
+      <c r="D568">
+        <v>129</v>
+      </c>
+      <c r="E568">
+        <v>22.000001000000001</v>
+      </c>
+      <c r="F568">
+        <v>20.000001000000001</v>
+      </c>
+      <c r="G568">
+        <v>27.586207000000002</v>
+      </c>
+      <c r="H568">
+        <v>30.000001000000001</v>
+      </c>
+      <c r="I568">
+        <v>34.545454999999997</v>
+      </c>
+      <c r="J568">
+        <v>2024</v>
+      </c>
+      <c r="K568" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="569" spans="1:11">
+      <c r="A569" t="s">
+        <v>415</v>
+      </c>
+      <c r="B569" t="s">
+        <v>245</v>
+      </c>
+      <c r="C569" t="s">
+        <v>191</v>
+      </c>
+      <c r="D569">
+        <v>218</v>
+      </c>
+      <c r="E569">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="F569">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="G569">
+        <v>41.379311000000001</v>
+      </c>
+      <c r="H569">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="I569">
+        <v>38.181818999999997</v>
+      </c>
+      <c r="J569">
+        <v>2024</v>
+      </c>
+      <c r="K569" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="570" spans="1:11">
+      <c r="A570" t="s">
+        <v>415</v>
+      </c>
+      <c r="B570" t="s">
+        <v>246</v>
+      </c>
+      <c r="C570" t="s">
+        <v>192</v>
+      </c>
+      <c r="D570">
+        <v>244</v>
+      </c>
+      <c r="E570">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="F570">
+        <v>62.500000999999997</v>
+      </c>
+      <c r="G570">
+        <v>48.275863000000001</v>
+      </c>
+      <c r="H570">
+        <v>48.000000999999997</v>
+      </c>
+      <c r="I570">
+        <v>36.363636999999997</v>
+      </c>
+      <c r="J570">
+        <v>2024</v>
+      </c>
+      <c r="K570" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="571" spans="1:11">
+      <c r="A571" t="s">
+        <v>415</v>
+      </c>
+      <c r="B571" t="s">
+        <v>247</v>
+      </c>
+      <c r="C571" t="s">
+        <v>193</v>
+      </c>
+      <c r="D571">
+        <v>134</v>
+      </c>
+      <c r="E571">
+        <v>20.000001000000001</v>
+      </c>
+      <c r="F571">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="G571">
+        <v>22.413793999999999</v>
+      </c>
+      <c r="H571">
+        <v>22.000001000000001</v>
+      </c>
+      <c r="I571">
+        <v>32.727272999999997</v>
+      </c>
+      <c r="J571">
+        <v>2024</v>
+      </c>
+      <c r="K571" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="572" spans="1:11">
+      <c r="A572" t="s">
+        <v>415</v>
+      </c>
+      <c r="B572" t="s">
+        <v>248</v>
+      </c>
+      <c r="C572" t="s">
+        <v>194</v>
+      </c>
+      <c r="D572">
+        <v>207</v>
+      </c>
+      <c r="E572">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="F572">
+        <v>47.500000999999997</v>
+      </c>
+      <c r="G572">
+        <v>34.482759000000001</v>
+      </c>
+      <c r="H572">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="I572">
+        <v>38.181818999999997</v>
+      </c>
+      <c r="J572">
+        <v>2024</v>
+      </c>
+      <c r="K572" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="573" spans="1:11">
+      <c r="A573" t="s">
+        <v>415</v>
+      </c>
+      <c r="B573" t="s">
+        <v>249</v>
+      </c>
+      <c r="C573" t="s">
+        <v>195</v>
+      </c>
+      <c r="D573">
+        <v>173</v>
+      </c>
+      <c r="E573">
+        <v>24.000001000000001</v>
+      </c>
+      <c r="F573">
+        <v>42.500000999999997</v>
+      </c>
+      <c r="G573">
+        <v>37.931035000000001</v>
+      </c>
+      <c r="H573">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="I573">
+        <v>38.181818999999997</v>
+      </c>
+      <c r="J573">
+        <v>2024</v>
+      </c>
+      <c r="K573" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="574" spans="1:11">
+      <c r="A574" t="s">
+        <v>415</v>
+      </c>
+      <c r="B574" t="s">
+        <v>250</v>
+      </c>
+      <c r="C574" t="s">
+        <v>196</v>
+      </c>
+      <c r="D574">
+        <v>217</v>
+      </c>
+      <c r="E574">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="F574">
+        <v>57.500000999999997</v>
+      </c>
+      <c r="G574">
+        <v>39.655172999999998</v>
+      </c>
+      <c r="H574">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="I574">
+        <v>32.727272999999997</v>
+      </c>
+      <c r="J574">
+        <v>2024</v>
+      </c>
+      <c r="K574" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="575" spans="1:11">
+      <c r="A575" t="s">
+        <v>415</v>
+      </c>
+      <c r="B575" t="s">
+        <v>251</v>
+      </c>
+      <c r="C575" t="s">
+        <v>197</v>
+      </c>
+      <c r="D575">
+        <v>270</v>
+      </c>
+      <c r="E575">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="F575">
+        <v>65.000000999999997</v>
+      </c>
+      <c r="G575">
+        <v>48.275863000000001</v>
+      </c>
+      <c r="H575">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="I575">
+        <v>41.818182</v>
+      </c>
+      <c r="J575">
+        <v>2024</v>
+      </c>
+      <c r="K575" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="576" spans="1:11">
+      <c r="A576" t="s">
+        <v>415</v>
+      </c>
+      <c r="B576" t="s">
+        <v>252</v>
+      </c>
+      <c r="C576" t="s">
+        <v>198</v>
+      </c>
+      <c r="D576">
+        <v>373</v>
+      </c>
+      <c r="E576">
+        <v>76.000000999999997</v>
+      </c>
+      <c r="F576">
+        <v>67.500000999999997</v>
+      </c>
+      <c r="G576">
+        <v>68.965518000000003</v>
+      </c>
+      <c r="H576">
+        <v>80.000000999999997</v>
+      </c>
+      <c r="I576">
+        <v>90.909091000000004</v>
+      </c>
+      <c r="J576">
+        <v>2024</v>
+      </c>
+      <c r="K576" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="577" spans="1:11">
+      <c r="A577" t="s">
+        <v>415</v>
+      </c>
+      <c r="B577" t="s">
+        <v>253</v>
+      </c>
+      <c r="C577" t="s">
+        <v>199</v>
+      </c>
+      <c r="D577">
+        <v>243</v>
+      </c>
+      <c r="E577">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="F577">
+        <v>62.500000999999997</v>
+      </c>
+      <c r="G577">
+        <v>36.206896999999998</v>
+      </c>
+      <c r="H577">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="I577">
+        <v>52.727272999999997</v>
+      </c>
+      <c r="J577">
+        <v>2024</v>
+      </c>
+      <c r="K577" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="578" spans="1:11">
+      <c r="A578" t="s">
+        <v>415</v>
+      </c>
+      <c r="B578" t="s">
+        <v>254</v>
+      </c>
+      <c r="C578" t="s">
+        <v>200</v>
+      </c>
+      <c r="D578">
+        <v>231</v>
+      </c>
+      <c r="E578">
+        <v>44.000000999999997</v>
+      </c>
+      <c r="F578">
+        <v>42.500000999999997</v>
+      </c>
+      <c r="G578">
+        <v>43.103448999999998</v>
+      </c>
+      <c r="H578">
+        <v>56.000000999999997</v>
+      </c>
+      <c r="I578">
+        <v>43.636364</v>
+      </c>
+      <c r="J578">
+        <v>2024</v>
+      </c>
+      <c r="K578" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="579" spans="1:11">
+      <c r="A579" t="s">
+        <v>415</v>
+      </c>
+      <c r="B579" t="s">
+        <v>255</v>
+      </c>
+      <c r="C579" t="s">
+        <v>202</v>
+      </c>
+      <c r="D579">
+        <v>144</v>
+      </c>
+      <c r="E579">
+        <v>30.000001000000001</v>
+      </c>
+      <c r="F579">
+        <v>32.500000999999997</v>
+      </c>
+      <c r="G579">
+        <v>24.137931999999999</v>
+      </c>
+      <c r="H579">
+        <v>30.000001000000001</v>
+      </c>
+      <c r="I579">
+        <v>23.636364</v>
+      </c>
+      <c r="J579">
+        <v>2024</v>
+      </c>
+      <c r="K579" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="580" spans="1:11">
+      <c r="A580" t="s">
+        <v>415</v>
+      </c>
+      <c r="B580" t="s">
+        <v>213</v>
+      </c>
+      <c r="C580" t="s">
+        <v>186</v>
+      </c>
+      <c r="D580">
+        <v>153</v>
+      </c>
+      <c r="E580">
+        <v>22.000001000000001</v>
+      </c>
+      <c r="F580">
+        <v>57.500000999999997</v>
+      </c>
+      <c r="G580">
+        <v>17.241379999999999</v>
+      </c>
+      <c r="H580">
+        <v>26.000001000000001</v>
+      </c>
+      <c r="I580">
+        <v>29.090910000000001</v>
+      </c>
+      <c r="J580">
+        <v>2024</v>
+      </c>
+      <c r="K580" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="581" spans="1:11">
+      <c r="A581" t="s">
+        <v>415</v>
+      </c>
+      <c r="B581" t="s">
+        <v>213</v>
+      </c>
+      <c r="C581" t="s">
+        <v>201</v>
+      </c>
+      <c r="D581">
         <v>175</v>
       </c>
-      <c r="E413" s="7">
-        <v>47.916666666666664</v>
-      </c>
-      <c r="K413" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="414" spans="1:11">
-      <c r="A414" s="5">
-        <v>1105</v>
-      </c>
-      <c r="B414" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C414" t="s">
-        <v>176</v>
-      </c>
-      <c r="E414" s="7">
-        <v>75</v>
-      </c>
-      <c r="K414" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="415" spans="1:11">
-      <c r="A415" s="5">
-        <v>1105</v>
-      </c>
-      <c r="B415" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="C415" t="s">
-        <v>177</v>
-      </c>
-      <c r="E415" s="7">
-        <v>33.333333333333336</v>
-      </c>
-      <c r="K415" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="416" spans="1:11">
-      <c r="A416" s="5">
-        <v>1105</v>
-      </c>
-      <c r="B416" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C416" t="s">
-        <v>209</v>
-      </c>
-      <c r="E416" s="7">
-        <v>22.916666666666668</v>
-      </c>
-      <c r="K416" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="417" spans="1:11">
-      <c r="A417" s="5">
-        <v>1106</v>
-      </c>
-      <c r="B417" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C417" t="s">
-        <v>178</v>
-      </c>
-      <c r="E417" s="7">
-        <v>50</v>
-      </c>
-      <c r="K417" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="418" spans="1:11">
-      <c r="A418" s="5">
-        <v>1106</v>
-      </c>
-      <c r="B418" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C418" t="s">
-        <v>179</v>
-      </c>
-      <c r="E418" s="7">
-        <v>45.833333333333336</v>
-      </c>
-      <c r="K418" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="419" spans="1:11">
-      <c r="A419" s="5">
-        <v>1106</v>
-      </c>
-      <c r="B419" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C419" t="s">
-        <v>180</v>
-      </c>
-      <c r="E419" s="7">
-        <v>27.083333333333332</v>
-      </c>
-      <c r="K419" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="420" spans="1:11">
-      <c r="A420" s="5">
-        <v>1106</v>
-      </c>
-      <c r="B420" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C420" t="s">
-        <v>181</v>
-      </c>
-      <c r="E420" s="7">
-        <v>33.333333333333336</v>
-      </c>
-      <c r="K420" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="421" spans="1:11">
-      <c r="A421" s="5">
-        <v>1106</v>
-      </c>
-      <c r="B421" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C421" t="s">
-        <v>182</v>
-      </c>
-      <c r="E421" s="7">
-        <v>39.583333333333336</v>
-      </c>
-      <c r="K421" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="422" spans="1:11">
-      <c r="A422" s="5">
-        <v>1106</v>
-      </c>
-      <c r="B422" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C422" t="s">
-        <v>183</v>
-      </c>
-      <c r="E422" s="7">
-        <v>37.5</v>
-      </c>
-      <c r="K422" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="423" spans="1:11">
-      <c r="A423" s="5">
-        <v>1106</v>
-      </c>
-      <c r="B423" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C423" t="s">
-        <v>184</v>
-      </c>
-      <c r="E423" s="7">
-        <v>25</v>
-      </c>
-      <c r="K423" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="424" spans="1:11">
-      <c r="A424" s="5">
-        <v>1106</v>
-      </c>
-      <c r="B424" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C424" t="s">
-        <v>185</v>
-      </c>
-      <c r="E424" s="7">
-        <v>60.416666666666664</v>
-      </c>
-      <c r="K424" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="425" spans="1:11">
-      <c r="A425" s="5">
-        <v>1106</v>
-      </c>
-      <c r="B425" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C425" t="s">
-        <v>187</v>
-      </c>
-      <c r="E425" s="7">
-        <v>0</v>
-      </c>
-      <c r="K425" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="426" spans="1:11">
-      <c r="A426" s="5">
-        <v>1106</v>
-      </c>
-      <c r="B426" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="C426" t="s">
-        <v>189</v>
-      </c>
-      <c r="E426" s="7">
-        <v>56.25</v>
-      </c>
-      <c r="K426" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="427" spans="1:11">
-      <c r="A427" s="5">
-        <v>1106</v>
-      </c>
-      <c r="B427" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C427" t="s">
-        <v>190</v>
-      </c>
-      <c r="E427" s="7">
-        <v>29.166666666666668</v>
-      </c>
-      <c r="K427" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="428" spans="1:11">
-      <c r="A428" s="5">
-        <v>1106</v>
-      </c>
-      <c r="B428" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="C428" t="s">
-        <v>191</v>
-      </c>
-      <c r="E428" s="7">
-        <v>47.916666666666664</v>
-      </c>
-      <c r="K428" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="429" spans="1:11">
-      <c r="A429" s="5">
-        <v>1106</v>
-      </c>
-      <c r="B429" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="C429" t="s">
-        <v>192</v>
-      </c>
-      <c r="E429" s="7">
-        <v>50</v>
-      </c>
-      <c r="K429" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="430" spans="1:11">
-      <c r="A430" s="5">
-        <v>1106</v>
-      </c>
-      <c r="B430" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C430" t="s">
-        <v>193</v>
-      </c>
-      <c r="E430" s="7">
-        <v>31.25</v>
-      </c>
-      <c r="K430" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="431" spans="1:11">
-      <c r="A431" s="5">
-        <v>1106</v>
-      </c>
-      <c r="B431" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C431" t="s">
-        <v>194</v>
-      </c>
-      <c r="E431" s="7">
-        <v>39.583333333333336</v>
-      </c>
-      <c r="K431" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="432" spans="1:11">
-      <c r="A432" s="5">
-        <v>1106</v>
-      </c>
-      <c r="B432" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="C432" t="s">
-        <v>195</v>
-      </c>
-      <c r="E432" s="7">
-        <v>37.5</v>
-      </c>
-      <c r="K432" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="433" spans="1:11">
-      <c r="A433" s="5">
-        <v>1106</v>
-      </c>
-      <c r="B433" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C433" t="s">
-        <v>196</v>
-      </c>
-      <c r="E433" s="7">
-        <v>29.166666666666668</v>
-      </c>
-      <c r="K433" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="434" spans="1:11">
-      <c r="A434" s="5">
-        <v>1106</v>
-      </c>
-      <c r="B434" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C434" t="s">
-        <v>197</v>
-      </c>
-      <c r="E434" s="7">
-        <v>29.166666666666668</v>
-      </c>
-      <c r="K434" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="435" spans="1:11">
-      <c r="A435" s="5">
-        <v>1106</v>
-      </c>
-      <c r="B435" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C435" t="s">
-        <v>199</v>
-      </c>
-      <c r="E435" s="7">
-        <v>33.333333333333336</v>
-      </c>
-      <c r="K435" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="436" spans="1:11">
-      <c r="A436" s="5">
-        <v>1106</v>
-      </c>
-      <c r="B436" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C436" t="s">
-        <v>200</v>
-      </c>
-      <c r="E436" s="7">
-        <v>31.25</v>
-      </c>
-      <c r="K436" s="5" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="437" spans="1:11">
-      <c r="A437" s="5">
-        <v>1106</v>
-      </c>
-      <c r="B437" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C437" t="s">
-        <v>202</v>
-      </c>
-      <c r="E437" s="7">
-        <v>31.25</v>
-      </c>
-      <c r="K437" s="5" t="s">
-        <v>411</v>
+      <c r="E581">
+        <v>28.000001000000001</v>
+      </c>
+      <c r="F581">
+        <v>52.500000999999997</v>
+      </c>
+      <c r="G581">
+        <v>29.310345000000002</v>
+      </c>
+      <c r="H581">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="I581">
+        <v>27.272728000000001</v>
+      </c>
+      <c r="J581">
+        <v>2024</v>
+      </c>
+      <c r="K581" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K437" xr:uid="{F320DEFD-E675-4434-9FAA-F3C254001E23}"/>
+  <autoFilter ref="A1:K581" xr:uid="{F320DEFD-E675-4434-9FAA-F3C254001E23}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" copies="2" r:id="rId1"/>
 </worksheet>

--- a/Resultados_Simulacro_ICFES.xlsx
+++ b/Resultados_Simulacro_ICFES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Project_Python\rs_icfes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12BE8C1-93C3-40A7-B55C-6FDCE8AEA4FF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5372B073-3EEA-49E6-B9AB-B345D0380893}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E084411A-0BE6-4F73-A93C-EC29D2242342}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1932" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="416">
   <si>
     <t>Grupo</t>
   </si>
@@ -1673,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122C58AF-DAD1-4F23-B77B-FF91B1E85975}">
   <dimension ref="A1:K581"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A572" workbookViewId="0">
+      <selection activeCell="C554" sqref="C554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -17895,8 +17895,8 @@
       <c r="A464" t="s">
         <v>412</v>
       </c>
-      <c r="B464" t="s">
-        <v>330</v>
+      <c r="B464">
+        <v>1011396801</v>
       </c>
       <c r="C464" t="s">
         <v>79</v>
@@ -20975,8 +20975,8 @@
       <c r="A552" t="s">
         <v>414</v>
       </c>
-      <c r="B552" t="s">
-        <v>228</v>
+      <c r="B552">
+        <v>4150805</v>
       </c>
       <c r="C552" t="s">
         <v>172</v>

--- a/Resultados_Simulacro_ICFES.xlsx
+++ b/Resultados_Simulacro_ICFES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Project_Python\rs_icfes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMPUMAX\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5372B073-3EEA-49E6-B9AB-B345D0380893}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5F0548-2A7E-434B-8F53-41052E70CF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E084411A-0BE6-4F73-A93C-EC29D2242342}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E084411A-0BE6-4F73-A93C-EC29D2242342}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="463">
   <si>
     <t>Grupo</t>
   </si>
@@ -1276,13 +1276,154 @@
   </si>
   <si>
     <t>1106</t>
+  </si>
+  <si>
+    <t>ARAUJO CAMACARO, JORGE ALEJANDRO</t>
+  </si>
+  <si>
+    <t>ARIAS OCHOA, MICHAEL YAIR</t>
+  </si>
+  <si>
+    <t>BALLESTEROS JARAMILLO, ANA SOFIA</t>
+  </si>
+  <si>
+    <t>CABRERA SALAZAR, ESTEFANIA</t>
+  </si>
+  <si>
+    <t>CASTRILLON UPEGUI, BRANDON</t>
+  </si>
+  <si>
+    <t>CHAVARRIAGA AGUDELO, CARLOS DUVAN</t>
+  </si>
+  <si>
+    <t>COLMENAREZ MARTINEZ, ISABEL YENIRE</t>
+  </si>
+  <si>
+    <t>CORDOVA MAESTRE, DARIANNA JEIMILY</t>
+  </si>
+  <si>
+    <t>DURAN BERMUDEZ, ROBERT IGNACIO</t>
+  </si>
+  <si>
+    <t>GALLEGO PINO, LEYDI YULIANA</t>
+  </si>
+  <si>
+    <t>GARCIA TORRES, SAMUEL</t>
+  </si>
+  <si>
+    <t>GIRALDO CHICA, MARIA PAULINA</t>
+  </si>
+  <si>
+    <t>GIRALDO HENAO, MARIA JOSE</t>
+  </si>
+  <si>
+    <t>INFANTE SAGANOME, MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>LOPEZ ALVAREZ, ANDERSON</t>
+  </si>
+  <si>
+    <t>MARCANO MENDEZ, AARLON DAVID</t>
+  </si>
+  <si>
+    <t>MOLINA MEJIA, JUAN DIEGO</t>
+  </si>
+  <si>
+    <t>OCHOA RUEDA, ASHLY SOFIA</t>
+  </si>
+  <si>
+    <t>PLANCHEZ URDANETA, GLEINNYS DE</t>
+  </si>
+  <si>
+    <t>ROLDAN GALLO, HALAN STIVEN</t>
+  </si>
+  <si>
+    <t>TABORDA GAVIRIA, JERONIMO</t>
+  </si>
+  <si>
+    <t>YU LUO, WENJIN</t>
+  </si>
+  <si>
+    <t>ZAPATA GONZALEZ, NYCHOLL</t>
+  </si>
+  <si>
+    <t>ALVAREZ QUINTERO, MARIA ISABEL</t>
+  </si>
+  <si>
+    <t>BEDOYA JARAMILLO, JUAN JOSE</t>
+  </si>
+  <si>
+    <t>BLANDON HENAO, ANDRES FELIPE</t>
+  </si>
+  <si>
+    <t>CANO VELASQUEZ, ANA SOFIA</t>
+  </si>
+  <si>
+    <t>CASTAÑEDA RESTREPO, MARIANA</t>
+  </si>
+  <si>
+    <t>CIRO RAMIREZ, MARIA ISABEL</t>
+  </si>
+  <si>
+    <t>COLORADO LOPEZ, EILEEN DAHIANA</t>
+  </si>
+  <si>
+    <t>CORREA AGUADO, DIEGO ALEJANDRO</t>
+  </si>
+  <si>
+    <t>GAÑAN LONDOÑO, JADED SOFIA</t>
+  </si>
+  <si>
+    <t>GUARINO COLMENARES, DAVID</t>
+  </si>
+  <si>
+    <t>HERRERA ESTRADA, MARIA ALEJANDRA</t>
+  </si>
+  <si>
+    <t>IDARRAGA SALAZAR, CRISTIAN DAVID</t>
+  </si>
+  <si>
+    <t>JARABA CAÑAS, SIMON</t>
+  </si>
+  <si>
+    <t>LOPEZ CARDONA, SULEIKA MICHEL</t>
+  </si>
+  <si>
+    <t>MARIN HERRERA, VALENTINA</t>
+  </si>
+  <si>
+    <t>MARTINEZ CANO, MATEO</t>
+  </si>
+  <si>
+    <t>NAVARRO FRANCO, LISMARY MILITZA</t>
+  </si>
+  <si>
+    <t>RAMIREZ ARTEAGA, JUAN MANUEL</t>
+  </si>
+  <si>
+    <t>RINCON FUENTES, MANUELA</t>
+  </si>
+  <si>
+    <t>RUIZ DOMINGUEZ, DAVID</t>
+  </si>
+  <si>
+    <t>SANCHEZ ARANGO, NICOL DAHIANA</t>
+  </si>
+  <si>
+    <t>SERNA GOEZ, MARLON</t>
+  </si>
+  <si>
+    <t>VELEZ VILLA, JUAN JOSE</t>
+  </si>
+  <si>
+    <t>PP2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1294,6 +1435,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1671,10 +1818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122C58AF-DAD1-4F23-B77B-FF91B1E85975}">
-  <dimension ref="A1:K581"/>
+  <dimension ref="A1:K627"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A572" workbookViewId="0">
-      <selection activeCell="C554" sqref="C554"/>
+    <sheetView tabSelected="1" topLeftCell="B507" workbookViewId="0">
+      <selection activeCell="I600" sqref="I600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -22021,8 +22168,929 @@
         <v>409</v>
       </c>
     </row>
+    <row r="582" spans="1:11">
+      <c r="A582">
+        <v>1105</v>
+      </c>
+      <c r="B582" t="s">
+        <v>214</v>
+      </c>
+      <c r="C582" t="s">
+        <v>416</v>
+      </c>
+      <c r="E582">
+        <v>35.416666666666664</v>
+      </c>
+      <c r="J582">
+        <v>2024</v>
+      </c>
+      <c r="K582" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="583" spans="1:11">
+      <c r="A583">
+        <v>1105</v>
+      </c>
+      <c r="B583" t="s">
+        <v>215</v>
+      </c>
+      <c r="C583" t="s">
+        <v>417</v>
+      </c>
+      <c r="E583">
+        <v>56.25</v>
+      </c>
+      <c r="J583">
+        <v>2024</v>
+      </c>
+      <c r="K583" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="584" spans="1:11">
+      <c r="A584">
+        <v>1105</v>
+      </c>
+      <c r="B584" t="s">
+        <v>216</v>
+      </c>
+      <c r="C584" t="s">
+        <v>418</v>
+      </c>
+      <c r="E584">
+        <v>45.833333333333336</v>
+      </c>
+      <c r="J584">
+        <v>2024</v>
+      </c>
+      <c r="K584" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="585" spans="1:11">
+      <c r="A585">
+        <v>1105</v>
+      </c>
+      <c r="B585" t="s">
+        <v>217</v>
+      </c>
+      <c r="C585" t="s">
+        <v>419</v>
+      </c>
+      <c r="E585">
+        <v>56.25</v>
+      </c>
+      <c r="J585">
+        <v>2024</v>
+      </c>
+      <c r="K585" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="586" spans="1:11">
+      <c r="A586">
+        <v>1105</v>
+      </c>
+      <c r="B586" t="s">
+        <v>218</v>
+      </c>
+      <c r="C586" t="s">
+        <v>420</v>
+      </c>
+      <c r="E586">
+        <v>58.333333333333336</v>
+      </c>
+      <c r="J586">
+        <v>2024</v>
+      </c>
+      <c r="K586" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="587" spans="1:11">
+      <c r="A587">
+        <v>1105</v>
+      </c>
+      <c r="B587" t="s">
+        <v>219</v>
+      </c>
+      <c r="C587" t="s">
+        <v>421</v>
+      </c>
+      <c r="E587">
+        <v>35.416666666666664</v>
+      </c>
+      <c r="J587">
+        <v>2024</v>
+      </c>
+      <c r="K587" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="588" spans="1:11">
+      <c r="A588">
+        <v>1105</v>
+      </c>
+      <c r="B588" t="s">
+        <v>220</v>
+      </c>
+      <c r="C588" t="s">
+        <v>422</v>
+      </c>
+      <c r="E588">
+        <v>27.083333333333332</v>
+      </c>
+      <c r="J588">
+        <v>2024</v>
+      </c>
+      <c r="K588" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="589" spans="1:11">
+      <c r="A589">
+        <v>1105</v>
+      </c>
+      <c r="B589" t="s">
+        <v>221</v>
+      </c>
+      <c r="C589" t="s">
+        <v>423</v>
+      </c>
+      <c r="E589">
+        <v>29.166666666666668</v>
+      </c>
+      <c r="J589">
+        <v>2024</v>
+      </c>
+      <c r="K589" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="590" spans="1:11">
+      <c r="A590">
+        <v>1105</v>
+      </c>
+      <c r="B590" t="s">
+        <v>222</v>
+      </c>
+      <c r="C590" t="s">
+        <v>424</v>
+      </c>
+      <c r="E590">
+        <v>45.833333333333336</v>
+      </c>
+      <c r="J590">
+        <v>2024</v>
+      </c>
+      <c r="K590" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="591" spans="1:11">
+      <c r="A591">
+        <v>1105</v>
+      </c>
+      <c r="B591" t="s">
+        <v>223</v>
+      </c>
+      <c r="C591" t="s">
+        <v>425</v>
+      </c>
+      <c r="E591">
+        <v>43.75</v>
+      </c>
+      <c r="J591">
+        <v>2024</v>
+      </c>
+      <c r="K591" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="592" spans="1:11">
+      <c r="A592">
+        <v>1105</v>
+      </c>
+      <c r="B592" t="s">
+        <v>224</v>
+      </c>
+      <c r="C592" t="s">
+        <v>426</v>
+      </c>
+      <c r="E592">
+        <v>0</v>
+      </c>
+      <c r="J592">
+        <v>2024</v>
+      </c>
+      <c r="K592" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="593" spans="1:11">
+      <c r="A593">
+        <v>1105</v>
+      </c>
+      <c r="B593" t="s">
+        <v>225</v>
+      </c>
+      <c r="C593" t="s">
+        <v>427</v>
+      </c>
+      <c r="E593">
+        <v>35.416666666666664</v>
+      </c>
+      <c r="J593">
+        <v>2024</v>
+      </c>
+      <c r="K593" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="594" spans="1:11">
+      <c r="A594">
+        <v>1105</v>
+      </c>
+      <c r="B594" t="s">
+        <v>226</v>
+      </c>
+      <c r="C594" t="s">
+        <v>428</v>
+      </c>
+      <c r="E594">
+        <v>10.416666666666666</v>
+      </c>
+      <c r="J594">
+        <v>2024</v>
+      </c>
+      <c r="K594" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="595" spans="1:11">
+      <c r="A595">
+        <v>1105</v>
+      </c>
+      <c r="B595" t="s">
+        <v>227</v>
+      </c>
+      <c r="C595" t="s">
+        <v>429</v>
+      </c>
+      <c r="E595">
+        <v>50</v>
+      </c>
+      <c r="J595">
+        <v>2024</v>
+      </c>
+      <c r="K595" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="596" spans="1:11">
+      <c r="A596">
+        <v>1105</v>
+      </c>
+      <c r="B596" t="s">
+        <v>338</v>
+      </c>
+      <c r="C596" t="s">
+        <v>430</v>
+      </c>
+      <c r="E596">
+        <v>37.5</v>
+      </c>
+      <c r="J596">
+        <v>2024</v>
+      </c>
+      <c r="K596" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="597" spans="1:11">
+      <c r="A597">
+        <v>1105</v>
+      </c>
+      <c r="B597">
+        <v>4150805</v>
+      </c>
+      <c r="C597" t="s">
+        <v>431</v>
+      </c>
+      <c r="E597">
+        <v>47.916666666666664</v>
+      </c>
+      <c r="J597">
+        <v>2024</v>
+      </c>
+      <c r="K597" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="598" spans="1:11">
+      <c r="A598">
+        <v>1105</v>
+      </c>
+      <c r="B598" t="s">
+        <v>229</v>
+      </c>
+      <c r="C598" t="s">
+        <v>432</v>
+      </c>
+      <c r="E598">
+        <v>43.75</v>
+      </c>
+      <c r="J598">
+        <v>2024</v>
+      </c>
+      <c r="K598" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="599" spans="1:11">
+      <c r="A599">
+        <v>1105</v>
+      </c>
+      <c r="B599" t="s">
+        <v>230</v>
+      </c>
+      <c r="C599" t="s">
+        <v>433</v>
+      </c>
+      <c r="E599">
+        <v>35.416666666666664</v>
+      </c>
+      <c r="J599">
+        <v>2024</v>
+      </c>
+      <c r="K599" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="600" spans="1:11">
+      <c r="A600">
+        <v>1105</v>
+      </c>
+      <c r="B600" t="s">
+        <v>256</v>
+      </c>
+      <c r="C600" t="s">
+        <v>434</v>
+      </c>
+      <c r="E600">
+        <v>50</v>
+      </c>
+      <c r="J600">
+        <v>2024</v>
+      </c>
+      <c r="K600" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="601" spans="1:11">
+      <c r="A601">
+        <v>1105</v>
+      </c>
+      <c r="B601" t="s">
+        <v>231</v>
+      </c>
+      <c r="C601" t="s">
+        <v>435</v>
+      </c>
+      <c r="E601">
+        <v>47.916666666666664</v>
+      </c>
+      <c r="J601">
+        <v>2024</v>
+      </c>
+      <c r="K601" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="602" spans="1:11">
+      <c r="A602">
+        <v>1105</v>
+      </c>
+      <c r="B602" t="s">
+        <v>257</v>
+      </c>
+      <c r="C602" t="s">
+        <v>436</v>
+      </c>
+      <c r="E602">
+        <v>75</v>
+      </c>
+      <c r="J602">
+        <v>2024</v>
+      </c>
+      <c r="K602" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="603" spans="1:11">
+      <c r="A603">
+        <v>1105</v>
+      </c>
+      <c r="B603" t="s">
+        <v>232</v>
+      </c>
+      <c r="C603" t="s">
+        <v>437</v>
+      </c>
+      <c r="E603">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="J603">
+        <v>2024</v>
+      </c>
+      <c r="K603" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="604" spans="1:11">
+      <c r="A604">
+        <v>1105</v>
+      </c>
+      <c r="B604" t="s">
+        <v>405</v>
+      </c>
+      <c r="C604" t="s">
+        <v>438</v>
+      </c>
+      <c r="E604">
+        <v>22.916666666666668</v>
+      </c>
+      <c r="J604">
+        <v>2024</v>
+      </c>
+      <c r="K604" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="605" spans="1:11">
+      <c r="A605">
+        <v>1106</v>
+      </c>
+      <c r="B605" t="s">
+        <v>233</v>
+      </c>
+      <c r="C605" t="s">
+        <v>439</v>
+      </c>
+      <c r="E605">
+        <v>50</v>
+      </c>
+      <c r="J605">
+        <v>2024</v>
+      </c>
+      <c r="K605" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="606" spans="1:11">
+      <c r="A606">
+        <v>1106</v>
+      </c>
+      <c r="B606" t="s">
+        <v>234</v>
+      </c>
+      <c r="C606" t="s">
+        <v>440</v>
+      </c>
+      <c r="E606">
+        <v>45.833333333333336</v>
+      </c>
+      <c r="J606">
+        <v>2024</v>
+      </c>
+      <c r="K606" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="607" spans="1:11">
+      <c r="A607">
+        <v>1106</v>
+      </c>
+      <c r="B607" t="s">
+        <v>235</v>
+      </c>
+      <c r="C607" t="s">
+        <v>441</v>
+      </c>
+      <c r="E607">
+        <v>27.083333333333332</v>
+      </c>
+      <c r="J607">
+        <v>2024</v>
+      </c>
+      <c r="K607" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="608" spans="1:11">
+      <c r="A608">
+        <v>1106</v>
+      </c>
+      <c r="B608" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C608" t="s">
+        <v>442</v>
+      </c>
+      <c r="E608">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="J608">
+        <v>2024</v>
+      </c>
+      <c r="K608" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="609" spans="1:11">
+      <c r="A609">
+        <v>1106</v>
+      </c>
+      <c r="B609" t="s">
+        <v>237</v>
+      </c>
+      <c r="C609" t="s">
+        <v>443</v>
+      </c>
+      <c r="E609">
+        <v>39.583333333333336</v>
+      </c>
+      <c r="J609">
+        <v>2024</v>
+      </c>
+      <c r="K609" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="610" spans="1:11">
+      <c r="A610">
+        <v>1106</v>
+      </c>
+      <c r="B610" t="s">
+        <v>238</v>
+      </c>
+      <c r="C610" t="s">
+        <v>444</v>
+      </c>
+      <c r="E610">
+        <v>37.5</v>
+      </c>
+      <c r="J610">
+        <v>2024</v>
+      </c>
+      <c r="K610" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="611" spans="1:11">
+      <c r="A611">
+        <v>1106</v>
+      </c>
+      <c r="B611" t="s">
+        <v>239</v>
+      </c>
+      <c r="C611" t="s">
+        <v>445</v>
+      </c>
+      <c r="E611">
+        <v>25</v>
+      </c>
+      <c r="J611">
+        <v>2024</v>
+      </c>
+      <c r="K611" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="612" spans="1:11">
+      <c r="A612">
+        <v>1106</v>
+      </c>
+      <c r="B612" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C612" t="s">
+        <v>446</v>
+      </c>
+      <c r="E612">
+        <v>60.416666666666664</v>
+      </c>
+      <c r="J612">
+        <v>2024</v>
+      </c>
+      <c r="K612" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="613" spans="1:11">
+      <c r="A613">
+        <v>1106</v>
+      </c>
+      <c r="B613" t="s">
+        <v>241</v>
+      </c>
+      <c r="C613" t="s">
+        <v>447</v>
+      </c>
+      <c r="E613">
+        <v>0</v>
+      </c>
+      <c r="J613">
+        <v>2024</v>
+      </c>
+      <c r="K613" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="614" spans="1:11">
+      <c r="A614">
+        <v>1106</v>
+      </c>
+      <c r="B614" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C614" t="s">
+        <v>448</v>
+      </c>
+      <c r="E614">
+        <v>77.083333333333329</v>
+      </c>
+      <c r="J614">
+        <v>2024</v>
+      </c>
+      <c r="K614" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="615" spans="1:11">
+      <c r="A615">
+        <v>1106</v>
+      </c>
+      <c r="B615" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C615" t="s">
+        <v>449</v>
+      </c>
+      <c r="E615">
+        <v>56.25</v>
+      </c>
+      <c r="J615">
+        <v>2024</v>
+      </c>
+      <c r="K615" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="616" spans="1:11">
+      <c r="A616">
+        <v>1106</v>
+      </c>
+      <c r="B616" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C616" t="s">
+        <v>450</v>
+      </c>
+      <c r="E616">
+        <v>29.166666666666668</v>
+      </c>
+      <c r="J616">
+        <v>2024</v>
+      </c>
+      <c r="K616" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="617" spans="1:11">
+      <c r="A617">
+        <v>1106</v>
+      </c>
+      <c r="B617" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C617" t="s">
+        <v>451</v>
+      </c>
+      <c r="E617">
+        <v>47.916666666666664</v>
+      </c>
+      <c r="J617">
+        <v>2024</v>
+      </c>
+      <c r="K617" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="618" spans="1:11">
+      <c r="A618">
+        <v>1106</v>
+      </c>
+      <c r="B618" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C618" t="s">
+        <v>452</v>
+      </c>
+      <c r="E618">
+        <v>50</v>
+      </c>
+      <c r="J618">
+        <v>2024</v>
+      </c>
+      <c r="K618" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="619" spans="1:11">
+      <c r="A619">
+        <v>1106</v>
+      </c>
+      <c r="B619" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C619" t="s">
+        <v>453</v>
+      </c>
+      <c r="E619">
+        <v>31.25</v>
+      </c>
+      <c r="J619">
+        <v>2024</v>
+      </c>
+      <c r="K619" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="620" spans="1:11">
+      <c r="A620">
+        <v>1106</v>
+      </c>
+      <c r="B620" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C620" t="s">
+        <v>454</v>
+      </c>
+      <c r="E620">
+        <v>39.583333333333336</v>
+      </c>
+      <c r="J620">
+        <v>2024</v>
+      </c>
+      <c r="K620" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="621" spans="1:11">
+      <c r="A621">
+        <v>1106</v>
+      </c>
+      <c r="B621" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C621" t="s">
+        <v>455</v>
+      </c>
+      <c r="E621">
+        <v>37.5</v>
+      </c>
+      <c r="J621">
+        <v>2024</v>
+      </c>
+      <c r="K621" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="622" spans="1:11">
+      <c r="A622">
+        <v>1106</v>
+      </c>
+      <c r="B622" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C622" t="s">
+        <v>456</v>
+      </c>
+      <c r="E622">
+        <v>29.166666666666668</v>
+      </c>
+      <c r="J622">
+        <v>2024</v>
+      </c>
+      <c r="K622" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="623" spans="1:11">
+      <c r="A623">
+        <v>1106</v>
+      </c>
+      <c r="B623" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C623" t="s">
+        <v>457</v>
+      </c>
+      <c r="E623">
+        <v>29.166666666666668</v>
+      </c>
+      <c r="J623">
+        <v>2024</v>
+      </c>
+      <c r="K623" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="624" spans="1:11">
+      <c r="A624">
+        <v>1106</v>
+      </c>
+      <c r="B624" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C624" t="s">
+        <v>458</v>
+      </c>
+      <c r="E624">
+        <v>72.916666666666671</v>
+      </c>
+      <c r="J624">
+        <v>2024</v>
+      </c>
+      <c r="K624" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="625" spans="1:11">
+      <c r="A625">
+        <v>1106</v>
+      </c>
+      <c r="B625" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C625" t="s">
+        <v>459</v>
+      </c>
+      <c r="E625">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="J625">
+        <v>2024</v>
+      </c>
+      <c r="K625" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="626" spans="1:11">
+      <c r="A626">
+        <v>1106</v>
+      </c>
+      <c r="B626" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C626" t="s">
+        <v>460</v>
+      </c>
+      <c r="E626">
+        <v>31.25</v>
+      </c>
+      <c r="J626">
+        <v>2024</v>
+      </c>
+      <c r="K626" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="627" spans="1:11">
+      <c r="A627">
+        <v>1106</v>
+      </c>
+      <c r="B627" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C627" t="s">
+        <v>461</v>
+      </c>
+      <c r="E627">
+        <v>31.25</v>
+      </c>
+      <c r="J627">
+        <v>2024</v>
+      </c>
+      <c r="K627" t="s">
+        <v>462</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K581" xr:uid="{F320DEFD-E675-4434-9FAA-F3C254001E23}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" copies="2" r:id="rId1"/>
 </worksheet>

--- a/Resultados_Simulacro_ICFES.xlsx
+++ b/Resultados_Simulacro_ICFES.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\COMPUMAX\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Project_Python\rs_icfes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5F0548-2A7E-434B-8F53-41052E70CF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E809B118-D68C-4849-801E-CA74231F165A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E084411A-0BE6-4F73-A93C-EC29D2242342}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="800">
   <si>
     <t>Grupo</t>
   </si>
@@ -1417,6 +1417,1017 @@
   </si>
   <si>
     <t>PP2</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>1122515257</t>
+  </si>
+  <si>
+    <t>1022003872</t>
+  </si>
+  <si>
+    <t>1040572855</t>
+  </si>
+  <si>
+    <t>1435789</t>
+  </si>
+  <si>
+    <t>1034989817</t>
+  </si>
+  <si>
+    <t>1035975731</t>
+  </si>
+  <si>
+    <t>1035976452</t>
+  </si>
+  <si>
+    <t>1038869436</t>
+  </si>
+  <si>
+    <t>1011395869</t>
+  </si>
+  <si>
+    <t>1022003276</t>
+  </si>
+  <si>
+    <t>1035976608</t>
+  </si>
+  <si>
+    <t>1076819399</t>
+  </si>
+  <si>
+    <t>1037856603</t>
+  </si>
+  <si>
+    <t>1032013901</t>
+  </si>
+  <si>
+    <t>1035974904</t>
+  </si>
+  <si>
+    <t>1035975825</t>
+  </si>
+  <si>
+    <t>1077725058</t>
+  </si>
+  <si>
+    <t>1036692076</t>
+  </si>
+  <si>
+    <t>1040573762</t>
+  </si>
+  <si>
+    <t>1027803845</t>
+  </si>
+  <si>
+    <t>1025890415</t>
+  </si>
+  <si>
+    <t>1036690651</t>
+  </si>
+  <si>
+    <t>1025650472</t>
+  </si>
+  <si>
+    <t>1036618813</t>
+  </si>
+  <si>
+    <t>1033260119</t>
+  </si>
+  <si>
+    <t>1023525547</t>
+  </si>
+  <si>
+    <t>5962828</t>
+  </si>
+  <si>
+    <t>1020112814</t>
+  </si>
+  <si>
+    <t>1035976458</t>
+  </si>
+  <si>
+    <t>1027741033</t>
+  </si>
+  <si>
+    <t>1032253987</t>
+  </si>
+  <si>
+    <t>1028000257</t>
+  </si>
+  <si>
+    <t>1032014080</t>
+  </si>
+  <si>
+    <t>1035977176</t>
+  </si>
+  <si>
+    <t>1085228669</t>
+  </si>
+  <si>
+    <t>1035974166</t>
+  </si>
+  <si>
+    <t>1033186710</t>
+  </si>
+  <si>
+    <t>1040574340</t>
+  </si>
+  <si>
+    <t>1036617775</t>
+  </si>
+  <si>
+    <t>1035977685</t>
+  </si>
+  <si>
+    <t>1035976808</t>
+  </si>
+  <si>
+    <t>1022960560</t>
+  </si>
+  <si>
+    <t>1032018100</t>
+  </si>
+  <si>
+    <t>1028141342</t>
+  </si>
+  <si>
+    <t>1040038534</t>
+  </si>
+  <si>
+    <t>1035976356</t>
+  </si>
+  <si>
+    <t>1095807814</t>
+  </si>
+  <si>
+    <t>1036452982</t>
+  </si>
+  <si>
+    <t>1041460513</t>
+  </si>
+  <si>
+    <t>1026138766</t>
+  </si>
+  <si>
+    <t>1031941474</t>
+  </si>
+  <si>
+    <t>1023528347</t>
+  </si>
+  <si>
+    <t>4891201</t>
+  </si>
+  <si>
+    <t>1021924312</t>
+  </si>
+  <si>
+    <t>1027806029</t>
+  </si>
+  <si>
+    <t>1235252912</t>
+  </si>
+  <si>
+    <t>1036453185</t>
+  </si>
+  <si>
+    <t>1040573818</t>
+  </si>
+  <si>
+    <t>1035977410</t>
+  </si>
+  <si>
+    <t>5815188</t>
+  </si>
+  <si>
+    <t>1023527804</t>
+  </si>
+  <si>
+    <t>1032014868</t>
+  </si>
+  <si>
+    <t>1038264037</t>
+  </si>
+  <si>
+    <t>1011398974</t>
+  </si>
+  <si>
+    <t>1145124152</t>
+  </si>
+  <si>
+    <t>1013345486</t>
+  </si>
+  <si>
+    <t>1036452417</t>
+  </si>
+  <si>
+    <t>1026142598</t>
+  </si>
+  <si>
+    <t>1040574200</t>
+  </si>
+  <si>
+    <t>1018237837</t>
+  </si>
+  <si>
+    <t>1035977979</t>
+  </si>
+  <si>
+    <t>1013462283</t>
+  </si>
+  <si>
+    <t>1040574370</t>
+  </si>
+  <si>
+    <t>1034993628</t>
+  </si>
+  <si>
+    <t>1089936152</t>
+  </si>
+  <si>
+    <t>1033260696</t>
+  </si>
+  <si>
+    <t>1023634933</t>
+  </si>
+  <si>
+    <t>1036452866</t>
+  </si>
+  <si>
+    <t>1032015272</t>
+  </si>
+  <si>
+    <t>1036452182</t>
+  </si>
+  <si>
+    <t>1027884064</t>
+  </si>
+  <si>
+    <t>1068815844</t>
+  </si>
+  <si>
+    <t>1025656652</t>
+  </si>
+  <si>
+    <t>1011399144</t>
+  </si>
+  <si>
+    <t>1040574021</t>
+  </si>
+  <si>
+    <t>1035977649</t>
+  </si>
+  <si>
+    <t>5880299</t>
+  </si>
+  <si>
+    <t>1023527715</t>
+  </si>
+  <si>
+    <t>1035977460</t>
+  </si>
+  <si>
+    <t>1025656368</t>
+  </si>
+  <si>
+    <t>4905971</t>
+  </si>
+  <si>
+    <t>1089459024</t>
+  </si>
+  <si>
+    <t>1023527898</t>
+  </si>
+  <si>
+    <t>1030581070</t>
+  </si>
+  <si>
+    <t>1032015854</t>
+  </si>
+  <si>
+    <t>1025653985</t>
+  </si>
+  <si>
+    <t>1027807640</t>
+  </si>
+  <si>
+    <t>6840264</t>
+  </si>
+  <si>
+    <t>1035976977</t>
+  </si>
+  <si>
+    <t>1020115614</t>
+  </si>
+  <si>
+    <t>1035977523</t>
+  </si>
+  <si>
+    <t>1031941538</t>
+  </si>
+  <si>
+    <t>1038870372</t>
+  </si>
+  <si>
+    <t>1020116161</t>
+  </si>
+  <si>
+    <t>1035975732</t>
+  </si>
+  <si>
+    <t>1036452381</t>
+  </si>
+  <si>
+    <t>4778686</t>
+  </si>
+  <si>
+    <t>1018243875</t>
+  </si>
+  <si>
+    <t>1027807041</t>
+  </si>
+  <si>
+    <t>5422777</t>
+  </si>
+  <si>
+    <t>1035976919</t>
+  </si>
+  <si>
+    <t>1021926527</t>
+  </si>
+  <si>
+    <t>1044919573</t>
+  </si>
+  <si>
+    <t>1027807477</t>
+  </si>
+  <si>
+    <t>1156463203</t>
+  </si>
+  <si>
+    <t>1033187441</t>
+  </si>
+  <si>
+    <t>1034993966</t>
+  </si>
+  <si>
+    <t>1040574091</t>
+  </si>
+  <si>
+    <t>1035975003</t>
+  </si>
+  <si>
+    <t>1017933137</t>
+  </si>
+  <si>
+    <t>1011592316</t>
+  </si>
+  <si>
+    <t>1032182908</t>
+  </si>
+  <si>
+    <t>1040574001</t>
+  </si>
+  <si>
+    <t>1025654168</t>
+  </si>
+  <si>
+    <t>1035977282</t>
+  </si>
+  <si>
+    <t>1105469156</t>
+  </si>
+  <si>
+    <t>1062432713</t>
+  </si>
+  <si>
+    <t>1022004703</t>
+  </si>
+  <si>
+    <t>8015159</t>
+  </si>
+  <si>
+    <t>1040574535</t>
+  </si>
+  <si>
+    <t>1038870819</t>
+  </si>
+  <si>
+    <t>1035977300</t>
+  </si>
+  <si>
+    <t>1035977233</t>
+  </si>
+  <si>
+    <t>1036452716</t>
+  </si>
+  <si>
+    <t>1035977782</t>
+  </si>
+  <si>
+    <t>1015073835</t>
+  </si>
+  <si>
+    <t>1040574054</t>
+  </si>
+  <si>
+    <t>1034920444</t>
+  </si>
+  <si>
+    <t>1018242255</t>
+  </si>
+  <si>
+    <t>1073159030</t>
+  </si>
+  <si>
+    <t>1035976727</t>
+  </si>
+  <si>
+    <t>1046703963</t>
+  </si>
+  <si>
+    <t>5156520</t>
+  </si>
+  <si>
+    <t>1023528137</t>
+  </si>
+  <si>
+    <t>1035976878</t>
+  </si>
+  <si>
+    <t>1027805822</t>
+  </si>
+  <si>
+    <t>1065886608</t>
+  </si>
+  <si>
+    <t>1027806192</t>
+  </si>
+  <si>
+    <t>1035978112</t>
+  </si>
+  <si>
+    <t>1067603455</t>
+  </si>
+  <si>
+    <t>1020303394</t>
+  </si>
+  <si>
+    <t>1020114548</t>
+  </si>
+  <si>
+    <t>1040574485</t>
+  </si>
+  <si>
+    <t>1127053741</t>
+  </si>
+  <si>
+    <t>7212590</t>
+  </si>
+  <si>
+    <t>1035977791</t>
+  </si>
+  <si>
+    <t>1035976914</t>
+  </si>
+  <si>
+    <t>1027807197</t>
+  </si>
+  <si>
+    <t>1082928783</t>
+  </si>
+  <si>
+    <t>1015189310</t>
+  </si>
+  <si>
+    <t>1035976193</t>
+  </si>
+  <si>
+    <t>1192463278</t>
+  </si>
+  <si>
+    <t>1054552691</t>
+  </si>
+  <si>
+    <t>1017933787</t>
+  </si>
+  <si>
+    <t>1038805112</t>
+  </si>
+  <si>
+    <t>1102578092</t>
+  </si>
+  <si>
+    <t>VARGAS GONZALEZ KEREN</t>
+  </si>
+  <si>
+    <t>VERGARA RENDON MARIA JOSE</t>
+  </si>
+  <si>
+    <t>SEQUEA USUGA ANA SOFIA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ HERNANDEZ REINALDO ENRIQUE</t>
+  </si>
+  <si>
+    <t>VILLEGAS CHAVEZ JOSE MANUEL</t>
+  </si>
+  <si>
+    <t>JIMENEZ RODRIGUEZ SEBASTIAN</t>
+  </si>
+  <si>
+    <t>MESA OROZCO ANDREA</t>
+  </si>
+  <si>
+    <t>RESTREPO CASTAÑEDA SOFIA</t>
+  </si>
+  <si>
+    <t>LOPEZ MONTOYA SOFIA</t>
+  </si>
+  <si>
+    <t>CARMONA MONSALVE JUAN JOSE</t>
+  </si>
+  <si>
+    <t>MARIN BETANCUR SARA PAULINA</t>
+  </si>
+  <si>
+    <t>CALDERON ASPRILLA LISETH CAMILA</t>
+  </si>
+  <si>
+    <t>RESTREPO SERNA SAMUEL</t>
+  </si>
+  <si>
+    <t>CORREA HINCAPIE SOFIA</t>
+  </si>
+  <si>
+    <t>PELAEZ GOMEZ JUAN JOSE</t>
+  </si>
+  <si>
+    <t>QUIRAMA IBARRA SALOME</t>
+  </si>
+  <si>
+    <t>ALDANA QUIROGA JUANA SOFIA</t>
+  </si>
+  <si>
+    <t>ESCORCHE CORREIA ALESSKA ALEXANDRA</t>
+  </si>
+  <si>
+    <t>GARCIA CIRO YALIDA MARIANA</t>
+  </si>
+  <si>
+    <t>CARDONA RESTREPO JESUS DAVID</t>
+  </si>
+  <si>
+    <t>AGUDELO SILVA JUAN DIEGO</t>
+  </si>
+  <si>
+    <t>PARRA PEREZ KEVIN ARSENIO</t>
+  </si>
+  <si>
+    <t>PINEDA TORRES ANA SOFIA</t>
+  </si>
+  <si>
+    <t>MALDONADO VALENCIA VALENTINA</t>
+  </si>
+  <si>
+    <t>MORIONES ARBOLEDA DAHIANA</t>
+  </si>
+  <si>
+    <t>MONA RAMIREZ JOSE MIGUEL</t>
+  </si>
+  <si>
+    <t>PIRE RODRIGUEZ ORIANA JHORGELYS</t>
+  </si>
+  <si>
+    <t>GONZALEZ PAREJA JUAN MIGUEL</t>
+  </si>
+  <si>
+    <t>ALCARAZ RESTREPO EMILY</t>
+  </si>
+  <si>
+    <t>GRISALES BLANDON ISABELA</t>
+  </si>
+  <si>
+    <t>ARIAS SUAREZ SARA PAULINA</t>
+  </si>
+  <si>
+    <t>ACEVEDO TOVAR LAURA ISABEL</t>
+  </si>
+  <si>
+    <t>DURANGO CASTRILLON ISABELLA</t>
+  </si>
+  <si>
+    <t>GIRALDO PAVAS JUAN DAVID</t>
+  </si>
+  <si>
+    <t>ORDOÑEZ GOMEZ CHELSEA</t>
+  </si>
+  <si>
+    <t>GARZON AGUIRRE JUAN JOSE</t>
+  </si>
+  <si>
+    <t>PALACIO SANCHEZ VALENTINA</t>
+  </si>
+  <si>
+    <t>SUAREZ SALAZAR MATEO</t>
+  </si>
+  <si>
+    <t>LONDOÑO MUÑOZ KEVIN</t>
+  </si>
+  <si>
+    <t>RESTREPO PIEDRAHITA VALERY</t>
+  </si>
+  <si>
+    <t>OSORIO FERRER CAMILO</t>
+  </si>
+  <si>
+    <t>VALENCIA SAENZ SIMON ALEJANDRO</t>
+  </si>
+  <si>
+    <t>VELEZ VASQUEZ JUAN DAVID</t>
+  </si>
+  <si>
+    <t>TANGARIFE SEPULVEDA TOMAS</t>
+  </si>
+  <si>
+    <t>LONDOÑO GARCIA ESTEFANIA</t>
+  </si>
+  <si>
+    <t>ESPINOSA VALENCIA JERONIMO</t>
+  </si>
+  <si>
+    <t>DUARTE OSORIO HEILIN YAJAIRA</t>
+  </si>
+  <si>
+    <t>OCAMPO GARCES JUAN FELIPE</t>
+  </si>
+  <si>
+    <t>CORTES GARCIA SARA JAMILE</t>
+  </si>
+  <si>
+    <t>PEREZ RAMIREZ EMMANUEL</t>
+  </si>
+  <si>
+    <t>GUTIERREZ MUÑOZ PAULINA</t>
+  </si>
+  <si>
+    <t>MORALES GIRALDO XIOMARA</t>
+  </si>
+  <si>
+    <t>ALTUVE MELO MARIANA ALEJANDRA</t>
+  </si>
+  <si>
+    <t>LOPERA LOPERA JEAN CARLO</t>
+  </si>
+  <si>
+    <t>VELASQUEZ BEDOYA SARA SOFIA</t>
+  </si>
+  <si>
+    <t>PADRON SAYAGO OMAR ANDRES</t>
+  </si>
+  <si>
+    <t>ARBOLEDA GALLEGO JERONIMO</t>
+  </si>
+  <si>
+    <t>GARCIA RUIZ SAMUEL</t>
+  </si>
+  <si>
+    <t>MONTOYA CAÑAS JACOBO</t>
+  </si>
+  <si>
+    <t>CASTILLO GARCIA FRANGELIS TATIANA</t>
+  </si>
+  <si>
+    <t>CARDENAS TAFUR JOHANNES</t>
+  </si>
+  <si>
+    <t>OSORIO ROJAS DANIEL</t>
+  </si>
+  <si>
+    <t>URREGO GONZALEZ SARA</t>
+  </si>
+  <si>
+    <t>GONZALEZ ROLDAN ANGEL GABRIELA</t>
+  </si>
+  <si>
+    <t>BEDOYA AGUDELO EMANUEL</t>
+  </si>
+  <si>
+    <t>GONZALEZ CONTRERAS ARIANA SOFIA</t>
+  </si>
+  <si>
+    <t>LOPEZ GOMEZ ANDREA</t>
+  </si>
+  <si>
+    <t>CALAD NARVAEZ MARIANA</t>
+  </si>
+  <si>
+    <t>GONZALEZ ECHEVERRI JEFFERSON</t>
+  </si>
+  <si>
+    <t>SOTO PALACIO MAIRA ALEJANDRA</t>
+  </si>
+  <si>
+    <t>VASQUEZ VANEGAS SAMUEL</t>
+  </si>
+  <si>
+    <t>MORA HERRERA MARIA PAULINA</t>
+  </si>
+  <si>
+    <t>CARDONA PEREZ MARIA JOSE</t>
+  </si>
+  <si>
+    <t>ESCOBAR GUERRA ELENA</t>
+  </si>
+  <si>
+    <t>FANDIÑO PARRA MARIA ISABEL</t>
+  </si>
+  <si>
+    <t>OSORNO FRANCO LUCIANA</t>
+  </si>
+  <si>
+    <t>DIAZ MANCO VALERIA</t>
+  </si>
+  <si>
+    <t>PINO GUARIN VALERY</t>
+  </si>
+  <si>
+    <t>SANCHEZ PEREZ SUSANA</t>
+  </si>
+  <si>
+    <t>ROZO GIRALDO MARIANA</t>
+  </si>
+  <si>
+    <t>RUIZ TABORDA JUAN SEBASTIAN</t>
+  </si>
+  <si>
+    <t>TRIVIÑO OTERO MARIA TERESA</t>
+  </si>
+  <si>
+    <t>OCHOA ZAMORANO JOSE MANUEL</t>
+  </si>
+  <si>
+    <t>ZAPATA ALVAREZ KEYLETH ALEXANDRA</t>
+  </si>
+  <si>
+    <t>VEGA PEÑA SALOME</t>
+  </si>
+  <si>
+    <t>ATEHORTUA BETANCUR ANJOLY SARAY</t>
+  </si>
+  <si>
+    <t>RINCON MORALES MANUELA VALENTINA</t>
+  </si>
+  <si>
+    <t>RUBIO MEJIA STEPHANYE</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ ECHAVARRIA SARA JULIETH</t>
+  </si>
+  <si>
+    <t>LOPEZ YEPES ANA SOFIA</t>
+  </si>
+  <si>
+    <t>LOPEZ ZERPA VALENTINA ESTEFANI</t>
+  </si>
+  <si>
+    <t>ORTEGA FAJARDO MAIKOL ADRIAN</t>
+  </si>
+  <si>
+    <t>ROCHA SIMANCA SANTIAGO</t>
+  </si>
+  <si>
+    <t>LASSO TORO MANUELA</t>
+  </si>
+  <si>
+    <t>USUGA MARTINEZ ANDREA</t>
+  </si>
+  <si>
+    <t>GARCIA DAVID NORMA</t>
+  </si>
+  <si>
+    <t>MESA GUISAO DIEGO ALEJANDRO</t>
+  </si>
+  <si>
+    <t>CHIRINOS MORALES ISLEYER REYLIBETH</t>
+  </si>
+  <si>
+    <t>GRANADOS MURILLO MATEO</t>
+  </si>
+  <si>
+    <t>OSORIO RUA VALERIA</t>
+  </si>
+  <si>
+    <t>SANCHEZ GARCES NIKOL</t>
+  </si>
+  <si>
+    <t>GALLAN MOLINA SUSANA</t>
+  </si>
+  <si>
+    <t>ALZATE JIMENEZ ISABELA</t>
+  </si>
+  <si>
+    <t>GARCIA OSPINA MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>LOPEZ POLO JUAN JOSE</t>
+  </si>
+  <si>
+    <t>PEREZ OLIVA JOSE MANUEL</t>
+  </si>
+  <si>
+    <t>GUERRERO PERALTA ELIEZER ABRAHAM</t>
+  </si>
+  <si>
+    <t>LOPEZ ESTRADA KATHERINE</t>
+  </si>
+  <si>
+    <t>CIFUENTES CAÑAS JUAN MANUEL</t>
+  </si>
+  <si>
+    <t>MENDEZ LEON BRIANNY ELIZABETH</t>
+  </si>
+  <si>
+    <t>NARANJO LAVERDE SAMUEL</t>
+  </si>
+  <si>
+    <t>CARDONA PEREZ ROYER</t>
+  </si>
+  <si>
+    <t>SOTO LONDOÑO EZEQUIEL</t>
+  </si>
+  <si>
+    <t>POSADA PIEDRAHITA MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>CASTRILLO TORRES MARIA FERNANDA</t>
+  </si>
+  <si>
+    <t>RUIZ DAVID SARA SOFIA</t>
+  </si>
+  <si>
+    <t>GUTIERREZ SIERRA MARIA ALEJANDRA</t>
+  </si>
+  <si>
+    <t>POSADA MUÑETON NICOL</t>
+  </si>
+  <si>
+    <t>VASQUEZ PALACIO ALEJANDRO</t>
+  </si>
+  <si>
+    <t>SMITH GUTIERREZ ISABELLA</t>
+  </si>
+  <si>
+    <t>CORTES DAVID DANIEL ALEJANDRO</t>
+  </si>
+  <si>
+    <t>FONSECA RESTREPO ISABELA</t>
+  </si>
+  <si>
+    <t>OQUENDO MAZO JUAN MANUEL</t>
+  </si>
+  <si>
+    <t>ARROYAVE HERNANDEZ ANDERSON</t>
+  </si>
+  <si>
+    <t>SUAREZ VANEGAS SARA</t>
+  </si>
+  <si>
+    <t>MELO TORRES NATALIA SOFIA</t>
+  </si>
+  <si>
+    <t>CAVADIA MONTERO CARLOS EDUARDO</t>
+  </si>
+  <si>
+    <t>LEON BEDOYA MARTIN</t>
+  </si>
+  <si>
+    <t>GONZALEZ GALICIA DAILIZ ARELIZ</t>
+  </si>
+  <si>
+    <t>GOMEZ GOMEZ DAVIAN STIVEN</t>
+  </si>
+  <si>
+    <t>GARCIA ORTIZ MARIA JOSE</t>
+  </si>
+  <si>
+    <t>HERNANDEZ IBARGUEN NICOLAS</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ GUZMAN SAMUEL</t>
+  </si>
+  <si>
+    <t>MARTINEZ LOPEZ EMANUEL</t>
+  </si>
+  <si>
+    <t>MONTOYA BEDOYA CRISTIAN</t>
+  </si>
+  <si>
+    <t>GARCIA ESCUDERO DULCE MARIA</t>
+  </si>
+  <si>
+    <t>SUAREZ ECHEVERRI JUAN PABLO</t>
+  </si>
+  <si>
+    <t>PARRA FLOREZ MARIANA ANDREA</t>
+  </si>
+  <si>
+    <t>OSPINA VILLA LUCIANA</t>
+  </si>
+  <si>
+    <t>MONSALVE MORALES CIELO ALEJANDRA</t>
+  </si>
+  <si>
+    <t>GALLO RESTREPO NICOLAS</t>
+  </si>
+  <si>
+    <t>ZAPATA CHAVERRA ISABELLA</t>
+  </si>
+  <si>
+    <t>MURILLO GARCIA ANTONELLA</t>
+  </si>
+  <si>
+    <t>PARRA GONZALEZ SOFIA</t>
+  </si>
+  <si>
+    <t>TOBON FRANCO EMMANUEL</t>
+  </si>
+  <si>
+    <t>TOBAR TORO SARA MELISSA</t>
+  </si>
+  <si>
+    <t>CAMARGO ARENILLA JESUS MANUEL</t>
+  </si>
+  <si>
+    <t>CARVAJAL QUINTERO CAMILO ANDRES</t>
+  </si>
+  <si>
+    <t>ARREDONDO QUIROZ JUAN SEBASTIAN</t>
+  </si>
+  <si>
+    <t>CARDENAS SERNA DANIEL ANDRES</t>
+  </si>
+  <si>
+    <t>GIRALDO TOBON MATIAS</t>
+  </si>
+  <si>
+    <t>DAVID CASTRILLON MARIA DELPILAR</t>
+  </si>
+  <si>
+    <t>PENAGOS RUIZ MICHELL DAIANA</t>
+  </si>
+  <si>
+    <t>CORONADO BARRETO JOHATHAN YESID</t>
+  </si>
+  <si>
+    <t>COLMENAREZ SALCEDO LISANYS JACKELINE</t>
+  </si>
+  <si>
+    <t>GOMEZ PRESIGA ANA SOFIA</t>
+  </si>
+  <si>
+    <t>FLOREZ OSPINA SOFIA</t>
+  </si>
+  <si>
+    <t>QUINTERO AGUIRRE CAMILO</t>
+  </si>
+  <si>
+    <t>MORALES LOPEZ JUAN FERNANDO</t>
+  </si>
+  <si>
+    <t>QUINTERO RUIZ MARIA CAMILA</t>
+  </si>
+  <si>
+    <t>OSORIO TORRES SAMANTA</t>
+  </si>
+  <si>
+    <t>GONZALEZ LADINO JUAN PABLO</t>
+  </si>
+  <si>
+    <t>ZAPATA CORTES MELANNY</t>
+  </si>
+  <si>
+    <t>MUÑOZ LOPEZ VALENTINA</t>
+  </si>
+  <si>
+    <t>ORTIZ GRACIANO SEBASTIAN</t>
+  </si>
+  <si>
+    <t>MERCANO MUÑOZ RONALDO JOSE</t>
   </si>
 </sst>
 </file>
@@ -1466,7 +2477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1484,6 +2495,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1818,10 +2830,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122C58AF-DAD1-4F23-B77B-FF91B1E85975}">
-  <dimension ref="A1:K627"/>
+  <dimension ref="A1:K797"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B507" workbookViewId="0">
-      <selection activeCell="I600" sqref="I600"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A784" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I797" sqref="I797"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -23088,6 +24101,5819 @@
         <v>462</v>
       </c>
     </row>
+    <row r="628" spans="1:11">
+      <c r="A628" t="s">
+        <v>463</v>
+      </c>
+      <c r="B628" t="s">
+        <v>468</v>
+      </c>
+      <c r="C628" t="s">
+        <v>634</v>
+      </c>
+      <c r="D628">
+        <v>324</v>
+      </c>
+      <c r="E628">
+        <v>44</v>
+      </c>
+      <c r="F628">
+        <v>58.54</v>
+      </c>
+      <c r="G628">
+        <v>70.69</v>
+      </c>
+      <c r="H628">
+        <v>80</v>
+      </c>
+      <c r="I628">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="J628">
+        <v>2024</v>
+      </c>
+      <c r="K628" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="629" spans="1:11">
+      <c r="A629" t="s">
+        <v>463</v>
+      </c>
+      <c r="B629" t="s">
+        <v>469</v>
+      </c>
+      <c r="C629" t="s">
+        <v>635</v>
+      </c>
+      <c r="D629">
+        <v>306</v>
+      </c>
+      <c r="E629">
+        <v>56</v>
+      </c>
+      <c r="F629">
+        <v>60.98</v>
+      </c>
+      <c r="G629">
+        <v>46.55</v>
+      </c>
+      <c r="H629">
+        <v>74</v>
+      </c>
+      <c r="I629">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="J629">
+        <v>2024</v>
+      </c>
+      <c r="K629" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="630" spans="1:11">
+      <c r="A630" t="s">
+        <v>463</v>
+      </c>
+      <c r="B630" t="s">
+        <v>470</v>
+      </c>
+      <c r="C630" t="s">
+        <v>636</v>
+      </c>
+      <c r="D630">
+        <v>294</v>
+      </c>
+      <c r="E630">
+        <v>48</v>
+      </c>
+      <c r="F630">
+        <v>63.41</v>
+      </c>
+      <c r="G630">
+        <v>44.83</v>
+      </c>
+      <c r="H630">
+        <v>70</v>
+      </c>
+      <c r="I630">
+        <v>85.45</v>
+      </c>
+      <c r="J630">
+        <v>2024</v>
+      </c>
+      <c r="K630" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="631" spans="1:11">
+      <c r="A631" t="s">
+        <v>463</v>
+      </c>
+      <c r="B631" t="s">
+        <v>471</v>
+      </c>
+      <c r="C631" t="s">
+        <v>637</v>
+      </c>
+      <c r="D631">
+        <v>283</v>
+      </c>
+      <c r="E631">
+        <v>58</v>
+      </c>
+      <c r="F631">
+        <v>68.290000000000006</v>
+      </c>
+      <c r="G631">
+        <v>53.45</v>
+      </c>
+      <c r="H631">
+        <v>52</v>
+      </c>
+      <c r="I631">
+        <v>38.18</v>
+      </c>
+      <c r="J631">
+        <v>2024</v>
+      </c>
+      <c r="K631" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="632" spans="1:11">
+      <c r="A632" t="s">
+        <v>463</v>
+      </c>
+      <c r="B632" t="s">
+        <v>472</v>
+      </c>
+      <c r="C632" t="s">
+        <v>638</v>
+      </c>
+      <c r="D632">
+        <v>281</v>
+      </c>
+      <c r="E632">
+        <v>46</v>
+      </c>
+      <c r="F632">
+        <v>56.1</v>
+      </c>
+      <c r="G632">
+        <v>41.38</v>
+      </c>
+      <c r="H632">
+        <v>72</v>
+      </c>
+      <c r="I632">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="J632">
+        <v>2024</v>
+      </c>
+      <c r="K632" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="633" spans="1:11">
+      <c r="A633" t="s">
+        <v>463</v>
+      </c>
+      <c r="B633" t="s">
+        <v>473</v>
+      </c>
+      <c r="C633" t="s">
+        <v>639</v>
+      </c>
+      <c r="D633">
+        <v>278</v>
+      </c>
+      <c r="E633">
+        <v>38</v>
+      </c>
+      <c r="F633">
+        <v>70.73</v>
+      </c>
+      <c r="G633">
+        <v>60.34</v>
+      </c>
+      <c r="H633">
+        <v>52</v>
+      </c>
+      <c r="I633">
+        <v>58.18</v>
+      </c>
+      <c r="J633">
+        <v>2024</v>
+      </c>
+      <c r="K633" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="634" spans="1:11">
+      <c r="A634" t="s">
+        <v>463</v>
+      </c>
+      <c r="B634" t="s">
+        <v>474</v>
+      </c>
+      <c r="C634" t="s">
+        <v>640</v>
+      </c>
+      <c r="D634">
+        <v>271</v>
+      </c>
+      <c r="E634">
+        <v>40</v>
+      </c>
+      <c r="F634">
+        <v>60.98</v>
+      </c>
+      <c r="G634">
+        <v>51.72</v>
+      </c>
+      <c r="H634">
+        <v>54</v>
+      </c>
+      <c r="I634">
+        <v>83.64</v>
+      </c>
+      <c r="J634">
+        <v>2024</v>
+      </c>
+      <c r="K634" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="635" spans="1:11">
+      <c r="A635" t="s">
+        <v>463</v>
+      </c>
+      <c r="B635" t="s">
+        <v>475</v>
+      </c>
+      <c r="C635" t="s">
+        <v>641</v>
+      </c>
+      <c r="D635">
+        <v>267</v>
+      </c>
+      <c r="E635">
+        <v>44</v>
+      </c>
+      <c r="F635">
+        <v>48.78</v>
+      </c>
+      <c r="G635">
+        <v>51.72</v>
+      </c>
+      <c r="H635">
+        <v>58</v>
+      </c>
+      <c r="I635">
+        <v>85.45</v>
+      </c>
+      <c r="J635">
+        <v>2024</v>
+      </c>
+      <c r="K635" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="636" spans="1:11">
+      <c r="A636" t="s">
+        <v>463</v>
+      </c>
+      <c r="B636" t="s">
+        <v>476</v>
+      </c>
+      <c r="C636" t="s">
+        <v>642</v>
+      </c>
+      <c r="D636">
+        <v>261</v>
+      </c>
+      <c r="E636">
+        <v>36</v>
+      </c>
+      <c r="F636">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="G636">
+        <v>58.62</v>
+      </c>
+      <c r="H636">
+        <v>46</v>
+      </c>
+      <c r="I636">
+        <v>58.18</v>
+      </c>
+      <c r="J636">
+        <v>2024</v>
+      </c>
+      <c r="K636" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="637" spans="1:11">
+      <c r="A637" t="s">
+        <v>463</v>
+      </c>
+      <c r="B637" t="s">
+        <v>477</v>
+      </c>
+      <c r="C637" t="s">
+        <v>643</v>
+      </c>
+      <c r="D637">
+        <v>257</v>
+      </c>
+      <c r="E637">
+        <v>56</v>
+      </c>
+      <c r="F637">
+        <v>46.34</v>
+      </c>
+      <c r="G637">
+        <v>43.1</v>
+      </c>
+      <c r="H637">
+        <v>50</v>
+      </c>
+      <c r="I637">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="J637">
+        <v>2024</v>
+      </c>
+      <c r="K637" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="638" spans="1:11">
+      <c r="A638" t="s">
+        <v>463</v>
+      </c>
+      <c r="B638" t="s">
+        <v>478</v>
+      </c>
+      <c r="C638" t="s">
+        <v>644</v>
+      </c>
+      <c r="D638">
+        <v>256</v>
+      </c>
+      <c r="E638">
+        <v>56</v>
+      </c>
+      <c r="F638">
+        <v>41.46</v>
+      </c>
+      <c r="G638">
+        <v>43.1</v>
+      </c>
+      <c r="H638">
+        <v>54</v>
+      </c>
+      <c r="I638">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="J638">
+        <v>2024</v>
+      </c>
+      <c r="K638" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="639" spans="1:11">
+      <c r="A639" t="s">
+        <v>463</v>
+      </c>
+      <c r="B639" t="s">
+        <v>479</v>
+      </c>
+      <c r="C639" t="s">
+        <v>645</v>
+      </c>
+      <c r="D639">
+        <v>247</v>
+      </c>
+      <c r="E639">
+        <v>52</v>
+      </c>
+      <c r="F639">
+        <v>51.22</v>
+      </c>
+      <c r="G639">
+        <v>41.38</v>
+      </c>
+      <c r="H639">
+        <v>46</v>
+      </c>
+      <c r="I639">
+        <v>69.09</v>
+      </c>
+      <c r="J639">
+        <v>2024</v>
+      </c>
+      <c r="K639" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="640" spans="1:11">
+      <c r="A640" t="s">
+        <v>463</v>
+      </c>
+      <c r="B640" t="s">
+        <v>480</v>
+      </c>
+      <c r="C640" t="s">
+        <v>646</v>
+      </c>
+      <c r="D640">
+        <v>245</v>
+      </c>
+      <c r="E640">
+        <v>46</v>
+      </c>
+      <c r="F640">
+        <v>41.46</v>
+      </c>
+      <c r="G640">
+        <v>44.83</v>
+      </c>
+      <c r="H640">
+        <v>52</v>
+      </c>
+      <c r="I640">
+        <v>83.64</v>
+      </c>
+      <c r="J640">
+        <v>2024</v>
+      </c>
+      <c r="K640" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="641" spans="1:11">
+      <c r="A641" t="s">
+        <v>463</v>
+      </c>
+      <c r="B641" t="s">
+        <v>481</v>
+      </c>
+      <c r="C641" t="s">
+        <v>647</v>
+      </c>
+      <c r="D641">
+        <v>234</v>
+      </c>
+      <c r="E641">
+        <v>52</v>
+      </c>
+      <c r="F641">
+        <v>46.34</v>
+      </c>
+      <c r="G641">
+        <v>32.76</v>
+      </c>
+      <c r="H641">
+        <v>46</v>
+      </c>
+      <c r="I641">
+        <v>76.36</v>
+      </c>
+      <c r="J641">
+        <v>2024</v>
+      </c>
+      <c r="K641" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="642" spans="1:11">
+      <c r="A642" t="s">
+        <v>463</v>
+      </c>
+      <c r="B642" t="s">
+        <v>482</v>
+      </c>
+      <c r="C642" t="s">
+        <v>648</v>
+      </c>
+      <c r="D642">
+        <v>230</v>
+      </c>
+      <c r="E642">
+        <v>52</v>
+      </c>
+      <c r="F642">
+        <v>46.34</v>
+      </c>
+      <c r="G642">
+        <v>36.21</v>
+      </c>
+      <c r="H642">
+        <v>42</v>
+      </c>
+      <c r="I642">
+        <v>67.27</v>
+      </c>
+      <c r="J642">
+        <v>2024</v>
+      </c>
+      <c r="K642" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="643" spans="1:11">
+      <c r="A643" t="s">
+        <v>463</v>
+      </c>
+      <c r="B643" t="s">
+        <v>483</v>
+      </c>
+      <c r="C643" t="s">
+        <v>649</v>
+      </c>
+      <c r="D643">
+        <v>229</v>
+      </c>
+      <c r="E643">
+        <v>40</v>
+      </c>
+      <c r="F643">
+        <v>41.46</v>
+      </c>
+      <c r="G643">
+        <v>55.17</v>
+      </c>
+      <c r="H643">
+        <v>38</v>
+      </c>
+      <c r="I643">
+        <v>70.91</v>
+      </c>
+      <c r="J643">
+        <v>2024</v>
+      </c>
+      <c r="K643" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="644" spans="1:11">
+      <c r="A644" t="s">
+        <v>463</v>
+      </c>
+      <c r="B644" t="s">
+        <v>484</v>
+      </c>
+      <c r="C644" t="s">
+        <v>650</v>
+      </c>
+      <c r="D644">
+        <v>223</v>
+      </c>
+      <c r="E644">
+        <v>40</v>
+      </c>
+      <c r="F644">
+        <v>53.66</v>
+      </c>
+      <c r="G644">
+        <v>43.1</v>
+      </c>
+      <c r="H644">
+        <v>32</v>
+      </c>
+      <c r="I644">
+        <v>72.73</v>
+      </c>
+      <c r="J644">
+        <v>2024</v>
+      </c>
+      <c r="K644" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="645" spans="1:11">
+      <c r="A645" t="s">
+        <v>463</v>
+      </c>
+      <c r="B645" t="s">
+        <v>485</v>
+      </c>
+      <c r="C645" t="s">
+        <v>651</v>
+      </c>
+      <c r="D645">
+        <v>215</v>
+      </c>
+      <c r="E645">
+        <v>46</v>
+      </c>
+      <c r="F645">
+        <v>26.83</v>
+      </c>
+      <c r="G645">
+        <v>32.76</v>
+      </c>
+      <c r="H645">
+        <v>52</v>
+      </c>
+      <c r="I645">
+        <v>85.45</v>
+      </c>
+      <c r="J645">
+        <v>2024</v>
+      </c>
+      <c r="K645" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="646" spans="1:11">
+      <c r="A646" t="s">
+        <v>463</v>
+      </c>
+      <c r="B646" t="s">
+        <v>486</v>
+      </c>
+      <c r="C646" t="s">
+        <v>652</v>
+      </c>
+      <c r="D646">
+        <v>210</v>
+      </c>
+      <c r="E646">
+        <v>34</v>
+      </c>
+      <c r="F646">
+        <v>29.27</v>
+      </c>
+      <c r="G646">
+        <v>36.21</v>
+      </c>
+      <c r="H646">
+        <v>54</v>
+      </c>
+      <c r="I646">
+        <v>85.45</v>
+      </c>
+      <c r="J646">
+        <v>2024</v>
+      </c>
+      <c r="K646" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="647" spans="1:11">
+      <c r="A647" t="s">
+        <v>463</v>
+      </c>
+      <c r="B647" t="s">
+        <v>487</v>
+      </c>
+      <c r="C647" t="s">
+        <v>653</v>
+      </c>
+      <c r="D647">
+        <v>205</v>
+      </c>
+      <c r="E647">
+        <v>34</v>
+      </c>
+      <c r="F647">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G647">
+        <v>44.83</v>
+      </c>
+      <c r="H647">
+        <v>38</v>
+      </c>
+      <c r="I647">
+        <v>72.73</v>
+      </c>
+      <c r="J647">
+        <v>2024</v>
+      </c>
+      <c r="K647" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="648" spans="1:11">
+      <c r="A648" t="s">
+        <v>463</v>
+      </c>
+      <c r="B648" t="s">
+        <v>488</v>
+      </c>
+      <c r="C648" t="s">
+        <v>654</v>
+      </c>
+      <c r="D648">
+        <v>203</v>
+      </c>
+      <c r="E648">
+        <v>46</v>
+      </c>
+      <c r="F648">
+        <v>21.95</v>
+      </c>
+      <c r="G648">
+        <v>29.31</v>
+      </c>
+      <c r="H648">
+        <v>56</v>
+      </c>
+      <c r="I648">
+        <v>67.27</v>
+      </c>
+      <c r="J648">
+        <v>2024</v>
+      </c>
+      <c r="K648" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="649" spans="1:11">
+      <c r="A649" t="s">
+        <v>463</v>
+      </c>
+      <c r="B649" t="s">
+        <v>489</v>
+      </c>
+      <c r="C649" t="s">
+        <v>655</v>
+      </c>
+      <c r="D649">
+        <v>202</v>
+      </c>
+      <c r="E649">
+        <v>44</v>
+      </c>
+      <c r="F649">
+        <v>29.27</v>
+      </c>
+      <c r="G649">
+        <v>25.86</v>
+      </c>
+      <c r="H649">
+        <v>48</v>
+      </c>
+      <c r="I649">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="J649">
+        <v>2024</v>
+      </c>
+      <c r="K649" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="650" spans="1:11">
+      <c r="A650" t="s">
+        <v>463</v>
+      </c>
+      <c r="B650" t="s">
+        <v>490</v>
+      </c>
+      <c r="C650" t="s">
+        <v>656</v>
+      </c>
+      <c r="D650">
+        <v>193</v>
+      </c>
+      <c r="E650">
+        <v>24</v>
+      </c>
+      <c r="F650">
+        <v>53.66</v>
+      </c>
+      <c r="G650">
+        <v>36.21</v>
+      </c>
+      <c r="H650">
+        <v>40</v>
+      </c>
+      <c r="I650">
+        <v>38.18</v>
+      </c>
+      <c r="J650">
+        <v>2024</v>
+      </c>
+      <c r="K650" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="651" spans="1:11">
+      <c r="A651" t="s">
+        <v>463</v>
+      </c>
+      <c r="B651" t="s">
+        <v>491</v>
+      </c>
+      <c r="C651" t="s">
+        <v>657</v>
+      </c>
+      <c r="D651">
+        <v>184</v>
+      </c>
+      <c r="E651">
+        <v>42</v>
+      </c>
+      <c r="F651">
+        <v>48.78</v>
+      </c>
+      <c r="G651">
+        <v>22.41</v>
+      </c>
+      <c r="H651">
+        <v>34</v>
+      </c>
+      <c r="I651">
+        <v>36.36</v>
+      </c>
+      <c r="J651">
+        <v>2024</v>
+      </c>
+      <c r="K651" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="652" spans="1:11">
+      <c r="A652" t="s">
+        <v>463</v>
+      </c>
+      <c r="B652" t="s">
+        <v>492</v>
+      </c>
+      <c r="C652" t="s">
+        <v>658</v>
+      </c>
+      <c r="D652">
+        <v>181</v>
+      </c>
+      <c r="E652">
+        <v>36</v>
+      </c>
+      <c r="F652">
+        <v>48.78</v>
+      </c>
+      <c r="G652">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="H652">
+        <v>42</v>
+      </c>
+      <c r="I652">
+        <v>36.36</v>
+      </c>
+      <c r="J652">
+        <v>2024</v>
+      </c>
+      <c r="K652" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="653" spans="1:11">
+      <c r="A653" t="s">
+        <v>463</v>
+      </c>
+      <c r="B653" t="s">
+        <v>493</v>
+      </c>
+      <c r="C653" t="s">
+        <v>659</v>
+      </c>
+      <c r="D653">
+        <v>165</v>
+      </c>
+      <c r="E653">
+        <v>30</v>
+      </c>
+      <c r="F653">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="G653">
+        <v>29.31</v>
+      </c>
+      <c r="H653">
+        <v>36</v>
+      </c>
+      <c r="I653">
+        <v>25.45</v>
+      </c>
+      <c r="J653">
+        <v>2024</v>
+      </c>
+      <c r="K653" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="654" spans="1:11">
+      <c r="A654" t="s">
+        <v>463</v>
+      </c>
+      <c r="B654" t="s">
+        <v>494</v>
+      </c>
+      <c r="C654" t="s">
+        <v>660</v>
+      </c>
+      <c r="D654">
+        <v>155</v>
+      </c>
+      <c r="E654">
+        <v>28</v>
+      </c>
+      <c r="F654">
+        <v>24.39</v>
+      </c>
+      <c r="G654">
+        <v>24.14</v>
+      </c>
+      <c r="H654">
+        <v>34</v>
+      </c>
+      <c r="I654">
+        <v>69.09</v>
+      </c>
+      <c r="J654">
+        <v>2024</v>
+      </c>
+      <c r="K654" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="655" spans="1:11">
+      <c r="A655" t="s">
+        <v>463</v>
+      </c>
+      <c r="B655" t="s">
+        <v>495</v>
+      </c>
+      <c r="C655" t="s">
+        <v>661</v>
+      </c>
+      <c r="D655">
+        <v>149</v>
+      </c>
+      <c r="E655">
+        <v>30</v>
+      </c>
+      <c r="F655">
+        <v>34.15</v>
+      </c>
+      <c r="G655">
+        <v>25.86</v>
+      </c>
+      <c r="H655">
+        <v>18</v>
+      </c>
+      <c r="I655">
+        <v>61.82</v>
+      </c>
+      <c r="J655">
+        <v>2024</v>
+      </c>
+      <c r="K655" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="656" spans="1:11">
+      <c r="A656" t="s">
+        <v>463</v>
+      </c>
+      <c r="B656" t="s">
+        <v>496</v>
+      </c>
+      <c r="C656" t="s">
+        <v>662</v>
+      </c>
+      <c r="D656">
+        <v>141</v>
+      </c>
+      <c r="E656">
+        <v>34</v>
+      </c>
+      <c r="F656">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G656">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="H656">
+        <v>26</v>
+      </c>
+      <c r="I656">
+        <v>23.64</v>
+      </c>
+      <c r="J656">
+        <v>2024</v>
+      </c>
+      <c r="K656" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="657" spans="1:11">
+      <c r="A657" t="s">
+        <v>463</v>
+      </c>
+      <c r="B657" t="s">
+        <v>497</v>
+      </c>
+      <c r="C657" t="s">
+        <v>663</v>
+      </c>
+      <c r="D657">
+        <v>132</v>
+      </c>
+      <c r="E657">
+        <v>28</v>
+      </c>
+      <c r="F657">
+        <v>0</v>
+      </c>
+      <c r="G657">
+        <v>20.69</v>
+      </c>
+      <c r="H657">
+        <v>38</v>
+      </c>
+      <c r="I657">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="J657">
+        <v>2024</v>
+      </c>
+      <c r="K657" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="658" spans="1:11">
+      <c r="A658" t="s">
+        <v>464</v>
+      </c>
+      <c r="B658" t="s">
+        <v>498</v>
+      </c>
+      <c r="C658" t="s">
+        <v>664</v>
+      </c>
+      <c r="D658">
+        <v>340</v>
+      </c>
+      <c r="E658">
+        <v>68</v>
+      </c>
+      <c r="F658">
+        <v>80.489999999999995</v>
+      </c>
+      <c r="G658">
+        <v>60.34</v>
+      </c>
+      <c r="H658">
+        <v>66</v>
+      </c>
+      <c r="I658">
+        <v>58.18</v>
+      </c>
+      <c r="J658">
+        <v>2024</v>
+      </c>
+      <c r="K658" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="659" spans="1:11">
+      <c r="A659" t="s">
+        <v>464</v>
+      </c>
+      <c r="B659" t="s">
+        <v>499</v>
+      </c>
+      <c r="C659" t="s">
+        <v>665</v>
+      </c>
+      <c r="D659">
+        <v>273</v>
+      </c>
+      <c r="E659">
+        <v>52</v>
+      </c>
+      <c r="F659">
+        <v>70.73</v>
+      </c>
+      <c r="G659">
+        <v>50</v>
+      </c>
+      <c r="H659">
+        <v>50</v>
+      </c>
+      <c r="I659">
+        <v>40</v>
+      </c>
+      <c r="J659">
+        <v>2024</v>
+      </c>
+      <c r="K659" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="660" spans="1:11">
+      <c r="A660" t="s">
+        <v>464</v>
+      </c>
+      <c r="B660" t="s">
+        <v>500</v>
+      </c>
+      <c r="C660" t="s">
+        <v>666</v>
+      </c>
+      <c r="D660">
+        <v>269</v>
+      </c>
+      <c r="E660">
+        <v>54</v>
+      </c>
+      <c r="F660">
+        <v>53.66</v>
+      </c>
+      <c r="G660">
+        <v>53.45</v>
+      </c>
+      <c r="H660">
+        <v>52</v>
+      </c>
+      <c r="I660">
+        <v>58.18</v>
+      </c>
+      <c r="J660">
+        <v>2024</v>
+      </c>
+      <c r="K660" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="661" spans="1:11">
+      <c r="A661" t="s">
+        <v>464</v>
+      </c>
+      <c r="B661" t="s">
+        <v>501</v>
+      </c>
+      <c r="C661" t="s">
+        <v>667</v>
+      </c>
+      <c r="D661">
+        <v>261</v>
+      </c>
+      <c r="E661">
+        <v>48</v>
+      </c>
+      <c r="F661">
+        <v>56.1</v>
+      </c>
+      <c r="G661">
+        <v>46.55</v>
+      </c>
+      <c r="H661">
+        <v>60</v>
+      </c>
+      <c r="I661">
+        <v>45.45</v>
+      </c>
+      <c r="J661">
+        <v>2024</v>
+      </c>
+      <c r="K661" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="662" spans="1:11">
+      <c r="A662" t="s">
+        <v>464</v>
+      </c>
+      <c r="B662" t="s">
+        <v>502</v>
+      </c>
+      <c r="C662" t="s">
+        <v>668</v>
+      </c>
+      <c r="D662">
+        <v>257</v>
+      </c>
+      <c r="E662">
+        <v>36</v>
+      </c>
+      <c r="F662">
+        <v>58.54</v>
+      </c>
+      <c r="G662">
+        <v>50</v>
+      </c>
+      <c r="H662">
+        <v>48</v>
+      </c>
+      <c r="I662">
+        <v>89.09</v>
+      </c>
+      <c r="J662">
+        <v>2024</v>
+      </c>
+      <c r="K662" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="663" spans="1:11">
+      <c r="A663" t="s">
+        <v>464</v>
+      </c>
+      <c r="B663" t="s">
+        <v>503</v>
+      </c>
+      <c r="C663" t="s">
+        <v>669</v>
+      </c>
+      <c r="D663">
+        <v>245</v>
+      </c>
+      <c r="E663">
+        <v>36</v>
+      </c>
+      <c r="F663">
+        <v>60.98</v>
+      </c>
+      <c r="G663">
+        <v>46.55</v>
+      </c>
+      <c r="H663">
+        <v>46</v>
+      </c>
+      <c r="I663">
+        <v>67.27</v>
+      </c>
+      <c r="J663">
+        <v>2024</v>
+      </c>
+      <c r="K663" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="664" spans="1:11">
+      <c r="A664" t="s">
+        <v>464</v>
+      </c>
+      <c r="B664" t="s">
+        <v>504</v>
+      </c>
+      <c r="C664" t="s">
+        <v>670</v>
+      </c>
+      <c r="D664">
+        <v>239</v>
+      </c>
+      <c r="E664">
+        <v>26</v>
+      </c>
+      <c r="F664">
+        <v>58.54</v>
+      </c>
+      <c r="G664">
+        <v>46.55</v>
+      </c>
+      <c r="H664">
+        <v>60</v>
+      </c>
+      <c r="I664">
+        <v>47.27</v>
+      </c>
+      <c r="J664">
+        <v>2024</v>
+      </c>
+      <c r="K664" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="665" spans="1:11">
+      <c r="A665" t="s">
+        <v>464</v>
+      </c>
+      <c r="B665" t="s">
+        <v>505</v>
+      </c>
+      <c r="C665" t="s">
+        <v>671</v>
+      </c>
+      <c r="D665">
+        <v>237</v>
+      </c>
+      <c r="E665">
+        <v>48</v>
+      </c>
+      <c r="F665">
+        <v>53.66</v>
+      </c>
+      <c r="G665">
+        <v>43.1</v>
+      </c>
+      <c r="H665">
+        <v>44</v>
+      </c>
+      <c r="I665">
+        <v>49.09</v>
+      </c>
+      <c r="J665">
+        <v>2024</v>
+      </c>
+      <c r="K665" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="666" spans="1:11">
+      <c r="A666" t="s">
+        <v>464</v>
+      </c>
+      <c r="B666" t="s">
+        <v>506</v>
+      </c>
+      <c r="C666" t="s">
+        <v>672</v>
+      </c>
+      <c r="D666">
+        <v>230</v>
+      </c>
+      <c r="E666">
+        <v>44</v>
+      </c>
+      <c r="F666">
+        <v>48.78</v>
+      </c>
+      <c r="G666">
+        <v>55.17</v>
+      </c>
+      <c r="H666">
+        <v>32</v>
+      </c>
+      <c r="I666">
+        <v>56.36</v>
+      </c>
+      <c r="J666">
+        <v>2024</v>
+      </c>
+      <c r="K666" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="667" spans="1:11">
+      <c r="A667" t="s">
+        <v>464</v>
+      </c>
+      <c r="B667" t="s">
+        <v>507</v>
+      </c>
+      <c r="C667" t="s">
+        <v>673</v>
+      </c>
+      <c r="D667">
+        <v>226</v>
+      </c>
+      <c r="E667">
+        <v>40</v>
+      </c>
+      <c r="F667">
+        <v>53.66</v>
+      </c>
+      <c r="G667">
+        <v>41.38</v>
+      </c>
+      <c r="H667">
+        <v>44</v>
+      </c>
+      <c r="I667">
+        <v>49.09</v>
+      </c>
+      <c r="J667">
+        <v>2024</v>
+      </c>
+      <c r="K667" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="668" spans="1:11">
+      <c r="A668" t="s">
+        <v>464</v>
+      </c>
+      <c r="B668" t="s">
+        <v>508</v>
+      </c>
+      <c r="C668" t="s">
+        <v>674</v>
+      </c>
+      <c r="D668">
+        <v>225</v>
+      </c>
+      <c r="E668">
+        <v>48</v>
+      </c>
+      <c r="F668">
+        <v>48.78</v>
+      </c>
+      <c r="G668">
+        <v>50</v>
+      </c>
+      <c r="H668">
+        <v>36</v>
+      </c>
+      <c r="I668">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="J668">
+        <v>2024</v>
+      </c>
+      <c r="K668" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="669" spans="1:11">
+      <c r="A669" t="s">
+        <v>464</v>
+      </c>
+      <c r="B669" t="s">
+        <v>509</v>
+      </c>
+      <c r="C669" t="s">
+        <v>675</v>
+      </c>
+      <c r="D669">
+        <v>220</v>
+      </c>
+      <c r="E669">
+        <v>38</v>
+      </c>
+      <c r="F669">
+        <v>48.78</v>
+      </c>
+      <c r="G669">
+        <v>46.55</v>
+      </c>
+      <c r="H669">
+        <v>48</v>
+      </c>
+      <c r="I669">
+        <v>27.27</v>
+      </c>
+      <c r="J669">
+        <v>2024</v>
+      </c>
+      <c r="K669" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="670" spans="1:11">
+      <c r="A670" t="s">
+        <v>464</v>
+      </c>
+      <c r="B670" t="s">
+        <v>510</v>
+      </c>
+      <c r="C670" t="s">
+        <v>676</v>
+      </c>
+      <c r="D670">
+        <v>217</v>
+      </c>
+      <c r="E670">
+        <v>38</v>
+      </c>
+      <c r="F670">
+        <v>34.15</v>
+      </c>
+      <c r="G670">
+        <v>46.55</v>
+      </c>
+      <c r="H670">
+        <v>42</v>
+      </c>
+      <c r="I670">
+        <v>81.819999999999993</v>
+      </c>
+      <c r="J670">
+        <v>2024</v>
+      </c>
+      <c r="K670" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="671" spans="1:11">
+      <c r="A671" t="s">
+        <v>464</v>
+      </c>
+      <c r="B671" t="s">
+        <v>511</v>
+      </c>
+      <c r="C671" t="s">
+        <v>677</v>
+      </c>
+      <c r="D671">
+        <v>214</v>
+      </c>
+      <c r="E671">
+        <v>26</v>
+      </c>
+      <c r="F671">
+        <v>41.46</v>
+      </c>
+      <c r="G671">
+        <v>41.38</v>
+      </c>
+      <c r="H671">
+        <v>60</v>
+      </c>
+      <c r="I671">
+        <v>49.09</v>
+      </c>
+      <c r="J671">
+        <v>2024</v>
+      </c>
+      <c r="K671" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="672" spans="1:11">
+      <c r="A672" t="s">
+        <v>464</v>
+      </c>
+      <c r="B672" t="s">
+        <v>512</v>
+      </c>
+      <c r="C672" t="s">
+        <v>678</v>
+      </c>
+      <c r="D672">
+        <v>212</v>
+      </c>
+      <c r="E672">
+        <v>38</v>
+      </c>
+      <c r="F672">
+        <v>46.34</v>
+      </c>
+      <c r="G672">
+        <v>37.93</v>
+      </c>
+      <c r="H672">
+        <v>48</v>
+      </c>
+      <c r="I672">
+        <v>38.18</v>
+      </c>
+      <c r="J672">
+        <v>2024</v>
+      </c>
+      <c r="K672" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="673" spans="1:11">
+      <c r="A673" t="s">
+        <v>464</v>
+      </c>
+      <c r="B673" t="s">
+        <v>513</v>
+      </c>
+      <c r="C673" t="s">
+        <v>679</v>
+      </c>
+      <c r="D673">
+        <v>211</v>
+      </c>
+      <c r="E673">
+        <v>48</v>
+      </c>
+      <c r="F673">
+        <v>41.46</v>
+      </c>
+      <c r="G673">
+        <v>37.93</v>
+      </c>
+      <c r="H673">
+        <v>38</v>
+      </c>
+      <c r="I673">
+        <v>50.91</v>
+      </c>
+      <c r="J673">
+        <v>2024</v>
+      </c>
+      <c r="K673" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="674" spans="1:11">
+      <c r="A674" t="s">
+        <v>464</v>
+      </c>
+      <c r="B674" t="s">
+        <v>514</v>
+      </c>
+      <c r="C674" t="s">
+        <v>680</v>
+      </c>
+      <c r="D674">
+        <v>209</v>
+      </c>
+      <c r="E674">
+        <v>52</v>
+      </c>
+      <c r="F674">
+        <v>34.15</v>
+      </c>
+      <c r="G674">
+        <v>34.479999999999997</v>
+      </c>
+      <c r="H674">
+        <v>46</v>
+      </c>
+      <c r="I674">
+        <v>41.82</v>
+      </c>
+      <c r="J674">
+        <v>2024</v>
+      </c>
+      <c r="K674" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="675" spans="1:11">
+      <c r="A675" t="s">
+        <v>464</v>
+      </c>
+      <c r="B675" t="s">
+        <v>515</v>
+      </c>
+      <c r="C675" t="s">
+        <v>681</v>
+      </c>
+      <c r="D675">
+        <v>208</v>
+      </c>
+      <c r="E675">
+        <v>32</v>
+      </c>
+      <c r="F675">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="G675">
+        <v>46.55</v>
+      </c>
+      <c r="H675">
+        <v>48</v>
+      </c>
+      <c r="I675">
+        <v>43.64</v>
+      </c>
+      <c r="J675">
+        <v>2024</v>
+      </c>
+      <c r="K675" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="676" spans="1:11">
+      <c r="A676" t="s">
+        <v>464</v>
+      </c>
+      <c r="B676" t="s">
+        <v>516</v>
+      </c>
+      <c r="C676" t="s">
+        <v>682</v>
+      </c>
+      <c r="D676">
+        <v>205</v>
+      </c>
+      <c r="E676">
+        <v>44</v>
+      </c>
+      <c r="F676">
+        <v>51.22</v>
+      </c>
+      <c r="G676">
+        <v>32.76</v>
+      </c>
+      <c r="H676">
+        <v>40</v>
+      </c>
+      <c r="I676">
+        <v>27.27</v>
+      </c>
+      <c r="J676">
+        <v>2024</v>
+      </c>
+      <c r="K676" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="677" spans="1:11">
+      <c r="A677" t="s">
+        <v>464</v>
+      </c>
+      <c r="B677" t="s">
+        <v>517</v>
+      </c>
+      <c r="C677" t="s">
+        <v>683</v>
+      </c>
+      <c r="D677">
+        <v>204</v>
+      </c>
+      <c r="E677">
+        <v>34</v>
+      </c>
+      <c r="F677">
+        <v>29.27</v>
+      </c>
+      <c r="G677">
+        <v>51.72</v>
+      </c>
+      <c r="H677">
+        <v>44</v>
+      </c>
+      <c r="I677">
+        <v>50.91</v>
+      </c>
+      <c r="J677">
+        <v>2024</v>
+      </c>
+      <c r="K677" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="678" spans="1:11">
+      <c r="A678" t="s">
+        <v>464</v>
+      </c>
+      <c r="B678" t="s">
+        <v>518</v>
+      </c>
+      <c r="C678" t="s">
+        <v>684</v>
+      </c>
+      <c r="D678">
+        <v>200</v>
+      </c>
+      <c r="E678">
+        <v>36</v>
+      </c>
+      <c r="F678">
+        <v>26.83</v>
+      </c>
+      <c r="G678">
+        <v>50</v>
+      </c>
+      <c r="H678">
+        <v>44</v>
+      </c>
+      <c r="I678">
+        <v>47.27</v>
+      </c>
+      <c r="J678">
+        <v>2024</v>
+      </c>
+      <c r="K678" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="679" spans="1:11">
+      <c r="A679" t="s">
+        <v>464</v>
+      </c>
+      <c r="B679" t="s">
+        <v>519</v>
+      </c>
+      <c r="C679" t="s">
+        <v>685</v>
+      </c>
+      <c r="D679">
+        <v>200</v>
+      </c>
+      <c r="E679">
+        <v>32</v>
+      </c>
+      <c r="F679">
+        <v>48.78</v>
+      </c>
+      <c r="G679">
+        <v>36.21</v>
+      </c>
+      <c r="H679">
+        <v>40</v>
+      </c>
+      <c r="I679">
+        <v>47.27</v>
+      </c>
+      <c r="J679">
+        <v>2024</v>
+      </c>
+      <c r="K679" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="680" spans="1:11">
+      <c r="A680" t="s">
+        <v>464</v>
+      </c>
+      <c r="B680" t="s">
+        <v>520</v>
+      </c>
+      <c r="C680" t="s">
+        <v>686</v>
+      </c>
+      <c r="D680">
+        <v>197</v>
+      </c>
+      <c r="E680">
+        <v>38</v>
+      </c>
+      <c r="F680">
+        <v>43.9</v>
+      </c>
+      <c r="G680">
+        <v>36.21</v>
+      </c>
+      <c r="H680">
+        <v>36</v>
+      </c>
+      <c r="I680">
+        <v>49.09</v>
+      </c>
+      <c r="J680">
+        <v>2024</v>
+      </c>
+      <c r="K680" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="681" spans="1:11">
+      <c r="A681" t="s">
+        <v>464</v>
+      </c>
+      <c r="B681" t="s">
+        <v>521</v>
+      </c>
+      <c r="C681" t="s">
+        <v>687</v>
+      </c>
+      <c r="D681">
+        <v>195</v>
+      </c>
+      <c r="E681">
+        <v>48</v>
+      </c>
+      <c r="F681">
+        <v>34.15</v>
+      </c>
+      <c r="G681">
+        <v>27.59</v>
+      </c>
+      <c r="H681">
+        <v>42</v>
+      </c>
+      <c r="I681">
+        <v>50.91</v>
+      </c>
+      <c r="J681">
+        <v>2024</v>
+      </c>
+      <c r="K681" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="682" spans="1:11">
+      <c r="A682" t="s">
+        <v>464</v>
+      </c>
+      <c r="B682" t="s">
+        <v>522</v>
+      </c>
+      <c r="C682" t="s">
+        <v>688</v>
+      </c>
+      <c r="D682">
+        <v>194</v>
+      </c>
+      <c r="E682">
+        <v>40</v>
+      </c>
+      <c r="F682">
+        <v>43.9</v>
+      </c>
+      <c r="G682">
+        <v>29.31</v>
+      </c>
+      <c r="H682">
+        <v>40</v>
+      </c>
+      <c r="I682">
+        <v>43.64</v>
+      </c>
+      <c r="J682">
+        <v>2024</v>
+      </c>
+      <c r="K682" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="683" spans="1:11">
+      <c r="A683" t="s">
+        <v>464</v>
+      </c>
+      <c r="B683" t="s">
+        <v>523</v>
+      </c>
+      <c r="C683" t="s">
+        <v>689</v>
+      </c>
+      <c r="D683">
+        <v>193</v>
+      </c>
+      <c r="E683">
+        <v>38</v>
+      </c>
+      <c r="F683">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="G683">
+        <v>46.55</v>
+      </c>
+      <c r="H683">
+        <v>34</v>
+      </c>
+      <c r="I683">
+        <v>27.27</v>
+      </c>
+      <c r="J683">
+        <v>2024</v>
+      </c>
+      <c r="K683" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="684" spans="1:11">
+      <c r="A684" t="s">
+        <v>464</v>
+      </c>
+      <c r="B684" t="s">
+        <v>524</v>
+      </c>
+      <c r="C684" t="s">
+        <v>690</v>
+      </c>
+      <c r="D684">
+        <v>190</v>
+      </c>
+      <c r="E684">
+        <v>32</v>
+      </c>
+      <c r="F684">
+        <v>43.9</v>
+      </c>
+      <c r="G684">
+        <v>36.21</v>
+      </c>
+      <c r="H684">
+        <v>40</v>
+      </c>
+      <c r="I684">
+        <v>36.36</v>
+      </c>
+      <c r="J684">
+        <v>2024</v>
+      </c>
+      <c r="K684" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="685" spans="1:11">
+      <c r="A685" t="s">
+        <v>464</v>
+      </c>
+      <c r="B685" t="s">
+        <v>525</v>
+      </c>
+      <c r="C685" t="s">
+        <v>691</v>
+      </c>
+      <c r="D685">
+        <v>190</v>
+      </c>
+      <c r="E685">
+        <v>34</v>
+      </c>
+      <c r="F685">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G685">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="H685">
+        <v>32</v>
+      </c>
+      <c r="I685">
+        <v>67.27</v>
+      </c>
+      <c r="J685">
+        <v>2024</v>
+      </c>
+      <c r="K685" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="686" spans="1:11">
+      <c r="A686" t="s">
+        <v>464</v>
+      </c>
+      <c r="B686" t="s">
+        <v>526</v>
+      </c>
+      <c r="C686" t="s">
+        <v>692</v>
+      </c>
+      <c r="D686">
+        <v>188</v>
+      </c>
+      <c r="E686">
+        <v>34</v>
+      </c>
+      <c r="F686">
+        <v>26.83</v>
+      </c>
+      <c r="G686">
+        <v>44.83</v>
+      </c>
+      <c r="H686">
+        <v>40</v>
+      </c>
+      <c r="I686">
+        <v>50.91</v>
+      </c>
+      <c r="J686">
+        <v>2024</v>
+      </c>
+      <c r="K686" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="687" spans="1:11">
+      <c r="A687" t="s">
+        <v>464</v>
+      </c>
+      <c r="B687" t="s">
+        <v>527</v>
+      </c>
+      <c r="C687" t="s">
+        <v>693</v>
+      </c>
+      <c r="D687">
+        <v>182</v>
+      </c>
+      <c r="E687">
+        <v>36</v>
+      </c>
+      <c r="F687">
+        <v>26.83</v>
+      </c>
+      <c r="G687">
+        <v>41.38</v>
+      </c>
+      <c r="H687">
+        <v>34</v>
+      </c>
+      <c r="I687">
+        <v>56.36</v>
+      </c>
+      <c r="J687">
+        <v>2024</v>
+      </c>
+      <c r="K687" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="688" spans="1:11">
+      <c r="A688" t="s">
+        <v>464</v>
+      </c>
+      <c r="B688" t="s">
+        <v>528</v>
+      </c>
+      <c r="C688" t="s">
+        <v>694</v>
+      </c>
+      <c r="D688">
+        <v>144</v>
+      </c>
+      <c r="E688">
+        <v>24</v>
+      </c>
+      <c r="F688">
+        <v>31.71</v>
+      </c>
+      <c r="G688">
+        <v>29.31</v>
+      </c>
+      <c r="H688">
+        <v>30</v>
+      </c>
+      <c r="I688">
+        <v>27.27</v>
+      </c>
+      <c r="J688">
+        <v>2024</v>
+      </c>
+      <c r="K688" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="689" spans="1:11">
+      <c r="A689" t="s">
+        <v>465</v>
+      </c>
+      <c r="B689" t="s">
+        <v>529</v>
+      </c>
+      <c r="C689" t="s">
+        <v>695</v>
+      </c>
+      <c r="D689">
+        <v>341</v>
+      </c>
+      <c r="E689">
+        <v>72</v>
+      </c>
+      <c r="F689">
+        <v>60.98</v>
+      </c>
+      <c r="G689">
+        <v>79.31</v>
+      </c>
+      <c r="H689">
+        <v>62</v>
+      </c>
+      <c r="I689">
+        <v>61.82</v>
+      </c>
+      <c r="J689">
+        <v>2024</v>
+      </c>
+      <c r="K689" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="690" spans="1:11">
+      <c r="A690" t="s">
+        <v>465</v>
+      </c>
+      <c r="B690" t="s">
+        <v>530</v>
+      </c>
+      <c r="C690" t="s">
+        <v>696</v>
+      </c>
+      <c r="D690">
+        <v>317</v>
+      </c>
+      <c r="E690">
+        <v>62</v>
+      </c>
+      <c r="F690">
+        <v>68.290000000000006</v>
+      </c>
+      <c r="G690">
+        <v>68.97</v>
+      </c>
+      <c r="H690">
+        <v>60</v>
+      </c>
+      <c r="I690">
+        <v>45.45</v>
+      </c>
+      <c r="J690">
+        <v>2024</v>
+      </c>
+      <c r="K690" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="691" spans="1:11">
+      <c r="A691" t="s">
+        <v>465</v>
+      </c>
+      <c r="B691" t="s">
+        <v>531</v>
+      </c>
+      <c r="C691" t="s">
+        <v>697</v>
+      </c>
+      <c r="D691">
+        <v>310</v>
+      </c>
+      <c r="E691">
+        <v>42</v>
+      </c>
+      <c r="F691">
+        <v>75.61</v>
+      </c>
+      <c r="G691">
+        <v>56.9</v>
+      </c>
+      <c r="H691">
+        <v>68</v>
+      </c>
+      <c r="I691">
+        <v>76.36</v>
+      </c>
+      <c r="J691">
+        <v>2024</v>
+      </c>
+      <c r="K691" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="692" spans="1:11">
+      <c r="A692" t="s">
+        <v>465</v>
+      </c>
+      <c r="B692" t="s">
+        <v>532</v>
+      </c>
+      <c r="C692" t="s">
+        <v>698</v>
+      </c>
+      <c r="D692">
+        <v>267</v>
+      </c>
+      <c r="E692">
+        <v>40</v>
+      </c>
+      <c r="F692">
+        <v>56.1</v>
+      </c>
+      <c r="G692">
+        <v>58.62</v>
+      </c>
+      <c r="H692">
+        <v>66</v>
+      </c>
+      <c r="I692">
+        <v>30.91</v>
+      </c>
+      <c r="J692">
+        <v>2024</v>
+      </c>
+      <c r="K692" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="693" spans="1:11">
+      <c r="A693" t="s">
+        <v>465</v>
+      </c>
+      <c r="B693" t="s">
+        <v>533</v>
+      </c>
+      <c r="C693" t="s">
+        <v>699</v>
+      </c>
+      <c r="D693">
+        <v>266</v>
+      </c>
+      <c r="E693">
+        <v>44</v>
+      </c>
+      <c r="F693">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="G693">
+        <v>48.28</v>
+      </c>
+      <c r="H693">
+        <v>62</v>
+      </c>
+      <c r="I693">
+        <v>30.91</v>
+      </c>
+      <c r="J693">
+        <v>2024</v>
+      </c>
+      <c r="K693" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="694" spans="1:11">
+      <c r="A694" t="s">
+        <v>465</v>
+      </c>
+      <c r="B694" t="s">
+        <v>534</v>
+      </c>
+      <c r="C694" t="s">
+        <v>700</v>
+      </c>
+      <c r="D694">
+        <v>264</v>
+      </c>
+      <c r="E694">
+        <v>48</v>
+      </c>
+      <c r="F694">
+        <v>63.41</v>
+      </c>
+      <c r="G694">
+        <v>53.45</v>
+      </c>
+      <c r="H694">
+        <v>54</v>
+      </c>
+      <c r="I694">
+        <v>29.09</v>
+      </c>
+      <c r="J694">
+        <v>2024</v>
+      </c>
+      <c r="K694" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="695" spans="1:11">
+      <c r="A695" t="s">
+        <v>465</v>
+      </c>
+      <c r="B695" t="s">
+        <v>535</v>
+      </c>
+      <c r="C695" t="s">
+        <v>701</v>
+      </c>
+      <c r="D695">
+        <v>260</v>
+      </c>
+      <c r="E695">
+        <v>44</v>
+      </c>
+      <c r="F695">
+        <v>68.290000000000006</v>
+      </c>
+      <c r="G695">
+        <v>36.21</v>
+      </c>
+      <c r="H695">
+        <v>56</v>
+      </c>
+      <c r="I695">
+        <v>61.82</v>
+      </c>
+      <c r="J695">
+        <v>2024</v>
+      </c>
+      <c r="K695" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="696" spans="1:11">
+      <c r="A696" t="s">
+        <v>465</v>
+      </c>
+      <c r="B696" t="s">
+        <v>536</v>
+      </c>
+      <c r="C696" t="s">
+        <v>702</v>
+      </c>
+      <c r="D696">
+        <v>260</v>
+      </c>
+      <c r="E696">
+        <v>42</v>
+      </c>
+      <c r="F696">
+        <v>56.1</v>
+      </c>
+      <c r="G696">
+        <v>63.79</v>
+      </c>
+      <c r="H696">
+        <v>52</v>
+      </c>
+      <c r="I696">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="J696">
+        <v>2024</v>
+      </c>
+      <c r="K696" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="697" spans="1:11">
+      <c r="A697" t="s">
+        <v>465</v>
+      </c>
+      <c r="B697" t="s">
+        <v>537</v>
+      </c>
+      <c r="C697" t="s">
+        <v>703</v>
+      </c>
+      <c r="D697">
+        <v>252</v>
+      </c>
+      <c r="E697">
+        <v>44</v>
+      </c>
+      <c r="F697">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="G697">
+        <v>41.38</v>
+      </c>
+      <c r="H697">
+        <v>50</v>
+      </c>
+      <c r="I697">
+        <v>50.91</v>
+      </c>
+      <c r="J697">
+        <v>2024</v>
+      </c>
+      <c r="K697" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="698" spans="1:11">
+      <c r="A698" t="s">
+        <v>465</v>
+      </c>
+      <c r="B698" t="s">
+        <v>538</v>
+      </c>
+      <c r="C698" t="s">
+        <v>704</v>
+      </c>
+      <c r="D698">
+        <v>233</v>
+      </c>
+      <c r="E698">
+        <v>50</v>
+      </c>
+      <c r="F698">
+        <v>53.66</v>
+      </c>
+      <c r="G698">
+        <v>41.38</v>
+      </c>
+      <c r="H698">
+        <v>42</v>
+      </c>
+      <c r="I698">
+        <v>43.64</v>
+      </c>
+      <c r="J698">
+        <v>2024</v>
+      </c>
+      <c r="K698" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="699" spans="1:11">
+      <c r="A699" t="s">
+        <v>465</v>
+      </c>
+      <c r="B699" t="s">
+        <v>539</v>
+      </c>
+      <c r="C699" t="s">
+        <v>705</v>
+      </c>
+      <c r="D699">
+        <v>231</v>
+      </c>
+      <c r="E699">
+        <v>38</v>
+      </c>
+      <c r="F699">
+        <v>73.17</v>
+      </c>
+      <c r="G699">
+        <v>34.479999999999997</v>
+      </c>
+      <c r="H699">
+        <v>44</v>
+      </c>
+      <c r="I699">
+        <v>29.09</v>
+      </c>
+      <c r="J699">
+        <v>2024</v>
+      </c>
+      <c r="K699" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="700" spans="1:11">
+      <c r="A700" t="s">
+        <v>465</v>
+      </c>
+      <c r="B700" t="s">
+        <v>540</v>
+      </c>
+      <c r="C700" t="s">
+        <v>706</v>
+      </c>
+      <c r="D700">
+        <v>230</v>
+      </c>
+      <c r="E700">
+        <v>36</v>
+      </c>
+      <c r="F700">
+        <v>58.54</v>
+      </c>
+      <c r="G700">
+        <v>48.28</v>
+      </c>
+      <c r="H700">
+        <v>46</v>
+      </c>
+      <c r="I700">
+        <v>29.09</v>
+      </c>
+      <c r="J700">
+        <v>2024</v>
+      </c>
+      <c r="K700" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="701" spans="1:11">
+      <c r="A701" t="s">
+        <v>465</v>
+      </c>
+      <c r="B701" t="s">
+        <v>541</v>
+      </c>
+      <c r="C701" t="s">
+        <v>707</v>
+      </c>
+      <c r="D701">
+        <v>228</v>
+      </c>
+      <c r="E701">
+        <v>34</v>
+      </c>
+      <c r="F701">
+        <v>70.73</v>
+      </c>
+      <c r="G701">
+        <v>41.38</v>
+      </c>
+      <c r="H701">
+        <v>40</v>
+      </c>
+      <c r="I701">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="J701">
+        <v>2024</v>
+      </c>
+      <c r="K701" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="702" spans="1:11">
+      <c r="A702" t="s">
+        <v>465</v>
+      </c>
+      <c r="B702" t="s">
+        <v>542</v>
+      </c>
+      <c r="C702" t="s">
+        <v>708</v>
+      </c>
+      <c r="D702">
+        <v>221</v>
+      </c>
+      <c r="E702">
+        <v>38</v>
+      </c>
+      <c r="F702">
+        <v>41.46</v>
+      </c>
+      <c r="G702">
+        <v>44.83</v>
+      </c>
+      <c r="H702">
+        <v>52</v>
+      </c>
+      <c r="I702">
+        <v>43.64</v>
+      </c>
+      <c r="J702">
+        <v>2024</v>
+      </c>
+      <c r="K702" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="703" spans="1:11">
+      <c r="A703" t="s">
+        <v>465</v>
+      </c>
+      <c r="B703" t="s">
+        <v>543</v>
+      </c>
+      <c r="C703" t="s">
+        <v>709</v>
+      </c>
+      <c r="D703">
+        <v>214</v>
+      </c>
+      <c r="E703">
+        <v>38</v>
+      </c>
+      <c r="F703">
+        <v>43.9</v>
+      </c>
+      <c r="G703">
+        <v>43.1</v>
+      </c>
+      <c r="H703">
+        <v>46</v>
+      </c>
+      <c r="I703">
+        <v>41.82</v>
+      </c>
+      <c r="J703">
+        <v>2024</v>
+      </c>
+      <c r="K703" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="704" spans="1:11">
+      <c r="A704" t="s">
+        <v>465</v>
+      </c>
+      <c r="B704" t="s">
+        <v>544</v>
+      </c>
+      <c r="C704" t="s">
+        <v>710</v>
+      </c>
+      <c r="D704">
+        <v>204</v>
+      </c>
+      <c r="E704">
+        <v>36</v>
+      </c>
+      <c r="F704">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="G704">
+        <v>50</v>
+      </c>
+      <c r="H704">
+        <v>42</v>
+      </c>
+      <c r="I704">
+        <v>29.09</v>
+      </c>
+      <c r="J704">
+        <v>2024</v>
+      </c>
+      <c r="K704" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="705" spans="1:11">
+      <c r="A705" t="s">
+        <v>465</v>
+      </c>
+      <c r="B705" t="s">
+        <v>545</v>
+      </c>
+      <c r="C705" t="s">
+        <v>711</v>
+      </c>
+      <c r="D705">
+        <v>201</v>
+      </c>
+      <c r="E705">
+        <v>44</v>
+      </c>
+      <c r="F705">
+        <v>56.1</v>
+      </c>
+      <c r="G705">
+        <v>37.93</v>
+      </c>
+      <c r="H705">
+        <v>30</v>
+      </c>
+      <c r="I705">
+        <v>18.18</v>
+      </c>
+      <c r="J705">
+        <v>2024</v>
+      </c>
+      <c r="K705" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="706" spans="1:11">
+      <c r="A706" t="s">
+        <v>465</v>
+      </c>
+      <c r="B706" t="s">
+        <v>546</v>
+      </c>
+      <c r="C706" t="s">
+        <v>712</v>
+      </c>
+      <c r="D706">
+        <v>200</v>
+      </c>
+      <c r="E706">
+        <v>40</v>
+      </c>
+      <c r="F706">
+        <v>43.9</v>
+      </c>
+      <c r="G706">
+        <v>44.83</v>
+      </c>
+      <c r="H706">
+        <v>36</v>
+      </c>
+      <c r="I706">
+        <v>25.45</v>
+      </c>
+      <c r="J706">
+        <v>2024</v>
+      </c>
+      <c r="K706" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="707" spans="1:11">
+      <c r="A707" t="s">
+        <v>465</v>
+      </c>
+      <c r="B707" t="s">
+        <v>547</v>
+      </c>
+      <c r="C707" t="s">
+        <v>713</v>
+      </c>
+      <c r="D707">
+        <v>199</v>
+      </c>
+      <c r="E707">
+        <v>36</v>
+      </c>
+      <c r="F707">
+        <v>46.34</v>
+      </c>
+      <c r="G707">
+        <v>48.28</v>
+      </c>
+      <c r="H707">
+        <v>32</v>
+      </c>
+      <c r="I707">
+        <v>27.27</v>
+      </c>
+      <c r="J707">
+        <v>2024</v>
+      </c>
+      <c r="K707" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="708" spans="1:11">
+      <c r="A708" t="s">
+        <v>465</v>
+      </c>
+      <c r="B708" t="s">
+        <v>548</v>
+      </c>
+      <c r="C708" t="s">
+        <v>714</v>
+      </c>
+      <c r="D708">
+        <v>197</v>
+      </c>
+      <c r="E708">
+        <v>48</v>
+      </c>
+      <c r="F708">
+        <v>46.34</v>
+      </c>
+      <c r="G708">
+        <v>34.479999999999997</v>
+      </c>
+      <c r="H708">
+        <v>32</v>
+      </c>
+      <c r="I708">
+        <v>29.09</v>
+      </c>
+      <c r="J708">
+        <v>2024</v>
+      </c>
+      <c r="K708" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="709" spans="1:11">
+      <c r="A709" t="s">
+        <v>465</v>
+      </c>
+      <c r="B709" t="s">
+        <v>549</v>
+      </c>
+      <c r="C709" t="s">
+        <v>715</v>
+      </c>
+      <c r="D709">
+        <v>192</v>
+      </c>
+      <c r="E709">
+        <v>50</v>
+      </c>
+      <c r="F709">
+        <v>29.27</v>
+      </c>
+      <c r="G709">
+        <v>46.55</v>
+      </c>
+      <c r="H709">
+        <v>26</v>
+      </c>
+      <c r="I709">
+        <v>43.64</v>
+      </c>
+      <c r="J709">
+        <v>2024</v>
+      </c>
+      <c r="K709" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="710" spans="1:11">
+      <c r="A710" t="s">
+        <v>465</v>
+      </c>
+      <c r="B710" t="s">
+        <v>550</v>
+      </c>
+      <c r="C710" t="s">
+        <v>716</v>
+      </c>
+      <c r="D710">
+        <v>187</v>
+      </c>
+      <c r="E710">
+        <v>30</v>
+      </c>
+      <c r="F710">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="G710">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="H710">
+        <v>36</v>
+      </c>
+      <c r="I710">
+        <v>50.91</v>
+      </c>
+      <c r="J710">
+        <v>2024</v>
+      </c>
+      <c r="K710" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="711" spans="1:11">
+      <c r="A711" t="s">
+        <v>465</v>
+      </c>
+      <c r="B711" t="s">
+        <v>551</v>
+      </c>
+      <c r="C711" t="s">
+        <v>717</v>
+      </c>
+      <c r="D711">
+        <v>187</v>
+      </c>
+      <c r="E711">
+        <v>40</v>
+      </c>
+      <c r="F711">
+        <v>53.66</v>
+      </c>
+      <c r="G711">
+        <v>31.03</v>
+      </c>
+      <c r="H711">
+        <v>30</v>
+      </c>
+      <c r="I711">
+        <v>21.82</v>
+      </c>
+      <c r="J711">
+        <v>2024</v>
+      </c>
+      <c r="K711" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="712" spans="1:11">
+      <c r="A712" t="s">
+        <v>465</v>
+      </c>
+      <c r="B712" t="s">
+        <v>552</v>
+      </c>
+      <c r="C712" t="s">
+        <v>718</v>
+      </c>
+      <c r="D712">
+        <v>182</v>
+      </c>
+      <c r="E712">
+        <v>36</v>
+      </c>
+      <c r="F712">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G712">
+        <v>36.21</v>
+      </c>
+      <c r="H712">
+        <v>36</v>
+      </c>
+      <c r="I712">
+        <v>36.36</v>
+      </c>
+      <c r="J712">
+        <v>2024</v>
+      </c>
+      <c r="K712" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="713" spans="1:11">
+      <c r="A713" t="s">
+        <v>465</v>
+      </c>
+      <c r="B713" t="s">
+        <v>553</v>
+      </c>
+      <c r="C713" t="s">
+        <v>719</v>
+      </c>
+      <c r="D713">
+        <v>175</v>
+      </c>
+      <c r="E713">
+        <v>24</v>
+      </c>
+      <c r="F713">
+        <v>48.78</v>
+      </c>
+      <c r="G713">
+        <v>36.21</v>
+      </c>
+      <c r="H713">
+        <v>32</v>
+      </c>
+      <c r="I713">
+        <v>30.91</v>
+      </c>
+      <c r="J713">
+        <v>2024</v>
+      </c>
+      <c r="K713" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="714" spans="1:11">
+      <c r="A714" t="s">
+        <v>465</v>
+      </c>
+      <c r="B714" t="s">
+        <v>554</v>
+      </c>
+      <c r="C714" t="s">
+        <v>720</v>
+      </c>
+      <c r="D714">
+        <v>172</v>
+      </c>
+      <c r="E714">
+        <v>24</v>
+      </c>
+      <c r="F714">
+        <v>34.15</v>
+      </c>
+      <c r="G714">
+        <v>44.83</v>
+      </c>
+      <c r="H714">
+        <v>36</v>
+      </c>
+      <c r="I714">
+        <v>29.09</v>
+      </c>
+      <c r="J714">
+        <v>2024</v>
+      </c>
+      <c r="K714" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="715" spans="1:11">
+      <c r="A715" t="s">
+        <v>465</v>
+      </c>
+      <c r="B715" t="s">
+        <v>555</v>
+      </c>
+      <c r="C715" t="s">
+        <v>721</v>
+      </c>
+      <c r="D715">
+        <v>170</v>
+      </c>
+      <c r="E715">
+        <v>30</v>
+      </c>
+      <c r="F715">
+        <v>34.15</v>
+      </c>
+      <c r="G715">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="H715">
+        <v>34</v>
+      </c>
+      <c r="I715">
+        <v>27.27</v>
+      </c>
+      <c r="J715">
+        <v>2024</v>
+      </c>
+      <c r="K715" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="716" spans="1:11">
+      <c r="A716" t="s">
+        <v>465</v>
+      </c>
+      <c r="B716" t="s">
+        <v>556</v>
+      </c>
+      <c r="C716" t="s">
+        <v>722</v>
+      </c>
+      <c r="D716">
+        <v>157</v>
+      </c>
+      <c r="E716">
+        <v>34</v>
+      </c>
+      <c r="F716">
+        <v>24.39</v>
+      </c>
+      <c r="G716">
+        <v>36.21</v>
+      </c>
+      <c r="H716">
+        <v>32</v>
+      </c>
+      <c r="I716">
+        <v>27.27</v>
+      </c>
+      <c r="J716">
+        <v>2024</v>
+      </c>
+      <c r="K716" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="717" spans="1:11">
+      <c r="A717" t="s">
+        <v>465</v>
+      </c>
+      <c r="B717" t="s">
+        <v>557</v>
+      </c>
+      <c r="C717" t="s">
+        <v>723</v>
+      </c>
+      <c r="D717">
+        <v>154</v>
+      </c>
+      <c r="E717">
+        <v>34</v>
+      </c>
+      <c r="F717">
+        <v>29.27</v>
+      </c>
+      <c r="G717">
+        <v>32.76</v>
+      </c>
+      <c r="H717">
+        <v>30</v>
+      </c>
+      <c r="I717">
+        <v>20</v>
+      </c>
+      <c r="J717">
+        <v>2024</v>
+      </c>
+      <c r="K717" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="718" spans="1:11">
+      <c r="A718" t="s">
+        <v>465</v>
+      </c>
+      <c r="B718" t="s">
+        <v>558</v>
+      </c>
+      <c r="C718" t="s">
+        <v>724</v>
+      </c>
+      <c r="D718">
+        <v>154</v>
+      </c>
+      <c r="E718">
+        <v>30</v>
+      </c>
+      <c r="F718">
+        <v>26.83</v>
+      </c>
+      <c r="G718">
+        <v>43.1</v>
+      </c>
+      <c r="H718">
+        <v>22</v>
+      </c>
+      <c r="I718">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="J718">
+        <v>2024</v>
+      </c>
+      <c r="K718" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="719" spans="1:11">
+      <c r="A719" t="s">
+        <v>465</v>
+      </c>
+      <c r="B719" t="s">
+        <v>559</v>
+      </c>
+      <c r="C719" t="s">
+        <v>725</v>
+      </c>
+      <c r="D719">
+        <v>154</v>
+      </c>
+      <c r="E719">
+        <v>28</v>
+      </c>
+      <c r="F719">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="G719">
+        <v>29.31</v>
+      </c>
+      <c r="H719">
+        <v>26</v>
+      </c>
+      <c r="I719">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="J719">
+        <v>2024</v>
+      </c>
+      <c r="K719" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="720" spans="1:11">
+      <c r="A720" t="s">
+        <v>465</v>
+      </c>
+      <c r="B720" t="s">
+        <v>560</v>
+      </c>
+      <c r="C720" t="s">
+        <v>726</v>
+      </c>
+      <c r="D720">
+        <v>139</v>
+      </c>
+      <c r="E720">
+        <v>26</v>
+      </c>
+      <c r="F720">
+        <v>29.27</v>
+      </c>
+      <c r="G720">
+        <v>29.31</v>
+      </c>
+      <c r="H720">
+        <v>30</v>
+      </c>
+      <c r="I720">
+        <v>16.36</v>
+      </c>
+      <c r="J720">
+        <v>2024</v>
+      </c>
+      <c r="K720" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="721" spans="1:11">
+      <c r="A721" t="s">
+        <v>465</v>
+      </c>
+      <c r="B721" t="s">
+        <v>561</v>
+      </c>
+      <c r="C721" t="s">
+        <v>727</v>
+      </c>
+      <c r="D721">
+        <v>130</v>
+      </c>
+      <c r="E721">
+        <v>24</v>
+      </c>
+      <c r="F721">
+        <v>21.95</v>
+      </c>
+      <c r="G721">
+        <v>32.76</v>
+      </c>
+      <c r="H721">
+        <v>24</v>
+      </c>
+      <c r="I721">
+        <v>29.09</v>
+      </c>
+      <c r="J721">
+        <v>2024</v>
+      </c>
+      <c r="K721" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="722" spans="1:11">
+      <c r="A722" t="s">
+        <v>466</v>
+      </c>
+      <c r="B722" t="s">
+        <v>562</v>
+      </c>
+      <c r="C722" t="s">
+        <v>728</v>
+      </c>
+      <c r="D722">
+        <v>343</v>
+      </c>
+      <c r="E722">
+        <v>72</v>
+      </c>
+      <c r="F722">
+        <v>70.73</v>
+      </c>
+      <c r="G722">
+        <v>72.41</v>
+      </c>
+      <c r="H722">
+        <v>64</v>
+      </c>
+      <c r="I722">
+        <v>52.73</v>
+      </c>
+      <c r="J722">
+        <v>2024</v>
+      </c>
+      <c r="K722" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="723" spans="1:11">
+      <c r="A723" t="s">
+        <v>466</v>
+      </c>
+      <c r="B723" t="s">
+        <v>563</v>
+      </c>
+      <c r="C723" t="s">
+        <v>729</v>
+      </c>
+      <c r="D723">
+        <v>338</v>
+      </c>
+      <c r="E723">
+        <v>76</v>
+      </c>
+      <c r="F723">
+        <v>70.73</v>
+      </c>
+      <c r="G723">
+        <v>67.239999999999995</v>
+      </c>
+      <c r="H723">
+        <v>50</v>
+      </c>
+      <c r="I723">
+        <v>85.45</v>
+      </c>
+      <c r="J723">
+        <v>2024</v>
+      </c>
+      <c r="K723" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="724" spans="1:11">
+      <c r="A724" t="s">
+        <v>466</v>
+      </c>
+      <c r="B724" t="s">
+        <v>564</v>
+      </c>
+      <c r="C724" t="s">
+        <v>730</v>
+      </c>
+      <c r="D724">
+        <v>323</v>
+      </c>
+      <c r="E724">
+        <v>44</v>
+      </c>
+      <c r="F724">
+        <v>68.290000000000006</v>
+      </c>
+      <c r="G724">
+        <v>74.14</v>
+      </c>
+      <c r="H724">
+        <v>68</v>
+      </c>
+      <c r="I724">
+        <v>74.55</v>
+      </c>
+      <c r="J724">
+        <v>2024</v>
+      </c>
+      <c r="K724" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="725" spans="1:11">
+      <c r="A725" t="s">
+        <v>466</v>
+      </c>
+      <c r="B725" t="s">
+        <v>565</v>
+      </c>
+      <c r="C725" t="s">
+        <v>731</v>
+      </c>
+      <c r="D725">
+        <v>322</v>
+      </c>
+      <c r="E725">
+        <v>50</v>
+      </c>
+      <c r="F725">
+        <v>68.290000000000006</v>
+      </c>
+      <c r="G725">
+        <v>60.34</v>
+      </c>
+      <c r="H725">
+        <v>74</v>
+      </c>
+      <c r="I725">
+        <v>78.180000000000007</v>
+      </c>
+      <c r="J725">
+        <v>2024</v>
+      </c>
+      <c r="K725" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="726" spans="1:11">
+      <c r="A726" t="s">
+        <v>466</v>
+      </c>
+      <c r="B726" t="s">
+        <v>566</v>
+      </c>
+      <c r="C726" t="s">
+        <v>732</v>
+      </c>
+      <c r="D726">
+        <v>317</v>
+      </c>
+      <c r="E726">
+        <v>56</v>
+      </c>
+      <c r="F726">
+        <v>68.290000000000006</v>
+      </c>
+      <c r="G726">
+        <v>63.79</v>
+      </c>
+      <c r="H726">
+        <v>60</v>
+      </c>
+      <c r="I726">
+        <v>78.180000000000007</v>
+      </c>
+      <c r="J726">
+        <v>2024</v>
+      </c>
+      <c r="K726" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="727" spans="1:11">
+      <c r="A727" t="s">
+        <v>466</v>
+      </c>
+      <c r="B727" t="s">
+        <v>567</v>
+      </c>
+      <c r="C727" t="s">
+        <v>733</v>
+      </c>
+      <c r="D727">
+        <v>294</v>
+      </c>
+      <c r="E727">
+        <v>58</v>
+      </c>
+      <c r="F727">
+        <v>58.54</v>
+      </c>
+      <c r="G727">
+        <v>60.34</v>
+      </c>
+      <c r="H727">
+        <v>62</v>
+      </c>
+      <c r="I727">
+        <v>47.27</v>
+      </c>
+      <c r="J727">
+        <v>2024</v>
+      </c>
+      <c r="K727" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="728" spans="1:11">
+      <c r="A728" t="s">
+        <v>466</v>
+      </c>
+      <c r="B728" t="s">
+        <v>568</v>
+      </c>
+      <c r="C728" t="s">
+        <v>734</v>
+      </c>
+      <c r="D728">
+        <v>290</v>
+      </c>
+      <c r="E728">
+        <v>52</v>
+      </c>
+      <c r="F728">
+        <v>60.98</v>
+      </c>
+      <c r="G728">
+        <v>62.07</v>
+      </c>
+      <c r="H728">
+        <v>58</v>
+      </c>
+      <c r="I728">
+        <v>54.55</v>
+      </c>
+      <c r="J728">
+        <v>2024</v>
+      </c>
+      <c r="K728" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="729" spans="1:11">
+      <c r="A729" t="s">
+        <v>466</v>
+      </c>
+      <c r="B729" t="s">
+        <v>569</v>
+      </c>
+      <c r="C729" t="s">
+        <v>735</v>
+      </c>
+      <c r="D729">
+        <v>284</v>
+      </c>
+      <c r="E729">
+        <v>62</v>
+      </c>
+      <c r="F729">
+        <v>53.66</v>
+      </c>
+      <c r="G729">
+        <v>50</v>
+      </c>
+      <c r="H729">
+        <v>60</v>
+      </c>
+      <c r="I729">
+        <v>60</v>
+      </c>
+      <c r="J729">
+        <v>2024</v>
+      </c>
+      <c r="K729" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="730" spans="1:11">
+      <c r="A730" t="s">
+        <v>466</v>
+      </c>
+      <c r="B730" t="s">
+        <v>570</v>
+      </c>
+      <c r="C730" t="s">
+        <v>736</v>
+      </c>
+      <c r="D730">
+        <v>283</v>
+      </c>
+      <c r="E730">
+        <v>60</v>
+      </c>
+      <c r="F730">
+        <v>56.1</v>
+      </c>
+      <c r="G730">
+        <v>56.9</v>
+      </c>
+      <c r="H730">
+        <v>56</v>
+      </c>
+      <c r="I730">
+        <v>47.27</v>
+      </c>
+      <c r="J730">
+        <v>2024</v>
+      </c>
+      <c r="K730" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="731" spans="1:11">
+      <c r="A731" t="s">
+        <v>466</v>
+      </c>
+      <c r="B731" t="s">
+        <v>571</v>
+      </c>
+      <c r="C731" t="s">
+        <v>737</v>
+      </c>
+      <c r="D731">
+        <v>281</v>
+      </c>
+      <c r="E731">
+        <v>50</v>
+      </c>
+      <c r="F731">
+        <v>51.22</v>
+      </c>
+      <c r="G731">
+        <v>70.69</v>
+      </c>
+      <c r="H731">
+        <v>52</v>
+      </c>
+      <c r="I731">
+        <v>58.18</v>
+      </c>
+      <c r="J731">
+        <v>2024</v>
+      </c>
+      <c r="K731" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="732" spans="1:11">
+      <c r="A732" t="s">
+        <v>466</v>
+      </c>
+      <c r="B732" t="s">
+        <v>572</v>
+      </c>
+      <c r="C732" t="s">
+        <v>738</v>
+      </c>
+      <c r="D732">
+        <v>258</v>
+      </c>
+      <c r="E732">
+        <v>44</v>
+      </c>
+      <c r="F732">
+        <v>56.1</v>
+      </c>
+      <c r="G732">
+        <v>62.07</v>
+      </c>
+      <c r="H732">
+        <v>48</v>
+      </c>
+      <c r="I732">
+        <v>38.18</v>
+      </c>
+      <c r="J732">
+        <v>2024</v>
+      </c>
+      <c r="K732" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="733" spans="1:11">
+      <c r="A733" t="s">
+        <v>466</v>
+      </c>
+      <c r="B733" t="s">
+        <v>573</v>
+      </c>
+      <c r="C733" t="s">
+        <v>739</v>
+      </c>
+      <c r="D733">
+        <v>252</v>
+      </c>
+      <c r="E733">
+        <v>44</v>
+      </c>
+      <c r="F733">
+        <v>48.78</v>
+      </c>
+      <c r="G733">
+        <v>63.79</v>
+      </c>
+      <c r="H733">
+        <v>44</v>
+      </c>
+      <c r="I733">
+        <v>50.91</v>
+      </c>
+      <c r="J733">
+        <v>2024</v>
+      </c>
+      <c r="K733" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="734" spans="1:11">
+      <c r="A734" t="s">
+        <v>466</v>
+      </c>
+      <c r="B734" t="s">
+        <v>574</v>
+      </c>
+      <c r="C734" t="s">
+        <v>740</v>
+      </c>
+      <c r="D734">
+        <v>247</v>
+      </c>
+      <c r="E734">
+        <v>42</v>
+      </c>
+      <c r="F734">
+        <v>53.66</v>
+      </c>
+      <c r="G734">
+        <v>53.45</v>
+      </c>
+      <c r="H734">
+        <v>44</v>
+      </c>
+      <c r="I734">
+        <v>61.82</v>
+      </c>
+      <c r="J734">
+        <v>2024</v>
+      </c>
+      <c r="K734" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="735" spans="1:11">
+      <c r="A735" t="s">
+        <v>466</v>
+      </c>
+      <c r="B735" t="s">
+        <v>575</v>
+      </c>
+      <c r="C735" t="s">
+        <v>741</v>
+      </c>
+      <c r="D735">
+        <v>246</v>
+      </c>
+      <c r="E735">
+        <v>44</v>
+      </c>
+      <c r="F735">
+        <v>56.1</v>
+      </c>
+      <c r="G735">
+        <v>44.83</v>
+      </c>
+      <c r="H735">
+        <v>58</v>
+      </c>
+      <c r="I735">
+        <v>29.09</v>
+      </c>
+      <c r="J735">
+        <v>2024</v>
+      </c>
+      <c r="K735" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="736" spans="1:11">
+      <c r="A736" t="s">
+        <v>466</v>
+      </c>
+      <c r="B736" t="s">
+        <v>576</v>
+      </c>
+      <c r="C736" t="s">
+        <v>742</v>
+      </c>
+      <c r="D736">
+        <v>244</v>
+      </c>
+      <c r="E736">
+        <v>56</v>
+      </c>
+      <c r="F736">
+        <v>56.1</v>
+      </c>
+      <c r="G736">
+        <v>44.83</v>
+      </c>
+      <c r="H736">
+        <v>44</v>
+      </c>
+      <c r="I736">
+        <v>30.91</v>
+      </c>
+      <c r="J736">
+        <v>2024</v>
+      </c>
+      <c r="K736" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="737" spans="1:11">
+      <c r="A737" t="s">
+        <v>466</v>
+      </c>
+      <c r="B737" t="s">
+        <v>577</v>
+      </c>
+      <c r="C737" t="s">
+        <v>743</v>
+      </c>
+      <c r="D737">
+        <v>238</v>
+      </c>
+      <c r="E737">
+        <v>52</v>
+      </c>
+      <c r="F737">
+        <v>41.46</v>
+      </c>
+      <c r="G737">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="H737">
+        <v>64</v>
+      </c>
+      <c r="I737">
+        <v>25.45</v>
+      </c>
+      <c r="J737">
+        <v>2024</v>
+      </c>
+      <c r="K737" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="738" spans="1:11">
+      <c r="A738" t="s">
+        <v>466</v>
+      </c>
+      <c r="B738" t="s">
+        <v>578</v>
+      </c>
+      <c r="C738" t="s">
+        <v>744</v>
+      </c>
+      <c r="D738">
+        <v>229</v>
+      </c>
+      <c r="E738">
+        <v>38</v>
+      </c>
+      <c r="F738">
+        <v>68.290000000000006</v>
+      </c>
+      <c r="G738">
+        <v>31.03</v>
+      </c>
+      <c r="H738">
+        <v>50</v>
+      </c>
+      <c r="I738">
+        <v>30.91</v>
+      </c>
+      <c r="J738">
+        <v>2024</v>
+      </c>
+      <c r="K738" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="739" spans="1:11">
+      <c r="A739" t="s">
+        <v>466</v>
+      </c>
+      <c r="B739" t="s">
+        <v>579</v>
+      </c>
+      <c r="C739" t="s">
+        <v>745</v>
+      </c>
+      <c r="D739">
+        <v>221</v>
+      </c>
+      <c r="E739">
+        <v>42</v>
+      </c>
+      <c r="F739">
+        <v>51.22</v>
+      </c>
+      <c r="G739">
+        <v>48.28</v>
+      </c>
+      <c r="H739">
+        <v>34</v>
+      </c>
+      <c r="I739">
+        <v>47.27</v>
+      </c>
+      <c r="J739">
+        <v>2024</v>
+      </c>
+      <c r="K739" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="740" spans="1:11">
+      <c r="A740" t="s">
+        <v>466</v>
+      </c>
+      <c r="B740" t="s">
+        <v>580</v>
+      </c>
+      <c r="C740" t="s">
+        <v>746</v>
+      </c>
+      <c r="D740">
+        <v>221</v>
+      </c>
+      <c r="E740">
+        <v>42</v>
+      </c>
+      <c r="F740">
+        <v>53.66</v>
+      </c>
+      <c r="G740">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="H740">
+        <v>48</v>
+      </c>
+      <c r="I740">
+        <v>23.64</v>
+      </c>
+      <c r="J740">
+        <v>2024</v>
+      </c>
+      <c r="K740" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="741" spans="1:11">
+      <c r="A741" t="s">
+        <v>466</v>
+      </c>
+      <c r="B741" t="s">
+        <v>581</v>
+      </c>
+      <c r="C741" t="s">
+        <v>747</v>
+      </c>
+      <c r="D741">
+        <v>210</v>
+      </c>
+      <c r="E741">
+        <v>44</v>
+      </c>
+      <c r="F741">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="G741">
+        <v>37.93</v>
+      </c>
+      <c r="H741">
+        <v>52</v>
+      </c>
+      <c r="I741">
+        <v>25.45</v>
+      </c>
+      <c r="J741">
+        <v>2024</v>
+      </c>
+      <c r="K741" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="742" spans="1:11">
+      <c r="A742" t="s">
+        <v>466</v>
+      </c>
+      <c r="B742" t="s">
+        <v>582</v>
+      </c>
+      <c r="C742" t="s">
+        <v>748</v>
+      </c>
+      <c r="D742">
+        <v>206</v>
+      </c>
+      <c r="E742">
+        <v>46</v>
+      </c>
+      <c r="F742">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G742">
+        <v>37.93</v>
+      </c>
+      <c r="H742">
+        <v>48</v>
+      </c>
+      <c r="I742">
+        <v>29.09</v>
+      </c>
+      <c r="J742">
+        <v>2024</v>
+      </c>
+      <c r="K742" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="743" spans="1:11">
+      <c r="A743" t="s">
+        <v>466</v>
+      </c>
+      <c r="B743" t="s">
+        <v>583</v>
+      </c>
+      <c r="C743" t="s">
+        <v>749</v>
+      </c>
+      <c r="D743">
+        <v>203</v>
+      </c>
+      <c r="E743">
+        <v>44</v>
+      </c>
+      <c r="F743">
+        <v>51.22</v>
+      </c>
+      <c r="G743">
+        <v>36.21</v>
+      </c>
+      <c r="H743">
+        <v>36</v>
+      </c>
+      <c r="I743">
+        <v>23.64</v>
+      </c>
+      <c r="J743">
+        <v>2024</v>
+      </c>
+      <c r="K743" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="744" spans="1:11">
+      <c r="A744" t="s">
+        <v>466</v>
+      </c>
+      <c r="B744" t="s">
+        <v>584</v>
+      </c>
+      <c r="C744" t="s">
+        <v>750</v>
+      </c>
+      <c r="D744">
+        <v>200</v>
+      </c>
+      <c r="E744">
+        <v>40</v>
+      </c>
+      <c r="F744">
+        <v>43.9</v>
+      </c>
+      <c r="G744">
+        <v>36.21</v>
+      </c>
+      <c r="H744">
+        <v>40</v>
+      </c>
+      <c r="I744">
+        <v>38.18</v>
+      </c>
+      <c r="J744">
+        <v>2024</v>
+      </c>
+      <c r="K744" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="745" spans="1:11">
+      <c r="A745" t="s">
+        <v>466</v>
+      </c>
+      <c r="B745" t="s">
+        <v>585</v>
+      </c>
+      <c r="C745" t="s">
+        <v>751</v>
+      </c>
+      <c r="D745">
+        <v>196</v>
+      </c>
+      <c r="E745">
+        <v>34</v>
+      </c>
+      <c r="F745">
+        <v>34.15</v>
+      </c>
+      <c r="G745">
+        <v>53.45</v>
+      </c>
+      <c r="H745">
+        <v>42</v>
+      </c>
+      <c r="I745">
+        <v>18.18</v>
+      </c>
+      <c r="J745">
+        <v>2024</v>
+      </c>
+      <c r="K745" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="746" spans="1:11">
+      <c r="A746" t="s">
+        <v>466</v>
+      </c>
+      <c r="B746" t="s">
+        <v>586</v>
+      </c>
+      <c r="C746" t="s">
+        <v>752</v>
+      </c>
+      <c r="D746">
+        <v>196</v>
+      </c>
+      <c r="E746">
+        <v>54</v>
+      </c>
+      <c r="F746">
+        <v>51.22</v>
+      </c>
+      <c r="G746">
+        <v>37.93</v>
+      </c>
+      <c r="H746">
+        <v>18</v>
+      </c>
+      <c r="I746">
+        <v>23.64</v>
+      </c>
+      <c r="J746">
+        <v>2024</v>
+      </c>
+      <c r="K746" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="747" spans="1:11">
+      <c r="A747" t="s">
+        <v>466</v>
+      </c>
+      <c r="B747" t="s">
+        <v>587</v>
+      </c>
+      <c r="C747" t="s">
+        <v>753</v>
+      </c>
+      <c r="D747">
+        <v>194</v>
+      </c>
+      <c r="E747">
+        <v>26</v>
+      </c>
+      <c r="F747">
+        <v>51.22</v>
+      </c>
+      <c r="G747">
+        <v>36.21</v>
+      </c>
+      <c r="H747">
+        <v>46</v>
+      </c>
+      <c r="I747">
+        <v>25.45</v>
+      </c>
+      <c r="J747">
+        <v>2024</v>
+      </c>
+      <c r="K747" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="748" spans="1:11">
+      <c r="A748" t="s">
+        <v>466</v>
+      </c>
+      <c r="B748" t="s">
+        <v>588</v>
+      </c>
+      <c r="C748" t="s">
+        <v>754</v>
+      </c>
+      <c r="D748">
+        <v>190</v>
+      </c>
+      <c r="E748">
+        <v>40</v>
+      </c>
+      <c r="F748">
+        <v>46.34</v>
+      </c>
+      <c r="G748">
+        <v>29.31</v>
+      </c>
+      <c r="H748">
+        <v>40</v>
+      </c>
+      <c r="I748">
+        <v>25.45</v>
+      </c>
+      <c r="J748">
+        <v>2024</v>
+      </c>
+      <c r="K748" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="749" spans="1:11">
+      <c r="A749" t="s">
+        <v>466</v>
+      </c>
+      <c r="B749" t="s">
+        <v>589</v>
+      </c>
+      <c r="C749" t="s">
+        <v>755</v>
+      </c>
+      <c r="D749">
+        <v>187</v>
+      </c>
+      <c r="E749">
+        <v>36</v>
+      </c>
+      <c r="F749">
+        <v>31.71</v>
+      </c>
+      <c r="G749">
+        <v>43.1</v>
+      </c>
+      <c r="H749">
+        <v>30</v>
+      </c>
+      <c r="I749">
+        <v>61.82</v>
+      </c>
+      <c r="J749">
+        <v>2024</v>
+      </c>
+      <c r="K749" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="750" spans="1:11">
+      <c r="A750" t="s">
+        <v>466</v>
+      </c>
+      <c r="B750" t="s">
+        <v>590</v>
+      </c>
+      <c r="C750" t="s">
+        <v>756</v>
+      </c>
+      <c r="D750">
+        <v>187</v>
+      </c>
+      <c r="E750">
+        <v>30</v>
+      </c>
+      <c r="F750">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="G750">
+        <v>36.21</v>
+      </c>
+      <c r="H750">
+        <v>44</v>
+      </c>
+      <c r="I750">
+        <v>36.36</v>
+      </c>
+      <c r="J750">
+        <v>2024</v>
+      </c>
+      <c r="K750" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="751" spans="1:11">
+      <c r="A751" t="s">
+        <v>466</v>
+      </c>
+      <c r="B751" t="s">
+        <v>591</v>
+      </c>
+      <c r="C751" t="s">
+        <v>757</v>
+      </c>
+      <c r="D751">
+        <v>173</v>
+      </c>
+      <c r="E751">
+        <v>30</v>
+      </c>
+      <c r="F751">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="G751">
+        <v>27.59</v>
+      </c>
+      <c r="H751">
+        <v>42</v>
+      </c>
+      <c r="I751">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="J751">
+        <v>2024</v>
+      </c>
+      <c r="K751" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="752" spans="1:11">
+      <c r="A752" t="s">
+        <v>466</v>
+      </c>
+      <c r="B752" t="s">
+        <v>592</v>
+      </c>
+      <c r="C752" t="s">
+        <v>758</v>
+      </c>
+      <c r="D752">
+        <v>169</v>
+      </c>
+      <c r="E752">
+        <v>34</v>
+      </c>
+      <c r="F752">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G752">
+        <v>31.03</v>
+      </c>
+      <c r="H752">
+        <v>34</v>
+      </c>
+      <c r="I752">
+        <v>30.91</v>
+      </c>
+      <c r="J752">
+        <v>2024</v>
+      </c>
+      <c r="K752" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="753" spans="1:11">
+      <c r="A753" t="s">
+        <v>466</v>
+      </c>
+      <c r="B753" t="s">
+        <v>593</v>
+      </c>
+      <c r="C753" t="s">
+        <v>759</v>
+      </c>
+      <c r="D753">
+        <v>166</v>
+      </c>
+      <c r="E753">
+        <v>24</v>
+      </c>
+      <c r="F753">
+        <v>46.34</v>
+      </c>
+      <c r="G753">
+        <v>27.59</v>
+      </c>
+      <c r="H753">
+        <v>36</v>
+      </c>
+      <c r="I753">
+        <v>29.09</v>
+      </c>
+      <c r="J753">
+        <v>2024</v>
+      </c>
+      <c r="K753" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="754" spans="1:11">
+      <c r="A754" t="s">
+        <v>466</v>
+      </c>
+      <c r="B754" t="s">
+        <v>594</v>
+      </c>
+      <c r="C754" t="s">
+        <v>760</v>
+      </c>
+      <c r="D754">
+        <v>148</v>
+      </c>
+      <c r="E754">
+        <v>12</v>
+      </c>
+      <c r="F754">
+        <v>29.27</v>
+      </c>
+      <c r="G754">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="H754">
+        <v>40</v>
+      </c>
+      <c r="I754">
+        <v>21.82</v>
+      </c>
+      <c r="J754">
+        <v>2024</v>
+      </c>
+      <c r="K754" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="755" spans="1:11">
+      <c r="A755" t="s">
+        <v>466</v>
+      </c>
+      <c r="B755" t="s">
+        <v>595</v>
+      </c>
+      <c r="C755" t="s">
+        <v>761</v>
+      </c>
+      <c r="D755">
+        <v>144</v>
+      </c>
+      <c r="E755">
+        <v>38</v>
+      </c>
+      <c r="F755">
+        <v>21.95</v>
+      </c>
+      <c r="G755">
+        <v>37.93</v>
+      </c>
+      <c r="H755">
+        <v>20</v>
+      </c>
+      <c r="I755">
+        <v>20</v>
+      </c>
+      <c r="J755">
+        <v>2024</v>
+      </c>
+      <c r="K755" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="756" spans="1:11">
+      <c r="A756" t="s">
+        <v>466</v>
+      </c>
+      <c r="B756" t="s">
+        <v>596</v>
+      </c>
+      <c r="C756" t="s">
+        <v>762</v>
+      </c>
+      <c r="D756">
+        <v>137</v>
+      </c>
+      <c r="E756">
+        <v>26</v>
+      </c>
+      <c r="F756">
+        <v>31.71</v>
+      </c>
+      <c r="G756">
+        <v>27.59</v>
+      </c>
+      <c r="H756">
+        <v>24</v>
+      </c>
+      <c r="I756">
+        <v>27.27</v>
+      </c>
+      <c r="J756">
+        <v>2024</v>
+      </c>
+      <c r="K756" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="757" spans="1:11">
+      <c r="A757" t="s">
+        <v>466</v>
+      </c>
+      <c r="B757" t="s">
+        <v>597</v>
+      </c>
+      <c r="C757" t="s">
+        <v>763</v>
+      </c>
+      <c r="D757">
+        <v>131</v>
+      </c>
+      <c r="E757">
+        <v>30</v>
+      </c>
+      <c r="F757">
+        <v>29.27</v>
+      </c>
+      <c r="G757">
+        <v>18.97</v>
+      </c>
+      <c r="H757">
+        <v>28</v>
+      </c>
+      <c r="I757">
+        <v>20</v>
+      </c>
+      <c r="J757">
+        <v>2024</v>
+      </c>
+      <c r="K757" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="758" spans="1:11">
+      <c r="A758" t="s">
+        <v>467</v>
+      </c>
+      <c r="B758" t="s">
+        <v>598</v>
+      </c>
+      <c r="C758" t="s">
+        <v>764</v>
+      </c>
+      <c r="D758">
+        <v>351</v>
+      </c>
+      <c r="E758">
+        <v>72</v>
+      </c>
+      <c r="F758">
+        <v>73.17</v>
+      </c>
+      <c r="G758">
+        <v>65.52</v>
+      </c>
+      <c r="H758">
+        <v>74</v>
+      </c>
+      <c r="I758">
+        <v>56.36</v>
+      </c>
+      <c r="J758">
+        <v>2024</v>
+      </c>
+      <c r="K758" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="759" spans="1:11">
+      <c r="A759" t="s">
+        <v>467</v>
+      </c>
+      <c r="B759" t="s">
+        <v>599</v>
+      </c>
+      <c r="C759" t="s">
+        <v>765</v>
+      </c>
+      <c r="D759">
+        <v>282</v>
+      </c>
+      <c r="E759">
+        <v>52</v>
+      </c>
+      <c r="F759">
+        <v>56.1</v>
+      </c>
+      <c r="G759">
+        <v>70.69</v>
+      </c>
+      <c r="H759">
+        <v>54</v>
+      </c>
+      <c r="I759">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="J759">
+        <v>2024</v>
+      </c>
+      <c r="K759" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="760" spans="1:11">
+      <c r="A760" t="s">
+        <v>467</v>
+      </c>
+      <c r="B760" t="s">
+        <v>600</v>
+      </c>
+      <c r="C760" t="s">
+        <v>766</v>
+      </c>
+      <c r="D760">
+        <v>273</v>
+      </c>
+      <c r="E760">
+        <v>50</v>
+      </c>
+      <c r="F760">
+        <v>58.54</v>
+      </c>
+      <c r="G760">
+        <v>68.97</v>
+      </c>
+      <c r="H760">
+        <v>48</v>
+      </c>
+      <c r="I760">
+        <v>30.91</v>
+      </c>
+      <c r="J760">
+        <v>2024</v>
+      </c>
+      <c r="K760" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="761" spans="1:11">
+      <c r="A761" t="s">
+        <v>467</v>
+      </c>
+      <c r="B761" t="s">
+        <v>601</v>
+      </c>
+      <c r="C761" t="s">
+        <v>767</v>
+      </c>
+      <c r="D761">
+        <v>258</v>
+      </c>
+      <c r="E761">
+        <v>50</v>
+      </c>
+      <c r="F761">
+        <v>46.34</v>
+      </c>
+      <c r="G761">
+        <v>62.07</v>
+      </c>
+      <c r="H761">
+        <v>54</v>
+      </c>
+      <c r="I761">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="J761">
+        <v>2024</v>
+      </c>
+      <c r="K761" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="762" spans="1:11">
+      <c r="A762" t="s">
+        <v>467</v>
+      </c>
+      <c r="B762" t="s">
+        <v>602</v>
+      </c>
+      <c r="C762" t="s">
+        <v>768</v>
+      </c>
+      <c r="D762">
+        <v>253</v>
+      </c>
+      <c r="E762">
+        <v>46</v>
+      </c>
+      <c r="F762">
+        <v>70.73</v>
+      </c>
+      <c r="G762">
+        <v>51.72</v>
+      </c>
+      <c r="H762">
+        <v>32</v>
+      </c>
+      <c r="I762">
+        <v>56.36</v>
+      </c>
+      <c r="J762">
+        <v>2024</v>
+      </c>
+      <c r="K762" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="763" spans="1:11">
+      <c r="A763" t="s">
+        <v>467</v>
+      </c>
+      <c r="B763" t="s">
+        <v>603</v>
+      </c>
+      <c r="C763" t="s">
+        <v>769</v>
+      </c>
+      <c r="D763">
+        <v>248</v>
+      </c>
+      <c r="E763">
+        <v>56</v>
+      </c>
+      <c r="F763">
+        <v>48.78</v>
+      </c>
+      <c r="G763">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="H763">
+        <v>52</v>
+      </c>
+      <c r="I763">
+        <v>54.55</v>
+      </c>
+      <c r="J763">
+        <v>2024</v>
+      </c>
+      <c r="K763" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="764" spans="1:11">
+      <c r="A764" t="s">
+        <v>467</v>
+      </c>
+      <c r="B764" t="s">
+        <v>604</v>
+      </c>
+      <c r="C764" t="s">
+        <v>770</v>
+      </c>
+      <c r="D764">
+        <v>244</v>
+      </c>
+      <c r="E764">
+        <v>40</v>
+      </c>
+      <c r="F764">
+        <v>48.78</v>
+      </c>
+      <c r="G764">
+        <v>70.69</v>
+      </c>
+      <c r="H764">
+        <v>40</v>
+      </c>
+      <c r="I764">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="J764">
+        <v>2024</v>
+      </c>
+      <c r="K764" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="765" spans="1:11">
+      <c r="A765" t="s">
+        <v>467</v>
+      </c>
+      <c r="B765" t="s">
+        <v>605</v>
+      </c>
+      <c r="C765" t="s">
+        <v>771</v>
+      </c>
+      <c r="D765">
+        <v>241</v>
+      </c>
+      <c r="E765">
+        <v>40</v>
+      </c>
+      <c r="F765">
+        <v>51.22</v>
+      </c>
+      <c r="G765">
+        <v>53.45</v>
+      </c>
+      <c r="H765">
+        <v>52</v>
+      </c>
+      <c r="I765">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="J765">
+        <v>2024</v>
+      </c>
+      <c r="K765" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="766" spans="1:11">
+      <c r="A766" t="s">
+        <v>467</v>
+      </c>
+      <c r="B766" t="s">
+        <v>606</v>
+      </c>
+      <c r="C766" t="s">
+        <v>772</v>
+      </c>
+      <c r="D766">
+        <v>229</v>
+      </c>
+      <c r="E766">
+        <v>36</v>
+      </c>
+      <c r="F766">
+        <v>43.9</v>
+      </c>
+      <c r="G766">
+        <v>53.45</v>
+      </c>
+      <c r="H766">
+        <v>54</v>
+      </c>
+      <c r="I766">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="J766">
+        <v>2024</v>
+      </c>
+      <c r="K766" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="767" spans="1:11">
+      <c r="A767" t="s">
+        <v>467</v>
+      </c>
+      <c r="B767" t="s">
+        <v>607</v>
+      </c>
+      <c r="C767" t="s">
+        <v>773</v>
+      </c>
+      <c r="D767">
+        <v>223</v>
+      </c>
+      <c r="E767">
+        <v>34</v>
+      </c>
+      <c r="F767">
+        <v>53.66</v>
+      </c>
+      <c r="G767">
+        <v>37.93</v>
+      </c>
+      <c r="H767">
+        <v>58</v>
+      </c>
+      <c r="I767">
+        <v>27.27</v>
+      </c>
+      <c r="J767">
+        <v>2024</v>
+      </c>
+      <c r="K767" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="768" spans="1:11">
+      <c r="A768" t="s">
+        <v>467</v>
+      </c>
+      <c r="B768" t="s">
+        <v>608</v>
+      </c>
+      <c r="C768" t="s">
+        <v>774</v>
+      </c>
+      <c r="D768">
+        <v>221</v>
+      </c>
+      <c r="E768">
+        <v>40</v>
+      </c>
+      <c r="F768">
+        <v>43.9</v>
+      </c>
+      <c r="G768">
+        <v>41.38</v>
+      </c>
+      <c r="H768">
+        <v>48</v>
+      </c>
+      <c r="I768">
+        <v>52.73</v>
+      </c>
+      <c r="J768">
+        <v>2024</v>
+      </c>
+      <c r="K768" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="769" spans="1:11">
+      <c r="A769" t="s">
+        <v>467</v>
+      </c>
+      <c r="B769" t="s">
+        <v>609</v>
+      </c>
+      <c r="C769" t="s">
+        <v>775</v>
+      </c>
+      <c r="D769">
+        <v>216</v>
+      </c>
+      <c r="E769">
+        <v>44</v>
+      </c>
+      <c r="F769">
+        <v>53.66</v>
+      </c>
+      <c r="G769">
+        <v>50</v>
+      </c>
+      <c r="H769">
+        <v>32</v>
+      </c>
+      <c r="I769">
+        <v>21.82</v>
+      </c>
+      <c r="J769">
+        <v>2024</v>
+      </c>
+      <c r="K769" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="770" spans="1:11">
+      <c r="A770" t="s">
+        <v>467</v>
+      </c>
+      <c r="B770" t="s">
+        <v>610</v>
+      </c>
+      <c r="C770" t="s">
+        <v>776</v>
+      </c>
+      <c r="D770">
+        <v>211</v>
+      </c>
+      <c r="E770">
+        <v>40</v>
+      </c>
+      <c r="F770">
+        <v>48.78</v>
+      </c>
+      <c r="G770">
+        <v>48.28</v>
+      </c>
+      <c r="H770">
+        <v>34</v>
+      </c>
+      <c r="I770">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="J770">
+        <v>2024</v>
+      </c>
+      <c r="K770" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="771" spans="1:11">
+      <c r="A771" t="s">
+        <v>467</v>
+      </c>
+      <c r="B771" t="s">
+        <v>611</v>
+      </c>
+      <c r="C771" t="s">
+        <v>777</v>
+      </c>
+      <c r="D771">
+        <v>210</v>
+      </c>
+      <c r="E771">
+        <v>38</v>
+      </c>
+      <c r="F771">
+        <v>46.34</v>
+      </c>
+      <c r="G771">
+        <v>48.28</v>
+      </c>
+      <c r="H771">
+        <v>38</v>
+      </c>
+      <c r="I771">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="J771">
+        <v>2024</v>
+      </c>
+      <c r="K771" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="772" spans="1:11">
+      <c r="A772" t="s">
+        <v>467</v>
+      </c>
+      <c r="B772" t="s">
+        <v>612</v>
+      </c>
+      <c r="C772" t="s">
+        <v>778</v>
+      </c>
+      <c r="D772">
+        <v>209</v>
+      </c>
+      <c r="E772">
+        <v>32</v>
+      </c>
+      <c r="F772">
+        <v>46.34</v>
+      </c>
+      <c r="G772">
+        <v>46.55</v>
+      </c>
+      <c r="H772">
+        <v>44</v>
+      </c>
+      <c r="I772">
+        <v>36.36</v>
+      </c>
+      <c r="J772">
+        <v>2024</v>
+      </c>
+      <c r="K772" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="773" spans="1:11">
+      <c r="A773" t="s">
+        <v>467</v>
+      </c>
+      <c r="B773" t="s">
+        <v>613</v>
+      </c>
+      <c r="C773" t="s">
+        <v>779</v>
+      </c>
+      <c r="D773">
+        <v>201</v>
+      </c>
+      <c r="E773">
+        <v>34</v>
+      </c>
+      <c r="F773">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G773">
+        <v>46.55</v>
+      </c>
+      <c r="H773">
+        <v>46</v>
+      </c>
+      <c r="I773">
+        <v>32.729999999999997</v>
+      </c>
+      <c r="J773">
+        <v>2024</v>
+      </c>
+      <c r="K773" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="774" spans="1:11">
+      <c r="A774" t="s">
+        <v>467</v>
+      </c>
+      <c r="B774" t="s">
+        <v>614</v>
+      </c>
+      <c r="C774" t="s">
+        <v>780</v>
+      </c>
+      <c r="D774">
+        <v>200</v>
+      </c>
+      <c r="E774">
+        <v>34</v>
+      </c>
+      <c r="F774">
+        <v>41.46</v>
+      </c>
+      <c r="G774">
+        <v>37.93</v>
+      </c>
+      <c r="H774">
+        <v>44</v>
+      </c>
+      <c r="I774">
+        <v>47.27</v>
+      </c>
+      <c r="J774">
+        <v>2024</v>
+      </c>
+      <c r="K774" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="775" spans="1:11">
+      <c r="A775" t="s">
+        <v>467</v>
+      </c>
+      <c r="B775" t="s">
+        <v>615</v>
+      </c>
+      <c r="C775" t="s">
+        <v>781</v>
+      </c>
+      <c r="D775">
+        <v>198</v>
+      </c>
+      <c r="E775">
+        <v>34</v>
+      </c>
+      <c r="F775">
+        <v>41.46</v>
+      </c>
+      <c r="G775">
+        <v>36.21</v>
+      </c>
+      <c r="H775">
+        <v>42</v>
+      </c>
+      <c r="I775">
+        <v>52.73</v>
+      </c>
+      <c r="J775">
+        <v>2024</v>
+      </c>
+      <c r="K775" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="776" spans="1:11">
+      <c r="A776" t="s">
+        <v>467</v>
+      </c>
+      <c r="B776" t="s">
+        <v>616</v>
+      </c>
+      <c r="C776" t="s">
+        <v>782</v>
+      </c>
+      <c r="D776">
+        <v>190</v>
+      </c>
+      <c r="E776">
+        <v>42</v>
+      </c>
+      <c r="F776">
+        <v>48.78</v>
+      </c>
+      <c r="G776">
+        <v>27.59</v>
+      </c>
+      <c r="H776">
+        <v>36</v>
+      </c>
+      <c r="I776">
+        <v>29.09</v>
+      </c>
+      <c r="J776">
+        <v>2024</v>
+      </c>
+      <c r="K776" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="777" spans="1:11">
+      <c r="A777" t="s">
+        <v>467</v>
+      </c>
+      <c r="B777" t="s">
+        <v>617</v>
+      </c>
+      <c r="C777" t="s">
+        <v>783</v>
+      </c>
+      <c r="D777">
+        <v>190</v>
+      </c>
+      <c r="E777">
+        <v>30</v>
+      </c>
+      <c r="F777">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G777">
+        <v>37.93</v>
+      </c>
+      <c r="H777">
+        <v>44</v>
+      </c>
+      <c r="I777">
+        <v>47.27</v>
+      </c>
+      <c r="J777">
+        <v>2024</v>
+      </c>
+      <c r="K777" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="778" spans="1:11">
+      <c r="A778" t="s">
+        <v>467</v>
+      </c>
+      <c r="B778" t="s">
+        <v>618</v>
+      </c>
+      <c r="C778" t="s">
+        <v>784</v>
+      </c>
+      <c r="D778">
+        <v>186</v>
+      </c>
+      <c r="E778">
+        <v>26</v>
+      </c>
+      <c r="F778">
+        <v>29.27</v>
+      </c>
+      <c r="G778">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="H778">
+        <v>48</v>
+      </c>
+      <c r="I778">
+        <v>52.73</v>
+      </c>
+      <c r="J778">
+        <v>2024</v>
+      </c>
+      <c r="K778" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="779" spans="1:11">
+      <c r="A779" t="s">
+        <v>467</v>
+      </c>
+      <c r="B779" t="s">
+        <v>619</v>
+      </c>
+      <c r="C779" t="s">
+        <v>785</v>
+      </c>
+      <c r="D779">
+        <v>184</v>
+      </c>
+      <c r="E779">
+        <v>34</v>
+      </c>
+      <c r="F779">
+        <v>46.34</v>
+      </c>
+      <c r="G779">
+        <v>32.76</v>
+      </c>
+      <c r="H779">
+        <v>38</v>
+      </c>
+      <c r="I779">
+        <v>23.64</v>
+      </c>
+      <c r="J779">
+        <v>2024</v>
+      </c>
+      <c r="K779" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="780" spans="1:11">
+      <c r="A780" t="s">
+        <v>467</v>
+      </c>
+      <c r="B780" t="s">
+        <v>620</v>
+      </c>
+      <c r="C780" t="s">
+        <v>786</v>
+      </c>
+      <c r="D780">
+        <v>179</v>
+      </c>
+      <c r="E780">
+        <v>40</v>
+      </c>
+      <c r="F780">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="G780">
+        <v>36.21</v>
+      </c>
+      <c r="H780">
+        <v>30</v>
+      </c>
+      <c r="I780">
+        <v>27.27</v>
+      </c>
+      <c r="J780">
+        <v>2024</v>
+      </c>
+      <c r="K780" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="781" spans="1:11">
+      <c r="A781" t="s">
+        <v>467</v>
+      </c>
+      <c r="B781" t="s">
+        <v>621</v>
+      </c>
+      <c r="C781" t="s">
+        <v>787</v>
+      </c>
+      <c r="D781">
+        <v>173</v>
+      </c>
+      <c r="E781">
+        <v>34</v>
+      </c>
+      <c r="F781">
+        <v>41.46</v>
+      </c>
+      <c r="G781">
+        <v>25.86</v>
+      </c>
+      <c r="H781">
+        <v>38</v>
+      </c>
+      <c r="I781">
+        <v>30.91</v>
+      </c>
+      <c r="J781">
+        <v>2024</v>
+      </c>
+      <c r="K781" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="782" spans="1:11">
+      <c r="A782" t="s">
+        <v>467</v>
+      </c>
+      <c r="B782" t="s">
+        <v>622</v>
+      </c>
+      <c r="C782" t="s">
+        <v>788</v>
+      </c>
+      <c r="D782">
+        <v>168</v>
+      </c>
+      <c r="E782">
+        <v>46</v>
+      </c>
+      <c r="F782">
+        <v>29.27</v>
+      </c>
+      <c r="G782">
+        <v>32.76</v>
+      </c>
+      <c r="H782">
+        <v>20</v>
+      </c>
+      <c r="I782">
+        <v>50.91</v>
+      </c>
+      <c r="J782">
+        <v>2024</v>
+      </c>
+      <c r="K782" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="783" spans="1:11">
+      <c r="A783" t="s">
+        <v>467</v>
+      </c>
+      <c r="B783" t="s">
+        <v>623</v>
+      </c>
+      <c r="C783" t="s">
+        <v>789</v>
+      </c>
+      <c r="D783">
+        <v>168</v>
+      </c>
+      <c r="E783">
+        <v>36</v>
+      </c>
+      <c r="F783">
+        <v>43.9</v>
+      </c>
+      <c r="G783">
+        <v>27.59</v>
+      </c>
+      <c r="H783">
+        <v>22</v>
+      </c>
+      <c r="I783">
+        <v>47.27</v>
+      </c>
+      <c r="J783">
+        <v>2024</v>
+      </c>
+      <c r="K783" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="784" spans="1:11">
+      <c r="A784" t="s">
+        <v>467</v>
+      </c>
+      <c r="B784" t="s">
+        <v>624</v>
+      </c>
+      <c r="C784" t="s">
+        <v>790</v>
+      </c>
+      <c r="D784">
+        <v>168</v>
+      </c>
+      <c r="E784">
+        <v>34</v>
+      </c>
+      <c r="F784">
+        <v>34.15</v>
+      </c>
+      <c r="G784">
+        <v>37.93</v>
+      </c>
+      <c r="H784">
+        <v>30</v>
+      </c>
+      <c r="I784">
+        <v>27.27</v>
+      </c>
+      <c r="J784">
+        <v>2024</v>
+      </c>
+      <c r="K784" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="785" spans="1:11">
+      <c r="A785" t="s">
+        <v>467</v>
+      </c>
+      <c r="B785" t="s">
+        <v>625</v>
+      </c>
+      <c r="C785" t="s">
+        <v>791</v>
+      </c>
+      <c r="D785">
+        <v>167</v>
+      </c>
+      <c r="E785">
+        <v>28</v>
+      </c>
+      <c r="F785">
+        <v>24.39</v>
+      </c>
+      <c r="G785">
+        <v>53.45</v>
+      </c>
+      <c r="H785">
+        <v>28</v>
+      </c>
+      <c r="I785">
+        <v>30.91</v>
+      </c>
+      <c r="J785">
+        <v>2024</v>
+      </c>
+      <c r="K785" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="786" spans="1:11">
+      <c r="A786" t="s">
+        <v>467</v>
+      </c>
+      <c r="B786" t="s">
+        <v>626</v>
+      </c>
+      <c r="C786" t="s">
+        <v>792</v>
+      </c>
+      <c r="D786">
+        <v>166</v>
+      </c>
+      <c r="E786">
+        <v>46</v>
+      </c>
+      <c r="F786">
+        <v>29.27</v>
+      </c>
+      <c r="G786">
+        <v>37.93</v>
+      </c>
+      <c r="H786">
+        <v>20</v>
+      </c>
+      <c r="I786">
+        <v>30.91</v>
+      </c>
+      <c r="J786">
+        <v>2024</v>
+      </c>
+      <c r="K786" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="787" spans="1:11">
+      <c r="A787" t="s">
+        <v>467</v>
+      </c>
+      <c r="B787" t="s">
+        <v>627</v>
+      </c>
+      <c r="C787" t="s">
+        <v>793</v>
+      </c>
+      <c r="D787">
+        <v>166</v>
+      </c>
+      <c r="E787">
+        <v>18</v>
+      </c>
+      <c r="F787">
+        <v>51.22</v>
+      </c>
+      <c r="G787">
+        <v>34.479999999999997</v>
+      </c>
+      <c r="H787">
+        <v>28</v>
+      </c>
+      <c r="I787">
+        <v>36.36</v>
+      </c>
+      <c r="J787">
+        <v>2024</v>
+      </c>
+      <c r="K787" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="788" spans="1:11">
+      <c r="A788" t="s">
+        <v>467</v>
+      </c>
+      <c r="B788" t="s">
+        <v>628</v>
+      </c>
+      <c r="C788" t="s">
+        <v>794</v>
+      </c>
+      <c r="D788">
+        <v>157</v>
+      </c>
+      <c r="E788">
+        <v>30</v>
+      </c>
+      <c r="F788">
+        <v>34.15</v>
+      </c>
+      <c r="G788">
+        <v>32.76</v>
+      </c>
+      <c r="H788">
+        <v>30</v>
+      </c>
+      <c r="I788">
+        <v>25.45</v>
+      </c>
+      <c r="J788">
+        <v>2024</v>
+      </c>
+      <c r="K788" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="789" spans="1:11">
+      <c r="A789" t="s">
+        <v>467</v>
+      </c>
+      <c r="B789" t="s">
+        <v>629</v>
+      </c>
+      <c r="C789" t="s">
+        <v>795</v>
+      </c>
+      <c r="D789">
+        <v>157</v>
+      </c>
+      <c r="E789">
+        <v>24</v>
+      </c>
+      <c r="F789">
+        <v>29.27</v>
+      </c>
+      <c r="G789">
+        <v>31.03</v>
+      </c>
+      <c r="H789">
+        <v>42</v>
+      </c>
+      <c r="I789">
+        <v>27.27</v>
+      </c>
+      <c r="J789">
+        <v>2024</v>
+      </c>
+      <c r="K789" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="790" spans="1:11">
+      <c r="A790" t="s">
+        <v>467</v>
+      </c>
+      <c r="B790" t="s">
+        <v>630</v>
+      </c>
+      <c r="C790" t="s">
+        <v>796</v>
+      </c>
+      <c r="D790">
+        <v>156</v>
+      </c>
+      <c r="E790">
+        <v>26</v>
+      </c>
+      <c r="F790">
+        <v>31.71</v>
+      </c>
+      <c r="G790">
+        <v>37.93</v>
+      </c>
+      <c r="H790">
+        <v>32</v>
+      </c>
+      <c r="I790">
+        <v>21.82</v>
+      </c>
+      <c r="J790">
+        <v>2024</v>
+      </c>
+      <c r="K790" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="791" spans="1:11">
+      <c r="A791" t="s">
+        <v>467</v>
+      </c>
+      <c r="B791" t="s">
+        <v>631</v>
+      </c>
+      <c r="C791" t="s">
+        <v>797</v>
+      </c>
+      <c r="D791">
+        <v>144</v>
+      </c>
+      <c r="E791">
+        <v>24</v>
+      </c>
+      <c r="F791">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G791">
+        <v>25.86</v>
+      </c>
+      <c r="H791">
+        <v>26</v>
+      </c>
+      <c r="I791">
+        <v>36.36</v>
+      </c>
+      <c r="J791">
+        <v>2024</v>
+      </c>
+      <c r="K791" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="792" spans="1:11">
+      <c r="A792" t="s">
+        <v>467</v>
+      </c>
+      <c r="B792" t="s">
+        <v>632</v>
+      </c>
+      <c r="C792" t="s">
+        <v>798</v>
+      </c>
+      <c r="D792">
+        <v>130</v>
+      </c>
+      <c r="E792">
+        <v>18</v>
+      </c>
+      <c r="F792">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="G792">
+        <v>25.86</v>
+      </c>
+      <c r="H792">
+        <v>24</v>
+      </c>
+      <c r="I792">
+        <v>23.64</v>
+      </c>
+      <c r="J792">
+        <v>2024</v>
+      </c>
+      <c r="K792" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="793" spans="1:11">
+      <c r="A793" t="s">
+        <v>467</v>
+      </c>
+      <c r="B793" t="s">
+        <v>633</v>
+      </c>
+      <c r="C793" t="s">
+        <v>799</v>
+      </c>
+      <c r="D793">
+        <v>93</v>
+      </c>
+      <c r="E793">
+        <v>8</v>
+      </c>
+      <c r="F793">
+        <v>41.46</v>
+      </c>
+      <c r="G793">
+        <v>18.97</v>
+      </c>
+      <c r="H793">
+        <v>12</v>
+      </c>
+      <c r="I793">
+        <v>0</v>
+      </c>
+      <c r="J793">
+        <v>2024</v>
+      </c>
+      <c r="K793" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="797" spans="1:11">
+      <c r="I797" s="6"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:K581" xr:uid="{F320DEFD-E675-4434-9FAA-F3C254001E23}"/>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Resultados_Simulacro_ICFES.xlsx
+++ b/Resultados_Simulacro_ICFES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Project_Python\rs_icfes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E809B118-D68C-4849-801E-CA74231F165A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3FEB7D5-2B05-4717-8004-E92D6F704A58}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E084411A-0BE6-4F73-A93C-EC29D2242342}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2731" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2730" uniqueCount="799">
   <si>
     <t>Grupo</t>
   </si>
@@ -1927,9 +1927,6 @@
   </si>
   <si>
     <t>1038805112</t>
-  </si>
-  <si>
-    <t>1102578092</t>
   </si>
   <si>
     <t>VARGAS GONZALEZ KEREN</t>
@@ -2834,7 +2831,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A784" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I797" sqref="I797"/>
+      <selection pane="bottomLeft" activeCell="B793" sqref="B793"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -24109,7 +24106,7 @@
         <v>468</v>
       </c>
       <c r="C628" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D628">
         <v>324</v>
@@ -24144,7 +24141,7 @@
         <v>469</v>
       </c>
       <c r="C629" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D629">
         <v>306</v>
@@ -24179,7 +24176,7 @@
         <v>470</v>
       </c>
       <c r="C630" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D630">
         <v>294</v>
@@ -24214,7 +24211,7 @@
         <v>471</v>
       </c>
       <c r="C631" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D631">
         <v>283</v>
@@ -24249,7 +24246,7 @@
         <v>472</v>
       </c>
       <c r="C632" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D632">
         <v>281</v>
@@ -24284,7 +24281,7 @@
         <v>473</v>
       </c>
       <c r="C633" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D633">
         <v>278</v>
@@ -24319,7 +24316,7 @@
         <v>474</v>
       </c>
       <c r="C634" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D634">
         <v>271</v>
@@ -24354,7 +24351,7 @@
         <v>475</v>
       </c>
       <c r="C635" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D635">
         <v>267</v>
@@ -24389,7 +24386,7 @@
         <v>476</v>
       </c>
       <c r="C636" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D636">
         <v>261</v>
@@ -24424,7 +24421,7 @@
         <v>477</v>
       </c>
       <c r="C637" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D637">
         <v>257</v>
@@ -24459,7 +24456,7 @@
         <v>478</v>
       </c>
       <c r="C638" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D638">
         <v>256</v>
@@ -24494,7 +24491,7 @@
         <v>479</v>
       </c>
       <c r="C639" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D639">
         <v>247</v>
@@ -24529,7 +24526,7 @@
         <v>480</v>
       </c>
       <c r="C640" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D640">
         <v>245</v>
@@ -24564,7 +24561,7 @@
         <v>481</v>
       </c>
       <c r="C641" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D641">
         <v>234</v>
@@ -24599,7 +24596,7 @@
         <v>482</v>
       </c>
       <c r="C642" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D642">
         <v>230</v>
@@ -24634,7 +24631,7 @@
         <v>483</v>
       </c>
       <c r="C643" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D643">
         <v>229</v>
@@ -24669,7 +24666,7 @@
         <v>484</v>
       </c>
       <c r="C644" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D644">
         <v>223</v>
@@ -24704,7 +24701,7 @@
         <v>485</v>
       </c>
       <c r="C645" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D645">
         <v>215</v>
@@ -24739,7 +24736,7 @@
         <v>486</v>
       </c>
       <c r="C646" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D646">
         <v>210</v>
@@ -24774,7 +24771,7 @@
         <v>487</v>
       </c>
       <c r="C647" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D647">
         <v>205</v>
@@ -24809,7 +24806,7 @@
         <v>488</v>
       </c>
       <c r="C648" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D648">
         <v>203</v>
@@ -24844,7 +24841,7 @@
         <v>489</v>
       </c>
       <c r="C649" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D649">
         <v>202</v>
@@ -24879,7 +24876,7 @@
         <v>490</v>
       </c>
       <c r="C650" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D650">
         <v>193</v>
@@ -24914,7 +24911,7 @@
         <v>491</v>
       </c>
       <c r="C651" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D651">
         <v>184</v>
@@ -24949,7 +24946,7 @@
         <v>492</v>
       </c>
       <c r="C652" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D652">
         <v>181</v>
@@ -24984,7 +24981,7 @@
         <v>493</v>
       </c>
       <c r="C653" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D653">
         <v>165</v>
@@ -25019,7 +25016,7 @@
         <v>494</v>
       </c>
       <c r="C654" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D654">
         <v>155</v>
@@ -25054,7 +25051,7 @@
         <v>495</v>
       </c>
       <c r="C655" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D655">
         <v>149</v>
@@ -25089,7 +25086,7 @@
         <v>496</v>
       </c>
       <c r="C656" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D656">
         <v>141</v>
@@ -25124,7 +25121,7 @@
         <v>497</v>
       </c>
       <c r="C657" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D657">
         <v>132</v>
@@ -25159,7 +25156,7 @@
         <v>498</v>
       </c>
       <c r="C658" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D658">
         <v>340</v>
@@ -25194,7 +25191,7 @@
         <v>499</v>
       </c>
       <c r="C659" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D659">
         <v>273</v>
@@ -25229,7 +25226,7 @@
         <v>500</v>
       </c>
       <c r="C660" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D660">
         <v>269</v>
@@ -25264,7 +25261,7 @@
         <v>501</v>
       </c>
       <c r="C661" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D661">
         <v>261</v>
@@ -25299,7 +25296,7 @@
         <v>502</v>
       </c>
       <c r="C662" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D662">
         <v>257</v>
@@ -25334,7 +25331,7 @@
         <v>503</v>
       </c>
       <c r="C663" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D663">
         <v>245</v>
@@ -25369,7 +25366,7 @@
         <v>504</v>
       </c>
       <c r="C664" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D664">
         <v>239</v>
@@ -25404,7 +25401,7 @@
         <v>505</v>
       </c>
       <c r="C665" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D665">
         <v>237</v>
@@ -25439,7 +25436,7 @@
         <v>506</v>
       </c>
       <c r="C666" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D666">
         <v>230</v>
@@ -25474,7 +25471,7 @@
         <v>507</v>
       </c>
       <c r="C667" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D667">
         <v>226</v>
@@ -25509,7 +25506,7 @@
         <v>508</v>
       </c>
       <c r="C668" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D668">
         <v>225</v>
@@ -25544,7 +25541,7 @@
         <v>509</v>
       </c>
       <c r="C669" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D669">
         <v>220</v>
@@ -25579,7 +25576,7 @@
         <v>510</v>
       </c>
       <c r="C670" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D670">
         <v>217</v>
@@ -25614,7 +25611,7 @@
         <v>511</v>
       </c>
       <c r="C671" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D671">
         <v>214</v>
@@ -25649,7 +25646,7 @@
         <v>512</v>
       </c>
       <c r="C672" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D672">
         <v>212</v>
@@ -25684,7 +25681,7 @@
         <v>513</v>
       </c>
       <c r="C673" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D673">
         <v>211</v>
@@ -25719,7 +25716,7 @@
         <v>514</v>
       </c>
       <c r="C674" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D674">
         <v>209</v>
@@ -25754,7 +25751,7 @@
         <v>515</v>
       </c>
       <c r="C675" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D675">
         <v>208</v>
@@ -25789,7 +25786,7 @@
         <v>516</v>
       </c>
       <c r="C676" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D676">
         <v>205</v>
@@ -25824,7 +25821,7 @@
         <v>517</v>
       </c>
       <c r="C677" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D677">
         <v>204</v>
@@ -25859,7 +25856,7 @@
         <v>518</v>
       </c>
       <c r="C678" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D678">
         <v>200</v>
@@ -25894,7 +25891,7 @@
         <v>519</v>
       </c>
       <c r="C679" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D679">
         <v>200</v>
@@ -25929,7 +25926,7 @@
         <v>520</v>
       </c>
       <c r="C680" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D680">
         <v>197</v>
@@ -25964,7 +25961,7 @@
         <v>521</v>
       </c>
       <c r="C681" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D681">
         <v>195</v>
@@ -25999,7 +25996,7 @@
         <v>522</v>
       </c>
       <c r="C682" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D682">
         <v>194</v>
@@ -26034,7 +26031,7 @@
         <v>523</v>
       </c>
       <c r="C683" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D683">
         <v>193</v>
@@ -26069,7 +26066,7 @@
         <v>524</v>
       </c>
       <c r="C684" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D684">
         <v>190</v>
@@ -26104,7 +26101,7 @@
         <v>525</v>
       </c>
       <c r="C685" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D685">
         <v>190</v>
@@ -26139,7 +26136,7 @@
         <v>526</v>
       </c>
       <c r="C686" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D686">
         <v>188</v>
@@ -26174,7 +26171,7 @@
         <v>527</v>
       </c>
       <c r="C687" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D687">
         <v>182</v>
@@ -26209,7 +26206,7 @@
         <v>528</v>
       </c>
       <c r="C688" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D688">
         <v>144</v>
@@ -26244,7 +26241,7 @@
         <v>529</v>
       </c>
       <c r="C689" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D689">
         <v>341</v>
@@ -26279,7 +26276,7 @@
         <v>530</v>
       </c>
       <c r="C690" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D690">
         <v>317</v>
@@ -26314,7 +26311,7 @@
         <v>531</v>
       </c>
       <c r="C691" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D691">
         <v>310</v>
@@ -26349,7 +26346,7 @@
         <v>532</v>
       </c>
       <c r="C692" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D692">
         <v>267</v>
@@ -26384,7 +26381,7 @@
         <v>533</v>
       </c>
       <c r="C693" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D693">
         <v>266</v>
@@ -26419,7 +26416,7 @@
         <v>534</v>
       </c>
       <c r="C694" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D694">
         <v>264</v>
@@ -26454,7 +26451,7 @@
         <v>535</v>
       </c>
       <c r="C695" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D695">
         <v>260</v>
@@ -26489,7 +26486,7 @@
         <v>536</v>
       </c>
       <c r="C696" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D696">
         <v>260</v>
@@ -26524,7 +26521,7 @@
         <v>537</v>
       </c>
       <c r="C697" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D697">
         <v>252</v>
@@ -26559,7 +26556,7 @@
         <v>538</v>
       </c>
       <c r="C698" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D698">
         <v>233</v>
@@ -26594,7 +26591,7 @@
         <v>539</v>
       </c>
       <c r="C699" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D699">
         <v>231</v>
@@ -26629,7 +26626,7 @@
         <v>540</v>
       </c>
       <c r="C700" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D700">
         <v>230</v>
@@ -26664,7 +26661,7 @@
         <v>541</v>
       </c>
       <c r="C701" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D701">
         <v>228</v>
@@ -26699,7 +26696,7 @@
         <v>542</v>
       </c>
       <c r="C702" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D702">
         <v>221</v>
@@ -26734,7 +26731,7 @@
         <v>543</v>
       </c>
       <c r="C703" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D703">
         <v>214</v>
@@ -26769,7 +26766,7 @@
         <v>544</v>
       </c>
       <c r="C704" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D704">
         <v>204</v>
@@ -26804,7 +26801,7 @@
         <v>545</v>
       </c>
       <c r="C705" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D705">
         <v>201</v>
@@ -26839,7 +26836,7 @@
         <v>546</v>
       </c>
       <c r="C706" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D706">
         <v>200</v>
@@ -26874,7 +26871,7 @@
         <v>547</v>
       </c>
       <c r="C707" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D707">
         <v>199</v>
@@ -26909,7 +26906,7 @@
         <v>548</v>
       </c>
       <c r="C708" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D708">
         <v>197</v>
@@ -26944,7 +26941,7 @@
         <v>549</v>
       </c>
       <c r="C709" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D709">
         <v>192</v>
@@ -26979,7 +26976,7 @@
         <v>550</v>
       </c>
       <c r="C710" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D710">
         <v>187</v>
@@ -27014,7 +27011,7 @@
         <v>551</v>
       </c>
       <c r="C711" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D711">
         <v>187</v>
@@ -27049,7 +27046,7 @@
         <v>552</v>
       </c>
       <c r="C712" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D712">
         <v>182</v>
@@ -27084,7 +27081,7 @@
         <v>553</v>
       </c>
       <c r="C713" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D713">
         <v>175</v>
@@ -27119,7 +27116,7 @@
         <v>554</v>
       </c>
       <c r="C714" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D714">
         <v>172</v>
@@ -27154,7 +27151,7 @@
         <v>555</v>
       </c>
       <c r="C715" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D715">
         <v>170</v>
@@ -27189,7 +27186,7 @@
         <v>556</v>
       </c>
       <c r="C716" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D716">
         <v>157</v>
@@ -27224,7 +27221,7 @@
         <v>557</v>
       </c>
       <c r="C717" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D717">
         <v>154</v>
@@ -27259,7 +27256,7 @@
         <v>558</v>
       </c>
       <c r="C718" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D718">
         <v>154</v>
@@ -27294,7 +27291,7 @@
         <v>559</v>
       </c>
       <c r="C719" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D719">
         <v>154</v>
@@ -27329,7 +27326,7 @@
         <v>560</v>
       </c>
       <c r="C720" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D720">
         <v>139</v>
@@ -27364,7 +27361,7 @@
         <v>561</v>
       </c>
       <c r="C721" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D721">
         <v>130</v>
@@ -27399,7 +27396,7 @@
         <v>562</v>
       </c>
       <c r="C722" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D722">
         <v>343</v>
@@ -27434,7 +27431,7 @@
         <v>563</v>
       </c>
       <c r="C723" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D723">
         <v>338</v>
@@ -27469,7 +27466,7 @@
         <v>564</v>
       </c>
       <c r="C724" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D724">
         <v>323</v>
@@ -27504,7 +27501,7 @@
         <v>565</v>
       </c>
       <c r="C725" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D725">
         <v>322</v>
@@ -27539,7 +27536,7 @@
         <v>566</v>
       </c>
       <c r="C726" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D726">
         <v>317</v>
@@ -27574,7 +27571,7 @@
         <v>567</v>
       </c>
       <c r="C727" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D727">
         <v>294</v>
@@ -27609,7 +27606,7 @@
         <v>568</v>
       </c>
       <c r="C728" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D728">
         <v>290</v>
@@ -27644,7 +27641,7 @@
         <v>569</v>
       </c>
       <c r="C729" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D729">
         <v>284</v>
@@ -27679,7 +27676,7 @@
         <v>570</v>
       </c>
       <c r="C730" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D730">
         <v>283</v>
@@ -27714,7 +27711,7 @@
         <v>571</v>
       </c>
       <c r="C731" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D731">
         <v>281</v>
@@ -27749,7 +27746,7 @@
         <v>572</v>
       </c>
       <c r="C732" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D732">
         <v>258</v>
@@ -27784,7 +27781,7 @@
         <v>573</v>
       </c>
       <c r="C733" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D733">
         <v>252</v>
@@ -27819,7 +27816,7 @@
         <v>574</v>
       </c>
       <c r="C734" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D734">
         <v>247</v>
@@ -27854,7 +27851,7 @@
         <v>575</v>
       </c>
       <c r="C735" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D735">
         <v>246</v>
@@ -27889,7 +27886,7 @@
         <v>576</v>
       </c>
       <c r="C736" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D736">
         <v>244</v>
@@ -27924,7 +27921,7 @@
         <v>577</v>
       </c>
       <c r="C737" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D737">
         <v>238</v>
@@ -27959,7 +27956,7 @@
         <v>578</v>
       </c>
       <c r="C738" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D738">
         <v>229</v>
@@ -27994,7 +27991,7 @@
         <v>579</v>
       </c>
       <c r="C739" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D739">
         <v>221</v>
@@ -28029,7 +28026,7 @@
         <v>580</v>
       </c>
       <c r="C740" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D740">
         <v>221</v>
@@ -28064,7 +28061,7 @@
         <v>581</v>
       </c>
       <c r="C741" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D741">
         <v>210</v>
@@ -28099,7 +28096,7 @@
         <v>582</v>
       </c>
       <c r="C742" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D742">
         <v>206</v>
@@ -28134,7 +28131,7 @@
         <v>583</v>
       </c>
       <c r="C743" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D743">
         <v>203</v>
@@ -28169,7 +28166,7 @@
         <v>584</v>
       </c>
       <c r="C744" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D744">
         <v>200</v>
@@ -28204,7 +28201,7 @@
         <v>585</v>
       </c>
       <c r="C745" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D745">
         <v>196</v>
@@ -28239,7 +28236,7 @@
         <v>586</v>
       </c>
       <c r="C746" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D746">
         <v>196</v>
@@ -28274,7 +28271,7 @@
         <v>587</v>
       </c>
       <c r="C747" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D747">
         <v>194</v>
@@ -28309,7 +28306,7 @@
         <v>588</v>
       </c>
       <c r="C748" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D748">
         <v>190</v>
@@ -28344,7 +28341,7 @@
         <v>589</v>
       </c>
       <c r="C749" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D749">
         <v>187</v>
@@ -28379,7 +28376,7 @@
         <v>590</v>
       </c>
       <c r="C750" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D750">
         <v>187</v>
@@ -28414,7 +28411,7 @@
         <v>591</v>
       </c>
       <c r="C751" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D751">
         <v>173</v>
@@ -28449,7 +28446,7 @@
         <v>592</v>
       </c>
       <c r="C752" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D752">
         <v>169</v>
@@ -28484,7 +28481,7 @@
         <v>593</v>
       </c>
       <c r="C753" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D753">
         <v>166</v>
@@ -28519,7 +28516,7 @@
         <v>594</v>
       </c>
       <c r="C754" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D754">
         <v>148</v>
@@ -28554,7 +28551,7 @@
         <v>595</v>
       </c>
       <c r="C755" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D755">
         <v>144</v>
@@ -28589,7 +28586,7 @@
         <v>596</v>
       </c>
       <c r="C756" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D756">
         <v>137</v>
@@ -28624,7 +28621,7 @@
         <v>597</v>
       </c>
       <c r="C757" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D757">
         <v>131</v>
@@ -28659,7 +28656,7 @@
         <v>598</v>
       </c>
       <c r="C758" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D758">
         <v>351</v>
@@ -28694,7 +28691,7 @@
         <v>599</v>
       </c>
       <c r="C759" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D759">
         <v>282</v>
@@ -28729,7 +28726,7 @@
         <v>600</v>
       </c>
       <c r="C760" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D760">
         <v>273</v>
@@ -28764,7 +28761,7 @@
         <v>601</v>
       </c>
       <c r="C761" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D761">
         <v>258</v>
@@ -28799,7 +28796,7 @@
         <v>602</v>
       </c>
       <c r="C762" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D762">
         <v>253</v>
@@ -28834,7 +28831,7 @@
         <v>603</v>
       </c>
       <c r="C763" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D763">
         <v>248</v>
@@ -28869,7 +28866,7 @@
         <v>604</v>
       </c>
       <c r="C764" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D764">
         <v>244</v>
@@ -28904,7 +28901,7 @@
         <v>605</v>
       </c>
       <c r="C765" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D765">
         <v>241</v>
@@ -28939,7 +28936,7 @@
         <v>606</v>
       </c>
       <c r="C766" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D766">
         <v>229</v>
@@ -28974,7 +28971,7 @@
         <v>607</v>
       </c>
       <c r="C767" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D767">
         <v>223</v>
@@ -29009,7 +29006,7 @@
         <v>608</v>
       </c>
       <c r="C768" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D768">
         <v>221</v>
@@ -29044,7 +29041,7 @@
         <v>609</v>
       </c>
       <c r="C769" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D769">
         <v>216</v>
@@ -29079,7 +29076,7 @@
         <v>610</v>
       </c>
       <c r="C770" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D770">
         <v>211</v>
@@ -29114,7 +29111,7 @@
         <v>611</v>
       </c>
       <c r="C771" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D771">
         <v>210</v>
@@ -29149,7 +29146,7 @@
         <v>612</v>
       </c>
       <c r="C772" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D772">
         <v>209</v>
@@ -29184,7 +29181,7 @@
         <v>613</v>
       </c>
       <c r="C773" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D773">
         <v>201</v>
@@ -29219,7 +29216,7 @@
         <v>614</v>
       </c>
       <c r="C774" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D774">
         <v>200</v>
@@ -29254,7 +29251,7 @@
         <v>615</v>
       </c>
       <c r="C775" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D775">
         <v>198</v>
@@ -29289,7 +29286,7 @@
         <v>616</v>
       </c>
       <c r="C776" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D776">
         <v>190</v>
@@ -29324,7 +29321,7 @@
         <v>617</v>
       </c>
       <c r="C777" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D777">
         <v>190</v>
@@ -29359,7 +29356,7 @@
         <v>618</v>
       </c>
       <c r="C778" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D778">
         <v>186</v>
@@ -29394,7 +29391,7 @@
         <v>619</v>
       </c>
       <c r="C779" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D779">
         <v>184</v>
@@ -29429,7 +29426,7 @@
         <v>620</v>
       </c>
       <c r="C780" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D780">
         <v>179</v>
@@ -29464,7 +29461,7 @@
         <v>621</v>
       </c>
       <c r="C781" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D781">
         <v>173</v>
@@ -29499,7 +29496,7 @@
         <v>622</v>
       </c>
       <c r="C782" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D782">
         <v>168</v>
@@ -29534,7 +29531,7 @@
         <v>623</v>
       </c>
       <c r="C783" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D783">
         <v>168</v>
@@ -29569,7 +29566,7 @@
         <v>624</v>
       </c>
       <c r="C784" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D784">
         <v>168</v>
@@ -29604,7 +29601,7 @@
         <v>625</v>
       </c>
       <c r="C785" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D785">
         <v>167</v>
@@ -29639,7 +29636,7 @@
         <v>626</v>
       </c>
       <c r="C786" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D786">
         <v>166</v>
@@ -29674,7 +29671,7 @@
         <v>627</v>
       </c>
       <c r="C787" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D787">
         <v>166</v>
@@ -29709,7 +29706,7 @@
         <v>628</v>
       </c>
       <c r="C788" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D788">
         <v>157</v>
@@ -29744,7 +29741,7 @@
         <v>629</v>
       </c>
       <c r="C789" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D789">
         <v>157</v>
@@ -29779,7 +29776,7 @@
         <v>630</v>
       </c>
       <c r="C790" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D790">
         <v>156</v>
@@ -29814,7 +29811,7 @@
         <v>631</v>
       </c>
       <c r="C791" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D791">
         <v>144</v>
@@ -29849,7 +29846,7 @@
         <v>632</v>
       </c>
       <c r="C792" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D792">
         <v>130</v>
@@ -29880,11 +29877,11 @@
       <c r="A793" t="s">
         <v>467</v>
       </c>
-      <c r="B793" t="s">
-        <v>633</v>
+      <c r="B793">
+        <v>1102578092</v>
       </c>
       <c r="C793" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D793">
         <v>93</v>

--- a/Resultados_Simulacro_ICFES.xlsx
+++ b/Resultados_Simulacro_ICFES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorios\rs_icfes-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC3A311-88EE-4C19-AF6A-9BFBEB6A5FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1CFB82-5E8E-49AA-BC9E-69F88E3EA8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3718" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4293" uniqueCount="1035">
   <si>
     <t>Grupo</t>
   </si>
@@ -3097,6 +3097,54 @@
   </si>
   <si>
     <t>JARAMILLO MEJIA HERNAN ALONSO</t>
+  </si>
+  <si>
+    <t>1035976436</t>
+  </si>
+  <si>
+    <t>CANO MUÑOZ KAREN</t>
+  </si>
+  <si>
+    <t>1038263559</t>
+  </si>
+  <si>
+    <t>CARDONA RODAS ANA SOFIA</t>
+  </si>
+  <si>
+    <t>COLMENAREZ SALCEDO LISANNYS JACKELINE</t>
+  </si>
+  <si>
+    <t>1097191606</t>
+  </si>
+  <si>
+    <t>PEREZ ACOSTA OSCAR ANDRES</t>
+  </si>
+  <si>
+    <t>1026062163</t>
+  </si>
+  <si>
+    <t>DAVID PULGARIN JUAN FERNANDO</t>
+  </si>
+  <si>
+    <t>1035977696</t>
+  </si>
+  <si>
+    <t>VILLEGAS RESTREPO SOFIA</t>
+  </si>
+  <si>
+    <t>1097190887</t>
+  </si>
+  <si>
+    <t>MANTILLA ARAQUE VALERYN CAMILA</t>
+  </si>
+  <si>
+    <t>CARDENA SERNA DANIEL ANDRES</t>
+  </si>
+  <si>
+    <t>DAVID CASTRILLON MARIA DEL PILAR</t>
+  </si>
+  <si>
+    <t>SILGADO BARBA MARCEDIS</t>
   </si>
 </sst>
 </file>
@@ -3153,7 +3201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3175,6 +3223,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14795,11 +14847,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1064"/>
+  <dimension ref="A1:K1208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1045" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1055" sqref="C1055"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1043" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1200" sqref="G1200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -44742,8 +44794,8 @@
       </c>
     </row>
     <row r="856" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A856" s="2" t="s">
-        <v>412</v>
+      <c r="A856" s="2">
+        <v>1103</v>
       </c>
       <c r="B856" s="2" t="s">
         <v>203</v>
@@ -52738,6 +52790,5046 @@
         <v>2025</v>
       </c>
       <c r="K1064" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:11" ht="15" customHeight="1">
+      <c r="A1065" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>458</v>
+      </c>
+      <c r="D1065">
+        <v>255</v>
+      </c>
+      <c r="E1065" s="9">
+        <v>48.000000999999997</v>
+      </c>
+      <c r="F1065" s="10">
+        <v>46.341464000000002</v>
+      </c>
+      <c r="G1065" s="10">
+        <v>58.620690000000003</v>
+      </c>
+      <c r="H1065" s="10">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="I1065" s="10">
+        <v>81.818181999999993</v>
+      </c>
+      <c r="J1065" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1065" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:11" ht="15" customHeight="1">
+      <c r="A1066" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>473</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>474</v>
+      </c>
+      <c r="D1066">
+        <v>170</v>
+      </c>
+      <c r="E1066" s="9">
+        <v>30.000001000000001</v>
+      </c>
+      <c r="F1066" s="10">
+        <v>31.707318000000001</v>
+      </c>
+      <c r="G1066" s="10">
+        <v>37.931035000000001</v>
+      </c>
+      <c r="H1066" s="10">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="I1066" s="10">
+        <v>34.545454999999997</v>
+      </c>
+      <c r="J1066" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1066" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:11" ht="15" customHeight="1">
+      <c r="A1067" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>547</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>548</v>
+      </c>
+      <c r="D1067">
+        <v>298</v>
+      </c>
+      <c r="E1067" s="9">
+        <v>52.000000999999997</v>
+      </c>
+      <c r="F1067" s="10">
+        <v>68.292682999999997</v>
+      </c>
+      <c r="G1067" s="10">
+        <v>55.172414000000003</v>
+      </c>
+      <c r="H1067" s="10">
+        <v>64.000000999999997</v>
+      </c>
+      <c r="I1067" s="10">
+        <v>54.545454999999997</v>
+      </c>
+      <c r="J1067" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1067" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:11" ht="15" customHeight="1">
+      <c r="A1068" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>439</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>440</v>
+      </c>
+      <c r="D1068">
+        <v>219</v>
+      </c>
+      <c r="E1068" s="9">
+        <v>24.000001000000001</v>
+      </c>
+      <c r="F1068" s="10">
+        <v>56.097560999999999</v>
+      </c>
+      <c r="G1068" s="10">
+        <v>34.482759000000001</v>
+      </c>
+      <c r="H1068" s="10">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="I1068" s="10">
+        <v>45.454546000000001</v>
+      </c>
+      <c r="J1068" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1068" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:11" ht="15" customHeight="1">
+      <c r="A1069" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D1069">
+        <v>231</v>
+      </c>
+      <c r="E1069" s="9">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="F1069" s="10">
+        <v>51.219512999999999</v>
+      </c>
+      <c r="G1069" s="10">
+        <v>55.172414000000003</v>
+      </c>
+      <c r="H1069" s="10">
+        <v>44.000000999999997</v>
+      </c>
+      <c r="I1069" s="10">
+        <v>52.727272999999997</v>
+      </c>
+      <c r="J1069" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1069" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:11" ht="15" customHeight="1">
+      <c r="A1070" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>455</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1070">
+        <v>211</v>
+      </c>
+      <c r="E1070" s="9">
+        <v>26.000001000000001</v>
+      </c>
+      <c r="F1070" s="10">
+        <v>39.024391000000001</v>
+      </c>
+      <c r="G1070" s="10">
+        <v>55.172414000000003</v>
+      </c>
+      <c r="H1070" s="10">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="I1070" s="10">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="J1070" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1070" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:11" ht="15" customHeight="1">
+      <c r="A1071" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D1071">
+        <v>200</v>
+      </c>
+      <c r="E1071" s="9">
+        <v>30.000001000000001</v>
+      </c>
+      <c r="F1071" s="10">
+        <v>51.219512999999999</v>
+      </c>
+      <c r="G1071" s="10">
+        <v>27.586207000000002</v>
+      </c>
+      <c r="H1071" s="10">
+        <v>54.000000999999997</v>
+      </c>
+      <c r="I1071" s="10">
+        <v>30.909091</v>
+      </c>
+      <c r="J1071" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1071" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:11" ht="15" customHeight="1">
+      <c r="A1072" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>672</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1072">
+        <v>135</v>
+      </c>
+      <c r="E1072" s="9">
+        <v>26.000001000000001</v>
+      </c>
+      <c r="F1072" s="10">
+        <v>29.268293</v>
+      </c>
+      <c r="G1072" s="10">
+        <v>31.034483000000002</v>
+      </c>
+      <c r="H1072" s="10">
+        <v>22.000001000000001</v>
+      </c>
+      <c r="I1072" s="10">
+        <v>25.454546000000001</v>
+      </c>
+      <c r="J1072" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1072" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:11" ht="15" customHeight="1">
+      <c r="A1073" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>729</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D1073">
+        <v>217</v>
+      </c>
+      <c r="E1073" s="9">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="F1073" s="10">
+        <v>46.341464000000002</v>
+      </c>
+      <c r="G1073" s="10">
+        <v>56.896552</v>
+      </c>
+      <c r="H1073" s="10">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="I1073" s="10">
+        <v>43.636364</v>
+      </c>
+      <c r="J1073" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1073" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:11" ht="15" customHeight="1">
+      <c r="A1074" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1074">
+        <v>214</v>
+      </c>
+      <c r="E1074" s="9">
+        <v>52.000000999999997</v>
+      </c>
+      <c r="F1074" s="10">
+        <v>34.146341999999997</v>
+      </c>
+      <c r="G1074" s="10">
+        <v>32.758620999999998</v>
+      </c>
+      <c r="H1074" s="10">
+        <v>54.000000999999997</v>
+      </c>
+      <c r="I1074" s="10">
+        <v>36.363636999999997</v>
+      </c>
+      <c r="J1074" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1074" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:11" ht="15" customHeight="1">
+      <c r="A1075" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>733</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>734</v>
+      </c>
+      <c r="D1075">
+        <v>253</v>
+      </c>
+      <c r="E1075" s="9">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="F1075" s="10">
+        <v>48.780487999999998</v>
+      </c>
+      <c r="G1075" s="10">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="H1075" s="10">
+        <v>52.000000999999997</v>
+      </c>
+      <c r="I1075" s="10">
+        <v>54.545454999999997</v>
+      </c>
+      <c r="J1075" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1075" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:11" ht="15" customHeight="1">
+      <c r="A1076" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>691</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>692</v>
+      </c>
+      <c r="D1076">
+        <v>250</v>
+      </c>
+      <c r="E1076" s="9">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="F1076" s="10">
+        <v>43.902439999999999</v>
+      </c>
+      <c r="G1076" s="10">
+        <v>55.172414000000003</v>
+      </c>
+      <c r="H1076" s="10">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="I1076" s="10">
+        <v>52.727272999999997</v>
+      </c>
+      <c r="J1076" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1076" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:11" ht="15" customHeight="1">
+      <c r="A1077" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>721</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>722</v>
+      </c>
+      <c r="D1077">
+        <v>211</v>
+      </c>
+      <c r="E1077" s="9">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="F1077" s="10">
+        <v>43.902439999999999</v>
+      </c>
+      <c r="G1077" s="10">
+        <v>36.206896999999998</v>
+      </c>
+      <c r="H1077" s="10">
+        <v>44.000000999999997</v>
+      </c>
+      <c r="I1077" s="10">
+        <v>54.545454999999997</v>
+      </c>
+      <c r="J1077" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1077" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:11" ht="15" customHeight="1">
+      <c r="A1078" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>427</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1078">
+        <v>268</v>
+      </c>
+      <c r="E1078" s="9">
+        <v>44.000000999999997</v>
+      </c>
+      <c r="F1078" s="10">
+        <v>60.975610000000003</v>
+      </c>
+      <c r="G1078" s="10">
+        <v>56.896552</v>
+      </c>
+      <c r="H1078" s="10">
+        <v>54.000000999999997</v>
+      </c>
+      <c r="I1078" s="10">
+        <v>49.090910000000001</v>
+      </c>
+      <c r="J1078" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1078" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:11" ht="15" customHeight="1">
+      <c r="A1079" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1079">
+        <v>290</v>
+      </c>
+      <c r="E1079" s="9">
+        <v>56.000000999999997</v>
+      </c>
+      <c r="F1079" s="10">
+        <v>58.536586</v>
+      </c>
+      <c r="G1079" s="10">
+        <v>62.068966000000003</v>
+      </c>
+      <c r="H1079" s="10">
+        <v>54.000000999999997</v>
+      </c>
+      <c r="I1079" s="10">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="J1079" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1079" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:11" ht="15" customHeight="1">
+      <c r="A1080" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>463</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1080">
+        <v>180</v>
+      </c>
+      <c r="E1080" s="9">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="F1080" s="10">
+        <v>29.268293</v>
+      </c>
+      <c r="G1080" s="10">
+        <v>37.931035000000001</v>
+      </c>
+      <c r="H1080" s="10">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="I1080" s="10">
+        <v>38.181818999999997</v>
+      </c>
+      <c r="J1080" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1080" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:11" ht="15" customHeight="1">
+      <c r="A1081" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1081">
+        <v>247</v>
+      </c>
+      <c r="E1081" s="9">
+        <v>62.000000999999997</v>
+      </c>
+      <c r="F1081" s="10">
+        <v>53.658537000000003</v>
+      </c>
+      <c r="G1081" s="10">
+        <v>32.758620999999998</v>
+      </c>
+      <c r="H1081" s="10">
+        <v>54.000000999999997</v>
+      </c>
+      <c r="I1081" s="10">
+        <v>34.545454999999997</v>
+      </c>
+      <c r="J1081" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1081" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:11" ht="15" customHeight="1">
+      <c r="A1082" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>468</v>
+      </c>
+      <c r="D1082">
+        <v>179</v>
+      </c>
+      <c r="E1082" s="9">
+        <v>24.000001000000001</v>
+      </c>
+      <c r="F1082" s="10">
+        <v>48.780487999999998</v>
+      </c>
+      <c r="G1082" s="10">
+        <v>29.310345000000002</v>
+      </c>
+      <c r="H1082" s="10">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="I1082" s="10">
+        <v>30.909091</v>
+      </c>
+      <c r="J1082" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1082" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:11" ht="15" customHeight="1">
+      <c r="A1083" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>699</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>700</v>
+      </c>
+      <c r="D1083">
+        <v>276</v>
+      </c>
+      <c r="E1083" s="9">
+        <v>48.000000999999997</v>
+      </c>
+      <c r="F1083" s="10">
+        <v>68.292682999999997</v>
+      </c>
+      <c r="G1083" s="10">
+        <v>44.827587000000001</v>
+      </c>
+      <c r="H1083" s="10">
+        <v>64.000000999999997</v>
+      </c>
+      <c r="I1083" s="10">
+        <v>41.818182</v>
+      </c>
+      <c r="J1083" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1083" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:11" ht="15" customHeight="1">
+      <c r="A1084" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>738</v>
+      </c>
+      <c r="D1084">
+        <v>197</v>
+      </c>
+      <c r="E1084" s="9">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="F1084" s="10">
+        <v>31.707318000000001</v>
+      </c>
+      <c r="G1084" s="10">
+        <v>48.275863000000001</v>
+      </c>
+      <c r="H1084" s="10">
+        <v>30.000001000000001</v>
+      </c>
+      <c r="I1084" s="10">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="J1084" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1084" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:11" ht="15" customHeight="1">
+      <c r="A1085" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>465</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>466</v>
+      </c>
+      <c r="D1085">
+        <v>194</v>
+      </c>
+      <c r="E1085" s="9">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="F1085" s="10">
+        <v>53.658537000000003</v>
+      </c>
+      <c r="G1085" s="10">
+        <v>24.137931999999999</v>
+      </c>
+      <c r="H1085" s="10">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="I1085" s="10">
+        <v>36.363636999999997</v>
+      </c>
+      <c r="J1085" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1085" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:11" ht="15" customHeight="1">
+      <c r="A1086" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>747</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>748</v>
+      </c>
+      <c r="D1086">
+        <v>200</v>
+      </c>
+      <c r="E1086" s="9">
+        <v>28.000001000000001</v>
+      </c>
+      <c r="F1086" s="10">
+        <v>29.268293</v>
+      </c>
+      <c r="G1086" s="10">
+        <v>44.827587000000001</v>
+      </c>
+      <c r="H1086" s="10">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="I1086" s="10">
+        <v>61.818182</v>
+      </c>
+      <c r="J1086" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1086" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:11" ht="15" customHeight="1">
+      <c r="A1087" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>664</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>665</v>
+      </c>
+      <c r="D1087">
+        <v>156</v>
+      </c>
+      <c r="E1087" s="9">
+        <v>12.000000999999999</v>
+      </c>
+      <c r="F1087" s="10">
+        <v>41.463414999999998</v>
+      </c>
+      <c r="G1087" s="10">
+        <v>29.310345000000002</v>
+      </c>
+      <c r="H1087" s="10">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="I1087" s="10">
+        <v>41.818182</v>
+      </c>
+      <c r="J1087" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1087" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:11" ht="15" customHeight="1">
+      <c r="A1088" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>741</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>742</v>
+      </c>
+      <c r="D1088">
+        <v>155</v>
+      </c>
+      <c r="E1088" s="9">
+        <v>26.000001000000001</v>
+      </c>
+      <c r="F1088" s="10">
+        <v>36.585366</v>
+      </c>
+      <c r="G1088" s="10">
+        <v>32.758620999999998</v>
+      </c>
+      <c r="H1088" s="10">
+        <v>24.000001000000001</v>
+      </c>
+      <c r="I1088" s="10">
+        <v>43.636364</v>
+      </c>
+      <c r="J1088" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1088" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:11" ht="15" customHeight="1">
+      <c r="A1089" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>697</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>698</v>
+      </c>
+      <c r="D1089">
+        <v>207</v>
+      </c>
+      <c r="E1089" s="9">
+        <v>22.000001000000001</v>
+      </c>
+      <c r="F1089" s="10">
+        <v>51.219512999999999</v>
+      </c>
+      <c r="G1089" s="10">
+        <v>41.379311000000001</v>
+      </c>
+      <c r="H1089" s="10">
+        <v>52.000000999999997</v>
+      </c>
+      <c r="I1089" s="10">
+        <v>38.181818999999997</v>
+      </c>
+      <c r="J1089" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1089" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:11" ht="15" customHeight="1">
+      <c r="A1090" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>695</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>696</v>
+      </c>
+      <c r="D1090">
+        <v>241</v>
+      </c>
+      <c r="E1090" s="9">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F1090" s="10">
+        <v>51.219512999999999</v>
+      </c>
+      <c r="G1090" s="10">
+        <v>39.655172999999998</v>
+      </c>
+      <c r="H1090" s="10">
+        <v>66.000000999999997</v>
+      </c>
+      <c r="I1090" s="10">
+        <v>45.454546000000001</v>
+      </c>
+      <c r="J1090" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1090" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:11" ht="15" customHeight="1">
+      <c r="A1091" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>707</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>708</v>
+      </c>
+      <c r="D1091">
+        <v>200</v>
+      </c>
+      <c r="E1091" s="9">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="F1091" s="10">
+        <v>31.707318000000001</v>
+      </c>
+      <c r="G1091" s="10">
+        <v>39.655172999999998</v>
+      </c>
+      <c r="H1091" s="10">
+        <v>44.000000999999997</v>
+      </c>
+      <c r="I1091" s="10">
+        <v>70.909091000000004</v>
+      </c>
+      <c r="J1091" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1091" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:11" ht="15" customHeight="1">
+      <c r="A1092" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>459</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>460</v>
+      </c>
+      <c r="D1092">
+        <v>141</v>
+      </c>
+      <c r="E1092" s="9">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="F1092" s="10">
+        <v>29.268293</v>
+      </c>
+      <c r="G1092" s="10">
+        <v>17.241379999999999</v>
+      </c>
+      <c r="H1092" s="10">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="I1092" s="10">
+        <v>27.272728000000001</v>
+      </c>
+      <c r="J1092" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1092" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:11" ht="15" customHeight="1">
+      <c r="A1093" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>445</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>446</v>
+      </c>
+      <c r="D1093">
+        <v>259</v>
+      </c>
+      <c r="E1093" s="9">
+        <v>28.000001000000001</v>
+      </c>
+      <c r="F1093" s="10">
+        <v>60.975610000000003</v>
+      </c>
+      <c r="G1093" s="10">
+        <v>44.827587000000001</v>
+      </c>
+      <c r="H1093" s="10">
+        <v>62.000000999999997</v>
+      </c>
+      <c r="I1093" s="10">
+        <v>85.454545999999993</v>
+      </c>
+      <c r="J1093" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1093" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:11" ht="15" customHeight="1">
+      <c r="A1094" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>725</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>726</v>
+      </c>
+      <c r="D1094">
+        <v>199</v>
+      </c>
+      <c r="E1094" s="9">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F1094" s="10">
+        <v>56.097560999999999</v>
+      </c>
+      <c r="G1094" s="10">
+        <v>25.862069000000002</v>
+      </c>
+      <c r="H1094" s="10">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="I1094" s="10">
+        <v>36.363636999999997</v>
+      </c>
+      <c r="J1094" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1094" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:11" ht="15" customHeight="1">
+      <c r="A1095" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D1095">
+        <v>211</v>
+      </c>
+      <c r="E1095" s="9">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="F1095" s="10">
+        <v>41.463414999999998</v>
+      </c>
+      <c r="G1095" s="10">
+        <v>41.379311000000001</v>
+      </c>
+      <c r="H1095" s="10">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="I1095" s="10">
+        <v>83.636364</v>
+      </c>
+      <c r="J1095" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1095" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:11" ht="15" customHeight="1">
+      <c r="A1096" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>461</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>462</v>
+      </c>
+      <c r="D1096">
+        <v>172</v>
+      </c>
+      <c r="E1096" s="9">
+        <v>22.000001000000001</v>
+      </c>
+      <c r="F1096" s="10">
+        <v>34.146341999999997</v>
+      </c>
+      <c r="G1096" s="10">
+        <v>37.931035000000001</v>
+      </c>
+      <c r="H1096" s="10">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="I1096" s="10">
+        <v>56.363636999999997</v>
+      </c>
+      <c r="J1096" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1096" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:11" ht="15" customHeight="1">
+      <c r="A1097" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>735</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>736</v>
+      </c>
+      <c r="D1097">
+        <v>202</v>
+      </c>
+      <c r="E1097" s="9">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="F1097" s="10">
+        <v>51.219512999999999</v>
+      </c>
+      <c r="G1097" s="10">
+        <v>39.655172999999998</v>
+      </c>
+      <c r="H1097" s="10">
+        <v>28.000001000000001</v>
+      </c>
+      <c r="I1097" s="10">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="J1097" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1097" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:11" ht="15" customHeight="1">
+      <c r="A1098" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>739</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>740</v>
+      </c>
+      <c r="D1098">
+        <v>221</v>
+      </c>
+      <c r="E1098" s="9">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="F1098" s="10">
+        <v>41.463414999999998</v>
+      </c>
+      <c r="G1098" s="10">
+        <v>44.827587000000001</v>
+      </c>
+      <c r="H1098" s="10">
+        <v>48.000000999999997</v>
+      </c>
+      <c r="I1098" s="10">
+        <v>43.636364</v>
+      </c>
+      <c r="J1098" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1098" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:11" ht="15" customHeight="1">
+      <c r="A1099" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1099">
+        <v>260</v>
+      </c>
+      <c r="E1099" s="9">
+        <v>44.000000999999997</v>
+      </c>
+      <c r="F1099" s="10">
+        <v>56.097560999999999</v>
+      </c>
+      <c r="G1099" s="10">
+        <v>53.448276</v>
+      </c>
+      <c r="H1099" s="10">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="I1099" s="10">
+        <v>63.636364</v>
+      </c>
+      <c r="J1099" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1099" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:11" ht="15" customHeight="1">
+      <c r="A1100" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>431</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>432</v>
+      </c>
+      <c r="D1100">
+        <v>279</v>
+      </c>
+      <c r="E1100" s="9">
+        <v>28.000001000000001</v>
+      </c>
+      <c r="F1100" s="10">
+        <v>58.536586</v>
+      </c>
+      <c r="G1100" s="10">
+        <v>67.241380000000007</v>
+      </c>
+      <c r="H1100" s="10">
+        <v>68.000000999999997</v>
+      </c>
+      <c r="I1100" s="10">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="J1100" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1100" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:11" ht="15" customHeight="1">
+      <c r="A1101" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>441</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>442</v>
+      </c>
+      <c r="D1101">
+        <v>281</v>
+      </c>
+      <c r="E1101" s="9">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="F1101" s="10">
+        <v>56.097560999999999</v>
+      </c>
+      <c r="G1101" s="10">
+        <v>67.241380000000007</v>
+      </c>
+      <c r="H1101" s="10">
+        <v>66.000000999999997</v>
+      </c>
+      <c r="I1101" s="10">
+        <v>58.181818999999997</v>
+      </c>
+      <c r="J1101" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1101" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:11" ht="15" customHeight="1">
+      <c r="A1102" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>423</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>424</v>
+      </c>
+      <c r="D1102">
+        <v>266</v>
+      </c>
+      <c r="E1102" s="9">
+        <v>48.000000999999997</v>
+      </c>
+      <c r="F1102" s="10">
+        <v>63.414634999999997</v>
+      </c>
+      <c r="G1102" s="10">
+        <v>44.827587000000001</v>
+      </c>
+      <c r="H1102" s="10">
+        <v>58.000000999999997</v>
+      </c>
+      <c r="I1102" s="10">
+        <v>47.272728000000001</v>
+      </c>
+      <c r="J1102" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1102" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:11" ht="15" customHeight="1">
+      <c r="A1103" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>421</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1103">
+        <v>248</v>
+      </c>
+      <c r="E1103" s="9">
+        <v>30.000001000000001</v>
+      </c>
+      <c r="F1103" s="10">
+        <v>41.463414999999998</v>
+      </c>
+      <c r="G1103" s="10">
+        <v>56.896552</v>
+      </c>
+      <c r="H1103" s="10">
+        <v>66.000000999999997</v>
+      </c>
+      <c r="I1103" s="10">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="J1103" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1103" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:11" ht="15" customHeight="1">
+      <c r="A1104" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>709</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>710</v>
+      </c>
+      <c r="D1104">
+        <v>270</v>
+      </c>
+      <c r="E1104" s="9">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="F1104" s="10">
+        <v>68.292682999999997</v>
+      </c>
+      <c r="G1104" s="10">
+        <v>53.448276</v>
+      </c>
+      <c r="H1104" s="10">
+        <v>52.000000999999997</v>
+      </c>
+      <c r="I1104" s="10">
+        <v>52.727272999999997</v>
+      </c>
+      <c r="J1104" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1104" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:11" ht="15" customHeight="1">
+      <c r="A1105" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>418</v>
+      </c>
+      <c r="D1105">
+        <v>272</v>
+      </c>
+      <c r="E1105" s="9">
+        <v>28.000001000000001</v>
+      </c>
+      <c r="F1105" s="10">
+        <v>53.658537000000003</v>
+      </c>
+      <c r="G1105" s="10">
+        <v>63.793104</v>
+      </c>
+      <c r="H1105" s="10">
+        <v>62.000000999999997</v>
+      </c>
+      <c r="I1105" s="10">
+        <v>83.636364</v>
+      </c>
+      <c r="J1105" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1105" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:11" ht="15" customHeight="1">
+      <c r="A1106" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>420</v>
+      </c>
+      <c r="D1106">
+        <v>305</v>
+      </c>
+      <c r="E1106" s="9">
+        <v>48.000000999999997</v>
+      </c>
+      <c r="F1106" s="10">
+        <v>73.170732000000001</v>
+      </c>
+      <c r="G1106" s="10">
+        <v>51.724138000000004</v>
+      </c>
+      <c r="H1106" s="10">
+        <v>62.000000999999997</v>
+      </c>
+      <c r="I1106" s="10">
+        <v>87.272728000000001</v>
+      </c>
+      <c r="J1106" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1106" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:11" ht="15" customHeight="1">
+      <c r="A1107" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>425</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>426</v>
+      </c>
+      <c r="D1107">
+        <v>220</v>
+      </c>
+      <c r="E1107" s="9">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="F1107" s="10">
+        <v>39.024391000000001</v>
+      </c>
+      <c r="G1107" s="10">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="H1107" s="10">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="I1107" s="10">
+        <v>87.272728000000001</v>
+      </c>
+      <c r="J1107" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1107" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:11" ht="15" customHeight="1">
+      <c r="A1108" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>703</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>704</v>
+      </c>
+      <c r="D1108">
+        <v>271</v>
+      </c>
+      <c r="E1108" s="9">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F1108" s="10">
+        <v>68.292682999999997</v>
+      </c>
+      <c r="G1108" s="10">
+        <v>51.724138000000004</v>
+      </c>
+      <c r="H1108" s="10">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="I1108" s="10">
+        <v>85.454545999999993</v>
+      </c>
+      <c r="J1108" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1108" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:11" ht="15" customHeight="1">
+      <c r="A1109" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>480</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1109">
+        <v>253</v>
+      </c>
+      <c r="E1109" s="9">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="F1109" s="10">
+        <v>70.731707999999998</v>
+      </c>
+      <c r="G1109" s="10">
+        <v>48.275863000000001</v>
+      </c>
+      <c r="H1109" s="10">
+        <v>52.000000999999997</v>
+      </c>
+      <c r="I1109" s="10">
+        <v>41.818182</v>
+      </c>
+      <c r="J1109" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1109" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:11" ht="15" customHeight="1">
+      <c r="A1110" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>530</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>531</v>
+      </c>
+      <c r="D1110">
+        <v>219</v>
+      </c>
+      <c r="E1110" s="9">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="F1110" s="10">
+        <v>39.024391000000001</v>
+      </c>
+      <c r="G1110" s="10">
+        <v>39.655172999999998</v>
+      </c>
+      <c r="H1110" s="10">
+        <v>58.000000999999997</v>
+      </c>
+      <c r="I1110" s="10">
+        <v>38.181818999999997</v>
+      </c>
+      <c r="J1110" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1110" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:11" ht="15" customHeight="1">
+      <c r="A1111" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>479</v>
+      </c>
+      <c r="D1111">
+        <v>335</v>
+      </c>
+      <c r="E1111" s="9">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="F1111" s="10">
+        <v>82.926829999999995</v>
+      </c>
+      <c r="G1111" s="10">
+        <v>70.689655999999999</v>
+      </c>
+      <c r="H1111" s="10">
+        <v>66.000000999999997</v>
+      </c>
+      <c r="I1111" s="10">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="J1111" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1111" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:11" ht="15" customHeight="1">
+      <c r="A1112" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>538</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>539</v>
+      </c>
+      <c r="D1112">
+        <v>181</v>
+      </c>
+      <c r="E1112" s="9">
+        <v>30.000001000000001</v>
+      </c>
+      <c r="F1112" s="10">
+        <v>41.463414999999998</v>
+      </c>
+      <c r="G1112" s="10">
+        <v>25.862069000000002</v>
+      </c>
+      <c r="H1112" s="10">
+        <v>48.000000999999997</v>
+      </c>
+      <c r="I1112" s="10">
+        <v>34.545454999999997</v>
+      </c>
+      <c r="J1112" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1112" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:11" ht="15" customHeight="1">
+      <c r="A1113" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D1113">
+        <v>160</v>
+      </c>
+      <c r="E1113" s="9">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="F1113" s="10">
+        <v>39.024391000000001</v>
+      </c>
+      <c r="G1113" s="10">
+        <v>12.068966</v>
+      </c>
+      <c r="H1113" s="10">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="I1113" s="10">
+        <v>34.545454999999997</v>
+      </c>
+      <c r="J1113" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1113" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:11" ht="15" customHeight="1">
+      <c r="A1114" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>510</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>511</v>
+      </c>
+      <c r="D1114">
+        <v>178</v>
+      </c>
+      <c r="E1114" s="9">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="F1114" s="10">
+        <v>43.902439999999999</v>
+      </c>
+      <c r="G1114" s="10">
+        <v>29.310345000000002</v>
+      </c>
+      <c r="H1114" s="10">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="I1114" s="10">
+        <v>43.636364</v>
+      </c>
+      <c r="J1114" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1114" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:11" ht="15" customHeight="1">
+      <c r="A1115" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>482</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>483</v>
+      </c>
+      <c r="D1115">
+        <v>242</v>
+      </c>
+      <c r="E1115" s="9">
+        <v>44.000000999999997</v>
+      </c>
+      <c r="F1115" s="10">
+        <v>51.219512999999999</v>
+      </c>
+      <c r="G1115" s="10">
+        <v>53.448276</v>
+      </c>
+      <c r="H1115" s="10">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="I1115" s="10">
+        <v>43.636364</v>
+      </c>
+      <c r="J1115" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1115" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:11" ht="15" customHeight="1">
+      <c r="A1116" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>508</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1116">
+        <v>213</v>
+      </c>
+      <c r="E1116" s="9">
+        <v>28.000001000000001</v>
+      </c>
+      <c r="F1116" s="10">
+        <v>53.658537000000003</v>
+      </c>
+      <c r="G1116" s="10">
+        <v>41.379311000000001</v>
+      </c>
+      <c r="H1116" s="10">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="I1116" s="10">
+        <v>58.181818999999997</v>
+      </c>
+      <c r="J1116" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1116" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:11" ht="15" customHeight="1">
+      <c r="A1117" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>532</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>533</v>
+      </c>
+      <c r="D1117">
+        <v>158</v>
+      </c>
+      <c r="E1117" s="9">
+        <v>28.000001000000001</v>
+      </c>
+      <c r="F1117" s="10">
+        <v>36.585366</v>
+      </c>
+      <c r="G1117" s="10">
+        <v>31.034483000000002</v>
+      </c>
+      <c r="H1117" s="10">
+        <v>30.000001000000001</v>
+      </c>
+      <c r="I1117" s="10">
+        <v>32.727272999999997</v>
+      </c>
+      <c r="J1117" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1117" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:11" ht="15" customHeight="1">
+      <c r="A1118" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>489</v>
+      </c>
+      <c r="D1118">
+        <v>230</v>
+      </c>
+      <c r="E1118" s="9">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="F1118" s="10">
+        <v>56.097560999999999</v>
+      </c>
+      <c r="G1118" s="10">
+        <v>37.931035000000001</v>
+      </c>
+      <c r="H1118" s="10">
+        <v>56.000000999999997</v>
+      </c>
+      <c r="I1118" s="10">
+        <v>50.909090999999997</v>
+      </c>
+      <c r="J1118" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1118" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:11" ht="15" customHeight="1">
+      <c r="A1119" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>484</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>485</v>
+      </c>
+      <c r="D1119">
+        <v>270</v>
+      </c>
+      <c r="E1119" s="9">
+        <v>54.000000999999997</v>
+      </c>
+      <c r="F1119" s="10">
+        <v>51.219512999999999</v>
+      </c>
+      <c r="G1119" s="10">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="H1119" s="10">
+        <v>66.000000999999997</v>
+      </c>
+      <c r="I1119" s="10">
+        <v>38.181818999999997</v>
+      </c>
+      <c r="J1119" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1119" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:11" ht="15" customHeight="1">
+      <c r="A1120" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>519</v>
+      </c>
+      <c r="D1120">
+        <v>231</v>
+      </c>
+      <c r="E1120" s="9">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="F1120" s="10">
+        <v>48.780487999999998</v>
+      </c>
+      <c r="G1120" s="10">
+        <v>43.103448999999998</v>
+      </c>
+      <c r="H1120" s="10">
+        <v>58.000000999999997</v>
+      </c>
+      <c r="I1120" s="10">
+        <v>36.363636999999997</v>
+      </c>
+      <c r="J1120" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1120" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:11" ht="15" customHeight="1">
+      <c r="A1121" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>506</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>507</v>
+      </c>
+      <c r="D1121">
+        <v>215</v>
+      </c>
+      <c r="E1121" s="9">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="F1121" s="10">
+        <v>51.219512999999999</v>
+      </c>
+      <c r="G1121" s="10">
+        <v>41.379311000000001</v>
+      </c>
+      <c r="H1121" s="10">
+        <v>44.000000999999997</v>
+      </c>
+      <c r="I1121" s="10">
+        <v>52.727272999999997</v>
+      </c>
+      <c r="J1121" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1121" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:11" ht="15" customHeight="1">
+      <c r="A1122" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1122">
+        <v>224</v>
+      </c>
+      <c r="E1122" s="9">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="F1122" s="10">
+        <v>58.536586</v>
+      </c>
+      <c r="G1122" s="10">
+        <v>46.551724999999998</v>
+      </c>
+      <c r="H1122" s="10">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="I1122" s="10">
+        <v>61.818182</v>
+      </c>
+      <c r="J1122" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1122" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:11" ht="15" customHeight="1">
+      <c r="A1123" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>524</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>525</v>
+      </c>
+      <c r="D1123">
+        <v>229</v>
+      </c>
+      <c r="E1123" s="9">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="F1123" s="10">
+        <v>41.463414999999998</v>
+      </c>
+      <c r="G1123" s="10">
+        <v>44.827587000000001</v>
+      </c>
+      <c r="H1123" s="10">
+        <v>48.000000999999997</v>
+      </c>
+      <c r="I1123" s="10">
+        <v>41.818182</v>
+      </c>
+      <c r="J1123" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1123" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:11" ht="15" customHeight="1">
+      <c r="A1124" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>520</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1124">
+        <v>217</v>
+      </c>
+      <c r="E1124" s="9">
+        <v>52.000000999999997</v>
+      </c>
+      <c r="F1124" s="10">
+        <v>29.268293</v>
+      </c>
+      <c r="G1124" s="10">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="H1124" s="10">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="I1124" s="10">
+        <v>41.818182</v>
+      </c>
+      <c r="J1124" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1124" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:11" ht="15" customHeight="1">
+      <c r="A1125" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>512</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1125">
+        <v>191</v>
+      </c>
+      <c r="E1125" s="9">
+        <v>26.000001000000001</v>
+      </c>
+      <c r="F1125" s="10">
+        <v>48.780487999999998</v>
+      </c>
+      <c r="G1125" s="10">
+        <v>27.586207000000002</v>
+      </c>
+      <c r="H1125" s="10">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="I1125" s="10">
+        <v>69.090909999999994</v>
+      </c>
+      <c r="J1125" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1125" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:11" ht="15" customHeight="1">
+      <c r="A1126" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>486</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>487</v>
+      </c>
+      <c r="D1126">
+        <v>260</v>
+      </c>
+      <c r="E1126" s="9">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F1126" s="10">
+        <v>63.414634999999997</v>
+      </c>
+      <c r="G1126" s="10">
+        <v>44.827587000000001</v>
+      </c>
+      <c r="H1126" s="10">
+        <v>52.000000999999997</v>
+      </c>
+      <c r="I1126" s="10">
+        <v>87.272728000000001</v>
+      </c>
+      <c r="J1126" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1126" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:11" ht="15" customHeight="1">
+      <c r="A1127" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>498</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>499</v>
+      </c>
+      <c r="D1127">
+        <v>217</v>
+      </c>
+      <c r="E1127" s="9">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F1127" s="10">
+        <v>41.463414999999998</v>
+      </c>
+      <c r="G1127" s="10">
+        <v>46.551724999999998</v>
+      </c>
+      <c r="H1127" s="10">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="I1127" s="10">
+        <v>70.909091000000004</v>
+      </c>
+      <c r="J1127" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1127" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:11" ht="15" customHeight="1">
+      <c r="A1128" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>529</v>
+      </c>
+      <c r="D1128">
+        <v>195</v>
+      </c>
+      <c r="E1128" s="9">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="F1128" s="10">
+        <v>34.146341999999997</v>
+      </c>
+      <c r="G1128" s="10">
+        <v>37.931035000000001</v>
+      </c>
+      <c r="H1128" s="10">
+        <v>48.000000999999997</v>
+      </c>
+      <c r="I1128" s="10">
+        <v>49.090910000000001</v>
+      </c>
+      <c r="J1128" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1128" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:11" ht="15" customHeight="1">
+      <c r="A1129" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>490</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>491</v>
+      </c>
+      <c r="D1129">
+        <v>238</v>
+      </c>
+      <c r="E1129" s="9">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="F1129" s="10">
+        <v>51.219512999999999</v>
+      </c>
+      <c r="G1129" s="10">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="H1129" s="10">
+        <v>48.000000999999997</v>
+      </c>
+      <c r="I1129" s="10">
+        <v>49.090910000000001</v>
+      </c>
+      <c r="J1129" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1129" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:11" ht="15" customHeight="1">
+      <c r="A1130" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>516</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>517</v>
+      </c>
+      <c r="D1130">
+        <v>251</v>
+      </c>
+      <c r="E1130" s="9">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="F1130" s="10">
+        <v>56.097560999999999</v>
+      </c>
+      <c r="G1130" s="10">
+        <v>46.551724999999998</v>
+      </c>
+      <c r="H1130" s="10">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="I1130" s="10">
+        <v>85.454545999999993</v>
+      </c>
+      <c r="J1130" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1130" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:11" ht="15" customHeight="1">
+      <c r="A1131" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1131">
+        <v>239</v>
+      </c>
+      <c r="E1131" s="9">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="F1131" s="10">
+        <v>51.219512999999999</v>
+      </c>
+      <c r="G1131" s="10">
+        <v>43.103448999999998</v>
+      </c>
+      <c r="H1131" s="10">
+        <v>52.000000999999997</v>
+      </c>
+      <c r="I1131" s="10">
+        <v>80.000000999999997</v>
+      </c>
+      <c r="J1131" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1131" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:11" ht="15" customHeight="1">
+      <c r="A1132" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>493</v>
+      </c>
+      <c r="D1132">
+        <v>211</v>
+      </c>
+      <c r="E1132" s="9">
+        <v>26.000001000000001</v>
+      </c>
+      <c r="F1132" s="10">
+        <v>43.902439999999999</v>
+      </c>
+      <c r="G1132" s="10">
+        <v>32.758620999999998</v>
+      </c>
+      <c r="H1132" s="10">
+        <v>58.000000999999997</v>
+      </c>
+      <c r="I1132" s="10">
+        <v>65.454545999999993</v>
+      </c>
+      <c r="J1132" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1132" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:11" ht="15" customHeight="1">
+      <c r="A1133" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>504</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1133">
+        <v>201</v>
+      </c>
+      <c r="E1133" s="9">
+        <v>30.000001000000001</v>
+      </c>
+      <c r="F1133" s="10">
+        <v>41.463414999999998</v>
+      </c>
+      <c r="G1133" s="10">
+        <v>43.103448999999998</v>
+      </c>
+      <c r="H1133" s="10">
+        <v>48.000000999999997</v>
+      </c>
+      <c r="I1133" s="10">
+        <v>32.727272999999997</v>
+      </c>
+      <c r="J1133" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1133" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:11" ht="15" customHeight="1">
+      <c r="A1134" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>711</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>712</v>
+      </c>
+      <c r="D1134">
+        <v>235</v>
+      </c>
+      <c r="E1134" s="9">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F1134" s="10">
+        <v>65.853658999999993</v>
+      </c>
+      <c r="G1134" s="10">
+        <v>41.379311000000001</v>
+      </c>
+      <c r="H1134" s="10">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="I1134" s="10">
+        <v>41.818182</v>
+      </c>
+      <c r="J1134" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1134" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:11" ht="15" customHeight="1">
+      <c r="A1135" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>526</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>527</v>
+      </c>
+      <c r="D1135">
+        <v>199</v>
+      </c>
+      <c r="E1135" s="9">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="F1135" s="10">
+        <v>48.780487999999998</v>
+      </c>
+      <c r="G1135" s="10">
+        <v>39.655172999999998</v>
+      </c>
+      <c r="H1135" s="10">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="I1135" s="10">
+        <v>52.727272999999997</v>
+      </c>
+      <c r="J1135" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1135" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:11" ht="15" customHeight="1">
+      <c r="A1136" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>503</v>
+      </c>
+      <c r="D1136">
+        <v>193</v>
+      </c>
+      <c r="E1136" s="9">
+        <v>22.000001000000001</v>
+      </c>
+      <c r="F1136" s="10">
+        <v>51.219512999999999</v>
+      </c>
+      <c r="G1136" s="10">
+        <v>36.206896999999998</v>
+      </c>
+      <c r="H1136" s="10">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="I1136" s="10">
+        <v>58.181818999999997</v>
+      </c>
+      <c r="J1136" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1136" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:11" ht="15" customHeight="1">
+      <c r="A1137" t="s">
+        <v>411</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D1137">
+        <v>233</v>
+      </c>
+      <c r="E1137" s="9">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="F1137" s="10">
+        <v>51.219512999999999</v>
+      </c>
+      <c r="G1137" s="10">
+        <v>32.758620999999998</v>
+      </c>
+      <c r="H1137" s="10">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="I1137" s="10">
+        <v>65.454545999999993</v>
+      </c>
+      <c r="J1137" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1137" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:11" ht="15" customHeight="1">
+      <c r="A1138" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>589</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>590</v>
+      </c>
+      <c r="D1138">
+        <v>180</v>
+      </c>
+      <c r="E1138" s="9">
+        <v>30.000001000000001</v>
+      </c>
+      <c r="F1138" s="10">
+        <v>51.219512999999999</v>
+      </c>
+      <c r="G1138" s="10">
+        <v>17.241379999999999</v>
+      </c>
+      <c r="H1138" s="10">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="I1138" s="10">
+        <v>32.727272999999997</v>
+      </c>
+      <c r="J1138" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1138" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:11" ht="15" customHeight="1">
+      <c r="A1139" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>553</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1139">
+        <v>259</v>
+      </c>
+      <c r="E1139" s="9">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="F1139" s="10">
+        <v>78.048781000000005</v>
+      </c>
+      <c r="G1139" s="10">
+        <v>32.758620999999998</v>
+      </c>
+      <c r="H1139" s="10">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="I1139" s="10">
+        <v>63.636364</v>
+      </c>
+      <c r="J1139" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1139" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:11" ht="15" customHeight="1">
+      <c r="A1140" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>563</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>564</v>
+      </c>
+      <c r="D1140">
+        <v>241</v>
+      </c>
+      <c r="E1140" s="9">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="F1140" s="10">
+        <v>65.853658999999993</v>
+      </c>
+      <c r="G1140" s="10">
+        <v>44.827587000000001</v>
+      </c>
+      <c r="H1140" s="10">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="I1140" s="10">
+        <v>52.727272999999997</v>
+      </c>
+      <c r="J1140" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1140" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:11" ht="15" customHeight="1">
+      <c r="A1141" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>571</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>572</v>
+      </c>
+      <c r="D1141">
+        <v>251</v>
+      </c>
+      <c r="E1141" s="9">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="F1141" s="10">
+        <v>60.975610000000003</v>
+      </c>
+      <c r="G1141" s="10">
+        <v>43.103448999999998</v>
+      </c>
+      <c r="H1141" s="10">
+        <v>54.000000999999997</v>
+      </c>
+      <c r="I1141" s="10">
+        <v>50.909090999999997</v>
+      </c>
+      <c r="J1141" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1141" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:11" ht="15" customHeight="1">
+      <c r="A1142" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>565</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>566</v>
+      </c>
+      <c r="D1142">
+        <v>235</v>
+      </c>
+      <c r="E1142" s="9">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="F1142" s="10">
+        <v>63.414634999999997</v>
+      </c>
+      <c r="G1142" s="10">
+        <v>32.758620999999998</v>
+      </c>
+      <c r="H1142" s="10">
+        <v>56.000000999999997</v>
+      </c>
+      <c r="I1142" s="10">
+        <v>38.181818999999997</v>
+      </c>
+      <c r="J1142" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1142" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:11" ht="15" customHeight="1">
+      <c r="A1143" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>567</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>568</v>
+      </c>
+      <c r="D1143">
+        <v>214</v>
+      </c>
+      <c r="E1143" s="9">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="F1143" s="10">
+        <v>51.219512999999999</v>
+      </c>
+      <c r="G1143" s="10">
+        <v>31.034483000000002</v>
+      </c>
+      <c r="H1143" s="10">
+        <v>58.000000999999997</v>
+      </c>
+      <c r="I1143" s="10">
+        <v>32.727272999999997</v>
+      </c>
+      <c r="J1143" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1143" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:11" ht="15" customHeight="1">
+      <c r="A1144" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1144">
+        <v>284</v>
+      </c>
+      <c r="E1144" s="9">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="F1144" s="10">
+        <v>70.731707999999998</v>
+      </c>
+      <c r="G1144" s="10">
+        <v>58.620690000000003</v>
+      </c>
+      <c r="H1144" s="10">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="I1144" s="10">
+        <v>43.636364</v>
+      </c>
+      <c r="J1144" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1144" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:11" ht="15" customHeight="1">
+      <c r="A1145" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>555</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>556</v>
+      </c>
+      <c r="D1145">
+        <v>254</v>
+      </c>
+      <c r="E1145" s="9">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="F1145" s="10">
+        <v>56.097560999999999</v>
+      </c>
+      <c r="G1145" s="10">
+        <v>43.103448999999998</v>
+      </c>
+      <c r="H1145" s="10">
+        <v>66.000000999999997</v>
+      </c>
+      <c r="I1145" s="10">
+        <v>43.636364</v>
+      </c>
+      <c r="J1145" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1145" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:11" ht="15" customHeight="1">
+      <c r="A1146" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>545</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>546</v>
+      </c>
+      <c r="D1146">
+        <v>312</v>
+      </c>
+      <c r="E1146" s="9">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="F1146" s="10">
+        <v>68.292682999999997</v>
+      </c>
+      <c r="G1146" s="10">
+        <v>62.068966000000003</v>
+      </c>
+      <c r="H1146" s="10">
+        <v>82.000000999999997</v>
+      </c>
+      <c r="I1146" s="10">
+        <v>76.363636999999997</v>
+      </c>
+      <c r="J1146" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1146" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:11" ht="15" customHeight="1">
+      <c r="A1147" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>605</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>606</v>
+      </c>
+      <c r="D1147">
+        <v>138</v>
+      </c>
+      <c r="E1147" s="9">
+        <v>24.000001000000001</v>
+      </c>
+      <c r="F1147" s="10">
+        <v>19.512195999999999</v>
+      </c>
+      <c r="G1147" s="10">
+        <v>31.034483000000002</v>
+      </c>
+      <c r="H1147" s="10">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="I1147" s="10">
+        <v>25.454546000000001</v>
+      </c>
+      <c r="J1147" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1147" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:11" ht="15" customHeight="1">
+      <c r="A1148" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>551</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>552</v>
+      </c>
+      <c r="D1148">
+        <v>271</v>
+      </c>
+      <c r="E1148" s="9">
+        <v>54.000000999999997</v>
+      </c>
+      <c r="F1148" s="10">
+        <v>68.292682999999997</v>
+      </c>
+      <c r="G1148" s="10">
+        <v>36.206896999999998</v>
+      </c>
+      <c r="H1148" s="10">
+        <v>62.000000999999997</v>
+      </c>
+      <c r="I1148" s="10">
+        <v>41.818182</v>
+      </c>
+      <c r="J1148" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1148" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:11" ht="15" customHeight="1">
+      <c r="A1149" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>597</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>598</v>
+      </c>
+      <c r="D1149">
+        <v>193</v>
+      </c>
+      <c r="E1149" s="9">
+        <v>30.000001000000001</v>
+      </c>
+      <c r="F1149" s="10">
+        <v>46.341464000000002</v>
+      </c>
+      <c r="G1149" s="10">
+        <v>37.931035000000001</v>
+      </c>
+      <c r="H1149" s="10">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="I1149" s="10">
+        <v>32.727272999999997</v>
+      </c>
+      <c r="J1149" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1149" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:11" ht="15" customHeight="1">
+      <c r="A1150" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>599</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>600</v>
+      </c>
+      <c r="D1150">
+        <v>314</v>
+      </c>
+      <c r="E1150" s="9">
+        <v>48.000000999999997</v>
+      </c>
+      <c r="F1150" s="10">
+        <v>63.414634999999997</v>
+      </c>
+      <c r="G1150" s="10">
+        <v>62.068966000000003</v>
+      </c>
+      <c r="H1150" s="10">
+        <v>82.000000999999997</v>
+      </c>
+      <c r="I1150" s="10">
+        <v>49.090910000000001</v>
+      </c>
+      <c r="J1150" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1150" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:11" ht="15" customHeight="1">
+      <c r="A1151" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D1151">
+        <v>298</v>
+      </c>
+      <c r="E1151" s="9">
+        <v>52.000000999999997</v>
+      </c>
+      <c r="F1151" s="10">
+        <v>63.414634999999997</v>
+      </c>
+      <c r="G1151" s="10">
+        <v>62.068966000000003</v>
+      </c>
+      <c r="H1151" s="10">
+        <v>68.000000999999997</v>
+      </c>
+      <c r="I1151" s="10">
+        <v>38.181818999999997</v>
+      </c>
+      <c r="J1151" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1151" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:11" ht="15" customHeight="1">
+      <c r="A1152" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>561</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>562</v>
+      </c>
+      <c r="D1152">
+        <v>250</v>
+      </c>
+      <c r="E1152" s="9">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="F1152" s="10">
+        <v>70.731707999999998</v>
+      </c>
+      <c r="G1152" s="10">
+        <v>31.034483000000002</v>
+      </c>
+      <c r="H1152" s="10">
+        <v>62.000000999999997</v>
+      </c>
+      <c r="I1152" s="10">
+        <v>38.181818999999997</v>
+      </c>
+      <c r="J1152" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1152" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:11" ht="15" customHeight="1">
+      <c r="A1153" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>583</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>584</v>
+      </c>
+      <c r="D1153">
+        <v>210</v>
+      </c>
+      <c r="E1153" s="9">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="F1153" s="10">
+        <v>41.463414999999998</v>
+      </c>
+      <c r="G1153" s="10">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="H1153" s="10">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="I1153" s="10">
+        <v>30.909091</v>
+      </c>
+      <c r="J1153" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1153" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:11" ht="15" customHeight="1">
+      <c r="A1154" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>601</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>602</v>
+      </c>
+      <c r="D1154">
+        <v>196</v>
+      </c>
+      <c r="E1154" s="9">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="F1154" s="10">
+        <v>36.585366</v>
+      </c>
+      <c r="G1154" s="10">
+        <v>46.551724999999998</v>
+      </c>
+      <c r="H1154" s="10">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="I1154" s="10">
+        <v>30.909091</v>
+      </c>
+      <c r="J1154" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1154" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:11" ht="15" customHeight="1">
+      <c r="A1155" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>541</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>542</v>
+      </c>
+      <c r="D1155">
+        <v>318</v>
+      </c>
+      <c r="E1155" s="9">
+        <v>62.000000999999997</v>
+      </c>
+      <c r="F1155" s="10">
+        <v>60.975610000000003</v>
+      </c>
+      <c r="G1155" s="10">
+        <v>63.793104</v>
+      </c>
+      <c r="H1155" s="10">
+        <v>70.000000999999997</v>
+      </c>
+      <c r="I1155" s="10">
+        <v>54.545454999999997</v>
+      </c>
+      <c r="J1155" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1155" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:11" ht="15" customHeight="1">
+      <c r="A1156" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>569</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>570</v>
+      </c>
+      <c r="D1156">
+        <v>194</v>
+      </c>
+      <c r="E1156" s="9">
+        <v>30.000001000000001</v>
+      </c>
+      <c r="F1156" s="10">
+        <v>53.658537000000003</v>
+      </c>
+      <c r="G1156" s="10">
+        <v>31.034483000000002</v>
+      </c>
+      <c r="H1156" s="10">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="I1156" s="10">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="J1156" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1156" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:11" ht="15" customHeight="1">
+      <c r="A1157" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>573</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>574</v>
+      </c>
+      <c r="D1157">
+        <v>246</v>
+      </c>
+      <c r="E1157" s="9">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="F1157" s="10">
+        <v>63.414634999999997</v>
+      </c>
+      <c r="G1157" s="10">
+        <v>36.206896999999998</v>
+      </c>
+      <c r="H1157" s="10">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="I1157" s="10">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="J1157" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1157" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:11" ht="15" customHeight="1">
+      <c r="A1158" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>591</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1158">
+        <v>203</v>
+      </c>
+      <c r="E1158" s="9">
+        <v>22.000001000000001</v>
+      </c>
+      <c r="F1158" s="10">
+        <v>56.097560999999999</v>
+      </c>
+      <c r="G1158" s="10">
+        <v>39.655172999999998</v>
+      </c>
+      <c r="H1158" s="10">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="I1158" s="10">
+        <v>36.363636999999997</v>
+      </c>
+      <c r="J1158" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1158" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:11" ht="15" customHeight="1">
+      <c r="A1159" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>595</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>596</v>
+      </c>
+      <c r="D1159">
+        <v>252</v>
+      </c>
+      <c r="E1159" s="9">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="F1159" s="10">
+        <v>46.341464000000002</v>
+      </c>
+      <c r="G1159" s="10">
+        <v>62.068966000000003</v>
+      </c>
+      <c r="H1159" s="10">
+        <v>54.000000999999997</v>
+      </c>
+      <c r="I1159" s="10">
+        <v>47.272728000000001</v>
+      </c>
+      <c r="J1159" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1159" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:11" ht="15" customHeight="1">
+      <c r="A1160" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>577</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>578</v>
+      </c>
+      <c r="D1160">
+        <v>273</v>
+      </c>
+      <c r="E1160" s="9">
+        <v>48.000000999999997</v>
+      </c>
+      <c r="F1160" s="10">
+        <v>58.536586</v>
+      </c>
+      <c r="G1160" s="10">
+        <v>48.275863000000001</v>
+      </c>
+      <c r="H1160" s="10">
+        <v>64.000000999999997</v>
+      </c>
+      <c r="I1160" s="10">
+        <v>52.727272999999997</v>
+      </c>
+      <c r="J1160" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1160" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:11" ht="15" customHeight="1">
+      <c r="A1161" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>593</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>594</v>
+      </c>
+      <c r="D1161">
+        <v>160</v>
+      </c>
+      <c r="E1161" s="9">
+        <v>28.000001000000001</v>
+      </c>
+      <c r="F1161" s="10">
+        <v>31.707318000000001</v>
+      </c>
+      <c r="G1161" s="10">
+        <v>37.931035000000001</v>
+      </c>
+      <c r="H1161" s="10">
+        <v>30.000001000000001</v>
+      </c>
+      <c r="I1161" s="10">
+        <v>32.727272999999997</v>
+      </c>
+      <c r="J1161" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1161" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:11" ht="15" customHeight="1">
+      <c r="A1162" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>579</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>580</v>
+      </c>
+      <c r="D1162">
+        <v>222</v>
+      </c>
+      <c r="E1162" s="9">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="F1162" s="10">
+        <v>51.219512999999999</v>
+      </c>
+      <c r="G1162" s="10">
+        <v>51.724138000000004</v>
+      </c>
+      <c r="H1162" s="10">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="I1162" s="10">
+        <v>32.727272999999997</v>
+      </c>
+      <c r="J1162" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1162" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:11" ht="15" customHeight="1">
+      <c r="A1163" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>575</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>576</v>
+      </c>
+      <c r="D1163">
+        <v>272</v>
+      </c>
+      <c r="E1163" s="9">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="F1163" s="10">
+        <v>60.975610000000003</v>
+      </c>
+      <c r="G1163" s="10">
+        <v>53.448276</v>
+      </c>
+      <c r="H1163" s="10">
+        <v>64.000000999999997</v>
+      </c>
+      <c r="I1163" s="10">
+        <v>32.727272999999997</v>
+      </c>
+      <c r="J1163" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1163" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:11" ht="15" customHeight="1">
+      <c r="A1164" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>557</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>558</v>
+      </c>
+      <c r="D1164">
+        <v>241</v>
+      </c>
+      <c r="E1164" s="9">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="F1164" s="10">
+        <v>63.414634999999997</v>
+      </c>
+      <c r="G1164" s="10">
+        <v>43.103448999999998</v>
+      </c>
+      <c r="H1164" s="10">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="I1164" s="10">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="J1164" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1164" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:11" ht="15" customHeight="1">
+      <c r="A1165" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>582</v>
+      </c>
+      <c r="D1165">
+        <v>274</v>
+      </c>
+      <c r="E1165" s="9">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="F1165" s="10">
+        <v>48.780487999999998</v>
+      </c>
+      <c r="G1165" s="10">
+        <v>58.620690000000003</v>
+      </c>
+      <c r="H1165" s="10">
+        <v>74.000000999999997</v>
+      </c>
+      <c r="I1165" s="10">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="J1165" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1165" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:11" ht="15" customHeight="1">
+      <c r="A1166" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>543</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>544</v>
+      </c>
+      <c r="D1166">
+        <v>350</v>
+      </c>
+      <c r="E1166" s="9">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="F1166" s="10">
+        <v>80.487804999999994</v>
+      </c>
+      <c r="G1166" s="10">
+        <v>70.689655999999999</v>
+      </c>
+      <c r="H1166" s="10">
+        <v>74.000000999999997</v>
+      </c>
+      <c r="I1166" s="10">
+        <v>52.727272999999997</v>
+      </c>
+      <c r="J1166" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1166" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:11" ht="15" customHeight="1">
+      <c r="A1167" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>559</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1167">
+        <v>227</v>
+      </c>
+      <c r="E1167" s="9">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F1167" s="10">
+        <v>48.780487999999998</v>
+      </c>
+      <c r="G1167" s="10">
+        <v>48.275863000000001</v>
+      </c>
+      <c r="H1167" s="10">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="I1167" s="10">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="J1167" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1167" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:11" ht="15" customHeight="1">
+      <c r="A1168" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>587</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>588</v>
+      </c>
+      <c r="D1168">
+        <v>233</v>
+      </c>
+      <c r="E1168" s="9">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="F1168" s="10">
+        <v>51.219512999999999</v>
+      </c>
+      <c r="G1168" s="10">
+        <v>51.724138000000004</v>
+      </c>
+      <c r="H1168" s="10">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="I1168" s="10">
+        <v>30.909091</v>
+      </c>
+      <c r="J1168" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1168" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:11" ht="15" customHeight="1">
+      <c r="A1169" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>586</v>
+      </c>
+      <c r="D1169">
+        <v>272</v>
+      </c>
+      <c r="E1169" s="9">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="F1169" s="10">
+        <v>73.170732000000001</v>
+      </c>
+      <c r="G1169" s="10">
+        <v>43.103448999999998</v>
+      </c>
+      <c r="H1169" s="10">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="I1169" s="10">
+        <v>27.272728000000001</v>
+      </c>
+      <c r="J1169" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1169" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:11" ht="15" customHeight="1">
+      <c r="A1170" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>624</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>625</v>
+      </c>
+      <c r="D1170">
+        <v>290</v>
+      </c>
+      <c r="E1170" s="9">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="F1170" s="10">
+        <v>65.853658999999993</v>
+      </c>
+      <c r="G1170" s="10">
+        <v>51.724138000000004</v>
+      </c>
+      <c r="H1170" s="10">
+        <v>64.000000999999997</v>
+      </c>
+      <c r="I1170" s="10">
+        <v>58.181818999999997</v>
+      </c>
+      <c r="J1170" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1170" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:11" ht="15" customHeight="1">
+      <c r="A1171" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>717</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>718</v>
+      </c>
+      <c r="D1171">
+        <v>256</v>
+      </c>
+      <c r="E1171" s="9">
+        <v>54.000000999999997</v>
+      </c>
+      <c r="F1171" s="10">
+        <v>46.341464000000002</v>
+      </c>
+      <c r="G1171" s="10">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="H1171" s="10">
+        <v>52.000000999999997</v>
+      </c>
+      <c r="I1171" s="10">
+        <v>58.181818999999997</v>
+      </c>
+      <c r="J1171" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1171" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:11" ht="15" customHeight="1">
+      <c r="A1172" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>666</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>667</v>
+      </c>
+      <c r="D1172">
+        <v>223</v>
+      </c>
+      <c r="E1172" s="9">
+        <v>28.000001000000001</v>
+      </c>
+      <c r="F1172" s="10">
+        <v>53.658537000000003</v>
+      </c>
+      <c r="G1172" s="10">
+        <v>44.827587000000001</v>
+      </c>
+      <c r="H1172" s="10">
+        <v>54.000000999999997</v>
+      </c>
+      <c r="I1172" s="10">
+        <v>38.181818999999997</v>
+      </c>
+      <c r="J1172" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1172" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:11" ht="15" customHeight="1">
+      <c r="A1173" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>713</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>714</v>
+      </c>
+      <c r="D1173">
+        <v>222</v>
+      </c>
+      <c r="E1173" s="9">
+        <v>28.000001000000001</v>
+      </c>
+      <c r="F1173" s="10">
+        <v>53.658537000000003</v>
+      </c>
+      <c r="G1173" s="10">
+        <v>34.482759000000001</v>
+      </c>
+      <c r="H1173" s="10">
+        <v>56.000000999999997</v>
+      </c>
+      <c r="I1173" s="10">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="J1173" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1173" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:11" ht="15" customHeight="1">
+      <c r="A1174" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>719</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D1174">
+        <v>178</v>
+      </c>
+      <c r="E1174" s="9">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="F1174" s="10">
+        <v>34.146341999999997</v>
+      </c>
+      <c r="G1174" s="10">
+        <v>25.862069000000002</v>
+      </c>
+      <c r="H1174" s="10">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="I1174" s="10">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="J1174" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1174" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:11" ht="15" customHeight="1">
+      <c r="A1175" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>642</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>643</v>
+      </c>
+      <c r="D1175">
+        <v>222</v>
+      </c>
+      <c r="E1175" s="9">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="F1175" s="10">
+        <v>46.341464000000002</v>
+      </c>
+      <c r="G1175" s="10">
+        <v>41.379311000000001</v>
+      </c>
+      <c r="H1175" s="10">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="I1175" s="10">
+        <v>43.636364</v>
+      </c>
+      <c r="J1175" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1175" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:11" ht="15" customHeight="1">
+      <c r="A1176" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>715</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>716</v>
+      </c>
+      <c r="D1176">
+        <v>224</v>
+      </c>
+      <c r="E1176" s="9">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="F1176" s="10">
+        <v>34.146341999999997</v>
+      </c>
+      <c r="G1176" s="10">
+        <v>43.103448999999998</v>
+      </c>
+      <c r="H1176" s="10">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="I1176" s="10">
+        <v>80.000000999999997</v>
+      </c>
+      <c r="J1176" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1176" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:11" ht="15" customHeight="1">
+      <c r="A1177" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>648</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>649</v>
+      </c>
+      <c r="D1177">
+        <v>252</v>
+      </c>
+      <c r="E1177" s="9">
+        <v>48.000000999999997</v>
+      </c>
+      <c r="F1177" s="10">
+        <v>53.658537000000003</v>
+      </c>
+      <c r="G1177" s="10">
+        <v>44.827587000000001</v>
+      </c>
+      <c r="H1177" s="10">
+        <v>56.000000999999997</v>
+      </c>
+      <c r="I1177" s="10">
+        <v>45.454546000000001</v>
+      </c>
+      <c r="J1177" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1177" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:11" ht="15" customHeight="1">
+      <c r="A1178" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>614</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>615</v>
+      </c>
+      <c r="D1178">
+        <v>327</v>
+      </c>
+      <c r="E1178" s="9">
+        <v>58.000000999999997</v>
+      </c>
+      <c r="F1178" s="10">
+        <v>75.609757000000002</v>
+      </c>
+      <c r="G1178" s="10">
+        <v>58.620690000000003</v>
+      </c>
+      <c r="H1178" s="10">
+        <v>62.000000999999997</v>
+      </c>
+      <c r="I1178" s="10">
+        <v>87.272728000000001</v>
+      </c>
+      <c r="J1178" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1178" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:11" ht="15" customHeight="1">
+      <c r="A1179" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>660</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>661</v>
+      </c>
+      <c r="D1179">
+        <v>208</v>
+      </c>
+      <c r="E1179" s="9">
+        <v>28.000001000000001</v>
+      </c>
+      <c r="F1179" s="10">
+        <v>53.658537000000003</v>
+      </c>
+      <c r="G1179" s="10">
+        <v>44.827587000000001</v>
+      </c>
+      <c r="H1179" s="10">
+        <v>44.000000999999997</v>
+      </c>
+      <c r="I1179" s="10">
+        <v>27.272728000000001</v>
+      </c>
+      <c r="J1179" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1179" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:11" ht="15" customHeight="1">
+      <c r="A1180" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>723</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D1180">
+        <v>230</v>
+      </c>
+      <c r="E1180" s="9">
+        <v>28.000001000000001</v>
+      </c>
+      <c r="F1180" s="10">
+        <v>41.463414999999998</v>
+      </c>
+      <c r="G1180" s="10">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="H1180" s="10">
+        <v>58.000000999999997</v>
+      </c>
+      <c r="I1180" s="10">
+        <v>63.636364</v>
+      </c>
+      <c r="J1180" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1180" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:11" ht="15" customHeight="1">
+      <c r="A1181" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>662</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>663</v>
+      </c>
+      <c r="D1181">
+        <v>309</v>
+      </c>
+      <c r="E1181" s="9">
+        <v>54.000000999999997</v>
+      </c>
+      <c r="F1181" s="10">
+        <v>68.292682999999997</v>
+      </c>
+      <c r="G1181" s="10">
+        <v>56.896552</v>
+      </c>
+      <c r="H1181" s="10">
+        <v>66.000000999999997</v>
+      </c>
+      <c r="I1181" s="10">
+        <v>65.454545999999993</v>
+      </c>
+      <c r="J1181" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1181" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:11" ht="15" customHeight="1">
+      <c r="A1182" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>622</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>623</v>
+      </c>
+      <c r="D1182">
+        <v>231</v>
+      </c>
+      <c r="E1182" s="9">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="F1182" s="10">
+        <v>56.097560999999999</v>
+      </c>
+      <c r="G1182" s="10">
+        <v>34.482759000000001</v>
+      </c>
+      <c r="H1182" s="10">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="I1182" s="10">
+        <v>63.636364</v>
+      </c>
+      <c r="J1182" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1182" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:11" ht="15" customHeight="1">
+      <c r="A1183" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>701</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>702</v>
+      </c>
+      <c r="D1183">
+        <v>218</v>
+      </c>
+      <c r="E1183" s="9">
+        <v>42.000000999999997</v>
+      </c>
+      <c r="F1183" s="10">
+        <v>48.780487999999998</v>
+      </c>
+      <c r="G1183" s="10">
+        <v>32.758620999999998</v>
+      </c>
+      <c r="H1183" s="10">
+        <v>44.000000999999997</v>
+      </c>
+      <c r="I1183" s="10">
+        <v>61.818182</v>
+      </c>
+      <c r="J1183" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1183" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:11" ht="15" customHeight="1">
+      <c r="A1184" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>610</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>611</v>
+      </c>
+      <c r="D1184">
+        <v>343</v>
+      </c>
+      <c r="E1184" s="9">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="F1184" s="10">
+        <v>80.487804999999994</v>
+      </c>
+      <c r="G1184" s="10">
+        <v>63.793104</v>
+      </c>
+      <c r="H1184" s="10">
+        <v>64.000000999999997</v>
+      </c>
+      <c r="I1184" s="10">
+        <v>85.454545999999993</v>
+      </c>
+      <c r="J1184" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1184" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:11" ht="15" customHeight="1">
+      <c r="A1185" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>681</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>682</v>
+      </c>
+      <c r="D1185">
+        <v>357</v>
+      </c>
+      <c r="E1185" s="9">
+        <v>72.000000999999997</v>
+      </c>
+      <c r="F1185" s="10">
+        <v>78.048781000000005</v>
+      </c>
+      <c r="G1185" s="10">
+        <v>75.862069000000005</v>
+      </c>
+      <c r="H1185" s="10">
+        <v>62.000000999999997</v>
+      </c>
+      <c r="I1185" s="10">
+        <v>63.636364</v>
+      </c>
+      <c r="J1185" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1185" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:11" ht="15" customHeight="1">
+      <c r="A1186" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>626</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>627</v>
+      </c>
+      <c r="D1186">
+        <v>299</v>
+      </c>
+      <c r="E1186" s="9">
+        <v>60.000000999999997</v>
+      </c>
+      <c r="F1186" s="10">
+        <v>70.731707999999998</v>
+      </c>
+      <c r="G1186" s="10">
+        <v>56.896552</v>
+      </c>
+      <c r="H1186" s="10">
+        <v>52.000000999999997</v>
+      </c>
+      <c r="I1186" s="10">
+        <v>58.181818999999997</v>
+      </c>
+      <c r="J1186" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1186" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:11" ht="15" customHeight="1">
+      <c r="A1187" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>678</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>679</v>
+      </c>
+      <c r="D1187">
+        <v>200</v>
+      </c>
+      <c r="E1187" s="9">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="F1187" s="10">
+        <v>29.268293</v>
+      </c>
+      <c r="G1187" s="10">
+        <v>51.724138000000004</v>
+      </c>
+      <c r="H1187" s="10">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="I1187" s="10">
+        <v>65.454545999999993</v>
+      </c>
+      <c r="J1187" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1187" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:11" ht="15" customHeight="1">
+      <c r="A1188" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>676</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>677</v>
+      </c>
+      <c r="D1188">
+        <v>155</v>
+      </c>
+      <c r="E1188" s="9">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="F1188" s="10">
+        <v>21.951219999999999</v>
+      </c>
+      <c r="G1188" s="10">
+        <v>29.310345000000002</v>
+      </c>
+      <c r="H1188" s="10">
+        <v>28.000001000000001</v>
+      </c>
+      <c r="I1188" s="10">
+        <v>43.636364</v>
+      </c>
+      <c r="J1188" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1188" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:11" ht="15" customHeight="1">
+      <c r="A1189" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>743</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1189">
+        <v>216</v>
+      </c>
+      <c r="E1189" s="9">
+        <v>28.000001000000001</v>
+      </c>
+      <c r="F1189" s="10">
+        <v>36.585366</v>
+      </c>
+      <c r="G1189" s="10">
+        <v>39.655172999999998</v>
+      </c>
+      <c r="H1189" s="10">
+        <v>58.000000999999997</v>
+      </c>
+      <c r="I1189" s="10">
+        <v>72.727272999999997</v>
+      </c>
+      <c r="J1189" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1189" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:11" ht="15" customHeight="1">
+      <c r="A1190" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>616</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1190">
+        <v>74</v>
+      </c>
+      <c r="E1190" s="9">
+        <v>22.000001000000001</v>
+      </c>
+      <c r="F1190" s="10">
+        <v>19.512195999999999</v>
+      </c>
+      <c r="G1190" s="10">
+        <v>10.344828</v>
+      </c>
+      <c r="H1190" s="10">
+        <v>12.000000999999999</v>
+      </c>
+      <c r="I1190" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J1190" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1190" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:11" ht="15" customHeight="1">
+      <c r="A1191" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>632</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>633</v>
+      </c>
+      <c r="D1191">
+        <v>256</v>
+      </c>
+      <c r="E1191" s="9">
+        <v>28.000001000000001</v>
+      </c>
+      <c r="F1191" s="10">
+        <v>63.414634999999997</v>
+      </c>
+      <c r="G1191" s="10">
+        <v>60.344828</v>
+      </c>
+      <c r="H1191" s="10">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="I1191" s="10">
+        <v>58.181818999999997</v>
+      </c>
+      <c r="J1191" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1191" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:11" ht="15" customHeight="1">
+      <c r="A1192" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>683</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>684</v>
+      </c>
+      <c r="D1192">
+        <v>273</v>
+      </c>
+      <c r="E1192" s="9">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="F1192" s="10">
+        <v>63.414634999999997</v>
+      </c>
+      <c r="G1192" s="10">
+        <v>51.724138000000004</v>
+      </c>
+      <c r="H1192" s="10">
+        <v>52.000000999999997</v>
+      </c>
+      <c r="I1192" s="10">
+        <v>58.181818999999997</v>
+      </c>
+      <c r="J1192" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1192" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:11" ht="15" customHeight="1">
+      <c r="A1193" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>634</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>635</v>
+      </c>
+      <c r="D1193">
+        <v>253</v>
+      </c>
+      <c r="E1193" s="9">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="F1193" s="10">
+        <v>48.780487999999998</v>
+      </c>
+      <c r="G1193" s="10">
+        <v>60.344828</v>
+      </c>
+      <c r="H1193" s="10">
+        <v>54.000000999999997</v>
+      </c>
+      <c r="I1193" s="10">
+        <v>52.727272999999997</v>
+      </c>
+      <c r="J1193" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1193" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:11" ht="15" customHeight="1">
+      <c r="A1194" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>628</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>629</v>
+      </c>
+      <c r="D1194">
+        <v>250</v>
+      </c>
+      <c r="E1194" s="9">
+        <v>24.000001000000001</v>
+      </c>
+      <c r="F1194" s="10">
+        <v>43.902439999999999</v>
+      </c>
+      <c r="G1194" s="10">
+        <v>68.965518000000003</v>
+      </c>
+      <c r="H1194" s="10">
+        <v>62.000000999999997</v>
+      </c>
+      <c r="I1194" s="10">
+        <v>52.727272999999997</v>
+      </c>
+      <c r="J1194" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1194" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:11" ht="15" customHeight="1">
+      <c r="A1195" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>687</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>688</v>
+      </c>
+      <c r="D1195">
+        <v>150</v>
+      </c>
+      <c r="E1195" s="9">
+        <v>32.000000999999997</v>
+      </c>
+      <c r="F1195" s="10">
+        <v>19.512195999999999</v>
+      </c>
+      <c r="G1195" s="10">
+        <v>27.586207000000002</v>
+      </c>
+      <c r="H1195" s="10">
+        <v>44.000000999999997</v>
+      </c>
+      <c r="I1195" s="10">
+        <v>20.000001000000001</v>
+      </c>
+      <c r="J1195" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1195" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:11" ht="15" customHeight="1">
+      <c r="A1196" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>638</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>639</v>
+      </c>
+      <c r="D1196">
+        <v>273</v>
+      </c>
+      <c r="E1196" s="9">
+        <v>48.000000999999997</v>
+      </c>
+      <c r="F1196" s="10">
+        <v>56.097560999999999</v>
+      </c>
+      <c r="G1196" s="10">
+        <v>62.068966000000003</v>
+      </c>
+      <c r="H1196" s="10">
+        <v>52.000000999999997</v>
+      </c>
+      <c r="I1196" s="10">
+        <v>52.727272999999997</v>
+      </c>
+      <c r="J1196" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1196" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:11" ht="15" customHeight="1">
+      <c r="A1197" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>612</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>613</v>
+      </c>
+      <c r="D1197">
+        <v>330</v>
+      </c>
+      <c r="E1197" s="9">
+        <v>56.000000999999997</v>
+      </c>
+      <c r="F1197" s="10">
+        <v>75.609757000000002</v>
+      </c>
+      <c r="G1197" s="10">
+        <v>67.241380000000007</v>
+      </c>
+      <c r="H1197" s="10">
+        <v>62.000000999999997</v>
+      </c>
+      <c r="I1197" s="10">
+        <v>74.545455000000004</v>
+      </c>
+      <c r="J1197" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1197" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:11" ht="15" customHeight="1">
+      <c r="A1198" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>618</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>619</v>
+      </c>
+      <c r="D1198">
+        <v>248</v>
+      </c>
+      <c r="E1198" s="9">
+        <v>22.000001000000001</v>
+      </c>
+      <c r="F1198" s="10">
+        <v>65.853658999999993</v>
+      </c>
+      <c r="G1198" s="10">
+        <v>56.896552</v>
+      </c>
+      <c r="H1198" s="10">
+        <v>56.000000999999997</v>
+      </c>
+      <c r="I1198" s="10">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="J1198" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1198" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:11" ht="15" customHeight="1">
+      <c r="A1199" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>630</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>631</v>
+      </c>
+      <c r="D1199">
+        <v>228</v>
+      </c>
+      <c r="E1199" s="9">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="F1199" s="10">
+        <v>58.536586</v>
+      </c>
+      <c r="G1199" s="10">
+        <v>44.827587000000001</v>
+      </c>
+      <c r="H1199" s="10">
+        <v>38.000000999999997</v>
+      </c>
+      <c r="I1199" s="10">
+        <v>52.727272999999997</v>
+      </c>
+      <c r="J1199" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1199" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:11" ht="15" customHeight="1">
+      <c r="A1200" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>654</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>655</v>
+      </c>
+      <c r="D1200">
+        <v>193</v>
+      </c>
+      <c r="E1200" s="9">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="F1200" s="10">
+        <v>24.390243999999999</v>
+      </c>
+      <c r="G1200" s="10">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="H1200" s="10">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="I1200" s="10">
+        <v>36.363636999999997</v>
+      </c>
+      <c r="J1200" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1200" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:11" ht="15" customHeight="1">
+      <c r="A1201" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>650</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>651</v>
+      </c>
+      <c r="D1201">
+        <v>219</v>
+      </c>
+      <c r="E1201" s="9">
+        <v>36.000000999999997</v>
+      </c>
+      <c r="F1201" s="10">
+        <v>41.463414999999998</v>
+      </c>
+      <c r="G1201" s="10">
+        <v>48.275863000000001</v>
+      </c>
+      <c r="H1201" s="10">
+        <v>50.000000999999997</v>
+      </c>
+      <c r="I1201" s="10">
+        <v>40.000000999999997</v>
+      </c>
+      <c r="J1201" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1201" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:11" ht="15" customHeight="1">
+      <c r="A1202" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>620</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>621</v>
+      </c>
+      <c r="D1202">
+        <v>249</v>
+      </c>
+      <c r="E1202" s="9">
+        <v>24.000001000000001</v>
+      </c>
+      <c r="F1202" s="10">
+        <v>68.292682999999997</v>
+      </c>
+      <c r="G1202" s="10">
+        <v>51.724138000000004</v>
+      </c>
+      <c r="H1202" s="10">
+        <v>52.000000999999997</v>
+      </c>
+      <c r="I1202" s="10">
+        <v>58.181818999999997</v>
+      </c>
+      <c r="J1202" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1202" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:11" ht="15" customHeight="1">
+      <c r="A1203" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D1203">
+        <v>14</v>
+      </c>
+      <c r="E1203" s="9">
+        <v>6.0000010000000001</v>
+      </c>
+      <c r="F1203" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G1203" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="H1203" s="10">
+        <v>6.0000010000000001</v>
+      </c>
+      <c r="I1203" s="10">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="J1203" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1203" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:11" ht="15" customHeight="1">
+      <c r="A1204" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>658</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>659</v>
+      </c>
+      <c r="D1204">
+        <v>218</v>
+      </c>
+      <c r="E1204" s="9">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="F1204" s="10">
+        <v>58.536586</v>
+      </c>
+      <c r="G1204" s="10">
+        <v>36.206896999999998</v>
+      </c>
+      <c r="H1204" s="10">
+        <v>44.000000999999997</v>
+      </c>
+      <c r="I1204" s="10">
+        <v>47.272728000000001</v>
+      </c>
+      <c r="J1204" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1204" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:11" ht="15" customHeight="1">
+      <c r="A1205" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>644</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>645</v>
+      </c>
+      <c r="D1205">
+        <v>182</v>
+      </c>
+      <c r="E1205" s="9">
+        <v>28.000001000000001</v>
+      </c>
+      <c r="F1205" s="10">
+        <v>41.463414999999998</v>
+      </c>
+      <c r="G1205" s="10">
+        <v>34.482759000000001</v>
+      </c>
+      <c r="H1205" s="10">
+        <v>30.000001000000001</v>
+      </c>
+      <c r="I1205" s="10">
+        <v>70.909091000000004</v>
+      </c>
+      <c r="J1205" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1205" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:11" ht="15" customHeight="1">
+      <c r="A1206" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>693</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>694</v>
+      </c>
+      <c r="D1206">
+        <v>260</v>
+      </c>
+      <c r="E1206" s="9">
+        <v>46.000000999999997</v>
+      </c>
+      <c r="F1206" s="10">
+        <v>58.536586</v>
+      </c>
+      <c r="G1206" s="10">
+        <v>48.275863000000001</v>
+      </c>
+      <c r="H1206" s="10">
+        <v>54.000000999999997</v>
+      </c>
+      <c r="I1206" s="10">
+        <v>54.545454999999997</v>
+      </c>
+      <c r="J1206" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1206" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:11" ht="15" customHeight="1">
+      <c r="A1207" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>668</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>669</v>
+      </c>
+      <c r="D1207">
+        <v>176</v>
+      </c>
+      <c r="E1207" s="9">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="F1207" s="10">
+        <v>48.780487999999998</v>
+      </c>
+      <c r="G1207" s="10">
+        <v>24.137931999999999</v>
+      </c>
+      <c r="H1207" s="10">
+        <v>34.000000999999997</v>
+      </c>
+      <c r="I1207" s="10">
+        <v>34.545454999999997</v>
+      </c>
+      <c r="J1207" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1207" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:11" ht="15" customHeight="1">
+      <c r="A1208" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>608</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>609</v>
+      </c>
+      <c r="D1208">
+        <v>348</v>
+      </c>
+      <c r="E1208" s="9">
+        <v>64.000000999999997</v>
+      </c>
+      <c r="F1208" s="10">
+        <v>70.731707999999998</v>
+      </c>
+      <c r="G1208" s="10">
+        <v>74.137932000000006</v>
+      </c>
+      <c r="H1208" s="10">
+        <v>72.000000999999997</v>
+      </c>
+      <c r="I1208" s="10">
+        <v>61.818182</v>
+      </c>
+      <c r="J1208" s="2">
+        <v>2025</v>
+      </c>
+      <c r="K1208" s="2" t="s">
         <v>13</v>
       </c>
     </row>
